--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDDF0073-31F8-48F1-BED4-2970B209C137}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FB35C45-C5A4-4A89-AFF1-D0BDCD61D35B}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3540" windowWidth="38700" windowHeight="15195" activeTab="2" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="12900" yWindow="3540" windowWidth="38700" windowHeight="15195" activeTab="4" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="OLS Fig 1 and 2 (data)" sheetId="1" r:id="rId1"/>
-    <sheet name="OLS Fig 1" sheetId="2" r:id="rId2"/>
-    <sheet name="OLS Fig 2" sheetId="3" r:id="rId3"/>
+    <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
+    <sheet name="OLS Fig 7 (data)" sheetId="5" r:id="rId2"/>
+    <sheet name="OLS Fig 4" sheetId="2" r:id="rId3"/>
+    <sheet name="OLS Fig 6" sheetId="3" r:id="rId4"/>
+    <sheet name="OLS Fig 7" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="beta_0">'OLS Fig 1 and 2 (data)'!#REF!</definedName>
-    <definedName name="beta_1">'OLS Fig 1 and 2 (data)'!#REF!</definedName>
-    <definedName name="N">'OLS Fig 1 and 2 (data)'!#REF!</definedName>
-    <definedName name="x_bar">'OLS Fig 1 and 2 (data)'!#REF!</definedName>
-    <definedName name="Y_bar">'OLS Fig 1 and 2 (data)'!#REF!</definedName>
+    <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
+    <definedName name="beta_1">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
+    <definedName name="N">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
+    <definedName name="x_bar">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
+    <definedName name="Y_bar">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CAR</t>
   </si>
@@ -102,13 +105,17 @@
   <si>
     <t>TRUE FIT</t>
   </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -269,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,7 +330,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,8 +343,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF717073"/>
       <color rgb="FF00447C"/>
-      <color rgb="FF717073"/>
       <color rgb="FFD11242"/>
     </mruColors>
   </colors>
@@ -411,7 +422,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$D$3:$D$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -450,7 +461,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$B$3:$B$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -499,7 +510,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$G$2</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,7 +536,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$D$3:$D$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -564,7 +575,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$G$3:$G$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -975,7 +986,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$D$3:$D$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1014,7 +1025,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$B$3:$B$12</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1080,7 +1091,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$F$3:$F$14</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1125,7 +1136,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$B$3:$B$14</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1197,7 +1208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$D$3:$D$14</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1242,7 +1253,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'OLS Fig 1 and 2 (data)'!$E$3:$E$14</c:f>
+              <c:f>'OLS Fig 4 and 6 (data)'!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1596,6 +1607,975 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ikelihood function</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OLS Fig 7 (data)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Likelihood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00447C"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="66"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0FD6-4A98-BDBC-BBA641CEF872}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'OLS Fig 7 (data)'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OLS Fig 7 (data)'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000008E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.536E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3750000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3839999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5570000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8880000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3709999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0000000000000028E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0768999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2671999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4703000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6856000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9125E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1503999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3987000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6568000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9241000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4838999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7752000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0733000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3776000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0024000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3217E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6448000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9710999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6308999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9631999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2963E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6296000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9624999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2944000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.624699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9527999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.2781000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.6000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9179000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.102312</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.105393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10841600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11137500000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11426400000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.117077</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.119808</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12245099999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12744900000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12979200000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.132023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13413600000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.136125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.137984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.139707</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.141288</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14272099999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.145119</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14607200000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14685300000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.147456</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.14787500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14810400000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14813700000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.14796800000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.147591</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14618900000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.145152</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14388299999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.142376</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.138624</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.13636699999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13384799999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.13106100000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12465899999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12103200000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.11711300000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.11289600000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.108375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.103544</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.8397000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.2927999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.7130999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.0999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.4528999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.7711999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.0542999999999965E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.3016000000000042E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.512500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.6864000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8227000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9208000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8010000000000076E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FD6-4A98-BDBC-BBA641CEF872}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="728189231"/>
+        <c:axId val="726330095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="728189231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726330095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726330095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728189231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1676,6 +2656,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2708,6 +3728,519 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C4239F3-104F-4D0C-9DB7-15E5FC266C7B}">
   <sheetPr>
@@ -2727,6 +4260,19 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DD2E41F3-AF41-40BE-B28F-937E1D8BF636}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2738,7 +4284,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6287745"/>
+    <xdr:ext cx="8662147" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2963,7 +4509,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6287745"/>
+    <xdr:ext cx="8662147" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3003,8 +4549,8 @@
       <cdr:x>0.55321</cdr:x>
       <cdr:y>0.06343</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 3">
@@ -3029,6 +4575,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3077,7 +4624,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 3">
@@ -3135,8 +4682,8 @@
       <cdr:x>0.07703</cdr:x>
       <cdr:y>0.4428</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="5" name="TextBox 1">
@@ -3274,7 +4821,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="5" name="TextBox 1">
@@ -3456,8 +5003,8 @@
       <cdr:x>0.66317</cdr:x>
       <cdr:y>0.37599</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="7" name="TextBox 6">
@@ -3482,6 +5029,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3627,7 +5175,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="7" name="TextBox 6">
@@ -3996,8 +5544,8 @@
       <cdr:x>0.76386</cdr:x>
       <cdr:y>0.3415</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="10" name="TextBox 1">
@@ -4232,7 +5780,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="10" name="TextBox 1">
@@ -4366,8 +5914,8 @@
       <cdr:x>0.76242</cdr:x>
       <cdr:y>0.43754</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="11" name="TextBox 1">
@@ -4590,7 +6138,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="11" name="TextBox 1">
@@ -4716,6 +6264,259 @@
     </mc:AlternateContent>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167644EA-9FE6-4FC3-934B-917D72D67B9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65833</cdr:x>
+      <cdr:y>0.14854</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66049</cdr:x>
+      <cdr:y>0.94127</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B90818-08CE-497F-8FB9-E383D69DABFB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5702549" y="933824"/>
+          <a:ext cx="18676" cy="4983480"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05913</cdr:x>
+      <cdr:y>0.14548</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66084</cdr:x>
+      <cdr:y>0.14845</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB62B78-DEB5-4F8A-979F-33B79B58BF17}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="3108935" y="-1682127"/>
+          <a:ext cx="18676" cy="5212080"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A545AE-10FF-4D93-99C5-9CC70FEF128A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2362200" y="1704975"/>
+          <a:ext cx="4333875" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3550EB01-2C1D-4ACF-8457-2F5FDD85CECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1524000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5022,7 +6823,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,4 +7203,972 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B59438A-3BA9-4D29-848E-DBF1F6369F71}">
+  <sheetPr>
+    <tabColor rgb="FF00447C"/>
+  </sheetPr>
+  <dimension ref="B1:D102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <f>B2^2*(1-B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C66" si="0">B3^2*(1-B3)</f>
+        <v>9.9000000000000008E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>3.9199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>8.7299999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>1.536E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>2.3750000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>3.3839999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>4.5570000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>5.8880000000000009E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>7.3709999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000028E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0768999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>1.2671999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4703000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6856000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9125E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>2.1503999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>2.3987000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6568000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="0"/>
+        <v>2.9241000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="0"/>
+        <v>3.4838999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>3.7752000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="0"/>
+        <v>4.0733000000000005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
+        <v>4.3776000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
+        <v>5.0024000000000006E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="0"/>
+        <v>5.3217E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6448000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="0"/>
+        <v>5.9710999999999993E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="0"/>
+        <v>6.6308999999999993E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9631999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="C35" s="21">
+        <f t="shared" si="0"/>
+        <v>7.2963E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="0"/>
+        <v>7.6296000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="C37" s="21">
+        <f t="shared" si="0"/>
+        <v>7.9624999999999987E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="C38" s="21">
+        <f t="shared" si="0"/>
+        <v>8.2944000000000004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="C39" s="21">
+        <f t="shared" si="0"/>
+        <v>8.624699999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" si="0"/>
+        <v>8.9527999999999996E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" si="0"/>
+        <v>9.2781000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" si="0"/>
+        <v>9.9179000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="C44" s="21">
+        <f t="shared" si="0"/>
+        <v>0.102312</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" si="0"/>
+        <v>0.105393</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="C46" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10841600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="C47" s="21">
+        <f t="shared" si="0"/>
+        <v>0.11137500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="C48" s="21">
+        <f t="shared" si="0"/>
+        <v>0.11426400000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="C49" s="21">
+        <f t="shared" si="0"/>
+        <v>0.117077</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="C50" s="21">
+        <f t="shared" si="0"/>
+        <v>0.119808</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="C51" s="21">
+        <f t="shared" si="0"/>
+        <v>0.12245099999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="21">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="C53" s="21">
+        <f t="shared" si="0"/>
+        <v>0.12744900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="C54" s="21">
+        <f t="shared" si="0"/>
+        <v>0.12979200000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="C55" s="21">
+        <f t="shared" si="0"/>
+        <v>0.132023</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="C56" s="21">
+        <f t="shared" si="0"/>
+        <v>0.13413600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C57" s="21">
+        <f t="shared" si="0"/>
+        <v>0.136125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C58" s="21">
+        <f t="shared" si="0"/>
+        <v>0.137984</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C59" s="21">
+        <f t="shared" si="0"/>
+        <v>0.139707</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C60" s="21">
+        <f t="shared" si="0"/>
+        <v>0.141288</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="C61" s="21">
+        <f t="shared" si="0"/>
+        <v>0.14272099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="C62" s="21">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="21">
+        <v>0.61</v>
+      </c>
+      <c r="C63" s="21">
+        <f t="shared" si="0"/>
+        <v>0.145119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="C64" s="21">
+        <f t="shared" si="0"/>
+        <v>0.14607200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="C65" s="21">
+        <f t="shared" si="0"/>
+        <v>0.14685300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="C66" s="21">
+        <f t="shared" si="0"/>
+        <v>0.147456</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="C67" s="21">
+        <f t="shared" ref="C67:C102" si="1">B67^2*(1-B67)</f>
+        <v>0.14787500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
+        <v>0.66</v>
+      </c>
+      <c r="C68" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14810400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="C69" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14813700000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="C70" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14796800000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>0.69</v>
+      </c>
+      <c r="C71" s="21">
+        <f t="shared" si="1"/>
+        <v>0.147591</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="C72" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="C73" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14618900000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="C74" s="21">
+        <f t="shared" si="1"/>
+        <v>0.145152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="C75" s="21">
+        <f t="shared" si="1"/>
+        <v>0.14388299999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="C76" s="21">
+        <f t="shared" si="1"/>
+        <v>0.142376</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="C77" s="21">
+        <f t="shared" si="1"/>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="C78" s="21">
+        <f t="shared" si="1"/>
+        <v>0.138624</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="C79" s="21">
+        <f t="shared" si="1"/>
+        <v>0.13636699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="C80" s="21">
+        <f t="shared" si="1"/>
+        <v>0.13384799999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="C81" s="21">
+        <f t="shared" si="1"/>
+        <v>0.13106100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="C82" s="21">
+        <f t="shared" si="1"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="C83" s="21">
+        <f t="shared" si="1"/>
+        <v>0.12465899999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="C84" s="21">
+        <f t="shared" si="1"/>
+        <v>0.12103200000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="C85" s="21">
+        <f t="shared" si="1"/>
+        <v>0.11711300000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="C86" s="21">
+        <f t="shared" si="1"/>
+        <v>0.11289600000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="C87" s="21">
+        <f t="shared" si="1"/>
+        <v>0.108375</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="C88" s="21">
+        <f t="shared" si="1"/>
+        <v>0.103544</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="C89" s="21">
+        <f t="shared" si="1"/>
+        <v>9.8397000000000012E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="C90" s="21">
+        <f t="shared" si="1"/>
+        <v>9.2927999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="C91" s="21">
+        <f t="shared" si="1"/>
+        <v>8.7130999999999986E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="C92" s="21">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="C93" s="21">
+        <f t="shared" si="1"/>
+        <v>7.4528999999999984E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="C94" s="21">
+        <f t="shared" si="1"/>
+        <v>6.7711999999999967E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="C95" s="21">
+        <f t="shared" si="1"/>
+        <v>6.0542999999999965E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="C96" s="21">
+        <f t="shared" si="1"/>
+        <v>5.3016000000000042E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C97" s="21">
+        <f t="shared" si="1"/>
+        <v>4.512500000000004E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="C98" s="21">
+        <f t="shared" si="1"/>
+        <v>3.6864000000000029E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="C99" s="21">
+        <f t="shared" si="1"/>
+        <v>2.8227000000000023E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="C100" s="21">
+        <f t="shared" si="1"/>
+        <v>1.9208000000000017E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="C101" s="21">
+        <f t="shared" si="1"/>
+        <v>9.8010000000000076E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="21">
+        <v>1</v>
+      </c>
+      <c r="C102" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C689651-BB9F-4B8A-8D11-9414051932E6}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="Y11:Z12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Y11:Z12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FB35C45-C5A4-4A89-AFF1-D0BDCD61D35B}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93EB89B6-BA70-4ACF-8220-7158A0A84A66}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="3540" windowWidth="38700" windowHeight="15195" activeTab="4" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -331,10 +331,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,88 +1621,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>L</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ikelihood function</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2428,6 +2347,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" i="1" cap="none" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>H</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2448,10 +2428,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2492,6 +2469,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Likelihood function value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2512,10 +2542,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4273,7 +4300,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6303,12 +6330,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65833</cdr:x>
-      <cdr:y>0.14854</cdr:y>
+      <cdr:x>0.66739</cdr:x>
+      <cdr:y>0.09417</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66049</cdr:x>
-      <cdr:y>0.94127</cdr:y>
+      <cdr:x>0.66955</cdr:x>
+      <cdr:y>0.90145</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6323,8 +6350,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5702549" y="933824"/>
-          <a:ext cx="18676" cy="4983480"/>
+          <a:off x="5780992" y="592016"/>
+          <a:ext cx="18710" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -6356,12 +6383,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05913</cdr:x>
-      <cdr:y>0.14548</cdr:y>
+      <cdr:x>0.08671</cdr:x>
+      <cdr:y>0.08844</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66084</cdr:x>
-      <cdr:y>0.14845</cdr:y>
+      <cdr:x>0.66731</cdr:x>
+      <cdr:y>0.09141</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6376,8 +6403,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="3108935" y="-1682127"/>
-          <a:ext cx="18676" cy="5212080"/>
+          <a:off x="3256390" y="-1949292"/>
+          <a:ext cx="18671" cy="5029200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -7219,259 +7246,259 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <f>B2^2*(1-B2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.01</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C66" si="0">B3^2*(1-B3)</f>
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.02</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.03</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.04</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1.536E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.05</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>0.06</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>0.08</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.09</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.1</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.11</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>0.13</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.15</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>1.9125E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>0.16</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.17</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.18</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <f t="shared" si="0"/>
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0.19</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.2</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>0.21</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>0.22</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>0.23</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0.24</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.25</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.26</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <f t="shared" si="0"/>
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.27</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>5.3217E-2</v>
       </c>
@@ -7480,658 +7507,658 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <f t="shared" si="0"/>
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <f t="shared" si="0"/>
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>0.3</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>0.31</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <f t="shared" si="0"/>
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.32</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <f t="shared" si="0"/>
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>0.33</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <f t="shared" si="0"/>
         <v>7.2963E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>0.34</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <f t="shared" si="0"/>
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>0.35</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <f t="shared" si="0"/>
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>0.36</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <f t="shared" si="0"/>
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>0.37</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <f t="shared" si="0"/>
         <v>8.624699999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>0.38</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <f t="shared" si="0"/>
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>0.39</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <f t="shared" si="0"/>
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>0.4</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <f t="shared" si="0"/>
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>0.41</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <f t="shared" si="0"/>
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>0.42</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <f t="shared" si="0"/>
         <v>0.102312</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>0.43</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <f t="shared" si="0"/>
         <v>0.105393</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>0.44</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <f t="shared" si="0"/>
         <v>0.10841600000000001</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>0.45</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <f t="shared" si="0"/>
         <v>0.11137500000000002</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>0.46</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <f t="shared" si="0"/>
         <v>0.11426400000000002</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>0.47</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <f t="shared" si="0"/>
         <v>0.117077</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>0.48</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <f t="shared" si="0"/>
         <v>0.119808</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>0.49</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <f t="shared" si="0"/>
         <v>0.12245099999999999</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>0.5</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>0.51</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <f t="shared" si="0"/>
         <v>0.12744900000000001</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>0.52</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <f t="shared" si="0"/>
         <v>0.12979200000000002</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>0.53</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <f t="shared" si="0"/>
         <v>0.132023</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>0.54</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <f t="shared" si="0"/>
         <v>0.13413600000000001</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <f t="shared" si="0"/>
         <v>0.136125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <f t="shared" si="0"/>
         <v>0.137984</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <f t="shared" si="0"/>
         <v>0.139707</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <f t="shared" si="0"/>
         <v>0.141288</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>0.59</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <f t="shared" si="0"/>
         <v>0.14272099999999999</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>0.6</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <v>0.61</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <f t="shared" si="0"/>
         <v>0.145119</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>0.62</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <f t="shared" si="0"/>
         <v>0.14607200000000001</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>0.63</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <f t="shared" si="0"/>
         <v>0.14685300000000001</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <v>0.64</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <f t="shared" si="0"/>
         <v>0.147456</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>0.65</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <f t="shared" ref="C67:C102" si="1">B67^2*(1-B67)</f>
         <v>0.14787500000000001</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>0.66</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <f t="shared" si="1"/>
         <v>0.14810400000000001</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>0.67</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <f t="shared" si="1"/>
         <v>0.14813700000000002</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>0.68</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <f t="shared" si="1"/>
         <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>0.69</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <f t="shared" si="1"/>
         <v>0.147591</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>0.7</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <f t="shared" si="1"/>
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>0.71</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <f t="shared" si="1"/>
         <v>0.14618900000000001</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>0.72</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <f t="shared" si="1"/>
         <v>0.145152</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>0.73</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <f t="shared" si="1"/>
         <v>0.14388299999999998</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>0.74</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <f t="shared" si="1"/>
         <v>0.142376</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>0.75</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>0.76</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <f t="shared" si="1"/>
         <v>0.138624</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>0.77</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="20">
         <f t="shared" si="1"/>
         <v>0.13636699999999999</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>0.78</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <f t="shared" si="1"/>
         <v>0.13384799999999999</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>0.79</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="20">
         <f t="shared" si="1"/>
         <v>0.13106100000000001</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>0.8</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="20">
         <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>0.81</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="20">
         <f t="shared" si="1"/>
         <v>0.12465899999999999</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>0.82</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <f t="shared" si="1"/>
         <v>0.12103200000000001</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>0.83</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="20">
         <f t="shared" si="1"/>
         <v>0.11711300000000002</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>0.84</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="20">
         <f t="shared" si="1"/>
         <v>0.11289600000000001</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>0.85</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="20">
         <f t="shared" si="1"/>
         <v>0.108375</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>0.86</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="20">
         <f t="shared" si="1"/>
         <v>0.103544</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>0.87</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="20">
         <f t="shared" si="1"/>
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>0.88</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="20">
         <f t="shared" si="1"/>
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>0.89</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <f t="shared" si="1"/>
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>0.9</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <f t="shared" si="1"/>
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>0.91</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="20">
         <f t="shared" si="1"/>
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>0.92</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="20">
         <f t="shared" si="1"/>
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>0.93</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="20">
         <f t="shared" si="1"/>
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>0.94</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="20">
         <f t="shared" si="1"/>
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>0.95</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="20">
         <f t="shared" si="1"/>
         <v>4.512500000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>0.96</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="20">
         <f t="shared" si="1"/>
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>0.97</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="20">
         <f t="shared" si="1"/>
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>0.98</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="20">
         <f t="shared" si="1"/>
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>0.99</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="20">
         <f t="shared" si="1"/>
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>1</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8155,14 +8182,14 @@
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="25:26" x14ac:dyDescent="0.25">
-      <c r="Y11" s="20">
+      <c r="Y11" s="21">
         <v>0</v>
       </c>
-      <c r="Z11" s="20"/>
+      <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="25:26" x14ac:dyDescent="0.25">
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93EB89B6-BA70-4ACF-8220-7158A0A84A66}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{198EEF9C-771E-4CBB-BBC7-EB6FE8FC12E1}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3540" windowWidth="38700" windowHeight="15195" activeTab="4" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="0" yWindow="5805" windowWidth="38700" windowHeight="15195" activeTab="5" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CAR</t>
   </si>
@@ -108,6 +108,15 @@
   <si>
     <t>Likelihood</t>
   </si>
+  <si>
+    <t>negative numbers</t>
+  </si>
+  <si>
+    <t>positive numbers</t>
+  </si>
+  <si>
+    <t>The more negative the better</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +137,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF00447C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,9 +356,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,8 +372,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00447C"/>
       <color rgb="FF717073"/>
-      <color rgb="FF00447C"/>
       <color rgb="FFD11242"/>
     </mruColors>
   </colors>
@@ -4300,7 +4329,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6441,15 +6470,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6495,15 +6524,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6535,6 +6564,62 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E48523C-84B7-48B1-9284-1CD06C8D19D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2686051" y="1333500"/>
+          <a:ext cx="2181224" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00447C"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -8173,27 +8258,80 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="Y11:Z12"/>
+  <dimension ref="D2:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="25:26" x14ac:dyDescent="0.25">
-      <c r="Y11" s="21">
+    <row r="2" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="H2" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22">
         <v>0</v>
       </c>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" spans="25:26" x14ac:dyDescent="0.25">
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="O6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{198EEF9C-771E-4CBB-BBC7-EB6FE8FC12E1}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07C9BDC4-20DD-4D6A-8E88-5FFC1FC5FACB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5805" windowWidth="38700" windowHeight="15195" activeTab="5" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="-31245" yWindow="8070" windowWidth="38700" windowHeight="15195" activeTab="1" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="OLS Fig 4" sheetId="2" r:id="rId3"/>
     <sheet name="OLS Fig 6" sheetId="3" r:id="rId4"/>
     <sheet name="OLS Fig 7" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="OLS Fig 8" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>CAR</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>The more negative the better</t>
+  </si>
+  <si>
+    <t>x-Axis</t>
   </si>
 </sst>
 </file>
@@ -355,15 +358,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6935,7 +6940,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7324,266 +7329,271 @@
   </sheetPr>
   <dimension ref="B1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="20">
+      <c r="B2" s="24">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24">
         <f>B2^2*(1-B2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
+      <c r="B3" s="24">
         <v>0.01</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="24">
         <f t="shared" ref="C3:C66" si="0">B3^2*(1-B3)</f>
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+      <c r="B4" s="24">
         <v>0.02</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="24">
         <f t="shared" si="0"/>
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="B5" s="24">
         <v>0.03</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="24">
         <v>0.04</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>1.536E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="24">
         <v>0.05</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="24">
         <v>0.06</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="24">
         <v>0.08</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="24">
         <v>0.09</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="24">
         <v>0.1</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="24">
         <f t="shared" si="0"/>
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+      <c r="B13" s="24">
         <v>0.11</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="24">
         <f t="shared" si="0"/>
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="24">
         <v>0.12</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="24">
         <f t="shared" si="0"/>
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+      <c r="B15" s="24">
         <v>0.13</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="24">
         <f t="shared" si="0"/>
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+      <c r="B16" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="24">
         <f t="shared" si="0"/>
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+      <c r="B17" s="24">
         <v>0.15</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="24">
         <f t="shared" si="0"/>
         <v>1.9125E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+      <c r="B18" s="24">
         <v>0.16</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="24">
         <f t="shared" si="0"/>
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+      <c r="B19" s="24">
         <v>0.17</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="24">
         <f t="shared" si="0"/>
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+      <c r="B20" s="24">
         <v>0.18</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <f t="shared" si="0"/>
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="24">
         <v>0.19</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="24">
         <f t="shared" si="0"/>
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="24">
         <v>0.2</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="24">
         <f t="shared" si="0"/>
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B23" s="24">
         <v>0.21</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="24">
         <f t="shared" si="0"/>
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+      <c r="B24" s="24">
         <v>0.22</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="24">
         <f t="shared" si="0"/>
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
+      <c r="B25" s="24">
         <v>0.23</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="24">
         <f t="shared" si="0"/>
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20">
+      <c r="B26" s="24">
         <v>0.24</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="24">
         <f t="shared" si="0"/>
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="20">
+      <c r="B27" s="24">
         <v>0.25</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="24">
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
+      <c r="B28" s="24">
         <v>0.26</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="24">
         <f t="shared" si="0"/>
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
+      <c r="B29" s="24">
         <v>0.27</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="24">
         <f t="shared" si="0"/>
         <v>5.3217E-2</v>
       </c>
@@ -7592,658 +7602,658 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="20">
+      <c r="B30" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="24">
         <f t="shared" si="0"/>
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="20">
+      <c r="B31" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="24">
         <f t="shared" si="0"/>
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
+      <c r="B32" s="24">
         <v>0.3</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="24">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
+      <c r="B33" s="24">
         <v>0.31</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="24">
         <f t="shared" si="0"/>
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="20">
+      <c r="B34" s="24">
         <v>0.32</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="24">
         <f t="shared" si="0"/>
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
+      <c r="B35" s="24">
         <v>0.33</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="24">
         <f t="shared" si="0"/>
         <v>7.2963E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
+      <c r="B36" s="24">
         <v>0.34</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="24">
         <f t="shared" si="0"/>
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
+      <c r="B37" s="24">
         <v>0.35</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="24">
         <f t="shared" si="0"/>
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+      <c r="B38" s="24">
         <v>0.36</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="24">
         <f t="shared" si="0"/>
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="20">
+      <c r="B39" s="24">
         <v>0.37</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="24">
         <f t="shared" si="0"/>
         <v>8.624699999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="20">
+      <c r="B40" s="24">
         <v>0.38</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="24">
         <f t="shared" si="0"/>
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="20">
+      <c r="B41" s="24">
         <v>0.39</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="24">
         <f t="shared" si="0"/>
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="20">
+      <c r="B42" s="24">
         <v>0.4</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="24">
         <f t="shared" si="0"/>
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="20">
+      <c r="B43" s="24">
         <v>0.41</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="24">
         <f t="shared" si="0"/>
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
+      <c r="B44" s="24">
         <v>0.42</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="24">
         <f t="shared" si="0"/>
         <v>0.102312</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="20">
+      <c r="B45" s="24">
         <v>0.43</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="24">
         <f t="shared" si="0"/>
         <v>0.105393</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+      <c r="B46" s="24">
         <v>0.44</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="24">
         <f t="shared" si="0"/>
         <v>0.10841600000000001</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="20">
+      <c r="B47" s="24">
         <v>0.45</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="24">
         <f t="shared" si="0"/>
         <v>0.11137500000000002</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+      <c r="B48" s="24">
         <v>0.46</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="24">
         <f t="shared" si="0"/>
         <v>0.11426400000000002</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="20">
+      <c r="B49" s="24">
         <v>0.47</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="24">
         <f t="shared" si="0"/>
         <v>0.117077</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="20">
+      <c r="B50" s="24">
         <v>0.48</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="24">
         <f t="shared" si="0"/>
         <v>0.119808</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="20">
+      <c r="B51" s="24">
         <v>0.49</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="24">
         <f t="shared" si="0"/>
         <v>0.12245099999999999</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="20">
+      <c r="B52" s="24">
         <v>0.5</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="24">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="20">
+      <c r="B53" s="24">
         <v>0.51</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="24">
         <f t="shared" si="0"/>
         <v>0.12744900000000001</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="20">
+      <c r="B54" s="24">
         <v>0.52</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="24">
         <f t="shared" si="0"/>
         <v>0.12979200000000002</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="20">
+      <c r="B55" s="24">
         <v>0.53</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="24">
         <f t="shared" si="0"/>
         <v>0.132023</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="20">
+      <c r="B56" s="24">
         <v>0.54</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="24">
         <f t="shared" si="0"/>
         <v>0.13413600000000001</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="20">
+      <c r="B57" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="24">
         <f t="shared" si="0"/>
         <v>0.136125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="20">
+      <c r="B58" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="24">
         <f t="shared" si="0"/>
         <v>0.137984</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="20">
+      <c r="B59" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="24">
         <f t="shared" si="0"/>
         <v>0.139707</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="20">
+      <c r="B60" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="24">
         <f t="shared" si="0"/>
         <v>0.141288</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="20">
+      <c r="B61" s="24">
         <v>0.59</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="24">
         <f t="shared" si="0"/>
         <v>0.14272099999999999</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="20">
+      <c r="B62" s="24">
         <v>0.6</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="24">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="20">
+      <c r="B63" s="24">
         <v>0.61</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="24">
         <f t="shared" si="0"/>
         <v>0.145119</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="20">
+      <c r="B64" s="24">
         <v>0.62</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="24">
         <f t="shared" si="0"/>
         <v>0.14607200000000001</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="20">
+      <c r="B65" s="24">
         <v>0.63</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="24">
         <f t="shared" si="0"/>
         <v>0.14685300000000001</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="20">
+      <c r="B66" s="24">
         <v>0.64</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="24">
         <f t="shared" si="0"/>
         <v>0.147456</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="20">
+      <c r="B67" s="24">
         <v>0.65</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="24">
         <f t="shared" ref="C67:C102" si="1">B67^2*(1-B67)</f>
         <v>0.14787500000000001</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="20">
+      <c r="B68" s="24">
         <v>0.66</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="24">
         <f t="shared" si="1"/>
         <v>0.14810400000000001</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="20">
+      <c r="B69" s="24">
         <v>0.67</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="24">
         <f t="shared" si="1"/>
         <v>0.14813700000000002</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="20">
+      <c r="B70" s="24">
         <v>0.68</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="24">
         <f t="shared" si="1"/>
         <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="20">
+      <c r="B71" s="24">
         <v>0.69</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="24">
         <f t="shared" si="1"/>
         <v>0.147591</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="20">
+      <c r="B72" s="24">
         <v>0.7</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="24">
         <f t="shared" si="1"/>
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="20">
+      <c r="B73" s="24">
         <v>0.71</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="24">
         <f t="shared" si="1"/>
         <v>0.14618900000000001</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="20">
+      <c r="B74" s="24">
         <v>0.72</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="24">
         <f t="shared" si="1"/>
         <v>0.145152</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="20">
+      <c r="B75" s="24">
         <v>0.73</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="24">
         <f t="shared" si="1"/>
         <v>0.14388299999999998</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="20">
+      <c r="B76" s="24">
         <v>0.74</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="24">
         <f t="shared" si="1"/>
         <v>0.142376</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="20">
+      <c r="B77" s="24">
         <v>0.75</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="24">
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="20">
+      <c r="B78" s="24">
         <v>0.76</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="24">
         <f t="shared" si="1"/>
         <v>0.138624</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="20">
+      <c r="B79" s="24">
         <v>0.77</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="24">
         <f t="shared" si="1"/>
         <v>0.13636699999999999</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="20">
+      <c r="B80" s="24">
         <v>0.78</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="24">
         <f t="shared" si="1"/>
         <v>0.13384799999999999</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="20">
+      <c r="B81" s="24">
         <v>0.79</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="24">
         <f t="shared" si="1"/>
         <v>0.13106100000000001</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="20">
+      <c r="B82" s="24">
         <v>0.8</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="24">
         <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="20">
+      <c r="B83" s="24">
         <v>0.81</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="24">
         <f t="shared" si="1"/>
         <v>0.12465899999999999</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="20">
+      <c r="B84" s="24">
         <v>0.82</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="24">
         <f t="shared" si="1"/>
         <v>0.12103200000000001</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="20">
+      <c r="B85" s="24">
         <v>0.83</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="24">
         <f t="shared" si="1"/>
         <v>0.11711300000000002</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="20">
+      <c r="B86" s="24">
         <v>0.84</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="24">
         <f t="shared" si="1"/>
         <v>0.11289600000000001</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="20">
+      <c r="B87" s="24">
         <v>0.85</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="24">
         <f t="shared" si="1"/>
         <v>0.108375</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="20">
+      <c r="B88" s="24">
         <v>0.86</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="24">
         <f t="shared" si="1"/>
         <v>0.103544</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="20">
+      <c r="B89" s="24">
         <v>0.87</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="24">
         <f t="shared" si="1"/>
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="20">
+      <c r="B90" s="24">
         <v>0.88</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="24">
         <f t="shared" si="1"/>
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="20">
+      <c r="B91" s="24">
         <v>0.89</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="24">
         <f t="shared" si="1"/>
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="20">
+      <c r="B92" s="24">
         <v>0.9</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="24">
         <f t="shared" si="1"/>
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="20">
+      <c r="B93" s="24">
         <v>0.91</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="24">
         <f t="shared" si="1"/>
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="20">
+      <c r="B94" s="24">
         <v>0.92</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="24">
         <f t="shared" si="1"/>
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="20">
+      <c r="B95" s="24">
         <v>0.93</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="24">
         <f t="shared" si="1"/>
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="20">
+      <c r="B96" s="24">
         <v>0.94</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="24">
         <f t="shared" si="1"/>
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="20">
+      <c r="B97" s="24">
         <v>0.95</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="24">
         <f t="shared" si="1"/>
         <v>4.512500000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="20">
+      <c r="B98" s="24">
         <v>0.96</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="24">
         <f t="shared" si="1"/>
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="20">
+      <c r="B99" s="24">
         <v>0.97</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="24">
         <f t="shared" si="1"/>
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="20">
+      <c r="B100" s="24">
         <v>0.98</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="24">
         <f t="shared" si="1"/>
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="20">
+      <c r="B101" s="24">
         <v>0.99</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="24">
         <f t="shared" si="1"/>
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="20">
+      <c r="B102" s="24">
         <v>1</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8260,74 +8270,74 @@
   </sheetPr>
   <dimension ref="D2:AA7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AB7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="23">
         <v>0</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="23" t="s">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07C9BDC4-20DD-4D6A-8E88-5FFC1FC5FACB}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B13BF0B-C57E-4A54-A265-F6EBCE1D0968}"/>
   <bookViews>
-    <workbookView xWindow="-31245" yWindow="8070" windowWidth="38700" windowHeight="15195" activeTab="1" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="12900" yWindow="3645" windowWidth="38700" windowHeight="15300" activeTab="4" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -363,11 +363,11 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,7 +1378,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1391,14 +1391,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Regressor</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
                   <a:t> (x)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
+                <a:endParaRPr lang="en-US" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1415,7 +1415,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1497,7 +1497,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1510,14 +1510,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Dependent</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
                   <a:t> variable (y)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1542,7 +1542,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2388,7 +2388,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2398,7 +2398,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1" cap="none" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" i="1" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2406,7 +2406,7 @@
                   <a:t>p</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" i="1" cap="none" baseline="-25000">
+                  <a:rPr lang="en-US" sz="1400" i="1" cap="none" baseline="-25000">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2429,7 +2429,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2456,11 +2456,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2510,7 +2510,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2520,7 +2520,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2543,7 +2543,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2574,7 +2574,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4308,7 +4308,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4321,7 +4321,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4334,7 +4334,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4570,7 +4570,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4999,11 +4999,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.66595</cdr:x>
-      <cdr:y>0.25248</cdr:y>
+      <cdr:y>0.24891</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.6765</cdr:x>
-      <cdr:y>0.44153</cdr:y>
+      <cdr:y>0.43801</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5018,8 +5018,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5771028" y="1587500"/>
-          <a:ext cx="91440" cy="1188720"/>
+          <a:off x="5768557" y="1564803"/>
+          <a:ext cx="91385" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
           <a:avLst/>
@@ -5057,12 +5057,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.59986</cdr:x>
-      <cdr:y>0.31782</cdr:y>
+      <cdr:x>0.60051</cdr:x>
+      <cdr:y>0.31515</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66317</cdr:x>
-      <cdr:y>0.37599</cdr:y>
+      <cdr:x>0.66382</cdr:x>
+      <cdr:y>0.37332</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -5079,8 +5079,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="5198285" y="1998382"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="5201678" y="1981166"/>
+              <a:ext cx="548401" cy="365686"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -5100,7 +5100,7 @@
                     <m:limLow>
                       <m:limLowPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1050" i="1">
+                          <a:rPr lang="en-US" sz="1400" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -5115,7 +5115,7 @@
                           <m:groupChrPr>
                             <m:chr m:val="⏟"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1050" i="1">
+                              <a:rPr lang="en-US" sz="1400" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -5129,7 +5129,7 @@
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5141,7 +5141,7 @@
                               </m:sSubPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5154,7 +5154,7 @@
                               </m:e>
                               <m:sub>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5167,7 +5167,7 @@
                               </m:sub>
                             </m:sSub>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -5181,7 +5181,7 @@
                               <m:accPr>
                                 <m:chr m:val="̅"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5193,7 +5193,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5210,7 +5210,7 @@
                       </m:e>
                       <m:lim>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -5225,7 +5225,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -5250,8 +5250,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="5198285" y="1998382"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="5201678" y="1981166"/>
+              <a:ext cx="548401" cy="365686"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -5261,8 +5261,9 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" i="0">
+                <a:rPr lang="en-US" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -5273,7 +5274,7 @@
                 <a:t>⏟(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -5283,7 +5284,7 @@
                 </a:rPr>
                 <a:t>𝑦_𝑖−𝑦 ̅ )┬𝑇𝑆𝑆</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -5298,12 +5299,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.68977</cdr:x>
-      <cdr:y>0.25248</cdr:y>
+      <cdr:x>0.69236</cdr:x>
+      <cdr:y>0.24891</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70032</cdr:x>
-      <cdr:y>0.37609</cdr:y>
+      <cdr:x>0.70291</cdr:x>
+      <cdr:y>0.37252</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5318,8 +5319,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="5977468" y="1587500"/>
-          <a:ext cx="91440" cy="777240"/>
+          <a:off x="5997301" y="1564803"/>
+          <a:ext cx="91386" cy="777074"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
           <a:avLst/>
@@ -5448,12 +5449,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.68977</cdr:x>
-      <cdr:y>0.3764</cdr:y>
+      <cdr:x>0.69236</cdr:x>
+      <cdr:y>0.37907</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70032</cdr:x>
-      <cdr:y>0.44184</cdr:y>
+      <cdr:x>0.70291</cdr:x>
+      <cdr:y>0.43726</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5468,8 +5469,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="5977468" y="2366682"/>
-          <a:ext cx="91440" cy="411480"/>
+          <a:off x="5997302" y="2383048"/>
+          <a:ext cx="91386" cy="365760"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
           <a:avLst/>
@@ -5598,11 +5599,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.70055</cdr:x>
+      <cdr:x>0.70364</cdr:x>
       <cdr:y>0.28333</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76386</cdr:x>
+      <cdr:x>0.76695</cdr:x>
       <cdr:y>0.3415</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -5620,8 +5621,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="6070849" y="1781486"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="6095013" y="1781154"/>
+              <a:ext cx="548401" cy="365686"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -5705,7 +5706,7 @@
                     <m:limLow>
                       <m:limLowPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1050" i="1">
+                          <a:rPr lang="en-US" sz="1400" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -5720,7 +5721,7 @@
                           <m:groupChrPr>
                             <m:chr m:val="⏟"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1050" i="1">
+                              <a:rPr lang="en-US" sz="1400" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -5734,7 +5735,7 @@
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5746,7 +5747,7 @@
                               </m:sSubPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5759,7 +5760,7 @@
                               </m:e>
                               <m:sub>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5772,7 +5773,7 @@
                               </m:sub>
                             </m:sSub>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -5786,7 +5787,7 @@
                               <m:accPr>
                                 <m:chr m:val="̂"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5798,7 +5799,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -5815,7 +5816,7 @@
                       </m:e>
                       <m:lim>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -5830,7 +5831,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -5855,8 +5856,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="6070849" y="1781486"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="6095013" y="1781154"/>
+              <a:ext cx="548401" cy="365686"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -5932,7 +5933,7 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" i="0">
+                <a:rPr lang="en-US" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -5943,7 +5944,7 @@
                 <a:t>⏟(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -5953,7 +5954,7 @@
                 </a:rPr>
                 <a:t>𝑦_𝑖−𝑦 ̂ )┬𝑅𝑆𝑆</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -5968,12 +5969,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.69911</cdr:x>
-      <cdr:y>0.37937</cdr:y>
+      <cdr:x>0.70364</cdr:x>
+      <cdr:y>0.37848</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76242</cdr:x>
-      <cdr:y>0.43754</cdr:y>
+      <cdr:x>0.76695</cdr:x>
+      <cdr:y>0.43665</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -5990,8 +5991,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="6058398" y="2385359"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="6095014" y="2379307"/>
+              <a:ext cx="548400" cy="365685"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -6075,7 +6076,7 @@
                     <m:limLow>
                       <m:limLowPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1050" i="1">
+                          <a:rPr lang="en-US" sz="1400" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -6090,7 +6091,7 @@
                           <m:groupChrPr>
                             <m:chr m:val="⏟"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1050" i="1">
+                              <a:rPr lang="en-US" sz="1400" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -6105,7 +6106,7 @@
                               <m:accPr>
                                 <m:chr m:val="̂"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -6117,7 +6118,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -6130,7 +6131,7 @@
                               </m:e>
                             </m:acc>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="accent6">
                                     <a:lumMod val="75000"/>
@@ -6144,7 +6145,7 @@
                               <m:accPr>
                                 <m:chr m:val="̅"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -6156,7 +6157,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="accent6">
                                         <a:lumMod val="75000"/>
@@ -6173,7 +6174,7 @@
                       </m:e>
                       <m:lim>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="accent6">
                                 <a:lumMod val="75000"/>
@@ -6188,7 +6189,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -6213,8 +6214,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="6058398" y="2385359"/>
-              <a:ext cx="548640" cy="365760"/>
+              <a:off x="6095014" y="2379307"/>
+              <a:ext cx="548400" cy="365685"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -6290,7 +6291,7 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" i="0">
+                <a:rPr lang="en-US" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -6301,7 +6302,7 @@
                 <a:t>⏟(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="accent6">
                       <a:lumMod val="75000"/>
@@ -6311,7 +6312,7 @@
                 </a:rPr>
                 <a:t>𝑦 ̂−𝑦 ̅ )┬𝐸𝑆𝑆</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1050">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -6364,12 +6365,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66739</cdr:x>
-      <cdr:y>0.09417</cdr:y>
+      <cdr:x>0.68679</cdr:x>
+      <cdr:y>0.08526</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66955</cdr:x>
-      <cdr:y>0.90145</cdr:y>
+      <cdr:x>0.68896</cdr:x>
+      <cdr:y>0.85617</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6384,13 +6385,13 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5780992" y="592016"/>
-          <a:ext cx="18710" cy="5074920"/>
+          <a:off x="5949119" y="535971"/>
+          <a:ext cx="18711" cy="4846320"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
           <a:solidFill>
             <a:schemeClr val="accent2">
               <a:lumMod val="75000"/>
@@ -6417,12 +6418,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08671</cdr:x>
-      <cdr:y>0.08844</cdr:y>
+      <cdr:x>0.11</cdr:x>
+      <cdr:y>0.09111</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66731</cdr:x>
-      <cdr:y>0.09141</cdr:y>
+      <cdr:x>0.6906</cdr:x>
+      <cdr:y>0.09408</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6437,13 +6438,13 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="3256390" y="-1949292"/>
+          <a:off x="3458109" y="-1932477"/>
           <a:ext cx="18671" cy="5029200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
           <a:solidFill>
             <a:schemeClr val="accent2">
               <a:lumMod val="75000"/>
@@ -7329,7 +7330,7 @@
   </sheetPr>
   <dimension ref="B1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -7339,261 +7340,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <f>B2^2*(1-B2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>0.01</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">B3^2*(1-B3)</f>
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>0.02</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>0.03</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>0.04</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>1.536E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>0.05</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>0.06</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f t="shared" si="0"/>
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>0.08</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>0.09</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>0.1</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>0.11</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>0.12</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f t="shared" si="0"/>
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>0.13</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <f t="shared" si="0"/>
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>0.15</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>1.9125E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>0.16</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>0.17</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>0.18</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>0.19</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <f t="shared" si="0"/>
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>0.2</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <f t="shared" si="0"/>
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>0.21</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f t="shared" si="0"/>
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>0.22</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <f t="shared" si="0"/>
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>0.23</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <f t="shared" si="0"/>
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>0.24</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>0.25</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>0.26</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <f t="shared" si="0"/>
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>0.27</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>5.3217E-2</v>
       </c>
@@ -7602,658 +7603,658 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>0.3</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>0.31</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>0.32</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <f t="shared" si="0"/>
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>0.33</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <f t="shared" si="0"/>
         <v>7.2963E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>0.34</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <f t="shared" si="0"/>
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>0.35</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <f t="shared" si="0"/>
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>0.36</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <f t="shared" si="0"/>
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>0.37</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <f t="shared" si="0"/>
         <v>8.624699999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
+      <c r="B40" s="23">
         <v>0.38</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <f t="shared" si="0"/>
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>0.39</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <f t="shared" si="0"/>
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="24">
+      <c r="B42" s="23">
         <v>0.4</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <f t="shared" si="0"/>
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>0.41</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <f t="shared" si="0"/>
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="24">
+      <c r="B44" s="23">
         <v>0.42</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="23">
         <f t="shared" si="0"/>
         <v>0.102312</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <v>0.43</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <f t="shared" si="0"/>
         <v>0.105393</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="24">
+      <c r="B46" s="23">
         <v>0.44</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <f t="shared" si="0"/>
         <v>0.10841600000000001</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>0.45</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <f t="shared" si="0"/>
         <v>0.11137500000000002</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>0.46</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <f t="shared" si="0"/>
         <v>0.11426400000000002</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>0.47</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <f t="shared" si="0"/>
         <v>0.117077</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>0.48</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <f t="shared" si="0"/>
         <v>0.119808</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="24">
+      <c r="B51" s="23">
         <v>0.49</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <f t="shared" si="0"/>
         <v>0.12245099999999999</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="24">
+      <c r="B52" s="23">
         <v>0.5</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>0.51</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <f t="shared" si="0"/>
         <v>0.12744900000000001</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="24">
+      <c r="B54" s="23">
         <v>0.52</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <f t="shared" si="0"/>
         <v>0.12979200000000002</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>0.53</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <f t="shared" si="0"/>
         <v>0.132023</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>0.54</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <f t="shared" si="0"/>
         <v>0.13413600000000001</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <f t="shared" si="0"/>
         <v>0.136125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <f t="shared" si="0"/>
         <v>0.137984</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <f t="shared" si="0"/>
         <v>0.139707</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="24">
+      <c r="B60" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <f t="shared" si="0"/>
         <v>0.141288</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>0.59</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="23">
         <f t="shared" si="0"/>
         <v>0.14272099999999999</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>0.6</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="23">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="24">
+      <c r="B63" s="23">
         <v>0.61</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="23">
         <f t="shared" si="0"/>
         <v>0.145119</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="24">
+      <c r="B64" s="23">
         <v>0.62</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="23">
         <f t="shared" si="0"/>
         <v>0.14607200000000001</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>0.63</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="23">
         <f t="shared" si="0"/>
         <v>0.14685300000000001</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="24">
+      <c r="B66" s="23">
         <v>0.64</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="23">
         <f t="shared" si="0"/>
         <v>0.147456</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>0.65</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="23">
         <f t="shared" ref="C67:C102" si="1">B67^2*(1-B67)</f>
         <v>0.14787500000000001</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="24">
+      <c r="B68" s="23">
         <v>0.66</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="23">
         <f t="shared" si="1"/>
         <v>0.14810400000000001</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>0.67</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="23">
         <f t="shared" si="1"/>
         <v>0.14813700000000002</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="24">
+      <c r="B70" s="23">
         <v>0.68</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="23">
         <f t="shared" si="1"/>
         <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>0.69</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="23">
         <f t="shared" si="1"/>
         <v>0.147591</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>0.7</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="23">
         <f t="shared" si="1"/>
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>0.71</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="23">
         <f t="shared" si="1"/>
         <v>0.14618900000000001</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="24">
+      <c r="B74" s="23">
         <v>0.72</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="23">
         <f t="shared" si="1"/>
         <v>0.145152</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="24">
+      <c r="B75" s="23">
         <v>0.73</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="23">
         <f t="shared" si="1"/>
         <v>0.14388299999999998</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="24">
+      <c r="B76" s="23">
         <v>0.74</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="23">
         <f t="shared" si="1"/>
         <v>0.142376</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>0.75</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="23">
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>0.76</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="23">
         <f t="shared" si="1"/>
         <v>0.138624</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="24">
+      <c r="B79" s="23">
         <v>0.77</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="23">
         <f t="shared" si="1"/>
         <v>0.13636699999999999</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="24">
+      <c r="B80" s="23">
         <v>0.78</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="23">
         <f t="shared" si="1"/>
         <v>0.13384799999999999</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="24">
+      <c r="B81" s="23">
         <v>0.79</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="23">
         <f t="shared" si="1"/>
         <v>0.13106100000000001</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="24">
+      <c r="B82" s="23">
         <v>0.8</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="23">
         <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="24">
+      <c r="B83" s="23">
         <v>0.81</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="23">
         <f t="shared" si="1"/>
         <v>0.12465899999999999</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="24">
+      <c r="B84" s="23">
         <v>0.82</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="23">
         <f t="shared" si="1"/>
         <v>0.12103200000000001</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="24">
+      <c r="B85" s="23">
         <v>0.83</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="23">
         <f t="shared" si="1"/>
         <v>0.11711300000000002</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="24">
+      <c r="B86" s="23">
         <v>0.84</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="23">
         <f t="shared" si="1"/>
         <v>0.11289600000000001</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="24">
+      <c r="B87" s="23">
         <v>0.85</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="23">
         <f t="shared" si="1"/>
         <v>0.108375</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="24">
+      <c r="B88" s="23">
         <v>0.86</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="23">
         <f t="shared" si="1"/>
         <v>0.103544</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="24">
+      <c r="B89" s="23">
         <v>0.87</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="23">
         <f t="shared" si="1"/>
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="24">
+      <c r="B90" s="23">
         <v>0.88</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="23">
         <f t="shared" si="1"/>
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="24">
+      <c r="B91" s="23">
         <v>0.89</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="23">
         <f t="shared" si="1"/>
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>0.9</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="23">
         <f t="shared" si="1"/>
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>0.91</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="23">
         <f t="shared" si="1"/>
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>0.92</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="23">
         <f t="shared" si="1"/>
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>0.93</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="23">
         <f t="shared" si="1"/>
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="24">
+      <c r="B96" s="23">
         <v>0.94</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="23">
         <f t="shared" si="1"/>
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="24">
+      <c r="B97" s="23">
         <v>0.95</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="23">
         <f t="shared" si="1"/>
         <v>4.512500000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="24">
+      <c r="B98" s="23">
         <v>0.96</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="23">
         <f t="shared" si="1"/>
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="24">
+      <c r="B99" s="23">
         <v>0.97</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="23">
         <f t="shared" si="1"/>
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="24">
+      <c r="B100" s="23">
         <v>0.98</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="23">
         <f t="shared" si="1"/>
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="24">
+      <c r="B101" s="23">
         <v>0.99</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="23">
         <f t="shared" si="1"/>
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="24">
+      <c r="B102" s="23">
         <v>1</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8295,10 +8296,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="23">
+      <c r="O6" s="24">
         <v>0</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -8325,8 +8326,8 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B13BF0B-C57E-4A54-A265-F6EBCE1D0968}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{889C40F2-A772-4823-A24A-A09B2FBAA08F}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3645" windowWidth="38700" windowHeight="15300" activeTab="4" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView minimized="1" xWindow="21615" yWindow="4485" windowWidth="38700" windowHeight="15195" tabRatio="792" activeTab="7" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
     <sheet name="OLS Fig 7 (data)" sheetId="5" r:id="rId2"/>
-    <sheet name="OLS Fig 4" sheetId="2" r:id="rId3"/>
-    <sheet name="OLS Fig 6" sheetId="3" r:id="rId4"/>
-    <sheet name="OLS Fig 7" sheetId="6" r:id="rId5"/>
-    <sheet name="OLS Fig 8" sheetId="4" r:id="rId6"/>
+    <sheet name="CLASSIC MODEL 1 (data)" sheetId="7" r:id="rId3"/>
+    <sheet name="OLS Fig 4" sheetId="2" r:id="rId4"/>
+    <sheet name="OLS Fig 6" sheetId="3" r:id="rId5"/>
+    <sheet name="OLS Fig 7" sheetId="6" r:id="rId6"/>
+    <sheet name="OLS Fig 8" sheetId="4" r:id="rId7"/>
+    <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CAR</t>
   </si>
@@ -119,6 +121,12 @@
   </si>
   <si>
     <t>x-Axis</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Distribution</t>
   </si>
 </sst>
 </file>
@@ -303,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,9 +386,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD11242"/>
+      <color rgb="FF717073"/>
       <color rgb="FF00447C"/>
-      <color rgb="FF717073"/>
-      <color rgb="FFD11242"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2456,7 +2465,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2637,6 +2646,1749 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Error term</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CLASSIC MODEL 1 (data)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distribution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="717073"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CLASSIC MODEL 1 (data)'!$A$2:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3500000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.3000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.0500000000000034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9500000000000035</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8500000000000034</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7500000000000033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.7000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.6500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.2500000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.1000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.0500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.95000000000000262</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.90000000000000258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.85000000000000253</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.80000000000000249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.75000000000000244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.7000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.65000000000000235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.60000000000000231</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.55000000000000226</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.50000000000000222</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.45000000000000223</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.40000000000000224</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.35000000000000225</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.30000000000000226</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25000000000000228</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.20000000000000229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.1500000000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.0000000000002293E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.2898349882893854E-15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9999999999997713E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9999999999997716E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14999999999999772</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19999999999999774</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.24999999999999772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29999999999999771</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.3499999999999977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39999999999999769</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.44999999999999768</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49999999999999767</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.54999999999999771</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59999999999999776</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.6499999999999978</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69999999999999785</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74999999999999789</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79999999999999793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.89999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94999999999999807</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999811</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1499999999999981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2999999999999983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3499999999999983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4499999999999984</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5499999999999985</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.2499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.3499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.4499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.4999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6499999999999968</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.6999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.7499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.7999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.8499999999999961</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.8999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.9999999999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CLASSIC MODEL 1 (data)'!$B$2:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>4.4318484119380075E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1426409230539392E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9525324197758486E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8727666906139651E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.915451582979946E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0935625015910286E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0420934814422567E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1912243607605141E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3582969233685566E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5449347134395107E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7528300493568461E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9837354391795233E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2394530294842781E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5218219915194261E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8327037741601009E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1739651835667224E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5474592846231216E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9550041589369964E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.39835959804269E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8792018579182417E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3990966513187674E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9594706068815666E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5615814774676165E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2064874336217541E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8950158300893677E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6277318826511032E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4049077376886406E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10226492456397746</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11092083467945499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12000900069698503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.12951759566589113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13943056644535964</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14972746563574424</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16038332734191896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17136859204780672</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18264908538902128</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19418605498321231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20593626871997409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21785217703254989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22988214068423238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2419707245191427</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25405905646918836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26608524989875421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27798488613099587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28969155276148217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30113743215480387</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31225393336676072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32297235966791382</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33322460289179923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34294385501938346</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35206532676429914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.36052696246164762</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.368270140303323</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37524034691693758</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38138781546052386</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.38666811680284902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39104269397545571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39447933090788878</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.3969525474770117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39844391409476398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3984439140947641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.39695254747701186</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.39447933090788906</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.39104269397545605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38666811680284946</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38138781546052436</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37524034691693819</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36827014030332367</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36052696246164834</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35206532676429991</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.34294385501938435</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.33322460289180011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32297235966791477</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31225393336676177</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30113743215480487</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28969155276148323</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.27798488613099692</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26608524989875532</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25405905646918947</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.24197072451914381</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.22988214068423349</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.21785217703255103</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20593626871997517</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19418605498321337</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.18264908538902233</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.17136859204780774</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16038332734191996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14972746563574521</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13943056644536062</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12951759566589202</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.12000900069698586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.11092083467945583</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10226492456397825</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4049077376887155E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.6277318826511712E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.8950158300894344E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.2064874336218165E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5615814774676734E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.9594706068816207E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.3990966513188167E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.8792018579182875E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3983595980427309E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.9550041589370331E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.547459284623157E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.173965183566755E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.8327037741601297E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5218219915194514E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2394530294843017E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9837354391795441E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7528300493568655E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5449347134395285E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3582969233685722E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.191224360760528E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0420934814422692E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.0935625015911431E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.9154515829800449E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.872766690614051E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.9525324197759223E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.1426409230540026E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.4318484119380665E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7811-4906-8E40-144E8E59E83C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="717073"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CLASSIC MODEL 1 (data)'!$C$2:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CLASSIC MODEL 1 (data)'!$D$2:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39564523676175145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3923481931220702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38905114948238895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3857541058427077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38245706220302644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37916001856334519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37586297492366394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37256593128398269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36926888764430144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36597184400462018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36267480036493893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35937775672525768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35608071308557643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35278366944589518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34948662580621392</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34618958216653267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34289253852685142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33959549488717017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33629845124748892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33300140760780766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32970436396812641</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32640732032844516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32311027668876391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31981323304908266</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31651618940940141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31321914576972015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3099221021300389</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30662505849035765</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3033280148506764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30003097121099515</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29673392757131389</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29343688393163264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29013984029195139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28684279665227014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28354575301258889</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28024870937290763</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27695166573322638</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27365462209354513</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27035757845386388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26706053481418263</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26376349117450137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26046644753482012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25716940389513887</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25387236025545762</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25057531661577637</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24727827297609511</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24398122933641386</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24068418569673261</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23738714205705136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23409009841737011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23079305477768886</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2274960111380076</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.22419896749832635</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2209019238586451</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21760488021896385</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2143078365792826</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21101079293960134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20771374929992009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20441670566023884</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20111966202055759</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19782261838087634</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19452557474119508</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19122853110151383</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18793148746183258</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.18463444382215133</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18133740018247008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.17804035654278882</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17474331290310757</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17144626926342632</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.16814922562374507</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.16485218198406382</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.16155513834438257</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15825809470470131</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.15496105106502006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.15166400742533881</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14836696378565756</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14506992014597631</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14177287650629505</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1384758328666138</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.13517878922693255</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1318817455872513</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12858470194757005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12528765830788879</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.12199061466820753</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11869357102852626</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.115396527388845</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.11209948374916373</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.10880244010948247</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.1055053964698012</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.10220835283011993</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8911309190438668E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.5614265550757402E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2317221911076136E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.902017827139487E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5723134631713604E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.2426090992032339E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.9129047352351073E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.5832003712669807E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.2534960072988541E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.9237916433307276E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.594087279362601E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.2643829153944744E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.9346785514263485E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6049741874582226E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.2752698234900967E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.9455654595219709E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.615861095553845E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.2861567315857191E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.9564523676175932E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.6267480036494673E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2970436396813414E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9673392757132152E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.637634911745089E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3079305477769627E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.9782261838088365E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6485218198407103E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.318817455872584E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.891130919044578E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.5940872793633157E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2970436396820538E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7811-4906-8E40-144E8E59E83C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717484016"/>
+        <c:axId val="1717489008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717484016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717489008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717489008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1717484016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2718,6 +4470,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4302,13 +6094,529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C4239F3-104F-4D0C-9DB7-15E5FC266C7B}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4321,7 +6629,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4334,7 +6642,20 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BCEE45E8-37F0-4E98-A6BF-63603DAB2296}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4345,7 +6666,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8670856" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4570,7 +6891,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8670856" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6332,7 +8653,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8670856" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6635,6 +8956,614 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665882" cy="6287745"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C0453C-477F-4CEB-8876-106B7C42A23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48994</cdr:x>
+      <cdr:y>0.95743</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51293</cdr:x>
+      <cdr:y>0.9901</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CC86CA-798F-4D9B-9464-FD3445606CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4245784" y="6020049"/>
+          <a:ext cx="199216" cy="205441"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57687</cdr:x>
+      <cdr:y>0.87236</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68239</cdr:x>
+      <cdr:y>0.91598</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41B8F0D-F7DD-46EF-86B1-9BC20DC3DC1F}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4999069" y="5485154"/>
+              <a:ext cx="914400" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="00447C"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="00447C"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:limLow>
+                      <m:limLowPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="00447C"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:limLowPr>
+                      <m:e>
+                        <m:groupChr>
+                          <m:groupChrPr>
+                            <m:chr m:val="⏟"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="00447C"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:groupChrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="00447C"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="00447C"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̂"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:srgbClr val="00447C"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:srgbClr val="00447C"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                        </m:groupChr>
+                      </m:e>
+                      <m:lim>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="00447C"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                      </m:lim>
+                    </m:limLow>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00447C"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41B8F0D-F7DD-46EF-86B1-9BC20DC3DC1F}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4999069" y="5485154"/>
+              <a:ext cx="914400" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00447C"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜀=⏟(𝑦−𝑦 ̂ )┬+</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00447C"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32267</cdr:x>
+      <cdr:y>0.87236</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42819</cdr:x>
+      <cdr:y>0.91598</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A98037-8011-4303-8A35-849D0D96762A}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2796241" y="5485154"/>
+              <a:ext cx="914400" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="D11242"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="D11242"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:limLow>
+                      <m:limLowPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:limLowPr>
+                      <m:e>
+                        <m:groupChr>
+                          <m:groupChrPr>
+                            <m:chr m:val="⏟"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="D11242"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:groupChrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="D11242"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="D11242"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̂"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:srgbClr val="D11242"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:srgbClr val="D11242"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                        </m:groupChr>
+                      </m:e>
+                      <m:lim>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                      </m:lim>
+                    </m:limLow>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A98037-8011-4303-8A35-849D0D96762A}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2796241" y="5485154"/>
+              <a:ext cx="914400" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="D11242"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜀=⏟(𝑦−𝑦 ̂ )┬−</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8265,6 +11194,2643 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17627D4C-065E-4178-9FA7-003CC2644D3A}">
+  <sheetPr>
+    <tabColor rgb="FF00447C"/>
+  </sheetPr>
+  <dimension ref="A1:E140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>-3</v>
+      </c>
+      <c r="B2" s="25">
+        <f>_xlfn.NORM.DIST(A2,0,1,FALSE)</f>
+        <v>4.4318484119380075E-3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <f>MAX(B2:B122)</f>
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <f>A2+0.05</f>
+        <v>-2.95</v>
+      </c>
+      <c r="B3" s="25">
+        <f>_xlfn.NORM.DIST(A3,0,1,FALSE)</f>
+        <v>5.1426409230539392E-3</v>
+      </c>
+      <c r="C3">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D2-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>0.39564523676175145</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <f t="shared" ref="A4:A67" si="0">A3+0.05</f>
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" ref="B4:B67" si="1">_xlfn.NORM.DIST(A4,0,1,FALSE)</f>
+        <v>5.9525324197758486E-3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="2">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D67" si="3">D3-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>0.3923481931220702</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.8500000000000005</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="1"/>
+        <v>6.8727666906139651E-3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="3"/>
+        <v>0.38905114948238895</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.8000000000000007</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="1"/>
+        <v>7.915451582979946E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="3"/>
+        <v>0.3857541058427077</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.7500000000000009</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="1"/>
+        <v>9.0935625015910286E-3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="3"/>
+        <v>0.38245706220302644</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.7000000000000011</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="1"/>
+        <v>1.0420934814422567E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="3"/>
+        <v>0.37916001856334519</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.6500000000000012</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="1"/>
+        <v>1.1912243607605141E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.37586297492366394</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.6000000000000014</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="1"/>
+        <v>1.3582969233685566E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="3"/>
+        <v>0.37256593128398269</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.5500000000000016</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5449347134395107E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.36926888764430144</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000018</v>
+      </c>
+      <c r="B12" s="25">
+        <f t="shared" si="1"/>
+        <v>1.7528300493568461E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="3"/>
+        <v>0.36597184400462018</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.450000000000002</v>
+      </c>
+      <c r="B13" s="25">
+        <f t="shared" si="1"/>
+        <v>1.9837354391795233E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="3"/>
+        <v>0.36267480036493893</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.4000000000000021</v>
+      </c>
+      <c r="B14" s="25">
+        <f t="shared" si="1"/>
+        <v>2.2394530294842781E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="3"/>
+        <v>0.35937775672525768</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.3500000000000023</v>
+      </c>
+      <c r="B15" s="25">
+        <f t="shared" si="1"/>
+        <v>2.5218219915194261E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="3"/>
+        <v>0.35608071308557643</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.3000000000000025</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" si="1"/>
+        <v>2.8327037741601009E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.35278366944589518</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.2500000000000027</v>
+      </c>
+      <c r="B17" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1739651835667224E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="3"/>
+        <v>0.34948662580621392</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="B18" s="25">
+        <f t="shared" si="1"/>
+        <v>3.5474592846231216E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="3"/>
+        <v>0.34618958216653267</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.150000000000003</v>
+      </c>
+      <c r="B19" s="25">
+        <f t="shared" si="1"/>
+        <v>3.9550041589369964E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
+        <v>0.34289253852685142</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.1000000000000032</v>
+      </c>
+      <c r="B20" s="25">
+        <f t="shared" si="1"/>
+        <v>4.39835959804269E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33959549488717017</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.0500000000000034</v>
+      </c>
+      <c r="B21" s="25">
+        <f t="shared" si="1"/>
+        <v>4.8792018579182417E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33629845124748892</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000036</v>
+      </c>
+      <c r="B22" s="25">
+        <f t="shared" si="1"/>
+        <v>5.3990966513187674E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33300140760780766</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.9500000000000035</v>
+      </c>
+      <c r="B23" s="25">
+        <f t="shared" si="1"/>
+        <v>5.9594706068815666E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>0.32970436396812641</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.9000000000000035</v>
+      </c>
+      <c r="B24" s="25">
+        <f t="shared" si="1"/>
+        <v>6.5615814774676165E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>0.32640732032844516</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.8500000000000034</v>
+      </c>
+      <c r="B25" s="25">
+        <f t="shared" si="1"/>
+        <v>7.2064874336217541E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>0.32311027668876391</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.8000000000000034</v>
+      </c>
+      <c r="B26" s="25">
+        <f t="shared" si="1"/>
+        <v>7.8950158300893677E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>0.31981323304908266</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.7500000000000033</v>
+      </c>
+      <c r="B27" s="25">
+        <f t="shared" si="1"/>
+        <v>8.6277318826511032E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>0.31651618940940141</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000033</v>
+      </c>
+      <c r="B28" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4049077376886406E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>0.31321914576972015</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.6500000000000032</v>
+      </c>
+      <c r="B29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.10226492456397746</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>0.3099221021300389</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000032</v>
+      </c>
+      <c r="B30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.11092083467945499</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30662505849035765</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.5500000000000032</v>
+      </c>
+      <c r="B31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12000900069698503</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>0.3033280148506764</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.5000000000000031</v>
+      </c>
+      <c r="B32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12951759566589113</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30003097121099515</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.4500000000000031</v>
+      </c>
+      <c r="B33" s="25">
+        <f t="shared" si="1"/>
+        <v>0.13943056644535964</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>0.29673392757131389</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.400000000000003</v>
+      </c>
+      <c r="B34" s="25">
+        <f t="shared" si="1"/>
+        <v>0.14972746563574424</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>0.29343688393163264</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.350000000000003</v>
+      </c>
+      <c r="B35" s="25">
+        <f t="shared" si="1"/>
+        <v>0.16038332734191896</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>0.29013984029195139</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000029</v>
+      </c>
+      <c r="B36" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17136859204780672</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>0.28684279665227014</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.2500000000000029</v>
+      </c>
+      <c r="B37" s="25">
+        <f t="shared" si="1"/>
+        <v>0.18264908538902128</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>0.28354575301258889</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="B38" s="25">
+        <f t="shared" si="1"/>
+        <v>0.19418605498321231</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>0.28024870937290763</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.1500000000000028</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20593626871997409</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>0.27695166573322638</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000028</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" si="1"/>
+        <v>0.21785217703254989</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>0.27365462209354513</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.0500000000000027</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" si="1"/>
+        <v>0.22988214068423238</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="3"/>
+        <v>0.27035757845386388</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000027</v>
+      </c>
+      <c r="B42" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2419707245191427</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26706053481418263</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.95000000000000262</v>
+      </c>
+      <c r="B43" s="25">
+        <f t="shared" si="1"/>
+        <v>0.25405905646918836</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26376349117450137</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000258</v>
+      </c>
+      <c r="B44" s="25">
+        <f t="shared" si="1"/>
+        <v>0.26608524989875421</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26046644753482012</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.85000000000000253</v>
+      </c>
+      <c r="B45" s="25">
+        <f t="shared" si="1"/>
+        <v>0.27798488613099587</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="3"/>
+        <v>0.25716940389513887</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.80000000000000249</v>
+      </c>
+      <c r="B46" s="25">
+        <f t="shared" si="1"/>
+        <v>0.28969155276148217</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="3"/>
+        <v>0.25387236025545762</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.75000000000000244</v>
+      </c>
+      <c r="B47" s="25">
+        <f t="shared" si="1"/>
+        <v>0.30113743215480387</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="3"/>
+        <v>0.25057531661577637</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.7000000000000024</v>
+      </c>
+      <c r="B48" s="25">
+        <f t="shared" si="1"/>
+        <v>0.31225393336676072</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="3"/>
+        <v>0.24727827297609511</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.65000000000000235</v>
+      </c>
+      <c r="B49" s="25">
+        <f t="shared" si="1"/>
+        <v>0.32297235966791382</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="3"/>
+        <v>0.24398122933641386</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000231</v>
+      </c>
+      <c r="B50" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33322460289179923</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="3"/>
+        <v>0.24068418569673261</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.55000000000000226</v>
+      </c>
+      <c r="B51" s="25">
+        <f t="shared" si="1"/>
+        <v>0.34294385501938346</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="3"/>
+        <v>0.23738714205705136</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000222</v>
+      </c>
+      <c r="B52" s="25">
+        <f t="shared" si="1"/>
+        <v>0.35206532676429914</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="3"/>
+        <v>0.23409009841737011</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.45000000000000223</v>
+      </c>
+      <c r="B53" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36052696246164762</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="3"/>
+        <v>0.23079305477768886</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000224</v>
+      </c>
+      <c r="B54" s="25">
+        <f t="shared" si="1"/>
+        <v>0.368270140303323</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2274960111380076</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.35000000000000225</v>
+      </c>
+      <c r="B55" s="25">
+        <f t="shared" si="1"/>
+        <v>0.37524034691693758</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="25">
+        <f t="shared" si="3"/>
+        <v>0.22419896749832635</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000226</v>
+      </c>
+      <c r="B56" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38138781546052386</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2209019238586451</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.25000000000000228</v>
+      </c>
+      <c r="B57" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38666811680284902</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="3"/>
+        <v>0.21760488021896385</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000229</v>
+      </c>
+      <c r="B58" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39104269397545571</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2143078365792826</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.1500000000000023</v>
+      </c>
+      <c r="B59" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39447933090788878</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="25">
+        <f t="shared" si="3"/>
+        <v>0.21101079293960134</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.1000000000000023</v>
+      </c>
+      <c r="B60" s="25">
+        <f t="shared" si="1"/>
+        <v>0.3969525474770117</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="25">
+        <f t="shared" si="3"/>
+        <v>0.20771374929992009</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000002293E-2</v>
+      </c>
+      <c r="B61" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39844391409476398</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="25">
+        <f t="shared" si="3"/>
+        <v>0.20441670566023884</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.2898349882893854E-15</v>
+      </c>
+      <c r="B62" s="25">
+        <f t="shared" si="1"/>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="25">
+        <f t="shared" si="3"/>
+        <v>0.20111966202055759</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
+        <f t="shared" si="0"/>
+        <v>4.9999999999997713E-2</v>
+      </c>
+      <c r="B63" s="25">
+        <f t="shared" si="1"/>
+        <v>0.3984439140947641</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="25">
+        <f t="shared" si="3"/>
+        <v>0.19782261838087634</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997716E-2</v>
+      </c>
+      <c r="B64" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39695254747701186</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="25">
+        <f t="shared" si="3"/>
+        <v>0.19452557474119508</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999772</v>
+      </c>
+      <c r="B65" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39447933090788906</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" si="3"/>
+        <v>0.19122853110151383</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999774</v>
+      </c>
+      <c r="B66" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39104269397545605</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="25">
+        <f t="shared" si="3"/>
+        <v>0.18793148746183258</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999772</v>
+      </c>
+      <c r="B67" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38666811680284946</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="25">
+        <f t="shared" si="3"/>
+        <v>0.18463444382215133</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <f t="shared" ref="A68:A131" si="4">A67+0.05</f>
+        <v>0.29999999999999771</v>
+      </c>
+      <c r="B68" s="25">
+        <f t="shared" ref="B68:B131" si="5">_xlfn.NORM.DIST(A68,0,1,FALSE)</f>
+        <v>0.38138781546052436</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C122" si="6">C67</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="25">
+        <f t="shared" ref="D68:D122" si="7">D67-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>0.18133740018247008</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <f t="shared" si="4"/>
+        <v>0.3499999999999977</v>
+      </c>
+      <c r="B69" s="25">
+        <f t="shared" si="5"/>
+        <v>0.37524034691693819</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="25">
+        <f t="shared" si="7"/>
+        <v>0.17804035654278882</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999769</v>
+      </c>
+      <c r="B70" s="25">
+        <f t="shared" si="5"/>
+        <v>0.36827014030332367</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="25">
+        <f t="shared" si="7"/>
+        <v>0.17474331290310757</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999768</v>
+      </c>
+      <c r="B71" s="25">
+        <f t="shared" si="5"/>
+        <v>0.36052696246164834</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="25">
+        <f t="shared" si="7"/>
+        <v>0.17144626926342632</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999767</v>
+      </c>
+      <c r="B72" s="25">
+        <f t="shared" si="5"/>
+        <v>0.35206532676429991</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="25">
+        <f t="shared" si="7"/>
+        <v>0.16814922562374507</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <f t="shared" si="4"/>
+        <v>0.54999999999999771</v>
+      </c>
+      <c r="B73" s="25">
+        <f t="shared" si="5"/>
+        <v>0.34294385501938435</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="25">
+        <f t="shared" si="7"/>
+        <v>0.16485218198406382</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="25">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999776</v>
+      </c>
+      <c r="B74" s="25">
+        <f t="shared" si="5"/>
+        <v>0.33322460289180011</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="25">
+        <f t="shared" si="7"/>
+        <v>0.16155513834438257</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <f t="shared" si="4"/>
+        <v>0.6499999999999978</v>
+      </c>
+      <c r="B75" s="25">
+        <f t="shared" si="5"/>
+        <v>0.32297235966791477</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="25">
+        <f t="shared" si="7"/>
+        <v>0.15825809470470131</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <f t="shared" si="4"/>
+        <v>0.69999999999999785</v>
+      </c>
+      <c r="B76" s="25">
+        <f t="shared" si="5"/>
+        <v>0.31225393336676177</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="25">
+        <f t="shared" si="7"/>
+        <v>0.15496105106502006</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <f t="shared" si="4"/>
+        <v>0.74999999999999789</v>
+      </c>
+      <c r="B77" s="25">
+        <f t="shared" si="5"/>
+        <v>0.30113743215480487</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="25">
+        <f t="shared" si="7"/>
+        <v>0.15166400742533881</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999793</v>
+      </c>
+      <c r="B78" s="25">
+        <f t="shared" si="5"/>
+        <v>0.28969155276148323</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="25">
+        <f t="shared" si="7"/>
+        <v>0.14836696378565756</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <f t="shared" si="4"/>
+        <v>0.84999999999999798</v>
+      </c>
+      <c r="B79" s="25">
+        <f t="shared" si="5"/>
+        <v>0.27798488613099692</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="25">
+        <f t="shared" si="7"/>
+        <v>0.14506992014597631</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999802</v>
+      </c>
+      <c r="B80" s="25">
+        <f t="shared" si="5"/>
+        <v>0.26608524989875532</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="25">
+        <f t="shared" si="7"/>
+        <v>0.14177287650629505</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <f t="shared" si="4"/>
+        <v>0.94999999999999807</v>
+      </c>
+      <c r="B81" s="25">
+        <f t="shared" si="5"/>
+        <v>0.25405905646918947</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D81" s="25">
+        <f t="shared" si="7"/>
+        <v>0.1384758328666138</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999811</v>
+      </c>
+      <c r="B82" s="25">
+        <f t="shared" si="5"/>
+        <v>0.24197072451914381</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="25">
+        <f t="shared" si="7"/>
+        <v>0.13517878922693255</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <f t="shared" si="4"/>
+        <v>1.049999999999998</v>
+      </c>
+      <c r="B83" s="25">
+        <f t="shared" si="5"/>
+        <v>0.22988214068423349</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="25">
+        <f t="shared" si="7"/>
+        <v>0.1318817455872513</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999981</v>
+      </c>
+      <c r="B84" s="25">
+        <f t="shared" si="5"/>
+        <v>0.21785217703255103</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="25">
+        <f t="shared" si="7"/>
+        <v>0.12858470194757005</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <f t="shared" si="4"/>
+        <v>1.1499999999999981</v>
+      </c>
+      <c r="B85" s="25">
+        <f t="shared" si="5"/>
+        <v>0.20593626871997517</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="25">
+        <f t="shared" si="7"/>
+        <v>0.12528765830788879</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999982</v>
+      </c>
+      <c r="B86" s="25">
+        <f t="shared" si="5"/>
+        <v>0.19418605498321337</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="25">
+        <f t="shared" si="7"/>
+        <v>0.12199061466820753</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <f t="shared" si="4"/>
+        <v>1.2499999999999982</v>
+      </c>
+      <c r="B87" s="25">
+        <f t="shared" si="5"/>
+        <v>0.18264908538902233</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="25">
+        <f t="shared" si="7"/>
+        <v>0.11869357102852626</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999983</v>
+      </c>
+      <c r="B88" s="25">
+        <f t="shared" si="5"/>
+        <v>0.17136859204780774</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D88" s="25">
+        <f t="shared" si="7"/>
+        <v>0.115396527388845</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3499999999999983</v>
+      </c>
+      <c r="B89" s="25">
+        <f t="shared" si="5"/>
+        <v>0.16038332734191996</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D89" s="25">
+        <f t="shared" si="7"/>
+        <v>0.11209948374916373</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999984</v>
+      </c>
+      <c r="B90" s="25">
+        <f t="shared" si="5"/>
+        <v>0.14972746563574521</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="25">
+        <f t="shared" si="7"/>
+        <v>0.10880244010948247</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <f t="shared" si="4"/>
+        <v>1.4499999999999984</v>
+      </c>
+      <c r="B91" s="25">
+        <f t="shared" si="5"/>
+        <v>0.13943056644536062</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="25">
+        <f t="shared" si="7"/>
+        <v>0.1055053964698012</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999984</v>
+      </c>
+      <c r="B92" s="25">
+        <f t="shared" si="5"/>
+        <v>0.12951759566589202</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="25">
+        <f t="shared" si="7"/>
+        <v>0.10220835283011993</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <f t="shared" si="4"/>
+        <v>1.5499999999999985</v>
+      </c>
+      <c r="B93" s="25">
+        <f t="shared" si="5"/>
+        <v>0.12000900069698586</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="25">
+        <f t="shared" si="7"/>
+        <v>9.8911309190438668E-2</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <f t="shared" si="4"/>
+        <v>1.5999999999999985</v>
+      </c>
+      <c r="B94" s="25">
+        <f t="shared" si="5"/>
+        <v>0.11092083467945583</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="25">
+        <f t="shared" si="7"/>
+        <v>9.5614265550757402E-2</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <f t="shared" si="4"/>
+        <v>1.6499999999999986</v>
+      </c>
+      <c r="B95" s="25">
+        <f t="shared" si="5"/>
+        <v>0.10226492456397825</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="25">
+        <f t="shared" si="7"/>
+        <v>9.2317221911076136E-2</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <f t="shared" si="4"/>
+        <v>1.6999999999999986</v>
+      </c>
+      <c r="B96" s="25">
+        <f t="shared" si="5"/>
+        <v>9.4049077376887155E-2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="25">
+        <f t="shared" si="7"/>
+        <v>8.902017827139487E-2</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <f t="shared" si="4"/>
+        <v>1.7499999999999987</v>
+      </c>
+      <c r="B97" s="25">
+        <f t="shared" si="5"/>
+        <v>8.6277318826511712E-2</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="25">
+        <f t="shared" si="7"/>
+        <v>8.5723134631713604E-2</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999987</v>
+      </c>
+      <c r="B98" s="25">
+        <f t="shared" si="5"/>
+        <v>7.8950158300894344E-2</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="25">
+        <f t="shared" si="7"/>
+        <v>8.2426090992032339E-2</v>
+      </c>
+      <c r="E98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="25">
+        <f t="shared" si="4"/>
+        <v>1.8499999999999988</v>
+      </c>
+      <c r="B99" s="25">
+        <f t="shared" si="5"/>
+        <v>7.2064874336218165E-2</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="25">
+        <f t="shared" si="7"/>
+        <v>7.9129047352351073E-2</v>
+      </c>
+      <c r="E99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <f t="shared" si="4"/>
+        <v>1.8999999999999988</v>
+      </c>
+      <c r="B100" s="25">
+        <f t="shared" si="5"/>
+        <v>6.5615814774676734E-2</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="25">
+        <f t="shared" si="7"/>
+        <v>7.5832003712669807E-2</v>
+      </c>
+      <c r="E100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="25">
+        <f t="shared" si="4"/>
+        <v>1.9499999999999988</v>
+      </c>
+      <c r="B101" s="25">
+        <f t="shared" si="5"/>
+        <v>5.9594706068816207E-2</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="25">
+        <f t="shared" si="7"/>
+        <v>7.2534960072988541E-2</v>
+      </c>
+      <c r="E101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999989</v>
+      </c>
+      <c r="B102" s="25">
+        <f t="shared" si="5"/>
+        <v>5.3990966513188167E-2</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="25">
+        <f t="shared" si="7"/>
+        <v>6.9237916433307276E-2</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="25">
+        <f t="shared" si="4"/>
+        <v>2.0499999999999989</v>
+      </c>
+      <c r="B103" s="25">
+        <f t="shared" si="5"/>
+        <v>4.8792018579182875E-2</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="25">
+        <f t="shared" si="7"/>
+        <v>6.594087279362601E-2</v>
+      </c>
+      <c r="E103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="25">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="B104" s="25">
+        <f t="shared" si="5"/>
+        <v>4.3983595980427309E-2</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="25">
+        <f t="shared" si="7"/>
+        <v>6.2643829153944744E-2</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
+        <f t="shared" si="4"/>
+        <v>2.1499999999999986</v>
+      </c>
+      <c r="B105" s="25">
+        <f t="shared" si="5"/>
+        <v>3.9550041589370331E-2</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="25">
+        <f t="shared" si="7"/>
+        <v>5.9346785514263485E-2</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999984</v>
+      </c>
+      <c r="B106" s="25">
+        <f t="shared" si="5"/>
+        <v>3.547459284623157E-2</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="25">
+        <f t="shared" si="7"/>
+        <v>5.6049741874582226E-2</v>
+      </c>
+      <c r="E106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
+        <f t="shared" si="4"/>
+        <v>2.2499999999999982</v>
+      </c>
+      <c r="B107" s="25">
+        <f t="shared" si="5"/>
+        <v>3.173965183566755E-2</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2752698234900967E-2</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <f t="shared" si="4"/>
+        <v>2.299999999999998</v>
+      </c>
+      <c r="B108" s="25">
+        <f t="shared" si="5"/>
+        <v>2.8327037741601297E-2</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9455654595219709E-2</v>
+      </c>
+      <c r="E108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <f t="shared" si="4"/>
+        <v>2.3499999999999979</v>
+      </c>
+      <c r="B109" s="25">
+        <f t="shared" si="5"/>
+        <v>2.5218219915194514E-2</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="25">
+        <f t="shared" si="7"/>
+        <v>4.615861095553845E-2</v>
+      </c>
+      <c r="E109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="25">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999977</v>
+      </c>
+      <c r="B110" s="25">
+        <f t="shared" si="5"/>
+        <v>2.2394530294843017E-2</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="25">
+        <f t="shared" si="7"/>
+        <v>4.2861567315857191E-2</v>
+      </c>
+      <c r="E110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
+        <f t="shared" si="4"/>
+        <v>2.4499999999999975</v>
+      </c>
+      <c r="B111" s="25">
+        <f t="shared" si="5"/>
+        <v>1.9837354391795441E-2</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="25">
+        <f t="shared" si="7"/>
+        <v>3.9564523676175932E-2</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="25">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999973</v>
+      </c>
+      <c r="B112" s="25">
+        <f t="shared" si="5"/>
+        <v>1.7528300493568655E-2</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="25">
+        <f t="shared" si="7"/>
+        <v>3.6267480036494673E-2</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
+        <f t="shared" si="4"/>
+        <v>2.5499999999999972</v>
+      </c>
+      <c r="B113" s="25">
+        <f t="shared" si="5"/>
+        <v>1.5449347134395285E-2</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="25">
+        <f t="shared" si="7"/>
+        <v>3.2970436396813414E-2</v>
+      </c>
+      <c r="E113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
+        <f t="shared" si="4"/>
+        <v>2.599999999999997</v>
+      </c>
+      <c r="B114" s="25">
+        <f t="shared" si="5"/>
+        <v>1.3582969233685722E-2</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="25">
+        <f t="shared" si="7"/>
+        <v>2.9673392757132152E-2</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="25">
+        <f t="shared" si="4"/>
+        <v>2.6499999999999968</v>
+      </c>
+      <c r="B115" s="25">
+        <f t="shared" si="5"/>
+        <v>1.191224360760528E-2</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="25">
+        <f t="shared" si="7"/>
+        <v>2.637634911745089E-2</v>
+      </c>
+      <c r="E115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="25">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999966</v>
+      </c>
+      <c r="B116" s="25">
+        <f t="shared" si="5"/>
+        <v>1.0420934814422692E-2</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="25">
+        <f t="shared" si="7"/>
+        <v>2.3079305477769627E-2</v>
+      </c>
+      <c r="E116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="25">
+        <f t="shared" si="4"/>
+        <v>2.7499999999999964</v>
+      </c>
+      <c r="B117" s="25">
+        <f t="shared" si="5"/>
+        <v>9.0935625015911431E-3</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="25">
+        <f t="shared" si="7"/>
+        <v>1.9782261838088365E-2</v>
+      </c>
+      <c r="E117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="25">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999963</v>
+      </c>
+      <c r="B118" s="25">
+        <f t="shared" si="5"/>
+        <v>7.9154515829800449E-3</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="25">
+        <f t="shared" si="7"/>
+        <v>1.6485218198407103E-2</v>
+      </c>
+      <c r="E118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="25">
+        <f t="shared" si="4"/>
+        <v>2.8499999999999961</v>
+      </c>
+      <c r="B119" s="25">
+        <f t="shared" si="5"/>
+        <v>6.872766690614051E-3</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="25">
+        <f t="shared" si="7"/>
+        <v>1.318817455872584E-2</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="25">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999959</v>
+      </c>
+      <c r="B120" s="25">
+        <f t="shared" si="5"/>
+        <v>5.9525324197759223E-3</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D120" s="25">
+        <f t="shared" si="7"/>
+        <v>9.891130919044578E-3</v>
+      </c>
+      <c r="E120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="25">
+        <f t="shared" si="4"/>
+        <v>2.9499999999999957</v>
+      </c>
+      <c r="B121" s="25">
+        <f t="shared" si="5"/>
+        <v>5.1426409230540026E-3</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D121" s="25">
+        <f t="shared" si="7"/>
+        <v>6.5940872793633157E-3</v>
+      </c>
+      <c r="E121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="25">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999956</v>
+      </c>
+      <c r="B122" s="25">
+        <f t="shared" si="5"/>
+        <v>4.4318484119380665E-3</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="25">
+        <f t="shared" si="7"/>
+        <v>3.2970436396820538E-3</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C689651-BB9F-4B8A-8D11-9414051932E6}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{889C40F2-A772-4823-A24A-A09B2FBAA08F}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F0F36A9-8751-4D86-9465-4885B6FD9AF5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21615" yWindow="4485" windowWidth="38700" windowHeight="15195" tabRatio="792" activeTab="7" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="12900" yWindow="4485" windowWidth="38700" windowHeight="15195" tabRatio="792" activeTab="7" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2667,7 +2667,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2677,7 +2677,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2685,14 +2685,14 @@
               <a:t>Error term</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> distribution</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2713,7 +2713,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6655,7 +6655,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8962,7 +8962,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6287745"/>
+    <xdr:ext cx="8662147" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9028,7 +9028,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1400"/>
             <a:t>0</a:t>
           </a:r>
         </a:p>
@@ -9037,12 +9037,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.57687</cdr:x>
-      <cdr:y>0.87236</cdr:y>
+      <cdr:x>0.57234</cdr:x>
+      <cdr:y>0.87147</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68239</cdr:x>
-      <cdr:y>0.91598</cdr:y>
+      <cdr:x>0.68846</cdr:x>
+      <cdr:y>0.92965</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9059,8 +9059,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="4999069" y="5485154"/>
-              <a:ext cx="914400" cy="274320"/>
+              <a:off x="4957713" y="5478488"/>
+              <a:ext cx="1005840" cy="365760"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -9078,7 +9078,7 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
                         <a:solidFill>
                           <a:srgbClr val="00447C"/>
                         </a:solidFill>
@@ -9087,7 +9087,7 @@
                       <m:t>𝜀</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
                         <a:solidFill>
                           <a:srgbClr val="00447C"/>
                         </a:solidFill>
@@ -9098,7 +9098,7 @@
                     <m:limLow>
                       <m:limLowPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:srgbClr val="00447C"/>
                             </a:solidFill>
@@ -9111,7 +9111,7 @@
                           <m:groupChrPr>
                             <m:chr m:val="⏟"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="00447C"/>
                                 </a:solidFill>
@@ -9121,7 +9121,7 @@
                           </m:groupChrPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="00447C"/>
                                 </a:solidFill>
@@ -9130,7 +9130,7 @@
                               <m:t>𝑦</m:t>
                             </m:r>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="00447C"/>
                                 </a:solidFill>
@@ -9142,7 +9142,7 @@
                               <m:accPr>
                                 <m:chr m:val="̂"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:srgbClr val="00447C"/>
                                     </a:solidFill>
@@ -9152,7 +9152,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:srgbClr val="00447C"/>
                                     </a:solidFill>
@@ -9167,7 +9167,7 @@
                       </m:e>
                       <m:lim>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:srgbClr val="00447C"/>
                             </a:solidFill>
@@ -9180,7 +9180,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="00447C"/>
                 </a:solidFill>
@@ -9203,8 +9203,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="4999069" y="5485154"/>
-              <a:ext cx="914400" cy="274320"/>
+              <a:off x="4957713" y="5478488"/>
+              <a:ext cx="1005840" cy="365760"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -9216,7 +9216,7 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:srgbClr val="00447C"/>
                   </a:solidFill>
@@ -9224,7 +9224,7 @@
                 </a:rPr>
                 <a:t>𝜀=⏟(𝑦−𝑦 ̂ )┬+</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="00447C"/>
                 </a:solidFill>
@@ -9237,12 +9237,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32267</cdr:x>
-      <cdr:y>0.87236</cdr:y>
+      <cdr:x>0.31814</cdr:x>
+      <cdr:y>0.87147</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42819</cdr:x>
-      <cdr:y>0.91598</cdr:y>
+      <cdr:x>0.43426</cdr:x>
+      <cdr:y>0.92965</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9259,8 +9259,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="2796241" y="5485154"/>
-              <a:ext cx="914400" cy="274320"/>
+              <a:off x="2755795" y="5478488"/>
+              <a:ext cx="1005840" cy="365760"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -9342,7 +9342,7 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
                         <a:solidFill>
                           <a:srgbClr val="D11242"/>
                         </a:solidFill>
@@ -9351,7 +9351,7 @@
                       <m:t>𝜀</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
                         <a:solidFill>
                           <a:srgbClr val="D11242"/>
                         </a:solidFill>
@@ -9362,7 +9362,7 @@
                     <m:limLow>
                       <m:limLowPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:srgbClr val="D11242"/>
                             </a:solidFill>
@@ -9375,7 +9375,7 @@
                           <m:groupChrPr>
                             <m:chr m:val="⏟"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="D11242"/>
                                 </a:solidFill>
@@ -9385,7 +9385,7 @@
                           </m:groupChrPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="D11242"/>
                                 </a:solidFill>
@@ -9394,7 +9394,7 @@
                               <m:t>𝑦</m:t>
                             </m:r>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="D11242"/>
                                 </a:solidFill>
@@ -9406,7 +9406,7 @@
                               <m:accPr>
                                 <m:chr m:val="̂"/>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:srgbClr val="D11242"/>
                                     </a:solidFill>
@@ -9416,7 +9416,7 @@
                               </m:accPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                                     <a:solidFill>
                                       <a:srgbClr val="D11242"/>
                                     </a:solidFill>
@@ -9431,7 +9431,7 @@
                       </m:e>
                       <m:lim>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:solidFill>
                               <a:srgbClr val="D11242"/>
                             </a:solidFill>
@@ -9444,7 +9444,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="D11242"/>
                 </a:solidFill>
@@ -9467,8 +9467,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="2796241" y="5485154"/>
-              <a:ext cx="914400" cy="274320"/>
+              <a:off x="2755795" y="5478488"/>
+              <a:ext cx="1005840" cy="365760"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -9544,7 +9544,7 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:srgbClr val="D11242"/>
                   </a:solidFill>
@@ -9552,7 +9552,7 @@
                 </a:rPr>
                 <a:t>𝜀=⏟(𝑦−𝑦 ̂ )┬−</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100">
+              <a:endParaRPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="D11242"/>
                 </a:solidFill>
@@ -11218,27 +11218,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>-3</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <f>_xlfn.NORM.DIST(A2,0,1,FALSE)</f>
         <v>4.4318484119380075E-3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <f>MAX(B2:B122)</f>
         <v>0.3989422804014327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <f>A2+0.05</f>
         <v>-2.95</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <f>_xlfn.NORM.DIST(A3,0,1,FALSE)</f>
         <v>5.1426409230539392E-3</v>
       </c>
@@ -11246,7 +11246,7 @@
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <f>D2-($D$2/COUNTA($A$2:$A$122))</f>
         <v>0.39564523676175145</v>
       </c>
@@ -11255,11 +11255,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <f t="shared" ref="A4:A67" si="0">A3+0.05</f>
         <v>-2.9000000000000004</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <f t="shared" ref="B4:B67" si="1">_xlfn.NORM.DIST(A4,0,1,FALSE)</f>
         <v>5.9525324197758486E-3</v>
       </c>
@@ -11267,7 +11267,7 @@
         <f t="shared" ref="C4:C67" si="2">C3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <f t="shared" ref="D4:D67" si="3">D3-($D$2/COUNTA($A$2:$A$122))</f>
         <v>0.3923481931220702</v>
       </c>
@@ -11276,11 +11276,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>-2.8500000000000005</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <f t="shared" si="1"/>
         <v>6.8727666906139651E-3</v>
       </c>
@@ -11288,7 +11288,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f t="shared" si="3"/>
         <v>0.38905114948238895</v>
       </c>
@@ -11297,11 +11297,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>-2.8000000000000007</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <f t="shared" si="1"/>
         <v>7.915451582979946E-3</v>
       </c>
@@ -11309,7 +11309,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <f t="shared" si="3"/>
         <v>0.3857541058427077</v>
       </c>
@@ -11318,11 +11318,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>-2.7500000000000009</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <f t="shared" si="1"/>
         <v>9.0935625015910286E-3</v>
       </c>
@@ -11330,7 +11330,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <f t="shared" si="3"/>
         <v>0.38245706220302644</v>
       </c>
@@ -11339,11 +11339,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <f t="shared" si="1"/>
         <v>1.0420934814422567E-2</v>
       </c>
@@ -11351,7 +11351,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f t="shared" si="3"/>
         <v>0.37916001856334519</v>
       </c>
@@ -11360,11 +11360,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>-2.6500000000000012</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <f t="shared" si="1"/>
         <v>1.1912243607605141E-2</v>
       </c>
@@ -11372,7 +11372,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <f t="shared" si="3"/>
         <v>0.37586297492366394</v>
       </c>
@@ -11381,11 +11381,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>-2.6000000000000014</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <f t="shared" si="1"/>
         <v>1.3582969233685566E-2</v>
       </c>
@@ -11393,7 +11393,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <f t="shared" si="3"/>
         <v>0.37256593128398269</v>
       </c>
@@ -11402,11 +11402,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>-2.5500000000000016</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <f t="shared" si="1"/>
         <v>1.5449347134395107E-2</v>
       </c>
@@ -11414,7 +11414,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <f t="shared" si="3"/>
         <v>0.36926888764430144</v>
       </c>
@@ -11423,11 +11423,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>-2.5000000000000018</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f t="shared" si="1"/>
         <v>1.7528300493568461E-2</v>
       </c>
@@ -11435,7 +11435,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <f t="shared" si="3"/>
         <v>0.36597184400462018</v>
       </c>
@@ -11444,11 +11444,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>-2.450000000000002</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f t="shared" si="1"/>
         <v>1.9837354391795233E-2</v>
       </c>
@@ -11456,7 +11456,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <f t="shared" si="3"/>
         <v>0.36267480036493893</v>
       </c>
@@ -11465,11 +11465,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>-2.4000000000000021</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f t="shared" si="1"/>
         <v>2.2394530294842781E-2</v>
       </c>
@@ -11477,7 +11477,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f t="shared" si="3"/>
         <v>0.35937775672525768</v>
       </c>
@@ -11486,11 +11486,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>-2.3500000000000023</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <f t="shared" si="1"/>
         <v>2.5218219915194261E-2</v>
       </c>
@@ -11498,7 +11498,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <f t="shared" si="3"/>
         <v>0.35608071308557643</v>
       </c>
@@ -11507,11 +11507,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>-2.3000000000000025</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <f t="shared" si="1"/>
         <v>2.8327037741601009E-2</v>
       </c>
@@ -11519,7 +11519,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <f t="shared" si="3"/>
         <v>0.35278366944589518</v>
       </c>
@@ -11528,11 +11528,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>-2.2500000000000027</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <f t="shared" si="1"/>
         <v>3.1739651835667224E-2</v>
       </c>
@@ -11540,7 +11540,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <f t="shared" si="3"/>
         <v>0.34948662580621392</v>
       </c>
@@ -11549,11 +11549,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>-2.2000000000000028</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <f t="shared" si="1"/>
         <v>3.5474592846231216E-2</v>
       </c>
@@ -11561,7 +11561,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <f t="shared" si="3"/>
         <v>0.34618958216653267</v>
       </c>
@@ -11570,11 +11570,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>-2.150000000000003</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f t="shared" si="1"/>
         <v>3.9550041589369964E-2</v>
       </c>
@@ -11582,7 +11582,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <f t="shared" si="3"/>
         <v>0.34289253852685142</v>
       </c>
@@ -11591,11 +11591,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>-2.1000000000000032</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <f t="shared" si="1"/>
         <v>4.39835959804269E-2</v>
       </c>
@@ -11603,7 +11603,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <f t="shared" si="3"/>
         <v>0.33959549488717017</v>
       </c>
@@ -11612,11 +11612,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>-2.0500000000000034</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <f t="shared" si="1"/>
         <v>4.8792018579182417E-2</v>
       </c>
@@ -11624,7 +11624,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <f t="shared" si="3"/>
         <v>0.33629845124748892</v>
       </c>
@@ -11633,11 +11633,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>-2.0000000000000036</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <f t="shared" si="1"/>
         <v>5.3990966513187674E-2</v>
       </c>
@@ -11645,7 +11645,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <f t="shared" si="3"/>
         <v>0.33300140760780766</v>
       </c>
@@ -11654,11 +11654,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>-1.9500000000000035</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <f t="shared" si="1"/>
         <v>5.9594706068815666E-2</v>
       </c>
@@ -11666,7 +11666,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <f t="shared" si="3"/>
         <v>0.32970436396812641</v>
       </c>
@@ -11675,11 +11675,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>-1.9000000000000035</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <f t="shared" si="1"/>
         <v>6.5615814774676165E-2</v>
       </c>
@@ -11687,7 +11687,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <f t="shared" si="3"/>
         <v>0.32640732032844516</v>
       </c>
@@ -11696,11 +11696,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>-1.8500000000000034</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <f t="shared" si="1"/>
         <v>7.2064874336217541E-2</v>
       </c>
@@ -11708,7 +11708,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <f t="shared" si="3"/>
         <v>0.32311027668876391</v>
       </c>
@@ -11717,11 +11717,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>-1.8000000000000034</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <f t="shared" si="1"/>
         <v>7.8950158300893677E-2</v>
       </c>
@@ -11729,7 +11729,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <f t="shared" si="3"/>
         <v>0.31981323304908266</v>
       </c>
@@ -11738,11 +11738,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>-1.7500000000000033</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <f t="shared" si="1"/>
         <v>8.6277318826511032E-2</v>
       </c>
@@ -11750,7 +11750,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <f t="shared" si="3"/>
         <v>0.31651618940940141</v>
       </c>
@@ -11759,11 +11759,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>-1.7000000000000033</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <f t="shared" si="1"/>
         <v>9.4049077376886406E-2</v>
       </c>
@@ -11771,7 +11771,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <f t="shared" si="3"/>
         <v>0.31321914576972015</v>
       </c>
@@ -11780,11 +11780,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>-1.6500000000000032</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <f t="shared" si="1"/>
         <v>0.10226492456397746</v>
       </c>
@@ -11792,7 +11792,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <f t="shared" si="3"/>
         <v>0.3099221021300389</v>
       </c>
@@ -11801,11 +11801,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>-1.6000000000000032</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <f t="shared" si="1"/>
         <v>0.11092083467945499</v>
       </c>
@@ -11813,7 +11813,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <f t="shared" si="3"/>
         <v>0.30662505849035765</v>
       </c>
@@ -11822,11 +11822,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>-1.5500000000000032</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <f t="shared" si="1"/>
         <v>0.12000900069698503</v>
       </c>
@@ -11834,7 +11834,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <f t="shared" si="3"/>
         <v>0.3033280148506764</v>
       </c>
@@ -11843,11 +11843,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>-1.5000000000000031</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <f t="shared" si="1"/>
         <v>0.12951759566589113</v>
       </c>
@@ -11855,7 +11855,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <f t="shared" si="3"/>
         <v>0.30003097121099515</v>
       </c>
@@ -11864,11 +11864,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>-1.4500000000000031</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <f t="shared" si="1"/>
         <v>0.13943056644535964</v>
       </c>
@@ -11876,7 +11876,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <f t="shared" si="3"/>
         <v>0.29673392757131389</v>
       </c>
@@ -11885,11 +11885,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>-1.400000000000003</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <f t="shared" si="1"/>
         <v>0.14972746563574424</v>
       </c>
@@ -11897,7 +11897,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <f t="shared" si="3"/>
         <v>0.29343688393163264</v>
       </c>
@@ -11906,11 +11906,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>-1.350000000000003</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f t="shared" si="1"/>
         <v>0.16038332734191896</v>
       </c>
@@ -11918,7 +11918,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <f t="shared" si="3"/>
         <v>0.29013984029195139</v>
       </c>
@@ -11927,11 +11927,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>-1.3000000000000029</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <f t="shared" si="1"/>
         <v>0.17136859204780672</v>
       </c>
@@ -11939,7 +11939,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24">
         <f t="shared" si="3"/>
         <v>0.28684279665227014</v>
       </c>
@@ -11948,11 +11948,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>-1.2500000000000029</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <f t="shared" si="1"/>
         <v>0.18264908538902128</v>
       </c>
@@ -11960,7 +11960,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="24">
         <f t="shared" si="3"/>
         <v>0.28354575301258889</v>
       </c>
@@ -11969,11 +11969,11 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>-1.2000000000000028</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="24">
         <f t="shared" si="1"/>
         <v>0.19418605498321231</v>
       </c>
@@ -11981,7 +11981,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <f t="shared" si="3"/>
         <v>0.28024870937290763</v>
       </c>
@@ -11990,11 +11990,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>-1.1500000000000028</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <f t="shared" si="1"/>
         <v>0.20593626871997409</v>
       </c>
@@ -12002,7 +12002,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <f t="shared" si="3"/>
         <v>0.27695166573322638</v>
       </c>
@@ -12011,11 +12011,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>-1.1000000000000028</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <f t="shared" si="1"/>
         <v>0.21785217703254989</v>
       </c>
@@ -12023,7 +12023,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
         <f t="shared" si="3"/>
         <v>0.27365462209354513</v>
       </c>
@@ -12032,11 +12032,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>-1.0500000000000027</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <f t="shared" si="1"/>
         <v>0.22988214068423238</v>
       </c>
@@ -12044,7 +12044,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
         <f t="shared" si="3"/>
         <v>0.27035757845386388</v>
       </c>
@@ -12053,11 +12053,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>-1.0000000000000027</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <f t="shared" si="1"/>
         <v>0.2419707245191427</v>
       </c>
@@ -12065,7 +12065,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <f t="shared" si="3"/>
         <v>0.26706053481418263</v>
       </c>
@@ -12074,11 +12074,11 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>-0.95000000000000262</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <f t="shared" si="1"/>
         <v>0.25405905646918836</v>
       </c>
@@ -12086,7 +12086,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <f t="shared" si="3"/>
         <v>0.26376349117450137</v>
       </c>
@@ -12095,11 +12095,11 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>-0.90000000000000258</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="24">
         <f t="shared" si="1"/>
         <v>0.26608524989875421</v>
       </c>
@@ -12107,7 +12107,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <f t="shared" si="3"/>
         <v>0.26046644753482012</v>
       </c>
@@ -12116,11 +12116,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>-0.85000000000000253</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <f t="shared" si="1"/>
         <v>0.27798488613099587</v>
       </c>
@@ -12128,7 +12128,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
         <f t="shared" si="3"/>
         <v>0.25716940389513887</v>
       </c>
@@ -12137,11 +12137,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>-0.80000000000000249</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <f t="shared" si="1"/>
         <v>0.28969155276148217</v>
       </c>
@@ -12149,7 +12149,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24">
         <f t="shared" si="3"/>
         <v>0.25387236025545762</v>
       </c>
@@ -12158,11 +12158,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>-0.75000000000000244</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="24">
         <f t="shared" si="1"/>
         <v>0.30113743215480387</v>
       </c>
@@ -12170,7 +12170,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="24">
         <f t="shared" si="3"/>
         <v>0.25057531661577637</v>
       </c>
@@ -12179,11 +12179,11 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>-0.7000000000000024</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="24">
         <f t="shared" si="1"/>
         <v>0.31225393336676072</v>
       </c>
@@ -12191,7 +12191,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="24">
         <f t="shared" si="3"/>
         <v>0.24727827297609511</v>
       </c>
@@ -12200,11 +12200,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <f t="shared" si="0"/>
         <v>-0.65000000000000235</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <f t="shared" si="1"/>
         <v>0.32297235966791382</v>
       </c>
@@ -12212,7 +12212,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="24">
         <f t="shared" si="3"/>
         <v>0.24398122933641386</v>
       </c>
@@ -12221,11 +12221,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="24">
         <f t="shared" si="0"/>
         <v>-0.60000000000000231</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <f t="shared" si="1"/>
         <v>0.33322460289179923</v>
       </c>
@@ -12233,7 +12233,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <f t="shared" si="3"/>
         <v>0.24068418569673261</v>
       </c>
@@ -12242,11 +12242,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>-0.55000000000000226</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <f t="shared" si="1"/>
         <v>0.34294385501938346</v>
       </c>
@@ -12254,7 +12254,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24">
         <f t="shared" si="3"/>
         <v>0.23738714205705136</v>
       </c>
@@ -12263,11 +12263,11 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
+      <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>-0.50000000000000222</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="24">
         <f t="shared" si="1"/>
         <v>0.35206532676429914</v>
       </c>
@@ -12275,7 +12275,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="24">
         <f t="shared" si="3"/>
         <v>0.23409009841737011</v>
       </c>
@@ -12284,11 +12284,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
+      <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>-0.45000000000000223</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="24">
         <f t="shared" si="1"/>
         <v>0.36052696246164762</v>
       </c>
@@ -12296,7 +12296,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24">
         <f t="shared" si="3"/>
         <v>0.23079305477768886</v>
       </c>
@@ -12305,11 +12305,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>-0.40000000000000224</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="24">
         <f t="shared" si="1"/>
         <v>0.368270140303323</v>
       </c>
@@ -12317,7 +12317,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="24">
         <f t="shared" si="3"/>
         <v>0.2274960111380076</v>
       </c>
@@ -12326,11 +12326,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
+      <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>-0.35000000000000225</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <f t="shared" si="1"/>
         <v>0.37524034691693758</v>
       </c>
@@ -12338,7 +12338,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="24">
         <f t="shared" si="3"/>
         <v>0.22419896749832635</v>
       </c>
@@ -12347,11 +12347,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>-0.30000000000000226</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <f t="shared" si="1"/>
         <v>0.38138781546052386</v>
       </c>
@@ -12359,7 +12359,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="24">
         <f t="shared" si="3"/>
         <v>0.2209019238586451</v>
       </c>
@@ -12368,11 +12368,11 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
+      <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>-0.25000000000000228</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <f t="shared" si="1"/>
         <v>0.38666811680284902</v>
       </c>
@@ -12380,7 +12380,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="24">
         <f t="shared" si="3"/>
         <v>0.21760488021896385</v>
       </c>
@@ -12389,11 +12389,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>-0.20000000000000229</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="24">
         <f t="shared" si="1"/>
         <v>0.39104269397545571</v>
       </c>
@@ -12401,7 +12401,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="24">
         <f t="shared" si="3"/>
         <v>0.2143078365792826</v>
       </c>
@@ -12410,11 +12410,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+      <c r="A59" s="24">
         <f t="shared" si="0"/>
         <v>-0.1500000000000023</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="24">
         <f t="shared" si="1"/>
         <v>0.39447933090788878</v>
       </c>
@@ -12422,7 +12422,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="24">
         <f t="shared" si="3"/>
         <v>0.21101079293960134</v>
       </c>
@@ -12431,11 +12431,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+      <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>-0.1000000000000023</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="24">
         <f t="shared" si="1"/>
         <v>0.3969525474770117</v>
       </c>
@@ -12443,7 +12443,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="24">
         <f t="shared" si="3"/>
         <v>0.20771374929992009</v>
       </c>
@@ -12452,11 +12452,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
+      <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>-5.0000000000002293E-2</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f t="shared" si="1"/>
         <v>0.39844391409476398</v>
       </c>
@@ -12464,7 +12464,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="24">
         <f t="shared" si="3"/>
         <v>0.20441670566023884</v>
       </c>
@@ -12473,11 +12473,11 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="24">
         <f t="shared" si="0"/>
         <v>-2.2898349882893854E-15</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="24">
         <f t="shared" si="1"/>
         <v>0.3989422804014327</v>
       </c>
@@ -12485,7 +12485,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <f t="shared" si="3"/>
         <v>0.20111966202055759</v>
       </c>
@@ -12494,11 +12494,11 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
+      <c r="A63" s="24">
         <f t="shared" si="0"/>
         <v>4.9999999999997713E-2</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <f t="shared" si="1"/>
         <v>0.3984439140947641</v>
       </c>
@@ -12506,7 +12506,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="24">
         <f t="shared" si="3"/>
         <v>0.19782261838087634</v>
       </c>
@@ -12515,11 +12515,11 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+      <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>9.9999999999997716E-2</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="24">
         <f t="shared" si="1"/>
         <v>0.39695254747701186</v>
       </c>
@@ -12527,7 +12527,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="24">
         <f t="shared" si="3"/>
         <v>0.19452557474119508</v>
       </c>
@@ -12536,11 +12536,11 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="A65" s="24">
         <f t="shared" si="0"/>
         <v>0.14999999999999772</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="24">
         <f t="shared" si="1"/>
         <v>0.39447933090788906</v>
       </c>
@@ -12548,7 +12548,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="24">
         <f t="shared" si="3"/>
         <v>0.19122853110151383</v>
       </c>
@@ -12557,11 +12557,11 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="24">
         <f t="shared" si="0"/>
         <v>0.19999999999999774</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="24">
         <f t="shared" si="1"/>
         <v>0.39104269397545605</v>
       </c>
@@ -12569,7 +12569,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="24">
         <f t="shared" si="3"/>
         <v>0.18793148746183258</v>
       </c>
@@ -12578,11 +12578,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+      <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>0.24999999999999772</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="24">
         <f t="shared" si="1"/>
         <v>0.38666811680284946</v>
       </c>
@@ -12590,7 +12590,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="24">
         <f t="shared" si="3"/>
         <v>0.18463444382215133</v>
       </c>
@@ -12599,19 +12599,19 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
-        <f t="shared" ref="A68:A131" si="4">A67+0.05</f>
+      <c r="A68" s="24">
+        <f t="shared" ref="A68:A122" si="4">A67+0.05</f>
         <v>0.29999999999999771</v>
       </c>
-      <c r="B68" s="25">
-        <f t="shared" ref="B68:B131" si="5">_xlfn.NORM.DIST(A68,0,1,FALSE)</f>
+      <c r="B68" s="24">
+        <f t="shared" ref="B68:B122" si="5">_xlfn.NORM.DIST(A68,0,1,FALSE)</f>
         <v>0.38138781546052436</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C122" si="6">C67</f>
         <v>0</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="24">
         <f t="shared" ref="D68:D122" si="7">D67-($D$2/COUNTA($A$2:$A$122))</f>
         <v>0.18133740018247008</v>
       </c>
@@ -12620,11 +12620,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
+      <c r="A69" s="24">
         <f t="shared" si="4"/>
         <v>0.3499999999999977</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="24">
         <f t="shared" si="5"/>
         <v>0.37524034691693819</v>
       </c>
@@ -12632,7 +12632,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="24">
         <f t="shared" si="7"/>
         <v>0.17804035654278882</v>
       </c>
@@ -12641,11 +12641,11 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="24">
         <f t="shared" si="4"/>
         <v>0.39999999999999769</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="24">
         <f t="shared" si="5"/>
         <v>0.36827014030332367</v>
       </c>
@@ -12653,7 +12653,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="24">
         <f t="shared" si="7"/>
         <v>0.17474331290310757</v>
       </c>
@@ -12662,11 +12662,11 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
+      <c r="A71" s="24">
         <f t="shared" si="4"/>
         <v>0.44999999999999768</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="24">
         <f t="shared" si="5"/>
         <v>0.36052696246164834</v>
       </c>
@@ -12674,7 +12674,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="24">
         <f t="shared" si="7"/>
         <v>0.17144626926342632</v>
       </c>
@@ -12683,11 +12683,11 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="A72" s="24">
         <f t="shared" si="4"/>
         <v>0.49999999999999767</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="24">
         <f t="shared" si="5"/>
         <v>0.35206532676429991</v>
       </c>
@@ -12695,7 +12695,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="24">
         <f t="shared" si="7"/>
         <v>0.16814922562374507</v>
       </c>
@@ -12704,11 +12704,11 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
+      <c r="A73" s="24">
         <f t="shared" si="4"/>
         <v>0.54999999999999771</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="24">
         <f t="shared" si="5"/>
         <v>0.34294385501938435</v>
       </c>
@@ -12716,7 +12716,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="24">
         <f t="shared" si="7"/>
         <v>0.16485218198406382</v>
       </c>
@@ -12725,11 +12725,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="24">
         <f t="shared" si="4"/>
         <v>0.59999999999999776</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="24">
         <f t="shared" si="5"/>
         <v>0.33322460289180011</v>
       </c>
@@ -12737,7 +12737,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="24">
         <f t="shared" si="7"/>
         <v>0.16155513834438257</v>
       </c>
@@ -12746,11 +12746,11 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
+      <c r="A75" s="24">
         <f t="shared" si="4"/>
         <v>0.6499999999999978</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <f t="shared" si="5"/>
         <v>0.32297235966791477</v>
       </c>
@@ -12758,7 +12758,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="24">
         <f t="shared" si="7"/>
         <v>0.15825809470470131</v>
       </c>
@@ -12767,11 +12767,11 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="24">
         <f t="shared" si="4"/>
         <v>0.69999999999999785</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="24">
         <f t="shared" si="5"/>
         <v>0.31225393336676177</v>
       </c>
@@ -12779,7 +12779,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="24">
         <f t="shared" si="7"/>
         <v>0.15496105106502006</v>
       </c>
@@ -12788,11 +12788,11 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
+      <c r="A77" s="24">
         <f t="shared" si="4"/>
         <v>0.74999999999999789</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B77" s="24">
         <f t="shared" si="5"/>
         <v>0.30113743215480487</v>
       </c>
@@ -12800,7 +12800,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="24">
         <f t="shared" si="7"/>
         <v>0.15166400742533881</v>
       </c>
@@ -12809,11 +12809,11 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="24">
         <f t="shared" si="4"/>
         <v>0.79999999999999793</v>
       </c>
-      <c r="B78" s="25">
+      <c r="B78" s="24">
         <f t="shared" si="5"/>
         <v>0.28969155276148323</v>
       </c>
@@ -12821,7 +12821,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="24">
         <f t="shared" si="7"/>
         <v>0.14836696378565756</v>
       </c>
@@ -12830,11 +12830,11 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
+      <c r="A79" s="24">
         <f t="shared" si="4"/>
         <v>0.84999999999999798</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <f t="shared" si="5"/>
         <v>0.27798488613099692</v>
       </c>
@@ -12842,7 +12842,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="24">
         <f t="shared" si="7"/>
         <v>0.14506992014597631</v>
       </c>
@@ -12851,11 +12851,11 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
+      <c r="A80" s="24">
         <f t="shared" si="4"/>
         <v>0.89999999999999802</v>
       </c>
-      <c r="B80" s="25">
+      <c r="B80" s="24">
         <f t="shared" si="5"/>
         <v>0.26608524989875532</v>
       </c>
@@ -12863,7 +12863,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="24">
         <f t="shared" si="7"/>
         <v>0.14177287650629505</v>
       </c>
@@ -12872,11 +12872,11 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
+      <c r="A81" s="24">
         <f t="shared" si="4"/>
         <v>0.94999999999999807</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="24">
         <f t="shared" si="5"/>
         <v>0.25405905646918947</v>
       </c>
@@ -12884,7 +12884,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="24">
         <f t="shared" si="7"/>
         <v>0.1384758328666138</v>
       </c>
@@ -12893,11 +12893,11 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+      <c r="A82" s="24">
         <f t="shared" si="4"/>
         <v>0.99999999999999811</v>
       </c>
-      <c r="B82" s="25">
+      <c r="B82" s="24">
         <f t="shared" si="5"/>
         <v>0.24197072451914381</v>
       </c>
@@ -12905,7 +12905,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="24">
         <f t="shared" si="7"/>
         <v>0.13517878922693255</v>
       </c>
@@ -12914,11 +12914,11 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
+      <c r="A83" s="24">
         <f t="shared" si="4"/>
         <v>1.049999999999998</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="24">
         <f t="shared" si="5"/>
         <v>0.22988214068423349</v>
       </c>
@@ -12926,7 +12926,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="24">
         <f t="shared" si="7"/>
         <v>0.1318817455872513</v>
       </c>
@@ -12935,11 +12935,11 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+      <c r="A84" s="24">
         <f t="shared" si="4"/>
         <v>1.0999999999999981</v>
       </c>
-      <c r="B84" s="25">
+      <c r="B84" s="24">
         <f t="shared" si="5"/>
         <v>0.21785217703255103</v>
       </c>
@@ -12947,7 +12947,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="24">
         <f t="shared" si="7"/>
         <v>0.12858470194757005</v>
       </c>
@@ -12956,11 +12956,11 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
+      <c r="A85" s="24">
         <f t="shared" si="4"/>
         <v>1.1499999999999981</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="24">
         <f t="shared" si="5"/>
         <v>0.20593626871997517</v>
       </c>
@@ -12968,7 +12968,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="24">
         <f t="shared" si="7"/>
         <v>0.12528765830788879</v>
       </c>
@@ -12977,11 +12977,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
+      <c r="A86" s="24">
         <f t="shared" si="4"/>
         <v>1.1999999999999982</v>
       </c>
-      <c r="B86" s="25">
+      <c r="B86" s="24">
         <f t="shared" si="5"/>
         <v>0.19418605498321337</v>
       </c>
@@ -12989,7 +12989,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="24">
         <f t="shared" si="7"/>
         <v>0.12199061466820753</v>
       </c>
@@ -12998,11 +12998,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
+      <c r="A87" s="24">
         <f t="shared" si="4"/>
         <v>1.2499999999999982</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <f t="shared" si="5"/>
         <v>0.18264908538902233</v>
       </c>
@@ -13010,7 +13010,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D87" s="25">
+      <c r="D87" s="24">
         <f t="shared" si="7"/>
         <v>0.11869357102852626</v>
       </c>
@@ -13019,11 +13019,11 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
+      <c r="A88" s="24">
         <f t="shared" si="4"/>
         <v>1.2999999999999983</v>
       </c>
-      <c r="B88" s="25">
+      <c r="B88" s="24">
         <f t="shared" si="5"/>
         <v>0.17136859204780774</v>
       </c>
@@ -13031,7 +13031,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D88" s="25">
+      <c r="D88" s="24">
         <f t="shared" si="7"/>
         <v>0.115396527388845</v>
       </c>
@@ -13040,11 +13040,11 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
+      <c r="A89" s="24">
         <f t="shared" si="4"/>
         <v>1.3499999999999983</v>
       </c>
-      <c r="B89" s="25">
+      <c r="B89" s="24">
         <f t="shared" si="5"/>
         <v>0.16038332734191996</v>
       </c>
@@ -13052,7 +13052,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D89" s="25">
+      <c r="D89" s="24">
         <f t="shared" si="7"/>
         <v>0.11209948374916373</v>
       </c>
@@ -13061,11 +13061,11 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+      <c r="A90" s="24">
         <f t="shared" si="4"/>
         <v>1.3999999999999984</v>
       </c>
-      <c r="B90" s="25">
+      <c r="B90" s="24">
         <f t="shared" si="5"/>
         <v>0.14972746563574521</v>
       </c>
@@ -13073,7 +13073,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D90" s="25">
+      <c r="D90" s="24">
         <f t="shared" si="7"/>
         <v>0.10880244010948247</v>
       </c>
@@ -13082,11 +13082,11 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
+      <c r="A91" s="24">
         <f t="shared" si="4"/>
         <v>1.4499999999999984</v>
       </c>
-      <c r="B91" s="25">
+      <c r="B91" s="24">
         <f t="shared" si="5"/>
         <v>0.13943056644536062</v>
       </c>
@@ -13094,7 +13094,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D91" s="25">
+      <c r="D91" s="24">
         <f t="shared" si="7"/>
         <v>0.1055053964698012</v>
       </c>
@@ -13103,11 +13103,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
+      <c r="A92" s="24">
         <f t="shared" si="4"/>
         <v>1.4999999999999984</v>
       </c>
-      <c r="B92" s="25">
+      <c r="B92" s="24">
         <f t="shared" si="5"/>
         <v>0.12951759566589202</v>
       </c>
@@ -13115,7 +13115,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="24">
         <f t="shared" si="7"/>
         <v>0.10220835283011993</v>
       </c>
@@ -13124,11 +13124,11 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
+      <c r="A93" s="24">
         <f t="shared" si="4"/>
         <v>1.5499999999999985</v>
       </c>
-      <c r="B93" s="25">
+      <c r="B93" s="24">
         <f t="shared" si="5"/>
         <v>0.12000900069698586</v>
       </c>
@@ -13136,7 +13136,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="24">
         <f t="shared" si="7"/>
         <v>9.8911309190438668E-2</v>
       </c>
@@ -13145,11 +13145,11 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
+      <c r="A94" s="24">
         <f t="shared" si="4"/>
         <v>1.5999999999999985</v>
       </c>
-      <c r="B94" s="25">
+      <c r="B94" s="24">
         <f t="shared" si="5"/>
         <v>0.11092083467945583</v>
       </c>
@@ -13157,7 +13157,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="24">
         <f t="shared" si="7"/>
         <v>9.5614265550757402E-2</v>
       </c>
@@ -13166,11 +13166,11 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="25">
+      <c r="A95" s="24">
         <f t="shared" si="4"/>
         <v>1.6499999999999986</v>
       </c>
-      <c r="B95" s="25">
+      <c r="B95" s="24">
         <f t="shared" si="5"/>
         <v>0.10226492456397825</v>
       </c>
@@ -13178,7 +13178,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D95" s="25">
+      <c r="D95" s="24">
         <f t="shared" si="7"/>
         <v>9.2317221911076136E-2</v>
       </c>
@@ -13187,11 +13187,11 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="25">
+      <c r="A96" s="24">
         <f t="shared" si="4"/>
         <v>1.6999999999999986</v>
       </c>
-      <c r="B96" s="25">
+      <c r="B96" s="24">
         <f t="shared" si="5"/>
         <v>9.4049077376887155E-2</v>
       </c>
@@ -13199,7 +13199,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="24">
         <f t="shared" si="7"/>
         <v>8.902017827139487E-2</v>
       </c>
@@ -13208,11 +13208,11 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
+      <c r="A97" s="24">
         <f t="shared" si="4"/>
         <v>1.7499999999999987</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="24">
         <f t="shared" si="5"/>
         <v>8.6277318826511712E-2</v>
       </c>
@@ -13220,7 +13220,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="24">
         <f t="shared" si="7"/>
         <v>8.5723134631713604E-2</v>
       </c>
@@ -13229,11 +13229,11 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="25">
+      <c r="A98" s="24">
         <f t="shared" si="4"/>
         <v>1.7999999999999987</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="24">
         <f t="shared" si="5"/>
         <v>7.8950158300894344E-2</v>
       </c>
@@ -13241,7 +13241,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="24">
         <f t="shared" si="7"/>
         <v>8.2426090992032339E-2</v>
       </c>
@@ -13250,11 +13250,11 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="25">
+      <c r="A99" s="24">
         <f t="shared" si="4"/>
         <v>1.8499999999999988</v>
       </c>
-      <c r="B99" s="25">
+      <c r="B99" s="24">
         <f t="shared" si="5"/>
         <v>7.2064874336218165E-2</v>
       </c>
@@ -13262,7 +13262,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D99" s="24">
         <f t="shared" si="7"/>
         <v>7.9129047352351073E-2</v>
       </c>
@@ -13271,11 +13271,11 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="25">
+      <c r="A100" s="24">
         <f t="shared" si="4"/>
         <v>1.8999999999999988</v>
       </c>
-      <c r="B100" s="25">
+      <c r="B100" s="24">
         <f t="shared" si="5"/>
         <v>6.5615814774676734E-2</v>
       </c>
@@ -13283,7 +13283,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D100" s="25">
+      <c r="D100" s="24">
         <f t="shared" si="7"/>
         <v>7.5832003712669807E-2</v>
       </c>
@@ -13292,11 +13292,11 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
+      <c r="A101" s="24">
         <f t="shared" si="4"/>
         <v>1.9499999999999988</v>
       </c>
-      <c r="B101" s="25">
+      <c r="B101" s="24">
         <f t="shared" si="5"/>
         <v>5.9594706068816207E-2</v>
       </c>
@@ -13304,7 +13304,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D101" s="25">
+      <c r="D101" s="24">
         <f t="shared" si="7"/>
         <v>7.2534960072988541E-2</v>
       </c>
@@ -13313,11 +13313,11 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="25">
+      <c r="A102" s="24">
         <f t="shared" si="4"/>
         <v>1.9999999999999989</v>
       </c>
-      <c r="B102" s="25">
+      <c r="B102" s="24">
         <f t="shared" si="5"/>
         <v>5.3990966513188167E-2</v>
       </c>
@@ -13325,7 +13325,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D102" s="25">
+      <c r="D102" s="24">
         <f t="shared" si="7"/>
         <v>6.9237916433307276E-2</v>
       </c>
@@ -13334,11 +13334,11 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="25">
+      <c r="A103" s="24">
         <f t="shared" si="4"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="B103" s="25">
+      <c r="B103" s="24">
         <f t="shared" si="5"/>
         <v>4.8792018579182875E-2</v>
       </c>
@@ -13346,7 +13346,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D103" s="25">
+      <c r="D103" s="24">
         <f t="shared" si="7"/>
         <v>6.594087279362601E-2</v>
       </c>
@@ -13355,11 +13355,11 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
+      <c r="A104" s="24">
         <f t="shared" si="4"/>
         <v>2.0999999999999988</v>
       </c>
-      <c r="B104" s="25">
+      <c r="B104" s="24">
         <f t="shared" si="5"/>
         <v>4.3983595980427309E-2</v>
       </c>
@@ -13367,7 +13367,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="24">
         <f t="shared" si="7"/>
         <v>6.2643829153944744E-2</v>
       </c>
@@ -13376,11 +13376,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="25">
+      <c r="A105" s="24">
         <f t="shared" si="4"/>
         <v>2.1499999999999986</v>
       </c>
-      <c r="B105" s="25">
+      <c r="B105" s="24">
         <f t="shared" si="5"/>
         <v>3.9550041589370331E-2</v>
       </c>
@@ -13388,7 +13388,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D105" s="25">
+      <c r="D105" s="24">
         <f t="shared" si="7"/>
         <v>5.9346785514263485E-2</v>
       </c>
@@ -13397,11 +13397,11 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
+      <c r="A106" s="24">
         <f t="shared" si="4"/>
         <v>2.1999999999999984</v>
       </c>
-      <c r="B106" s="25">
+      <c r="B106" s="24">
         <f t="shared" si="5"/>
         <v>3.547459284623157E-2</v>
       </c>
@@ -13409,7 +13409,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="24">
         <f t="shared" si="7"/>
         <v>5.6049741874582226E-2</v>
       </c>
@@ -13418,11 +13418,11 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="25">
+      <c r="A107" s="24">
         <f t="shared" si="4"/>
         <v>2.2499999999999982</v>
       </c>
-      <c r="B107" s="25">
+      <c r="B107" s="24">
         <f t="shared" si="5"/>
         <v>3.173965183566755E-2</v>
       </c>
@@ -13430,7 +13430,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D107" s="25">
+      <c r="D107" s="24">
         <f t="shared" si="7"/>
         <v>5.2752698234900967E-2</v>
       </c>
@@ -13439,11 +13439,11 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="25">
+      <c r="A108" s="24">
         <f t="shared" si="4"/>
         <v>2.299999999999998</v>
       </c>
-      <c r="B108" s="25">
+      <c r="B108" s="24">
         <f t="shared" si="5"/>
         <v>2.8327037741601297E-2</v>
       </c>
@@ -13451,7 +13451,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="24">
         <f t="shared" si="7"/>
         <v>4.9455654595219709E-2</v>
       </c>
@@ -13460,11 +13460,11 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="25">
+      <c r="A109" s="24">
         <f t="shared" si="4"/>
         <v>2.3499999999999979</v>
       </c>
-      <c r="B109" s="25">
+      <c r="B109" s="24">
         <f t="shared" si="5"/>
         <v>2.5218219915194514E-2</v>
       </c>
@@ -13472,7 +13472,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="24">
         <f t="shared" si="7"/>
         <v>4.615861095553845E-2</v>
       </c>
@@ -13481,11 +13481,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+      <c r="A110" s="24">
         <f t="shared" si="4"/>
         <v>2.3999999999999977</v>
       </c>
-      <c r="B110" s="25">
+      <c r="B110" s="24">
         <f t="shared" si="5"/>
         <v>2.2394530294843017E-2</v>
       </c>
@@ -13493,7 +13493,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="24">
         <f t="shared" si="7"/>
         <v>4.2861567315857191E-2</v>
       </c>
@@ -13502,11 +13502,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="25">
+      <c r="A111" s="24">
         <f t="shared" si="4"/>
         <v>2.4499999999999975</v>
       </c>
-      <c r="B111" s="25">
+      <c r="B111" s="24">
         <f t="shared" si="5"/>
         <v>1.9837354391795441E-2</v>
       </c>
@@ -13514,7 +13514,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D111" s="25">
+      <c r="D111" s="24">
         <f t="shared" si="7"/>
         <v>3.9564523676175932E-2</v>
       </c>
@@ -13523,11 +13523,11 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="25">
+      <c r="A112" s="24">
         <f t="shared" si="4"/>
         <v>2.4999999999999973</v>
       </c>
-      <c r="B112" s="25">
+      <c r="B112" s="24">
         <f t="shared" si="5"/>
         <v>1.7528300493568655E-2</v>
       </c>
@@ -13535,7 +13535,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="24">
         <f t="shared" si="7"/>
         <v>3.6267480036494673E-2</v>
       </c>
@@ -13544,11 +13544,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
+      <c r="A113" s="24">
         <f t="shared" si="4"/>
         <v>2.5499999999999972</v>
       </c>
-      <c r="B113" s="25">
+      <c r="B113" s="24">
         <f t="shared" si="5"/>
         <v>1.5449347134395285E-2</v>
       </c>
@@ -13556,7 +13556,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="24">
         <f t="shared" si="7"/>
         <v>3.2970436396813414E-2</v>
       </c>
@@ -13565,11 +13565,11 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
+      <c r="A114" s="24">
         <f t="shared" si="4"/>
         <v>2.599999999999997</v>
       </c>
-      <c r="B114" s="25">
+      <c r="B114" s="24">
         <f t="shared" si="5"/>
         <v>1.3582969233685722E-2</v>
       </c>
@@ -13577,7 +13577,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="24">
         <f t="shared" si="7"/>
         <v>2.9673392757132152E-2</v>
       </c>
@@ -13586,11 +13586,11 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
+      <c r="A115" s="24">
         <f t="shared" si="4"/>
         <v>2.6499999999999968</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B115" s="24">
         <f t="shared" si="5"/>
         <v>1.191224360760528E-2</v>
       </c>
@@ -13598,7 +13598,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="24">
         <f t="shared" si="7"/>
         <v>2.637634911745089E-2</v>
       </c>
@@ -13607,11 +13607,11 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="25">
+      <c r="A116" s="24">
         <f t="shared" si="4"/>
         <v>2.6999999999999966</v>
       </c>
-      <c r="B116" s="25">
+      <c r="B116" s="24">
         <f t="shared" si="5"/>
         <v>1.0420934814422692E-2</v>
       </c>
@@ -13619,7 +13619,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="24">
         <f t="shared" si="7"/>
         <v>2.3079305477769627E-2</v>
       </c>
@@ -13628,11 +13628,11 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="25">
+      <c r="A117" s="24">
         <f t="shared" si="4"/>
         <v>2.7499999999999964</v>
       </c>
-      <c r="B117" s="25">
+      <c r="B117" s="24">
         <f t="shared" si="5"/>
         <v>9.0935625015911431E-3</v>
       </c>
@@ -13640,7 +13640,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="24">
         <f t="shared" si="7"/>
         <v>1.9782261838088365E-2</v>
       </c>
@@ -13649,11 +13649,11 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="25">
+      <c r="A118" s="24">
         <f t="shared" si="4"/>
         <v>2.7999999999999963</v>
       </c>
-      <c r="B118" s="25">
+      <c r="B118" s="24">
         <f t="shared" si="5"/>
         <v>7.9154515829800449E-3</v>
       </c>
@@ -13661,7 +13661,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="24">
         <f t="shared" si="7"/>
         <v>1.6485218198407103E-2</v>
       </c>
@@ -13670,11 +13670,11 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <f t="shared" si="4"/>
         <v>2.8499999999999961</v>
       </c>
-      <c r="B119" s="25">
+      <c r="B119" s="24">
         <f t="shared" si="5"/>
         <v>6.872766690614051E-3</v>
       </c>
@@ -13682,7 +13682,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="24">
         <f t="shared" si="7"/>
         <v>1.318817455872584E-2</v>
       </c>
@@ -13691,11 +13691,11 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="25">
+      <c r="A120" s="24">
         <f t="shared" si="4"/>
         <v>2.8999999999999959</v>
       </c>
-      <c r="B120" s="25">
+      <c r="B120" s="24">
         <f t="shared" si="5"/>
         <v>5.9525324197759223E-3</v>
       </c>
@@ -13703,7 +13703,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="24">
         <f t="shared" si="7"/>
         <v>9.891130919044578E-3</v>
       </c>
@@ -13712,11 +13712,11 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="25">
+      <c r="A121" s="24">
         <f t="shared" si="4"/>
         <v>2.9499999999999957</v>
       </c>
-      <c r="B121" s="25">
+      <c r="B121" s="24">
         <f t="shared" si="5"/>
         <v>5.1426409230540026E-3</v>
       </c>
@@ -13724,7 +13724,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="24">
         <f t="shared" si="7"/>
         <v>6.5940872793633157E-3</v>
       </c>
@@ -13733,11 +13733,11 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="25">
+      <c r="A122" s="24">
         <f t="shared" si="4"/>
         <v>2.9999999999999956</v>
       </c>
-      <c r="B122" s="25">
+      <c r="B122" s="24">
         <f t="shared" si="5"/>
         <v>4.4318484119380665E-3</v>
       </c>
@@ -13745,7 +13745,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="24">
         <f t="shared" si="7"/>
         <v>3.2970436396820538E-3</v>
       </c>
@@ -13754,76 +13754,76 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13862,10 +13862,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="24">
+      <c r="O6" s="25">
         <v>0</v>
       </c>
-      <c r="P6" s="24"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -13892,8 +13892,8 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01E4A728-8CF7-422B-8D4C-CF418512B46E}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C954A15-509E-4619-A2C8-595777125877}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="4485" windowWidth="38700" windowHeight="15195" tabRatio="792" firstSheet="2" activeTab="8" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="15720" yWindow="3705" windowWidth="38700" windowHeight="15195" tabRatio="854" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
     <sheet name="OLS Fig 7 (data)" sheetId="5" r:id="rId2"/>
     <sheet name="CLASSIC MODEL 1 (data)" sheetId="7" r:id="rId3"/>
-    <sheet name="OLS Fig 4" sheetId="2" r:id="rId4"/>
-    <sheet name="OLS Fig 6" sheetId="3" r:id="rId5"/>
-    <sheet name="OLS Fig 7" sheetId="6" r:id="rId6"/>
-    <sheet name="OLS Fig 8" sheetId="4" r:id="rId7"/>
-    <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId8"/>
-    <sheet name="CLASSICAL MODEL Fig 2" sheetId="9" r:id="rId9"/>
+    <sheet name="HYPOTHESIS (Table 1)" sheetId="10" r:id="rId4"/>
+    <sheet name="OLS Fig 4" sheetId="2" r:id="rId5"/>
+    <sheet name="OLS Fig 6" sheetId="3" r:id="rId6"/>
+    <sheet name="OLS Fig 7" sheetId="6" r:id="rId7"/>
+    <sheet name="OLS Fig 8" sheetId="4" r:id="rId8"/>
+    <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId9"/>
+    <sheet name="CLASSICAL MODEL Fig 2" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>CAR</t>
   </si>
@@ -138,6 +139,39 @@
   <si>
     <t>Biased</t>
   </si>
+  <si>
+    <t>Null hypothesis is</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>Correct inference</t>
+  </si>
+  <si>
+    <t>(true negative)</t>
+  </si>
+  <si>
+    <t>Type II error</t>
+  </si>
+  <si>
+    <t>(false negative)</t>
+  </si>
+  <si>
+    <t>Type I error</t>
+  </si>
+  <si>
+    <t>(false positive)</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +231,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -317,11 +363,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +511,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +567,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00447C"/>
       <color rgb="FFD11242"/>
-      <color rgb="FF00447C"/>
       <color rgb="FF717073"/>
     </mruColors>
   </colors>
@@ -13202,7 +13373,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="165" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13246,7 +13417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8670636" cy="6298045"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13286,8 +13457,8 @@
       <cdr:x>0.43603</cdr:x>
       <cdr:y>0.98846</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -13333,7 +13504,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -13692,8 +13863,8 @@
       <cdr:x>0.61807</cdr:x>
       <cdr:y>0.98846</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="8" name="TextBox 1">
@@ -13815,7 +13986,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="8" name="TextBox 1">
@@ -26461,6 +26632,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9764C62C-CAD0-4AC5-992A-828FF223684C}">
+  <sheetPr>
+    <tabColor rgb="FF00447C"/>
+  </sheetPr>
+  <dimension ref="B4:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="27"/>
+    <col min="3" max="3" width="9.140625" style="28"/>
+    <col min="4" max="5" width="18.7109375" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="27" t="str">
+        <f>"True"</f>
+        <v>True</v>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f>"False"</f>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C689651-BB9F-4B8A-8D11-9414051932E6}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -26492,10 +26760,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <v>0</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -26522,8 +26790,8 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C954A15-509E-4619-A2C8-595777125877}"/>
+  <xr:revisionPtr revIDLastSave="763" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4954FC50-2A0A-4FC6-826F-B60C97175D48}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="3705" windowWidth="38700" windowHeight="15195" tabRatio="854" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="12900" yWindow="3705" windowWidth="38700" windowHeight="15195" tabRatio="854" firstSheet="4" activeTab="11" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
     <sheet name="OLS Fig 7 (data)" sheetId="5" r:id="rId2"/>
     <sheet name="CLASSIC MODEL 1 (data)" sheetId="7" r:id="rId3"/>
     <sheet name="HYPOTHESIS (Table 1)" sheetId="10" r:id="rId4"/>
-    <sheet name="OLS Fig 4" sheetId="2" r:id="rId5"/>
-    <sheet name="OLS Fig 6" sheetId="3" r:id="rId6"/>
-    <sheet name="OLS Fig 7" sheetId="6" r:id="rId7"/>
-    <sheet name="OLS Fig 8" sheetId="4" r:id="rId8"/>
-    <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId9"/>
-    <sheet name="CLASSICAL MODEL Fig 2" sheetId="9" r:id="rId10"/>
+    <sheet name="HYPOTHESIS 1" sheetId="11" r:id="rId5"/>
+    <sheet name="OLS Fig 4" sheetId="2" r:id="rId6"/>
+    <sheet name="OLS Fig 6" sheetId="3" r:id="rId7"/>
+    <sheet name="OLS Fig 7" sheetId="6" r:id="rId8"/>
+    <sheet name="OLS Fig 8" sheetId="4" r:id="rId9"/>
+    <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId10"/>
+    <sheet name="CLASSICAL MODEL Fig 2" sheetId="9" r:id="rId11"/>
+    <sheet name="HYPOTHESIS Fig 1" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>CAR</t>
   </si>
@@ -171,6 +173,30 @@
   </si>
   <si>
     <t>(false positive)</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left_mark</t>
+  </si>
+  <si>
+    <t>right_mark</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>mean_mark</t>
   </si>
 </sst>
 </file>
@@ -444,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,19 +538,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,8 +573,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +601,8 @@
   <colors>
     <mruColors>
       <color rgb="FF00447C"/>
+      <color rgb="FF717073"/>
       <color rgb="FFD11242"/>
-      <color rgb="FF717073"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10538,6 +10571,3290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Two-tailed hypothesis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> testing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9831117766998122E-2"/>
+          <c:y val="8.4715250900058714E-2"/>
+          <c:w val="0.94235688185491506"/>
+          <c:h val="0.81599136769990999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00447C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$A$2:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3500000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.3000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.0500000000000034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9500000000000035</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8500000000000034</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7500000000000033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.7000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.6500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.2500000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.1000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.0500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.95000000000000262</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.90000000000000258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.85000000000000253</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.80000000000000249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.75000000000000244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.7000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.65000000000000235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.60000000000000231</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.55000000000000226</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.50000000000000222</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.45000000000000223</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.40000000000000224</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.35000000000000225</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.30000000000000226</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25000000000000228</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.20000000000000229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.1500000000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.0000000000002293E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.2898349882893854E-15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9999999999997713E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9999999999997716E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14999999999999772</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19999999999999774</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.24999999999999772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29999999999999771</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.3499999999999977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39999999999999769</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.44999999999999768</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49999999999999767</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.54999999999999771</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59999999999999776</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.6499999999999978</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69999999999999785</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74999999999999789</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79999999999999793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.89999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94999999999999807</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999811</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1499999999999981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2999999999999983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3499999999999983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4499999999999984</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5499999999999985</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.2499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.3499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.4499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.4999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6499999999999968</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.6999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.7499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.7999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.8499999999999961</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.8999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.9999999999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$B$2:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>4.4318484119380075E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1426409230539392E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9525324197758486E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8727666906139651E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.915451582979946E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0935625015910286E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0420934814422567E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1912243607605141E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3582969233685566E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5449347134395107E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7528300493568461E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9837354391795233E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2394530294842781E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5218219915194261E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8327037741601009E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1739651835667224E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5474592846231216E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9550041589369964E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.39835959804269E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8792018579182417E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3990966513187674E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9594706068815666E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5615814774676165E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2064874336217541E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8950158300893677E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6277318826511032E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4049077376886406E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10226492456397746</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11092083467945499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12000900069698503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.12951759566589113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13943056644535964</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14972746563574424</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16038332734191896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17136859204780672</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18264908538902128</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19418605498321231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20593626871997409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21785217703254989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22988214068423238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2419707245191427</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25405905646918836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26608524989875421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27798488613099587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28969155276148217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30113743215480387</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31225393336676072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32297235966791382</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33322460289179923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34294385501938346</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35206532676429914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.36052696246164762</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.368270140303323</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37524034691693758</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38138781546052386</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.38666811680284902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39104269397545571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39447933090788878</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.3969525474770117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39844391409476398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3984439140947641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.39695254747701186</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.39447933090788906</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.39104269397545605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38666811680284946</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38138781546052436</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37524034691693819</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36827014030332367</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36052696246164834</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35206532676429991</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.34294385501938435</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.33322460289180011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32297235966791477</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31225393336676177</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30113743215480487</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28969155276148323</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.27798488613099692</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26608524989875532</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25405905646918947</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.24197072451914381</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.22988214068423349</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.21785217703255103</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20593626871997517</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19418605498321337</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.18264908538902233</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.17136859204780774</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16038332734191996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14972746563574521</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13943056644536062</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12951759566589202</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.12000900069698586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.11092083467945583</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10226492456397825</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4049077376887155E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.6277318826511712E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.8950158300894344E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.2064874336218165E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5615814774676734E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.9594706068816207E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.3990966513188167E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.8792018579182875E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3983595980427309E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.9550041589370331E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.547459284623157E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.173965183566755E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.8327037741601297E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5218219915194514E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2394530294843017E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9837354391795441E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7528300493568655E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5449347134395285E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3582969233685722E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.191224360760528E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0420934814422692E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.0935625015911431E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.9154515829800449E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.872766690614051E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.9525324197759223E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.1426409230540026E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.4318484119380665E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-168F-44C1-AC67-83E9D5E76245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D11242"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$C$2:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$D$2:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>5.3990966513187674E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3544760178367942E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.309855384354821E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2652347508728478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2206141173908746E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1759934839089014E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1313728504269282E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.086752216944955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0421315834629818E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9975109499810086E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9528903164990354E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9082696830170622E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.863649049535089E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8190284160531158E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7744077825711426E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7297871490891694E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6851665156071962E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.640545882125223E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5959252486432497E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5513046151612765E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5066839816793033E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4620633481973301E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4174427147153569E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3728220812333837E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3282014477514105E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2835808142694373E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2389601807874641E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1943395473054909E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1497189138235177E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1050982803415445E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0604776468595713E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0158570133775981E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9712363798956249E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9266157464136517E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8819951129316785E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8373744794497053E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7927538459677321E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7481332124857589E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7035125790037857E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6588919455218125E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6142713120398393E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5696506785578661E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5250300450758928E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4804094115939196E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4357887781119464E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3911681446299732E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.346547511148E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3019268776660268E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2573062441840536E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2126856107020804E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1680649772201072E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.123444343738134E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0788237102561608E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0342030767741876E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9895824432922144E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9449618098102412E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.900341176328268E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8557205428462948E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8110999093643216E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7664792758823484E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7218586424003752E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.677238008918402E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6326173754364288E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5879967419544556E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5433761084724824E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4987554749905092E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4541348415085359E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4095142080265627E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3648935745445895E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3202729410626163E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2756523075806431E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2310316740986699E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1864110406166967E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1417904071347235E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0971697736527503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0525491401707771E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0079285066888039E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9633078732068307E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9186872397248575E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8740666062428843E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8294459727609111E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7848253392789379E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7402047057969647E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6955840723149915E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6509634388330183E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6063428053510451E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5617221718690719E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5171015383870987E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4724809049051255E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4278602714231522E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.383239637941179E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3386190044592058E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2939983709772326E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2493777374952594E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2047571040132862E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.160136470531313E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1155158370493398E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0708952035673666E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0262745700853934E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8165393660342021E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.37033303121447E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.924126696394738E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.4779203615750059E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.0317140267552739E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.585507691935541E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.1393013571158081E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.6930950222960752E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.2468886874763423E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.8006823526566094E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.3544760178368764E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.9082696830171435E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4620633481974106E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0158570133776777E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.5696506785579448E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1234443437382119E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.677238008918479E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.2310316740987461E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7848253392790132E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3386190044592803E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.9241266963954735E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.462063348198145E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-168F-44C1-AC67-83E9D5E76245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D11242"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$E$2:$E$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$F$2:$F$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>5.3990966513187674E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3544760178367942E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.309855384354821E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2652347508728478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2206141173908746E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1759934839089014E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1313728504269282E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.086752216944955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0421315834629818E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9975109499810086E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9528903164990354E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9082696830170622E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.863649049535089E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8190284160531158E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7744077825711426E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7297871490891694E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6851665156071962E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.640545882125223E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5959252486432497E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5513046151612765E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5066839816793033E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4620633481973301E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4174427147153569E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3728220812333837E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3282014477514105E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2835808142694373E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2389601807874641E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1943395473054909E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1497189138235177E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1050982803415445E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0604776468595713E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0158570133775981E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9712363798956249E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9266157464136517E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8819951129316785E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8373744794497053E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7927538459677321E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7481332124857589E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7035125790037857E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6588919455218125E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6142713120398393E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5696506785578661E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5250300450758928E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4804094115939196E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4357887781119464E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3911681446299732E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.346547511148E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3019268776660268E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2573062441840536E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2126856107020804E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1680649772201072E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.123444343738134E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0788237102561608E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0342030767741876E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9895824432922144E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9449618098102412E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.900341176328268E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8557205428462948E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8110999093643216E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7664792758823484E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7218586424003752E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.677238008918402E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6326173754364288E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5879967419544556E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5433761084724824E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4987554749905092E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4541348415085359E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4095142080265627E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3648935745445895E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3202729410626163E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2756523075806431E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2310316740986699E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1864110406166967E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1417904071347235E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0971697736527503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0525491401707771E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0079285066888039E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9633078732068307E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9186872397248575E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8740666062428843E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8294459727609111E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7848253392789379E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7402047057969647E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6955840723149915E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6509634388330183E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6063428053510451E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5617221718690719E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5171015383870987E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4724809049051255E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4278602714231522E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.383239637941179E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3386190044592058E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2939983709772326E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2493777374952594E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2047571040132862E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.160136470531313E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1155158370493398E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0708952035673666E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0262745700853934E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8165393660342021E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.37033303121447E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.924126696394738E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.4779203615750059E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.0317140267552739E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.585507691935541E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.1393013571158081E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.6930950222960752E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.2468886874763423E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.8006823526566094E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.3544760178368764E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.9082696830171435E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4620633481974106E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0158570133776777E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.5696506785579448E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1234443437382119E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.677238008918479E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.2310316740987461E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7848253392790132E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3386190044592803E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.9241266963954735E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.462063348198145E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-168F-44C1-AC67-83E9D5E76245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="717073"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$G$2:$G$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HYPOTHESIS 1'!$H$2:$H$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39564523676175145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3923481931220702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38905114948238895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3857541058427077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38245706220302644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37916001856334519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37586297492366394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37256593128398269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36926888764430144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36597184400462018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36267480036493893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35937775672525768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35608071308557643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35278366944589518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34948662580621392</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34618958216653267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34289253852685142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33959549488717017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33629845124748892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33300140760780766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32970436396812641</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32640732032844516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32311027668876391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31981323304908266</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31651618940940141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31321914576972015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3099221021300389</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30662505849035765</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3033280148506764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30003097121099515</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29673392757131389</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29343688393163264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29013984029195139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28684279665227014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28354575301258889</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28024870937290763</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27695166573322638</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27365462209354513</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27035757845386388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26706053481418263</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26376349117450137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26046644753482012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25716940389513887</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25387236025545762</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25057531661577637</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24727827297609511</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24398122933641386</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24068418569673261</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23738714205705136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23409009841737011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23079305477768886</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2274960111380076</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.22419896749832635</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2209019238586451</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21760488021896385</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2143078365792826</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21101079293960134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20771374929992009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20441670566023884</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20111966202055759</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19782261838087634</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19452557474119508</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19122853110151383</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18793148746183258</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.18463444382215133</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18133740018247008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.17804035654278882</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17474331290310757</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17144626926342632</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.16814922562374507</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.16485218198406382</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.16155513834438257</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15825809470470131</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.15496105106502006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.15166400742533881</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14836696378565756</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14506992014597631</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14177287650629505</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1384758328666138</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.13517878922693255</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1318817455872513</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12858470194757005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12528765830788879</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.12199061466820753</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11869357102852626</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.115396527388845</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.11209948374916373</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.10880244010948247</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.1055053964698012</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.10220835283011993</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8911309190438668E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.5614265550757402E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2317221911076136E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.902017827139487E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5723134631713604E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.2426090992032339E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.9129047352351073E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.5832003712669807E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.2534960072988541E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.9237916433307276E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.594087279362601E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.2643829153944744E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.9346785514263485E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6049741874582226E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.2752698234900967E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.9455654595219709E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.615861095553845E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.2861567315857191E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.9564523676175932E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.6267480036494673E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2970436396813414E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9673392757132152E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.637634911745089E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3079305477769627E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.9782261838088365E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6485218198407103E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.318817455872584E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.891130919044578E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.5940872793633157E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2970436396820538E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EC0-4CAB-8406-1660080C2289}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1751380735"/>
+        <c:axId val="1747469359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1751380735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747469359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747469359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1751380735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10699,6 +14016,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13315,6 +16672,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C4239F3-104F-4D0C-9DB7-15E5FC266C7B}">
   <sheetPr>
@@ -13373,7 +17246,20 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{80BDA486-F3A0-4ACC-8EAF-90DFA5314141}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13417,7 +17303,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670636" cy="6298045"/>
+    <xdr:ext cx="8665882" cy="6287745"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -14083,6 +17969,1648 @@
                 <a:t>𝛽+𝜉</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6292645"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53412D7-3006-4C0D-B9E0-DBF9D4CE1327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48139</cdr:x>
+      <cdr:y>0.89507</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5236</cdr:x>
+      <cdr:y>0.93866</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB950543-C11A-4643-AEB9-4E1A3E6AD7A6}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4171079" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB950543-C11A-4643-AEB9-4E1A3E6AD7A6}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4171079" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻_0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71645</cdr:x>
+      <cdr:y>0.89507</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75866</cdr:x>
+      <cdr:y>0.93866</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B511C36B-5E66-4095-96A3-4AE273712BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="6207810" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜙</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B511C36B-5E66-4095-96A3-4AE273712BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="6207810" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="D11242"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜙_𝐶</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24584</cdr:x>
+      <cdr:y>0.89507</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28805</cdr:x>
+      <cdr:y>0.93866</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57C5A9E-A30D-4623-A386-17A19CABB414}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2130114" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜙</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="D11242"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57C5A9E-A30D-4623-A386-17A19CABB414}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2130114" y="5632344"/>
+              <a:ext cx="365760" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="D11242"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖−𝜙〗_𝐶</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="D11242"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26273</cdr:x>
+      <cdr:y>0.9372</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73762</cdr:x>
+      <cdr:y>0.95173</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Left Brace 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F8D59A-D5DA-464F-91FC-77EED545EAEF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="4288142" y="3885803"/>
+          <a:ext cx="91440" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="D11242"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02587</cdr:x>
+      <cdr:y>0.94085</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25804</cdr:x>
+      <cdr:y>0.94184</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF3CA77-027E-4367-A175-B7E0A31EA81A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="224118" y="5920441"/>
+          <a:ext cx="2011680" cy="6226"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74232</cdr:x>
+      <cdr:y>0.94191</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97449</cdr:x>
+      <cdr:y>0.9429</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1956E514-6A80-4E4C-8026-A4AAC3641669}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000" flipH="1" flipV="1">
+          <a:off x="6431927" y="5927090"/>
+          <a:ext cx="2011680" cy="6226"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0661</cdr:x>
+      <cdr:y>0.94892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23495</cdr:x>
+      <cdr:y>0.99252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B7CC1-C061-4644-8BD3-8E6909BD71EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="572745" y="5971241"/>
+          <a:ext cx="1463040" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rejection region</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.77177</cdr:x>
+      <cdr:y>0.94892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94063</cdr:x>
+      <cdr:y>0.99252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2109ED1-86EF-4683-AF37-020A5EA5E726}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6687173" y="5971241"/>
+          <a:ext cx="1463040" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rejection region</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34355</cdr:x>
+      <cdr:y>0.94892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66015</cdr:x>
+      <cdr:y>0.99252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEC0CA1-0F07-43FB-ABFF-E156C469C7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2976781" y="5971241"/>
+          <a:ext cx="2743200" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="D11242"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fail to reject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="D11242"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ("acceptance") region</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="D11242"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22417</cdr:x>
+      <cdr:y>0.85379</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25583</cdr:x>
+      <cdr:y>0.89738</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="14" name="Graphic 13" descr="Badge 1 with solid fill">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B29906-9DFF-43DC-99C4-66E542BD6252}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1942353" y="5372597"/>
+          <a:ext cx="274320" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74299</cdr:x>
+      <cdr:y>0.85289</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77465</cdr:x>
+      <cdr:y>0.89649</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="16" name="Graphic 15" descr="Badge with solid fill">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFCF595-2E01-43EC-A72E-4F3CB4FFFBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6437746" y="5366961"/>
+          <a:ext cx="274320" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02012</cdr:x>
+      <cdr:y>0.12268</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30505</cdr:x>
+      <cdr:y>0.16627</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FF274C-1DDF-4108-A95E-FE0DA226F3F5}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="174314" y="771961"/>
+              <a:ext cx="2468880" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + 2 = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="717073"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝛼</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = probability of Type I error</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="717073"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FF274C-1DDF-4108-A95E-FE0DA226F3F5}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="174314" y="771961"/>
+              <a:ext cx="2468880" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + 2 = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="717073"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = probability of Type I error</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="717073"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60481</cdr:x>
+      <cdr:y>0.36493</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88975</cdr:x>
+      <cdr:y>0.40853</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="23" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA81F9-9C1E-441F-A5E1-C04CC6DB7BEB}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5240482" y="2296390"/>
+              <a:ext cx="2468880" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="00447C"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>probability distribution of </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̂"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="00447C"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="00447C"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝜙</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="00447C"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="23" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA81F9-9C1E-441F-A5E1-C04CC6DB7BEB}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5240482" y="2296390"/>
+              <a:ext cx="2468880" cy="274320"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="00447C"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>probability distribution of </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00447C"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜙 ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="00447C"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </cdr:txBody>
         </cdr:sp>
@@ -16359,7 +21887,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8665882" cy="6287745"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -18598,7 +24126,7 @@
   <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26638,79 +32166,79 @@
   </sheetPr>
   <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="27"/>
-    <col min="3" max="3" width="9.140625" style="28"/>
-    <col min="4" max="5" width="18.7109375" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="9.140625" style="27"/>
+    <col min="4" max="5" width="18.7109375" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="26" t="str">
         <f>"True"</f>
         <v>True</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="26" t="str">
         <f>"False"</f>
         <v>False</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -26729,6 +32257,4163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3BC564-618F-4AC5-9732-FD456EAD0946}">
+  <sheetPr>
+    <tabColor rgb="FF00447C"/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <v>-3</v>
+      </c>
+      <c r="B2" s="40">
+        <f>_xlfn.NORM.DIST(A2,0,1,FALSE)</f>
+        <v>4.4318484119380075E-3</v>
+      </c>
+      <c r="C2" s="38">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="40">
+        <f>B22</f>
+        <v>5.3990966513187674E-2</v>
+      </c>
+      <c r="E2" s="38">
+        <v>2</v>
+      </c>
+      <c r="F2" s="40">
+        <f>D2</f>
+        <v>5.3990966513187674E-2</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <f>B62</f>
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <f>A2+0.05</f>
+        <v>-2.95</v>
+      </c>
+      <c r="B3" s="40">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.NORM.DIST(A3,0,1,FALSE)</f>
+        <v>5.1426409230539392E-3</v>
+      </c>
+      <c r="C3" s="38">
+        <f>C2</f>
+        <v>-2</v>
+      </c>
+      <c r="D3" s="40">
+        <f>D2-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>5.3544760178367942E-2</v>
+      </c>
+      <c r="E3" s="38">
+        <f>E2</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="40">
+        <f>D3</f>
+        <v>5.3544760178367942E-2</v>
+      </c>
+      <c r="G3" s="38">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <f>H2-($H$2/COUNTA($A$2:$A$122))</f>
+        <v>0.39564523676175145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <f t="shared" ref="A4:A67" si="1">A3+0.05</f>
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="B4" s="40">
+        <f t="shared" si="0"/>
+        <v>5.9525324197758486E-3</v>
+      </c>
+      <c r="C4" s="38">
+        <f t="shared" ref="C4:C67" si="2">C3</f>
+        <v>-2</v>
+      </c>
+      <c r="D4" s="40">
+        <f t="shared" ref="D4:D67" si="3">D3-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>5.309855384354821E-2</v>
+      </c>
+      <c r="E4" s="38">
+        <f t="shared" ref="E4:E67" si="4">E3</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" ref="F4:F67" si="5">D4</f>
+        <v>5.309855384354821E-2</v>
+      </c>
+      <c r="G4" s="38">
+        <f>G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H67" si="6">H3-($H$2/COUNTA($A$2:$A$122))</f>
+        <v>0.3923481931220702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.8500000000000005</v>
+      </c>
+      <c r="B5" s="40">
+        <f t="shared" si="0"/>
+        <v>6.8727666906139651E-3</v>
+      </c>
+      <c r="C5" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" si="3"/>
+        <v>5.2652347508728478E-2</v>
+      </c>
+      <c r="E5" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="5"/>
+        <v>5.2652347508728478E-2</v>
+      </c>
+      <c r="G5" s="38">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="6"/>
+        <v>0.38905114948238895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.8000000000000007</v>
+      </c>
+      <c r="B6" s="40">
+        <f t="shared" si="0"/>
+        <v>7.915451582979946E-3</v>
+      </c>
+      <c r="C6" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" si="3"/>
+        <v>5.2206141173908746E-2</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="5"/>
+        <v>5.2206141173908746E-2</v>
+      </c>
+      <c r="G6" s="38">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.3857541058427077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.7500000000000009</v>
+      </c>
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>9.0935625015910286E-3</v>
+      </c>
+      <c r="C7" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D7" s="40">
+        <f t="shared" si="3"/>
+        <v>5.1759934839089014E-2</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="5"/>
+        <v>5.1759934839089014E-2</v>
+      </c>
+      <c r="G7" s="38">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="6"/>
+        <v>0.38245706220302644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.7000000000000011</v>
+      </c>
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0420934814422567E-2</v>
+      </c>
+      <c r="C8" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D8" s="40">
+        <f t="shared" si="3"/>
+        <v>5.1313728504269282E-2</v>
+      </c>
+      <c r="E8" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="5"/>
+        <v>5.1313728504269282E-2</v>
+      </c>
+      <c r="G8" s="38">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="6"/>
+        <v>0.37916001856334519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.6500000000000012</v>
+      </c>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1912243607605141E-2</v>
+      </c>
+      <c r="C9" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D9" s="40">
+        <f t="shared" si="3"/>
+        <v>5.086752216944955E-2</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="5"/>
+        <v>5.086752216944955E-2</v>
+      </c>
+      <c r="G9" s="38">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="6"/>
+        <v>0.37586297492366394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.6000000000000014</v>
+      </c>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>1.3582969233685566E-2</v>
+      </c>
+      <c r="C10" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="3"/>
+        <v>5.0421315834629818E-2</v>
+      </c>
+      <c r="E10" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="5"/>
+        <v>5.0421315834629818E-2</v>
+      </c>
+      <c r="G10" s="38">
+        <f>G9</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="6"/>
+        <v>0.37256593128398269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.5500000000000016</v>
+      </c>
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>1.5449347134395107E-2</v>
+      </c>
+      <c r="C11" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="3"/>
+        <v>4.9975109499810086E-2</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="5"/>
+        <v>4.9975109499810086E-2</v>
+      </c>
+      <c r="G11" s="38">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.36926888764430144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.5000000000000018</v>
+      </c>
+      <c r="B12" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7528300493568461E-2</v>
+      </c>
+      <c r="C12" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="3"/>
+        <v>4.9528903164990354E-2</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="5"/>
+        <v>4.9528903164990354E-2</v>
+      </c>
+      <c r="G12" s="38">
+        <f>G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.36597184400462018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.450000000000002</v>
+      </c>
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.9837354391795233E-2</v>
+      </c>
+      <c r="C13" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" si="3"/>
+        <v>4.9082696830170622E-2</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="5"/>
+        <v>4.9082696830170622E-2</v>
+      </c>
+      <c r="G13" s="38">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="6"/>
+        <v>0.36267480036493893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000021</v>
+      </c>
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>2.2394530294842781E-2</v>
+      </c>
+      <c r="C14" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="3"/>
+        <v>4.863649049535089E-2</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="5"/>
+        <v>4.863649049535089E-2</v>
+      </c>
+      <c r="G14" s="38">
+        <f>G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="6"/>
+        <v>0.35937775672525768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.3500000000000023</v>
+      </c>
+      <c r="B15" s="40">
+        <f t="shared" si="0"/>
+        <v>2.5218219915194261E-2</v>
+      </c>
+      <c r="C15" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" si="3"/>
+        <v>4.8190284160531158E-2</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="5"/>
+        <v>4.8190284160531158E-2</v>
+      </c>
+      <c r="G15" s="38">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="6"/>
+        <v>0.35608071308557643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.3000000000000025</v>
+      </c>
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>2.8327037741601009E-2</v>
+      </c>
+      <c r="C16" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="3"/>
+        <v>4.7744077825711426E-2</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="5"/>
+        <v>4.7744077825711426E-2</v>
+      </c>
+      <c r="G16" s="38">
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="6"/>
+        <v>0.35278366944589518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.2500000000000027</v>
+      </c>
+      <c r="B17" s="40">
+        <f t="shared" si="0"/>
+        <v>3.1739651835667224E-2</v>
+      </c>
+      <c r="C17" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="3"/>
+        <v>4.7297871490891694E-2</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="5"/>
+        <v>4.7297871490891694E-2</v>
+      </c>
+      <c r="G17" s="38">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="6"/>
+        <v>0.34948662580621392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>3.5474592846231216E-2</v>
+      </c>
+      <c r="C18" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" si="3"/>
+        <v>4.6851665156071962E-2</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="5"/>
+        <v>4.6851665156071962E-2</v>
+      </c>
+      <c r="G18" s="38">
+        <f>G17</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="6"/>
+        <v>0.34618958216653267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.150000000000003</v>
+      </c>
+      <c r="B19" s="40">
+        <f t="shared" si="0"/>
+        <v>3.9550041589369964E-2</v>
+      </c>
+      <c r="C19" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D19" s="40">
+        <f t="shared" si="3"/>
+        <v>4.640545882125223E-2</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="5"/>
+        <v>4.640545882125223E-2</v>
+      </c>
+      <c r="G19" s="38">
+        <f>G18</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="6"/>
+        <v>0.34289253852685142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.1000000000000032</v>
+      </c>
+      <c r="B20" s="40">
+        <f t="shared" si="0"/>
+        <v>4.39835959804269E-2</v>
+      </c>
+      <c r="C20" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" si="3"/>
+        <v>4.5959252486432497E-2</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="5"/>
+        <v>4.5959252486432497E-2</v>
+      </c>
+      <c r="G20" s="38">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33959549488717017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.0500000000000034</v>
+      </c>
+      <c r="B21" s="40">
+        <f t="shared" si="0"/>
+        <v>4.8792018579182417E-2</v>
+      </c>
+      <c r="C21" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" si="3"/>
+        <v>4.5513046151612765E-2</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="5"/>
+        <v>4.5513046151612765E-2</v>
+      </c>
+      <c r="G21" s="38">
+        <f>G20</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33629845124748892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000036</v>
+      </c>
+      <c r="B22" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3990966513187674E-2</v>
+      </c>
+      <c r="C22" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="3"/>
+        <v>4.5066839816793033E-2</v>
+      </c>
+      <c r="E22" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="5"/>
+        <v>4.5066839816793033E-2</v>
+      </c>
+      <c r="G22" s="38">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33300140760780766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.9500000000000035</v>
+      </c>
+      <c r="B23" s="40">
+        <f t="shared" si="0"/>
+        <v>5.9594706068815666E-2</v>
+      </c>
+      <c r="C23" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="3"/>
+        <v>4.4620633481973301E-2</v>
+      </c>
+      <c r="E23" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="5"/>
+        <v>4.4620633481973301E-2</v>
+      </c>
+      <c r="G23" s="38">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.32970436396812641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.9000000000000035</v>
+      </c>
+      <c r="B24" s="40">
+        <f t="shared" si="0"/>
+        <v>6.5615814774676165E-2</v>
+      </c>
+      <c r="C24" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="3"/>
+        <v>4.4174427147153569E-2</v>
+      </c>
+      <c r="E24" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="5"/>
+        <v>4.4174427147153569E-2</v>
+      </c>
+      <c r="G24" s="38">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="6"/>
+        <v>0.32640732032844516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.8500000000000034</v>
+      </c>
+      <c r="B25" s="40">
+        <f t="shared" si="0"/>
+        <v>7.2064874336217541E-2</v>
+      </c>
+      <c r="C25" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" si="3"/>
+        <v>4.3728220812333837E-2</v>
+      </c>
+      <c r="E25" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="5"/>
+        <v>4.3728220812333837E-2</v>
+      </c>
+      <c r="G25" s="38">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="6"/>
+        <v>0.32311027668876391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.8000000000000034</v>
+      </c>
+      <c r="B26" s="40">
+        <f t="shared" si="0"/>
+        <v>7.8950158300893677E-2</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" si="3"/>
+        <v>4.3282014477514105E-2</v>
+      </c>
+      <c r="E26" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="5"/>
+        <v>4.3282014477514105E-2</v>
+      </c>
+      <c r="G26" s="38">
+        <f>G25</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="6"/>
+        <v>0.31981323304908266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.7500000000000033</v>
+      </c>
+      <c r="B27" s="40">
+        <f t="shared" si="0"/>
+        <v>8.6277318826511032E-2</v>
+      </c>
+      <c r="C27" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" si="3"/>
+        <v>4.2835808142694373E-2</v>
+      </c>
+      <c r="E27" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="5"/>
+        <v>4.2835808142694373E-2</v>
+      </c>
+      <c r="G27" s="38">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.31651618940940141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000033</v>
+      </c>
+      <c r="B28" s="40">
+        <f t="shared" si="0"/>
+        <v>9.4049077376886406E-2</v>
+      </c>
+      <c r="C28" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D28" s="40">
+        <f t="shared" si="3"/>
+        <v>4.2389601807874641E-2</v>
+      </c>
+      <c r="E28" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="5"/>
+        <v>4.2389601807874641E-2</v>
+      </c>
+      <c r="G28" s="38">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="6"/>
+        <v>0.31321914576972015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.6500000000000032</v>
+      </c>
+      <c r="B29" s="40">
+        <f t="shared" si="0"/>
+        <v>0.10226492456397746</v>
+      </c>
+      <c r="C29" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D29" s="40">
+        <f t="shared" si="3"/>
+        <v>4.1943395473054909E-2</v>
+      </c>
+      <c r="E29" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="5"/>
+        <v>4.1943395473054909E-2</v>
+      </c>
+      <c r="G29" s="38">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="6"/>
+        <v>0.3099221021300389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.6000000000000032</v>
+      </c>
+      <c r="B30" s="40">
+        <f t="shared" si="0"/>
+        <v>0.11092083467945499</v>
+      </c>
+      <c r="C30" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D30" s="40">
+        <f t="shared" si="3"/>
+        <v>4.1497189138235177E-2</v>
+      </c>
+      <c r="E30" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="5"/>
+        <v>4.1497189138235177E-2</v>
+      </c>
+      <c r="G30" s="38">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="6"/>
+        <v>0.30662505849035765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.5500000000000032</v>
+      </c>
+      <c r="B31" s="40">
+        <f t="shared" si="0"/>
+        <v>0.12000900069698503</v>
+      </c>
+      <c r="C31" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D31" s="40">
+        <f t="shared" si="3"/>
+        <v>4.1050982803415445E-2</v>
+      </c>
+      <c r="E31" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="5"/>
+        <v>4.1050982803415445E-2</v>
+      </c>
+      <c r="G31" s="38">
+        <f>G30</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="6"/>
+        <v>0.3033280148506764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.5000000000000031</v>
+      </c>
+      <c r="B32" s="40">
+        <f t="shared" si="0"/>
+        <v>0.12951759566589113</v>
+      </c>
+      <c r="C32" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D32" s="40">
+        <f t="shared" si="3"/>
+        <v>4.0604776468595713E-2</v>
+      </c>
+      <c r="E32" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="5"/>
+        <v>4.0604776468595713E-2</v>
+      </c>
+      <c r="G32" s="38">
+        <f>G31</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="6"/>
+        <v>0.30003097121099515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.4500000000000031</v>
+      </c>
+      <c r="B33" s="40">
+        <f t="shared" si="0"/>
+        <v>0.13943056644535964</v>
+      </c>
+      <c r="C33" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D33" s="40">
+        <f t="shared" si="3"/>
+        <v>4.0158570133775981E-2</v>
+      </c>
+      <c r="E33" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="5"/>
+        <v>4.0158570133775981E-2</v>
+      </c>
+      <c r="G33" s="38">
+        <f>G32</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="6"/>
+        <v>0.29673392757131389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.400000000000003</v>
+      </c>
+      <c r="B34" s="40">
+        <f t="shared" si="0"/>
+        <v>0.14972746563574424</v>
+      </c>
+      <c r="C34" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D34" s="40">
+        <f t="shared" si="3"/>
+        <v>3.9712363798956249E-2</v>
+      </c>
+      <c r="E34" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="5"/>
+        <v>3.9712363798956249E-2</v>
+      </c>
+      <c r="G34" s="38">
+        <f>G33</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="6"/>
+        <v>0.29343688393163264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.350000000000003</v>
+      </c>
+      <c r="B35" s="40">
+        <f t="shared" si="0"/>
+        <v>0.16038332734191896</v>
+      </c>
+      <c r="C35" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D35" s="40">
+        <f t="shared" si="3"/>
+        <v>3.9266157464136517E-2</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="5"/>
+        <v>3.9266157464136517E-2</v>
+      </c>
+      <c r="G35" s="38">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="6"/>
+        <v>0.29013984029195139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.3000000000000029</v>
+      </c>
+      <c r="B36" s="40">
+        <f t="shared" si="0"/>
+        <v>0.17136859204780672</v>
+      </c>
+      <c r="C36" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D36" s="40">
+        <f t="shared" si="3"/>
+        <v>3.8819951129316785E-2</v>
+      </c>
+      <c r="E36" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="5"/>
+        <v>3.8819951129316785E-2</v>
+      </c>
+      <c r="G36" s="38">
+        <f>G35</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="6"/>
+        <v>0.28684279665227014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.2500000000000029</v>
+      </c>
+      <c r="B37" s="40">
+        <f t="shared" si="0"/>
+        <v>0.18264908538902128</v>
+      </c>
+      <c r="C37" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D37" s="40">
+        <f t="shared" si="3"/>
+        <v>3.8373744794497053E-2</v>
+      </c>
+      <c r="E37" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="5"/>
+        <v>3.8373744794497053E-2</v>
+      </c>
+      <c r="G37" s="38">
+        <f>G36</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="6"/>
+        <v>0.28354575301258889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="B38" s="40">
+        <f t="shared" si="0"/>
+        <v>0.19418605498321231</v>
+      </c>
+      <c r="C38" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D38" s="40">
+        <f t="shared" si="3"/>
+        <v>3.7927538459677321E-2</v>
+      </c>
+      <c r="E38" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="5"/>
+        <v>3.7927538459677321E-2</v>
+      </c>
+      <c r="G38" s="38">
+        <f>G37</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.28024870937290763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.1500000000000028</v>
+      </c>
+      <c r="B39" s="40">
+        <f t="shared" si="0"/>
+        <v>0.20593626871997409</v>
+      </c>
+      <c r="C39" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D39" s="40">
+        <f t="shared" si="3"/>
+        <v>3.7481332124857589E-2</v>
+      </c>
+      <c r="E39" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="5"/>
+        <v>3.7481332124857589E-2</v>
+      </c>
+      <c r="G39" s="38">
+        <f>G38</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27695166573322638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000028</v>
+      </c>
+      <c r="B40" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21785217703254989</v>
+      </c>
+      <c r="C40" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D40" s="40">
+        <f t="shared" si="3"/>
+        <v>3.7035125790037857E-2</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F40" s="40">
+        <f t="shared" si="5"/>
+        <v>3.7035125790037857E-2</v>
+      </c>
+      <c r="G40" s="38">
+        <f>G39</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27365462209354513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.0500000000000027</v>
+      </c>
+      <c r="B41" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22988214068423238</v>
+      </c>
+      <c r="C41" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D41" s="40">
+        <f t="shared" si="3"/>
+        <v>3.6588919455218125E-2</v>
+      </c>
+      <c r="E41" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" si="5"/>
+        <v>3.6588919455218125E-2</v>
+      </c>
+      <c r="G41" s="38">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27035757845386388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000027</v>
+      </c>
+      <c r="B42" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2419707245191427</v>
+      </c>
+      <c r="C42" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D42" s="40">
+        <f t="shared" si="3"/>
+        <v>3.6142713120398393E-2</v>
+      </c>
+      <c r="E42" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="5"/>
+        <v>3.6142713120398393E-2</v>
+      </c>
+      <c r="G42" s="38">
+        <f>G41</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26706053481418263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.95000000000000262</v>
+      </c>
+      <c r="B43" s="40">
+        <f t="shared" si="0"/>
+        <v>0.25405905646918836</v>
+      </c>
+      <c r="C43" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D43" s="40">
+        <f t="shared" si="3"/>
+        <v>3.5696506785578661E-2</v>
+      </c>
+      <c r="E43" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="5"/>
+        <v>3.5696506785578661E-2</v>
+      </c>
+      <c r="G43" s="38">
+        <f>G42</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26376349117450137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.90000000000000258</v>
+      </c>
+      <c r="B44" s="40">
+        <f t="shared" si="0"/>
+        <v>0.26608524989875421</v>
+      </c>
+      <c r="C44" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D44" s="40">
+        <f t="shared" si="3"/>
+        <v>3.5250300450758928E-2</v>
+      </c>
+      <c r="E44" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="5"/>
+        <v>3.5250300450758928E-2</v>
+      </c>
+      <c r="G44" s="38">
+        <f>G43</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26046644753482012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.85000000000000253</v>
+      </c>
+      <c r="B45" s="40">
+        <f t="shared" si="0"/>
+        <v>0.27798488613099587</v>
+      </c>
+      <c r="C45" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D45" s="40">
+        <f t="shared" si="3"/>
+        <v>3.4804094115939196E-2</v>
+      </c>
+      <c r="E45" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="5"/>
+        <v>3.4804094115939196E-2</v>
+      </c>
+      <c r="G45" s="38">
+        <f>G44</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.25716940389513887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000249</v>
+      </c>
+      <c r="B46" s="40">
+        <f t="shared" si="0"/>
+        <v>0.28969155276148217</v>
+      </c>
+      <c r="C46" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D46" s="40">
+        <f t="shared" si="3"/>
+        <v>3.4357887781119464E-2</v>
+      </c>
+      <c r="E46" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="5"/>
+        <v>3.4357887781119464E-2</v>
+      </c>
+      <c r="G46" s="38">
+        <f>G45</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="6"/>
+        <v>0.25387236025545762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.75000000000000244</v>
+      </c>
+      <c r="B47" s="40">
+        <f t="shared" si="0"/>
+        <v>0.30113743215480387</v>
+      </c>
+      <c r="C47" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D47" s="40">
+        <f t="shared" si="3"/>
+        <v>3.3911681446299732E-2</v>
+      </c>
+      <c r="E47" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="5"/>
+        <v>3.3911681446299732E-2</v>
+      </c>
+      <c r="G47" s="38">
+        <f>G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="6"/>
+        <v>0.25057531661577637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.7000000000000024</v>
+      </c>
+      <c r="B48" s="40">
+        <f t="shared" si="0"/>
+        <v>0.31225393336676072</v>
+      </c>
+      <c r="C48" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D48" s="40">
+        <f t="shared" si="3"/>
+        <v>3.346547511148E-2</v>
+      </c>
+      <c r="E48" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="40">
+        <f t="shared" si="5"/>
+        <v>3.346547511148E-2</v>
+      </c>
+      <c r="G48" s="38">
+        <f>G47</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24727827297609511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.65000000000000235</v>
+      </c>
+      <c r="B49" s="40">
+        <f t="shared" si="0"/>
+        <v>0.32297235966791382</v>
+      </c>
+      <c r="C49" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D49" s="40">
+        <f t="shared" si="3"/>
+        <v>3.3019268776660268E-2</v>
+      </c>
+      <c r="E49" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="40">
+        <f t="shared" si="5"/>
+        <v>3.3019268776660268E-2</v>
+      </c>
+      <c r="G49" s="38">
+        <f>G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24398122933641386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000231</v>
+      </c>
+      <c r="B50" s="40">
+        <f t="shared" si="0"/>
+        <v>0.33322460289179923</v>
+      </c>
+      <c r="C50" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D50" s="40">
+        <f t="shared" si="3"/>
+        <v>3.2573062441840536E-2</v>
+      </c>
+      <c r="E50" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="40">
+        <f t="shared" si="5"/>
+        <v>3.2573062441840536E-2</v>
+      </c>
+      <c r="G50" s="38">
+        <f>G49</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24068418569673261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.55000000000000226</v>
+      </c>
+      <c r="B51" s="40">
+        <f t="shared" si="0"/>
+        <v>0.34294385501938346</v>
+      </c>
+      <c r="C51" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D51" s="40">
+        <f t="shared" si="3"/>
+        <v>3.2126856107020804E-2</v>
+      </c>
+      <c r="E51" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F51" s="40">
+        <f t="shared" si="5"/>
+        <v>3.2126856107020804E-2</v>
+      </c>
+      <c r="G51" s="38">
+        <f>G50</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="6"/>
+        <v>0.23738714205705136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000222</v>
+      </c>
+      <c r="B52" s="40">
+        <f t="shared" si="0"/>
+        <v>0.35206532676429914</v>
+      </c>
+      <c r="C52" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D52" s="40">
+        <f t="shared" si="3"/>
+        <v>3.1680649772201072E-2</v>
+      </c>
+      <c r="E52" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="40">
+        <f t="shared" si="5"/>
+        <v>3.1680649772201072E-2</v>
+      </c>
+      <c r="G52" s="38">
+        <f>G51</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="6"/>
+        <v>0.23409009841737011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.45000000000000223</v>
+      </c>
+      <c r="B53" s="40">
+        <f t="shared" si="0"/>
+        <v>0.36052696246164762</v>
+      </c>
+      <c r="C53" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D53" s="40">
+        <f t="shared" si="3"/>
+        <v>3.123444343738134E-2</v>
+      </c>
+      <c r="E53" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="40">
+        <f t="shared" si="5"/>
+        <v>3.123444343738134E-2</v>
+      </c>
+      <c r="G53" s="38">
+        <f>G52</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="6"/>
+        <v>0.23079305477768886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000224</v>
+      </c>
+      <c r="B54" s="40">
+        <f t="shared" si="0"/>
+        <v>0.368270140303323</v>
+      </c>
+      <c r="C54" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D54" s="40">
+        <f t="shared" si="3"/>
+        <v>3.0788237102561608E-2</v>
+      </c>
+      <c r="E54" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="40">
+        <f t="shared" si="5"/>
+        <v>3.0788237102561608E-2</v>
+      </c>
+      <c r="G54" s="38">
+        <f>G53</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="6"/>
+        <v>0.2274960111380076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.35000000000000225</v>
+      </c>
+      <c r="B55" s="40">
+        <f t="shared" si="0"/>
+        <v>0.37524034691693758</v>
+      </c>
+      <c r="C55" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D55" s="40">
+        <f t="shared" si="3"/>
+        <v>3.0342030767741876E-2</v>
+      </c>
+      <c r="E55" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="40">
+        <f t="shared" si="5"/>
+        <v>3.0342030767741876E-2</v>
+      </c>
+      <c r="G55" s="38">
+        <f>G54</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" si="6"/>
+        <v>0.22419896749832635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000226</v>
+      </c>
+      <c r="B56" s="40">
+        <f t="shared" si="0"/>
+        <v>0.38138781546052386</v>
+      </c>
+      <c r="C56" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D56" s="40">
+        <f t="shared" si="3"/>
+        <v>2.9895824432922144E-2</v>
+      </c>
+      <c r="E56" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F56" s="40">
+        <f t="shared" si="5"/>
+        <v>2.9895824432922144E-2</v>
+      </c>
+      <c r="G56" s="38">
+        <f>G55</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="6"/>
+        <v>0.2209019238586451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.25000000000000228</v>
+      </c>
+      <c r="B57" s="40">
+        <f t="shared" si="0"/>
+        <v>0.38666811680284902</v>
+      </c>
+      <c r="C57" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D57" s="40">
+        <f t="shared" si="3"/>
+        <v>2.9449618098102412E-2</v>
+      </c>
+      <c r="E57" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F57" s="40">
+        <f t="shared" si="5"/>
+        <v>2.9449618098102412E-2</v>
+      </c>
+      <c r="G57" s="38">
+        <f>G56</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" si="6"/>
+        <v>0.21760488021896385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000229</v>
+      </c>
+      <c r="B58" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39104269397545571</v>
+      </c>
+      <c r="C58" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D58" s="40">
+        <f t="shared" si="3"/>
+        <v>2.900341176328268E-2</v>
+      </c>
+      <c r="E58" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="40">
+        <f t="shared" si="5"/>
+        <v>2.900341176328268E-2</v>
+      </c>
+      <c r="G58" s="38">
+        <f>G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" si="6"/>
+        <v>0.2143078365792826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.1500000000000023</v>
+      </c>
+      <c r="B59" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39447933090788878</v>
+      </c>
+      <c r="C59" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D59" s="40">
+        <f t="shared" si="3"/>
+        <v>2.8557205428462948E-2</v>
+      </c>
+      <c r="E59" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="40">
+        <f t="shared" si="5"/>
+        <v>2.8557205428462948E-2</v>
+      </c>
+      <c r="G59" s="38">
+        <f>G58</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <f t="shared" si="6"/>
+        <v>0.21101079293960134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.1000000000000023</v>
+      </c>
+      <c r="B60" s="40">
+        <f t="shared" si="0"/>
+        <v>0.3969525474770117</v>
+      </c>
+      <c r="C60" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D60" s="40">
+        <f t="shared" si="3"/>
+        <v>2.8110999093643216E-2</v>
+      </c>
+      <c r="E60" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="40">
+        <f t="shared" si="5"/>
+        <v>2.8110999093643216E-2</v>
+      </c>
+      <c r="G60" s="38">
+        <f>G59</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <f t="shared" si="6"/>
+        <v>0.20771374929992009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="39">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000002293E-2</v>
+      </c>
+      <c r="B61" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39844391409476398</v>
+      </c>
+      <c r="C61" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D61" s="40">
+        <f t="shared" si="3"/>
+        <v>2.7664792758823484E-2</v>
+      </c>
+      <c r="E61" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="40">
+        <f t="shared" si="5"/>
+        <v>2.7664792758823484E-2</v>
+      </c>
+      <c r="G61" s="38">
+        <f>G60</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <f t="shared" si="6"/>
+        <v>0.20441670566023884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="39">
+        <f t="shared" si="1"/>
+        <v>-2.2898349882893854E-15</v>
+      </c>
+      <c r="B62" s="40">
+        <f t="shared" si="0"/>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="C62" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D62" s="40">
+        <f t="shared" si="3"/>
+        <v>2.7218586424003752E-2</v>
+      </c>
+      <c r="E62" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F62" s="40">
+        <f t="shared" si="5"/>
+        <v>2.7218586424003752E-2</v>
+      </c>
+      <c r="G62" s="38">
+        <f>G61</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" si="6"/>
+        <v>0.20111966202055759</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="39">
+        <f t="shared" si="1"/>
+        <v>4.9999999999997713E-2</v>
+      </c>
+      <c r="B63" s="40">
+        <f t="shared" si="0"/>
+        <v>0.3984439140947641</v>
+      </c>
+      <c r="C63" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D63" s="40">
+        <f t="shared" si="3"/>
+        <v>2.677238008918402E-2</v>
+      </c>
+      <c r="E63" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="40">
+        <f t="shared" si="5"/>
+        <v>2.677238008918402E-2</v>
+      </c>
+      <c r="G63" s="38">
+        <f>G62</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <f t="shared" si="6"/>
+        <v>0.19782261838087634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="39">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997716E-2</v>
+      </c>
+      <c r="B64" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39695254747701186</v>
+      </c>
+      <c r="C64" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D64" s="40">
+        <f t="shared" si="3"/>
+        <v>2.6326173754364288E-2</v>
+      </c>
+      <c r="E64" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="40">
+        <f t="shared" si="5"/>
+        <v>2.6326173754364288E-2</v>
+      </c>
+      <c r="G64" s="38">
+        <f>G63</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <f t="shared" si="6"/>
+        <v>0.19452557474119508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="39">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999772</v>
+      </c>
+      <c r="B65" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39447933090788906</v>
+      </c>
+      <c r="C65" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D65" s="40">
+        <f t="shared" si="3"/>
+        <v>2.5879967419544556E-2</v>
+      </c>
+      <c r="E65" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F65" s="40">
+        <f t="shared" si="5"/>
+        <v>2.5879967419544556E-2</v>
+      </c>
+      <c r="G65" s="38">
+        <f>G64</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <f t="shared" si="6"/>
+        <v>0.19122853110151383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="39">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999774</v>
+      </c>
+      <c r="B66" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39104269397545605</v>
+      </c>
+      <c r="C66" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D66" s="40">
+        <f t="shared" si="3"/>
+        <v>2.5433761084724824E-2</v>
+      </c>
+      <c r="E66" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="40">
+        <f t="shared" si="5"/>
+        <v>2.5433761084724824E-2</v>
+      </c>
+      <c r="G66" s="38">
+        <f>G65</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" si="6"/>
+        <v>0.18793148746183258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="39">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999772</v>
+      </c>
+      <c r="B67" s="40">
+        <f t="shared" ref="B67:B122" si="7">_xlfn.NORM.DIST(A67,0,1,FALSE)</f>
+        <v>0.38666811680284946</v>
+      </c>
+      <c r="C67" s="38">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D67" s="40">
+        <f t="shared" si="3"/>
+        <v>2.4987554749905092E-2</v>
+      </c>
+      <c r="E67" s="38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F67" s="40">
+        <f t="shared" si="5"/>
+        <v>2.4987554749905092E-2</v>
+      </c>
+      <c r="G67" s="38">
+        <f>G66</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <f t="shared" si="6"/>
+        <v>0.18463444382215133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="39">
+        <f t="shared" ref="A68:A122" si="8">A67+0.05</f>
+        <v>0.29999999999999771</v>
+      </c>
+      <c r="B68" s="40">
+        <f t="shared" si="7"/>
+        <v>0.38138781546052436</v>
+      </c>
+      <c r="C68" s="38">
+        <f t="shared" ref="C68:C122" si="9">C67</f>
+        <v>-2</v>
+      </c>
+      <c r="D68" s="40">
+        <f t="shared" ref="D68:D122" si="10">D67-($D$2/COUNTA($A$2:$A$122))</f>
+        <v>2.4541348415085359E-2</v>
+      </c>
+      <c r="E68" s="38">
+        <f t="shared" ref="E68:E122" si="11">E67</f>
+        <v>2</v>
+      </c>
+      <c r="F68" s="40">
+        <f t="shared" ref="F68:F122" si="12">D68</f>
+        <v>2.4541348415085359E-2</v>
+      </c>
+      <c r="G68" s="38">
+        <f>G67</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <f t="shared" ref="H68:H122" si="13">H67-($H$2/COUNTA($A$2:$A$122))</f>
+        <v>0.18133740018247008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="39">
+        <f t="shared" si="8"/>
+        <v>0.3499999999999977</v>
+      </c>
+      <c r="B69" s="40">
+        <f t="shared" si="7"/>
+        <v>0.37524034691693819</v>
+      </c>
+      <c r="C69" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D69" s="40">
+        <f t="shared" si="10"/>
+        <v>2.4095142080265627E-2</v>
+      </c>
+      <c r="E69" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F69" s="40">
+        <f t="shared" si="12"/>
+        <v>2.4095142080265627E-2</v>
+      </c>
+      <c r="G69" s="38">
+        <f>G68</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <f t="shared" si="13"/>
+        <v>0.17804035654278882</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="39">
+        <f t="shared" si="8"/>
+        <v>0.39999999999999769</v>
+      </c>
+      <c r="B70" s="40">
+        <f t="shared" si="7"/>
+        <v>0.36827014030332367</v>
+      </c>
+      <c r="C70" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D70" s="40">
+        <f t="shared" si="10"/>
+        <v>2.3648935745445895E-2</v>
+      </c>
+      <c r="E70" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F70" s="40">
+        <f t="shared" si="12"/>
+        <v>2.3648935745445895E-2</v>
+      </c>
+      <c r="G70" s="38">
+        <f>G69</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <f t="shared" si="13"/>
+        <v>0.17474331290310757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="39">
+        <f t="shared" si="8"/>
+        <v>0.44999999999999768</v>
+      </c>
+      <c r="B71" s="40">
+        <f t="shared" si="7"/>
+        <v>0.36052696246164834</v>
+      </c>
+      <c r="C71" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D71" s="40">
+        <f t="shared" si="10"/>
+        <v>2.3202729410626163E-2</v>
+      </c>
+      <c r="E71" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F71" s="40">
+        <f t="shared" si="12"/>
+        <v>2.3202729410626163E-2</v>
+      </c>
+      <c r="G71" s="38">
+        <f>G70</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <f t="shared" si="13"/>
+        <v>0.17144626926342632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="39">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999767</v>
+      </c>
+      <c r="B72" s="40">
+        <f t="shared" si="7"/>
+        <v>0.35206532676429991</v>
+      </c>
+      <c r="C72" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D72" s="40">
+        <f t="shared" si="10"/>
+        <v>2.2756523075806431E-2</v>
+      </c>
+      <c r="E72" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F72" s="40">
+        <f t="shared" si="12"/>
+        <v>2.2756523075806431E-2</v>
+      </c>
+      <c r="G72" s="38">
+        <f>G71</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <f t="shared" si="13"/>
+        <v>0.16814922562374507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="39">
+        <f t="shared" si="8"/>
+        <v>0.54999999999999771</v>
+      </c>
+      <c r="B73" s="40">
+        <f t="shared" si="7"/>
+        <v>0.34294385501938435</v>
+      </c>
+      <c r="C73" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D73" s="40">
+        <f t="shared" si="10"/>
+        <v>2.2310316740986699E-2</v>
+      </c>
+      <c r="E73" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="40">
+        <f t="shared" si="12"/>
+        <v>2.2310316740986699E-2</v>
+      </c>
+      <c r="G73" s="38">
+        <f>G72</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" si="13"/>
+        <v>0.16485218198406382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="39">
+        <f t="shared" si="8"/>
+        <v>0.59999999999999776</v>
+      </c>
+      <c r="B74" s="40">
+        <f t="shared" si="7"/>
+        <v>0.33322460289180011</v>
+      </c>
+      <c r="C74" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D74" s="40">
+        <f t="shared" si="10"/>
+        <v>2.1864110406166967E-2</v>
+      </c>
+      <c r="E74" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F74" s="40">
+        <f t="shared" si="12"/>
+        <v>2.1864110406166967E-2</v>
+      </c>
+      <c r="G74" s="38">
+        <f>G73</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <f t="shared" si="13"/>
+        <v>0.16155513834438257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="39">
+        <f t="shared" si="8"/>
+        <v>0.6499999999999978</v>
+      </c>
+      <c r="B75" s="40">
+        <f t="shared" si="7"/>
+        <v>0.32297235966791477</v>
+      </c>
+      <c r="C75" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D75" s="40">
+        <f t="shared" si="10"/>
+        <v>2.1417904071347235E-2</v>
+      </c>
+      <c r="E75" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F75" s="40">
+        <f t="shared" si="12"/>
+        <v>2.1417904071347235E-2</v>
+      </c>
+      <c r="G75" s="38">
+        <f>G74</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <f t="shared" si="13"/>
+        <v>0.15825809470470131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="39">
+        <f t="shared" si="8"/>
+        <v>0.69999999999999785</v>
+      </c>
+      <c r="B76" s="40">
+        <f t="shared" si="7"/>
+        <v>0.31225393336676177</v>
+      </c>
+      <c r="C76" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D76" s="40">
+        <f t="shared" si="10"/>
+        <v>2.0971697736527503E-2</v>
+      </c>
+      <c r="E76" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F76" s="40">
+        <f t="shared" si="12"/>
+        <v>2.0971697736527503E-2</v>
+      </c>
+      <c r="G76" s="38">
+        <f>G75</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <f t="shared" si="13"/>
+        <v>0.15496105106502006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="39">
+        <f t="shared" si="8"/>
+        <v>0.74999999999999789</v>
+      </c>
+      <c r="B77" s="40">
+        <f t="shared" si="7"/>
+        <v>0.30113743215480487</v>
+      </c>
+      <c r="C77" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D77" s="40">
+        <f t="shared" si="10"/>
+        <v>2.0525491401707771E-2</v>
+      </c>
+      <c r="E77" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F77" s="40">
+        <f t="shared" si="12"/>
+        <v>2.0525491401707771E-2</v>
+      </c>
+      <c r="G77" s="38">
+        <f>G76</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
+        <f t="shared" si="13"/>
+        <v>0.15166400742533881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="39">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999793</v>
+      </c>
+      <c r="B78" s="40">
+        <f t="shared" si="7"/>
+        <v>0.28969155276148323</v>
+      </c>
+      <c r="C78" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D78" s="40">
+        <f t="shared" si="10"/>
+        <v>2.0079285066888039E-2</v>
+      </c>
+      <c r="E78" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F78" s="40">
+        <f t="shared" si="12"/>
+        <v>2.0079285066888039E-2</v>
+      </c>
+      <c r="G78" s="38">
+        <f>G77</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <f t="shared" si="13"/>
+        <v>0.14836696378565756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="39">
+        <f t="shared" si="8"/>
+        <v>0.84999999999999798</v>
+      </c>
+      <c r="B79" s="40">
+        <f t="shared" si="7"/>
+        <v>0.27798488613099692</v>
+      </c>
+      <c r="C79" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D79" s="40">
+        <f t="shared" si="10"/>
+        <v>1.9633078732068307E-2</v>
+      </c>
+      <c r="E79" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F79" s="40">
+        <f t="shared" si="12"/>
+        <v>1.9633078732068307E-2</v>
+      </c>
+      <c r="G79" s="38">
+        <f>G78</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <f t="shared" si="13"/>
+        <v>0.14506992014597631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="39">
+        <f t="shared" si="8"/>
+        <v>0.89999999999999802</v>
+      </c>
+      <c r="B80" s="40">
+        <f t="shared" si="7"/>
+        <v>0.26608524989875532</v>
+      </c>
+      <c r="C80" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D80" s="40">
+        <f t="shared" si="10"/>
+        <v>1.9186872397248575E-2</v>
+      </c>
+      <c r="E80" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F80" s="40">
+        <f t="shared" si="12"/>
+        <v>1.9186872397248575E-2</v>
+      </c>
+      <c r="G80" s="38">
+        <f>G79</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="13">
+        <f t="shared" si="13"/>
+        <v>0.14177287650629505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="39">
+        <f t="shared" si="8"/>
+        <v>0.94999999999999807</v>
+      </c>
+      <c r="B81" s="40">
+        <f t="shared" si="7"/>
+        <v>0.25405905646918947</v>
+      </c>
+      <c r="C81" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D81" s="40">
+        <f t="shared" si="10"/>
+        <v>1.8740666062428843E-2</v>
+      </c>
+      <c r="E81" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F81" s="40">
+        <f t="shared" si="12"/>
+        <v>1.8740666062428843E-2</v>
+      </c>
+      <c r="G81" s="38">
+        <f>G80</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="13">
+        <f t="shared" si="13"/>
+        <v>0.1384758328666138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="39">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999811</v>
+      </c>
+      <c r="B82" s="40">
+        <f t="shared" si="7"/>
+        <v>0.24197072451914381</v>
+      </c>
+      <c r="C82" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D82" s="40">
+        <f t="shared" si="10"/>
+        <v>1.8294459727609111E-2</v>
+      </c>
+      <c r="E82" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F82" s="40">
+        <f t="shared" si="12"/>
+        <v>1.8294459727609111E-2</v>
+      </c>
+      <c r="G82" s="38">
+        <f>G81</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="13">
+        <f t="shared" si="13"/>
+        <v>0.13517878922693255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="39">
+        <f t="shared" si="8"/>
+        <v>1.049999999999998</v>
+      </c>
+      <c r="B83" s="40">
+        <f t="shared" si="7"/>
+        <v>0.22988214068423349</v>
+      </c>
+      <c r="C83" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D83" s="40">
+        <f t="shared" si="10"/>
+        <v>1.7848253392789379E-2</v>
+      </c>
+      <c r="E83" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F83" s="40">
+        <f t="shared" si="12"/>
+        <v>1.7848253392789379E-2</v>
+      </c>
+      <c r="G83" s="38">
+        <f>G82</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <f t="shared" si="13"/>
+        <v>0.1318817455872513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0999999999999981</v>
+      </c>
+      <c r="B84" s="40">
+        <f t="shared" si="7"/>
+        <v>0.21785217703255103</v>
+      </c>
+      <c r="C84" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D84" s="40">
+        <f t="shared" si="10"/>
+        <v>1.7402047057969647E-2</v>
+      </c>
+      <c r="E84" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F84" s="40">
+        <f t="shared" si="12"/>
+        <v>1.7402047057969647E-2</v>
+      </c>
+      <c r="G84" s="38">
+        <f>G83</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="13">
+        <f t="shared" si="13"/>
+        <v>0.12858470194757005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="39">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999981</v>
+      </c>
+      <c r="B85" s="40">
+        <f t="shared" si="7"/>
+        <v>0.20593626871997517</v>
+      </c>
+      <c r="C85" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D85" s="40">
+        <f t="shared" si="10"/>
+        <v>1.6955840723149915E-2</v>
+      </c>
+      <c r="E85" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F85" s="40">
+        <f t="shared" si="12"/>
+        <v>1.6955840723149915E-2</v>
+      </c>
+      <c r="G85" s="38">
+        <f>G84</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <f t="shared" si="13"/>
+        <v>0.12528765830788879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="39">
+        <f t="shared" si="8"/>
+        <v>1.1999999999999982</v>
+      </c>
+      <c r="B86" s="40">
+        <f t="shared" si="7"/>
+        <v>0.19418605498321337</v>
+      </c>
+      <c r="C86" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D86" s="40">
+        <f t="shared" si="10"/>
+        <v>1.6509634388330183E-2</v>
+      </c>
+      <c r="E86" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="40">
+        <f t="shared" si="12"/>
+        <v>1.6509634388330183E-2</v>
+      </c>
+      <c r="G86" s="38">
+        <f>G85</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="13">
+        <f t="shared" si="13"/>
+        <v>0.12199061466820753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="39">
+        <f t="shared" si="8"/>
+        <v>1.2499999999999982</v>
+      </c>
+      <c r="B87" s="40">
+        <f t="shared" si="7"/>
+        <v>0.18264908538902233</v>
+      </c>
+      <c r="C87" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D87" s="40">
+        <f t="shared" si="10"/>
+        <v>1.6063428053510451E-2</v>
+      </c>
+      <c r="E87" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F87" s="40">
+        <f t="shared" si="12"/>
+        <v>1.6063428053510451E-2</v>
+      </c>
+      <c r="G87" s="38">
+        <f>G86</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="13">
+        <f t="shared" si="13"/>
+        <v>0.11869357102852626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="39">
+        <f t="shared" si="8"/>
+        <v>1.2999999999999983</v>
+      </c>
+      <c r="B88" s="40">
+        <f t="shared" si="7"/>
+        <v>0.17136859204780774</v>
+      </c>
+      <c r="C88" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D88" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5617221718690719E-2</v>
+      </c>
+      <c r="E88" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F88" s="40">
+        <f t="shared" si="12"/>
+        <v>1.5617221718690719E-2</v>
+      </c>
+      <c r="G88" s="38">
+        <f>G87</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <f t="shared" si="13"/>
+        <v>0.115396527388845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3499999999999983</v>
+      </c>
+      <c r="B89" s="40">
+        <f t="shared" si="7"/>
+        <v>0.16038332734191996</v>
+      </c>
+      <c r="C89" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D89" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5171015383870987E-2</v>
+      </c>
+      <c r="E89" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F89" s="40">
+        <f t="shared" si="12"/>
+        <v>1.5171015383870987E-2</v>
+      </c>
+      <c r="G89" s="38">
+        <f>G88</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <f t="shared" si="13"/>
+        <v>0.11209948374916373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3999999999999984</v>
+      </c>
+      <c r="B90" s="40">
+        <f t="shared" si="7"/>
+        <v>0.14972746563574521</v>
+      </c>
+      <c r="C90" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D90" s="40">
+        <f t="shared" si="10"/>
+        <v>1.4724809049051255E-2</v>
+      </c>
+      <c r="E90" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F90" s="40">
+        <f t="shared" si="12"/>
+        <v>1.4724809049051255E-2</v>
+      </c>
+      <c r="G90" s="38">
+        <f>G89</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="13">
+        <f t="shared" si="13"/>
+        <v>0.10880244010948247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="39">
+        <f t="shared" si="8"/>
+        <v>1.4499999999999984</v>
+      </c>
+      <c r="B91" s="40">
+        <f t="shared" si="7"/>
+        <v>0.13943056644536062</v>
+      </c>
+      <c r="C91" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D91" s="40">
+        <f t="shared" si="10"/>
+        <v>1.4278602714231522E-2</v>
+      </c>
+      <c r="E91" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F91" s="40">
+        <f t="shared" si="12"/>
+        <v>1.4278602714231522E-2</v>
+      </c>
+      <c r="G91" s="38">
+        <f>G90</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="13">
+        <f t="shared" si="13"/>
+        <v>0.1055053964698012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="39">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999984</v>
+      </c>
+      <c r="B92" s="40">
+        <f t="shared" si="7"/>
+        <v>0.12951759566589202</v>
+      </c>
+      <c r="C92" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D92" s="40">
+        <f t="shared" si="10"/>
+        <v>1.383239637941179E-2</v>
+      </c>
+      <c r="E92" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F92" s="40">
+        <f t="shared" si="12"/>
+        <v>1.383239637941179E-2</v>
+      </c>
+      <c r="G92" s="38">
+        <f>G91</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <f t="shared" si="13"/>
+        <v>0.10220835283011993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="39">
+        <f t="shared" si="8"/>
+        <v>1.5499999999999985</v>
+      </c>
+      <c r="B93" s="40">
+        <f t="shared" si="7"/>
+        <v>0.12000900069698586</v>
+      </c>
+      <c r="C93" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D93" s="40">
+        <f t="shared" si="10"/>
+        <v>1.3386190044592058E-2</v>
+      </c>
+      <c r="E93" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F93" s="40">
+        <f t="shared" si="12"/>
+        <v>1.3386190044592058E-2</v>
+      </c>
+      <c r="G93" s="38">
+        <f>G92</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="13">
+        <f t="shared" si="13"/>
+        <v>9.8911309190438668E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="39">
+        <f t="shared" si="8"/>
+        <v>1.5999999999999985</v>
+      </c>
+      <c r="B94" s="40">
+        <f t="shared" si="7"/>
+        <v>0.11092083467945583</v>
+      </c>
+      <c r="C94" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D94" s="40">
+        <f t="shared" si="10"/>
+        <v>1.2939983709772326E-2</v>
+      </c>
+      <c r="E94" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F94" s="40">
+        <f t="shared" si="12"/>
+        <v>1.2939983709772326E-2</v>
+      </c>
+      <c r="G94" s="38">
+        <f>G93</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="13">
+        <f t="shared" si="13"/>
+        <v>9.5614265550757402E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="39">
+        <f t="shared" si="8"/>
+        <v>1.6499999999999986</v>
+      </c>
+      <c r="B95" s="40">
+        <f t="shared" si="7"/>
+        <v>0.10226492456397825</v>
+      </c>
+      <c r="C95" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D95" s="40">
+        <f t="shared" si="10"/>
+        <v>1.2493777374952594E-2</v>
+      </c>
+      <c r="E95" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F95" s="40">
+        <f t="shared" si="12"/>
+        <v>1.2493777374952594E-2</v>
+      </c>
+      <c r="G95" s="38">
+        <f>G94</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="13">
+        <f t="shared" si="13"/>
+        <v>9.2317221911076136E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="39">
+        <f t="shared" si="8"/>
+        <v>1.6999999999999986</v>
+      </c>
+      <c r="B96" s="40">
+        <f t="shared" si="7"/>
+        <v>9.4049077376887155E-2</v>
+      </c>
+      <c r="C96" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D96" s="40">
+        <f t="shared" si="10"/>
+        <v>1.2047571040132862E-2</v>
+      </c>
+      <c r="E96" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F96" s="40">
+        <f t="shared" si="12"/>
+        <v>1.2047571040132862E-2</v>
+      </c>
+      <c r="G96" s="38">
+        <f>G95</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="13">
+        <f t="shared" si="13"/>
+        <v>8.902017827139487E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="39">
+        <f t="shared" si="8"/>
+        <v>1.7499999999999987</v>
+      </c>
+      <c r="B97" s="40">
+        <f t="shared" si="7"/>
+        <v>8.6277318826511712E-2</v>
+      </c>
+      <c r="C97" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D97" s="40">
+        <f t="shared" si="10"/>
+        <v>1.160136470531313E-2</v>
+      </c>
+      <c r="E97" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F97" s="40">
+        <f t="shared" si="12"/>
+        <v>1.160136470531313E-2</v>
+      </c>
+      <c r="G97" s="38">
+        <f>G96</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <f t="shared" si="13"/>
+        <v>8.5723134631713604E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="39">
+        <f t="shared" si="8"/>
+        <v>1.7999999999999987</v>
+      </c>
+      <c r="B98" s="40">
+        <f t="shared" si="7"/>
+        <v>7.8950158300894344E-2</v>
+      </c>
+      <c r="C98" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D98" s="40">
+        <f t="shared" si="10"/>
+        <v>1.1155158370493398E-2</v>
+      </c>
+      <c r="E98" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F98" s="40">
+        <f t="shared" si="12"/>
+        <v>1.1155158370493398E-2</v>
+      </c>
+      <c r="G98" s="38">
+        <f>G97</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="13">
+        <f t="shared" si="13"/>
+        <v>8.2426090992032339E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="39">
+        <f t="shared" si="8"/>
+        <v>1.8499999999999988</v>
+      </c>
+      <c r="B99" s="40">
+        <f t="shared" si="7"/>
+        <v>7.2064874336218165E-2</v>
+      </c>
+      <c r="C99" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D99" s="40">
+        <f t="shared" si="10"/>
+        <v>1.0708952035673666E-2</v>
+      </c>
+      <c r="E99" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F99" s="40">
+        <f t="shared" si="12"/>
+        <v>1.0708952035673666E-2</v>
+      </c>
+      <c r="G99" s="38">
+        <f>G98</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="13">
+        <f t="shared" si="13"/>
+        <v>7.9129047352351073E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="39">
+        <f t="shared" si="8"/>
+        <v>1.8999999999999988</v>
+      </c>
+      <c r="B100" s="40">
+        <f t="shared" si="7"/>
+        <v>6.5615814774676734E-2</v>
+      </c>
+      <c r="C100" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D100" s="40">
+        <f t="shared" si="10"/>
+        <v>1.0262745700853934E-2</v>
+      </c>
+      <c r="E100" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F100" s="40">
+        <f t="shared" si="12"/>
+        <v>1.0262745700853934E-2</v>
+      </c>
+      <c r="G100" s="38">
+        <f>G99</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <f t="shared" si="13"/>
+        <v>7.5832003712669807E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="39">
+        <f t="shared" si="8"/>
+        <v>1.9499999999999988</v>
+      </c>
+      <c r="B101" s="40">
+        <f t="shared" si="7"/>
+        <v>5.9594706068816207E-2</v>
+      </c>
+      <c r="C101" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D101" s="40">
+        <f t="shared" si="10"/>
+        <v>9.8165393660342021E-3</v>
+      </c>
+      <c r="E101" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F101" s="40">
+        <f t="shared" si="12"/>
+        <v>9.8165393660342021E-3</v>
+      </c>
+      <c r="G101" s="38">
+        <f>G100</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <f t="shared" si="13"/>
+        <v>7.2534960072988541E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="39">
+        <f t="shared" si="8"/>
+        <v>1.9999999999999989</v>
+      </c>
+      <c r="B102" s="40">
+        <f t="shared" si="7"/>
+        <v>5.3990966513188167E-2</v>
+      </c>
+      <c r="C102" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D102" s="40">
+        <f t="shared" si="10"/>
+        <v>9.37033303121447E-3</v>
+      </c>
+      <c r="E102" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F102" s="40">
+        <f t="shared" si="12"/>
+        <v>9.37033303121447E-3</v>
+      </c>
+      <c r="G102" s="38">
+        <f>G101</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <f t="shared" si="13"/>
+        <v>6.9237916433307276E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="39">
+        <f t="shared" si="8"/>
+        <v>2.0499999999999989</v>
+      </c>
+      <c r="B103" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8792018579182875E-2</v>
+      </c>
+      <c r="C103" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D103" s="40">
+        <f t="shared" si="10"/>
+        <v>8.924126696394738E-3</v>
+      </c>
+      <c r="E103" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F103" s="40">
+        <f t="shared" si="12"/>
+        <v>8.924126696394738E-3</v>
+      </c>
+      <c r="G103" s="38">
+        <f>G102</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <f t="shared" si="13"/>
+        <v>6.594087279362601E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="39">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="B104" s="40">
+        <f t="shared" si="7"/>
+        <v>4.3983595980427309E-2</v>
+      </c>
+      <c r="C104" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D104" s="40">
+        <f t="shared" si="10"/>
+        <v>8.4779203615750059E-3</v>
+      </c>
+      <c r="E104" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F104" s="40">
+        <f t="shared" si="12"/>
+        <v>8.4779203615750059E-3</v>
+      </c>
+      <c r="G104" s="38">
+        <f>G103</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="13">
+        <f t="shared" si="13"/>
+        <v>6.2643829153944744E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="39">
+        <f t="shared" si="8"/>
+        <v>2.1499999999999986</v>
+      </c>
+      <c r="B105" s="40">
+        <f t="shared" si="7"/>
+        <v>3.9550041589370331E-2</v>
+      </c>
+      <c r="C105" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D105" s="40">
+        <f t="shared" si="10"/>
+        <v>8.0317140267552739E-3</v>
+      </c>
+      <c r="E105" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F105" s="40">
+        <f t="shared" si="12"/>
+        <v>8.0317140267552739E-3</v>
+      </c>
+      <c r="G105" s="38">
+        <f>G104</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <f t="shared" si="13"/>
+        <v>5.9346785514263485E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="39">
+        <f t="shared" si="8"/>
+        <v>2.1999999999999984</v>
+      </c>
+      <c r="B106" s="40">
+        <f t="shared" si="7"/>
+        <v>3.547459284623157E-2</v>
+      </c>
+      <c r="C106" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D106" s="40">
+        <f t="shared" si="10"/>
+        <v>7.585507691935541E-3</v>
+      </c>
+      <c r="E106" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F106" s="40">
+        <f t="shared" si="12"/>
+        <v>7.585507691935541E-3</v>
+      </c>
+      <c r="G106" s="38">
+        <f>G105</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <f t="shared" si="13"/>
+        <v>5.6049741874582226E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="39">
+        <f t="shared" si="8"/>
+        <v>2.2499999999999982</v>
+      </c>
+      <c r="B107" s="40">
+        <f t="shared" si="7"/>
+        <v>3.173965183566755E-2</v>
+      </c>
+      <c r="C107" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D107" s="40">
+        <f t="shared" si="10"/>
+        <v>7.1393013571158081E-3</v>
+      </c>
+      <c r="E107" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F107" s="40">
+        <f t="shared" si="12"/>
+        <v>7.1393013571158081E-3</v>
+      </c>
+      <c r="G107" s="38">
+        <f>G106</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <f t="shared" si="13"/>
+        <v>5.2752698234900967E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="39">
+        <f t="shared" si="8"/>
+        <v>2.299999999999998</v>
+      </c>
+      <c r="B108" s="40">
+        <f t="shared" si="7"/>
+        <v>2.8327037741601297E-2</v>
+      </c>
+      <c r="C108" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D108" s="40">
+        <f t="shared" si="10"/>
+        <v>6.6930950222960752E-3</v>
+      </c>
+      <c r="E108" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F108" s="40">
+        <f t="shared" si="12"/>
+        <v>6.6930950222960752E-3</v>
+      </c>
+      <c r="G108" s="38">
+        <f>G107</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <f t="shared" si="13"/>
+        <v>4.9455654595219709E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="39">
+        <f t="shared" si="8"/>
+        <v>2.3499999999999979</v>
+      </c>
+      <c r="B109" s="40">
+        <f t="shared" si="7"/>
+        <v>2.5218219915194514E-2</v>
+      </c>
+      <c r="C109" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D109" s="40">
+        <f t="shared" si="10"/>
+        <v>6.2468886874763423E-3</v>
+      </c>
+      <c r="E109" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F109" s="40">
+        <f t="shared" si="12"/>
+        <v>6.2468886874763423E-3</v>
+      </c>
+      <c r="G109" s="38">
+        <f>G108</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <f t="shared" si="13"/>
+        <v>4.615861095553845E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="39">
+        <f t="shared" si="8"/>
+        <v>2.3999999999999977</v>
+      </c>
+      <c r="B110" s="40">
+        <f t="shared" si="7"/>
+        <v>2.2394530294843017E-2</v>
+      </c>
+      <c r="C110" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D110" s="40">
+        <f t="shared" si="10"/>
+        <v>5.8006823526566094E-3</v>
+      </c>
+      <c r="E110" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F110" s="40">
+        <f t="shared" si="12"/>
+        <v>5.8006823526566094E-3</v>
+      </c>
+      <c r="G110" s="38">
+        <f>G109</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <f t="shared" si="13"/>
+        <v>4.2861567315857191E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="39">
+        <f t="shared" si="8"/>
+        <v>2.4499999999999975</v>
+      </c>
+      <c r="B111" s="40">
+        <f t="shared" si="7"/>
+        <v>1.9837354391795441E-2</v>
+      </c>
+      <c r="C111" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D111" s="40">
+        <f t="shared" si="10"/>
+        <v>5.3544760178368764E-3</v>
+      </c>
+      <c r="E111" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F111" s="40">
+        <f t="shared" si="12"/>
+        <v>5.3544760178368764E-3</v>
+      </c>
+      <c r="G111" s="38">
+        <f>G110</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <f t="shared" si="13"/>
+        <v>3.9564523676175932E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="39">
+        <f t="shared" si="8"/>
+        <v>2.4999999999999973</v>
+      </c>
+      <c r="B112" s="40">
+        <f t="shared" si="7"/>
+        <v>1.7528300493568655E-2</v>
+      </c>
+      <c r="C112" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D112" s="40">
+        <f t="shared" si="10"/>
+        <v>4.9082696830171435E-3</v>
+      </c>
+      <c r="E112" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F112" s="40">
+        <f t="shared" si="12"/>
+        <v>4.9082696830171435E-3</v>
+      </c>
+      <c r="G112" s="38">
+        <f>G111</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <f t="shared" si="13"/>
+        <v>3.6267480036494673E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="39">
+        <f t="shared" si="8"/>
+        <v>2.5499999999999972</v>
+      </c>
+      <c r="B113" s="40">
+        <f t="shared" si="7"/>
+        <v>1.5449347134395285E-2</v>
+      </c>
+      <c r="C113" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D113" s="40">
+        <f t="shared" si="10"/>
+        <v>4.4620633481974106E-3</v>
+      </c>
+      <c r="E113" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F113" s="40">
+        <f t="shared" si="12"/>
+        <v>4.4620633481974106E-3</v>
+      </c>
+      <c r="G113" s="38">
+        <f>G112</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <f t="shared" si="13"/>
+        <v>3.2970436396813414E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="39">
+        <f t="shared" si="8"/>
+        <v>2.599999999999997</v>
+      </c>
+      <c r="B114" s="40">
+        <f t="shared" si="7"/>
+        <v>1.3582969233685722E-2</v>
+      </c>
+      <c r="C114" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D114" s="40">
+        <f t="shared" si="10"/>
+        <v>4.0158570133776777E-3</v>
+      </c>
+      <c r="E114" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F114" s="40">
+        <f t="shared" si="12"/>
+        <v>4.0158570133776777E-3</v>
+      </c>
+      <c r="G114" s="38">
+        <f>G113</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <f t="shared" si="13"/>
+        <v>2.9673392757132152E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="39">
+        <f t="shared" si="8"/>
+        <v>2.6499999999999968</v>
+      </c>
+      <c r="B115" s="40">
+        <f t="shared" si="7"/>
+        <v>1.191224360760528E-2</v>
+      </c>
+      <c r="C115" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D115" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5696506785579448E-3</v>
+      </c>
+      <c r="E115" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="40">
+        <f t="shared" si="12"/>
+        <v>3.5696506785579448E-3</v>
+      </c>
+      <c r="G115" s="38">
+        <f>G114</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="13">
+        <f t="shared" si="13"/>
+        <v>2.637634911745089E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="39">
+        <f t="shared" si="8"/>
+        <v>2.6999999999999966</v>
+      </c>
+      <c r="B116" s="40">
+        <f t="shared" si="7"/>
+        <v>1.0420934814422692E-2</v>
+      </c>
+      <c r="C116" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D116" s="40">
+        <f t="shared" si="10"/>
+        <v>3.1234443437382119E-3</v>
+      </c>
+      <c r="E116" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F116" s="40">
+        <f t="shared" si="12"/>
+        <v>3.1234443437382119E-3</v>
+      </c>
+      <c r="G116" s="38">
+        <f>G115</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <f t="shared" si="13"/>
+        <v>2.3079305477769627E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="39">
+        <f t="shared" si="8"/>
+        <v>2.7499999999999964</v>
+      </c>
+      <c r="B117" s="40">
+        <f t="shared" si="7"/>
+        <v>9.0935625015911431E-3</v>
+      </c>
+      <c r="C117" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D117" s="40">
+        <f t="shared" si="10"/>
+        <v>2.677238008918479E-3</v>
+      </c>
+      <c r="E117" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F117" s="40">
+        <f t="shared" si="12"/>
+        <v>2.677238008918479E-3</v>
+      </c>
+      <c r="G117" s="38">
+        <f>G116</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="13">
+        <f t="shared" si="13"/>
+        <v>1.9782261838088365E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="39">
+        <f t="shared" si="8"/>
+        <v>2.7999999999999963</v>
+      </c>
+      <c r="B118" s="40">
+        <f t="shared" si="7"/>
+        <v>7.9154515829800449E-3</v>
+      </c>
+      <c r="C118" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D118" s="40">
+        <f t="shared" si="10"/>
+        <v>2.2310316740987461E-3</v>
+      </c>
+      <c r="E118" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F118" s="40">
+        <f t="shared" si="12"/>
+        <v>2.2310316740987461E-3</v>
+      </c>
+      <c r="G118" s="38">
+        <f>G117</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <f t="shared" si="13"/>
+        <v>1.6485218198407103E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="39">
+        <f t="shared" si="8"/>
+        <v>2.8499999999999961</v>
+      </c>
+      <c r="B119" s="40">
+        <f t="shared" si="7"/>
+        <v>6.872766690614051E-3</v>
+      </c>
+      <c r="C119" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D119" s="40">
+        <f t="shared" si="10"/>
+        <v>1.7848253392790132E-3</v>
+      </c>
+      <c r="E119" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F119" s="40">
+        <f t="shared" si="12"/>
+        <v>1.7848253392790132E-3</v>
+      </c>
+      <c r="G119" s="38">
+        <f>G118</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="13">
+        <f t="shared" si="13"/>
+        <v>1.318817455872584E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="39">
+        <f t="shared" si="8"/>
+        <v>2.8999999999999959</v>
+      </c>
+      <c r="B120" s="40">
+        <f t="shared" si="7"/>
+        <v>5.9525324197759223E-3</v>
+      </c>
+      <c r="C120" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D120" s="40">
+        <f t="shared" si="10"/>
+        <v>1.3386190044592803E-3</v>
+      </c>
+      <c r="E120" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F120" s="40">
+        <f t="shared" si="12"/>
+        <v>1.3386190044592803E-3</v>
+      </c>
+      <c r="G120" s="38">
+        <f>G119</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <f t="shared" si="13"/>
+        <v>9.891130919044578E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="39">
+        <f t="shared" si="8"/>
+        <v>2.9499999999999957</v>
+      </c>
+      <c r="B121" s="40">
+        <f t="shared" si="7"/>
+        <v>5.1426409230540026E-3</v>
+      </c>
+      <c r="C121" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D121" s="40">
+        <f t="shared" si="10"/>
+        <v>8.9241266963954735E-4</v>
+      </c>
+      <c r="E121" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F121" s="40">
+        <f t="shared" si="12"/>
+        <v>8.9241266963954735E-4</v>
+      </c>
+      <c r="G121" s="38">
+        <f>G120</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="13">
+        <f t="shared" si="13"/>
+        <v>6.5940872793633157E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="39">
+        <f t="shared" si="8"/>
+        <v>2.9999999999999956</v>
+      </c>
+      <c r="B122" s="40">
+        <f t="shared" si="7"/>
+        <v>4.4318484119380665E-3</v>
+      </c>
+      <c r="C122" s="38">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="D122" s="40">
+        <f t="shared" si="10"/>
+        <v>4.462063348198145E-4</v>
+      </c>
+      <c r="E122" s="38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F122" s="40">
+        <f t="shared" si="12"/>
+        <v>4.462063348198145E-4</v>
+      </c>
+      <c r="G122" s="38">
+        <f>G121</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="13">
+        <f t="shared" si="13"/>
+        <v>3.2970436396820538E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C689651-BB9F-4B8A-8D11-9414051932E6}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -26760,10 +36445,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="26">
+      <c r="O6" s="44">
         <v>0</v>
       </c>
-      <c r="P6" s="26"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -26790,8 +36475,8 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4954FC50-2A0A-4FC6-826F-B60C97175D48}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5354646-4EDD-4B5B-82A8-A73473C6D0B7}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3705" windowWidth="38700" windowHeight="15195" tabRatio="854" firstSheet="4" activeTab="11" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="-33540" yWindow="5280" windowWidth="38700" windowHeight="15195" tabRatio="854" firstSheet="2" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>CAR</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>mean_mark</t>
+  </si>
+  <si>
+    <t>(true positive)</t>
   </si>
 </sst>
 </file>
@@ -17259,7 +17262,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17982,7 +17985,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664677" cy="6292645"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 1">
@@ -18022,8 +18025,8 @@
       <cdr:x>0.5236</cdr:x>
       <cdr:y>0.93866</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -18088,7 +18091,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -18136,8 +18139,8 @@
       <cdr:x>0.75866</cdr:x>
       <cdr:y>0.93866</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 1">
@@ -18279,7 +18282,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 1">
@@ -18398,8 +18401,8 @@
       <cdr:x>0.28805</cdr:x>
       <cdr:y>0.93866</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 1">
@@ -18550,7 +18553,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 1">
@@ -19211,8 +19214,8 @@
       <cdr:x>0.30505</cdr:x>
       <cdr:y>0.16627</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="22" name="TextBox 21">
@@ -19284,7 +19287,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="22" name="TextBox 21">
@@ -19363,8 +19366,8 @@
       <cdr:x>0.88975</cdr:x>
       <cdr:y>0.40853</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="23" name="TextBox 1">
@@ -19499,7 +19502,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="23" name="TextBox 1">
@@ -32166,14 +32169,14 @@
   </sheetPr>
   <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="9.140625" style="27"/>
+    <col min="3" max="3" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.7109375" style="26" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="26"/>
   </cols>
@@ -32214,7 +32217,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>30</v>
@@ -32354,7 +32357,7 @@
         <v>5.3544760178367942E-2</v>
       </c>
       <c r="G3" s="38">
-        <f>G2</f>
+        <f t="shared" ref="G3:G34" si="1">G2</f>
         <v>0</v>
       </c>
       <c r="H3" s="13">
@@ -32364,7 +32367,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
-        <f t="shared" ref="A4:A67" si="1">A3+0.05</f>
+        <f t="shared" ref="A4:A67" si="2">A3+0.05</f>
         <v>-2.9000000000000004</v>
       </c>
       <c r="B4" s="40">
@@ -32372,33 +32375,33 @@
         <v>5.9525324197758486E-3</v>
       </c>
       <c r="C4" s="38">
-        <f t="shared" ref="C4:C67" si="2">C3</f>
+        <f t="shared" ref="C4:C67" si="3">C3</f>
         <v>-2</v>
       </c>
       <c r="D4" s="40">
-        <f t="shared" ref="D4:D67" si="3">D3-($D$2/COUNTA($A$2:$A$122))</f>
+        <f t="shared" ref="D4:D67" si="4">D3-($D$2/COUNTA($A$2:$A$122))</f>
         <v>5.309855384354821E-2</v>
       </c>
       <c r="E4" s="38">
-        <f t="shared" ref="E4:E67" si="4">E3</f>
+        <f t="shared" ref="E4:E67" si="5">E3</f>
         <v>2</v>
       </c>
       <c r="F4" s="40">
-        <f t="shared" ref="F4:F67" si="5">D4</f>
+        <f t="shared" ref="F4:F67" si="6">D4</f>
         <v>5.309855384354821E-2</v>
       </c>
       <c r="G4" s="38">
-        <f>G3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:H67" si="6">H3-($H$2/COUNTA($A$2:$A$122))</f>
+        <f t="shared" ref="H4:H67" si="7">H3-($H$2/COUNTA($A$2:$A$122))</f>
         <v>0.3923481931220702</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.8500000000000005</v>
       </c>
       <c r="B5" s="40">
@@ -32406,33 +32409,33 @@
         <v>6.8727666906139651E-3</v>
       </c>
       <c r="C5" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D5" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2652347508728478E-2</v>
       </c>
       <c r="E5" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2652347508728478E-2</v>
       </c>
       <c r="G5" s="38">
-        <f>G4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38905114948238895</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.8000000000000007</v>
       </c>
       <c r="B6" s="40">
@@ -32440,33 +32443,33 @@
         <v>7.915451582979946E-3</v>
       </c>
       <c r="C6" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D6" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2206141173908746E-2</v>
       </c>
       <c r="E6" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F6" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2206141173908746E-2</v>
       </c>
       <c r="G6" s="38">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3857541058427077</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.7500000000000009</v>
       </c>
       <c r="B7" s="40">
@@ -32474,33 +32477,33 @@
         <v>9.0935625015910286E-3</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1759934839089014E-2</v>
       </c>
       <c r="E7" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F7" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1759934839089014E-2</v>
       </c>
       <c r="G7" s="38">
-        <f>G6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38245706220302644</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.7000000000000011</v>
       </c>
       <c r="B8" s="40">
@@ -32508,33 +32511,33 @@
         <v>1.0420934814422567E-2</v>
       </c>
       <c r="C8" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1313728504269282E-2</v>
       </c>
       <c r="E8" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1313728504269282E-2</v>
       </c>
       <c r="G8" s="38">
-        <f>G7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37916001856334519</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.6500000000000012</v>
       </c>
       <c r="B9" s="40">
@@ -32542,33 +32545,33 @@
         <v>1.1912243607605141E-2</v>
       </c>
       <c r="C9" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.086752216944955E-2</v>
       </c>
       <c r="E9" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F9" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.086752216944955E-2</v>
       </c>
       <c r="G9" s="38">
-        <f>G8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37586297492366394</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.6000000000000014</v>
       </c>
       <c r="B10" s="40">
@@ -32576,33 +32579,33 @@
         <v>1.3582969233685566E-2</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0421315834629818E-2</v>
       </c>
       <c r="E10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0421315834629818E-2</v>
       </c>
       <c r="G10" s="38">
-        <f>G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37256593128398269</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.5500000000000016</v>
       </c>
       <c r="B11" s="40">
@@ -32610,33 +32613,33 @@
         <v>1.5449347134395107E-2</v>
       </c>
       <c r="C11" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9975109499810086E-2</v>
       </c>
       <c r="E11" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F11" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9975109499810086E-2</v>
       </c>
       <c r="G11" s="38">
-        <f>G10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36926888764430144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.5000000000000018</v>
       </c>
       <c r="B12" s="40">
@@ -32644,33 +32647,33 @@
         <v>1.7528300493568461E-2</v>
       </c>
       <c r="C12" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9528903164990354E-2</v>
       </c>
       <c r="E12" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F12" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9528903164990354E-2</v>
       </c>
       <c r="G12" s="38">
-        <f>G11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36597184400462018</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.450000000000002</v>
       </c>
       <c r="B13" s="40">
@@ -32678,33 +32681,33 @@
         <v>1.9837354391795233E-2</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9082696830170622E-2</v>
       </c>
       <c r="E13" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9082696830170622E-2</v>
       </c>
       <c r="G13" s="38">
-        <f>G12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36267480036493893</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.4000000000000021</v>
       </c>
       <c r="B14" s="40">
@@ -32712,33 +32715,33 @@
         <v>2.2394530294842781E-2</v>
       </c>
       <c r="C14" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.863649049535089E-2</v>
       </c>
       <c r="E14" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.863649049535089E-2</v>
       </c>
       <c r="G14" s="38">
-        <f>G13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35937775672525768</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.3500000000000023</v>
       </c>
       <c r="B15" s="40">
@@ -32746,33 +32749,33 @@
         <v>2.5218219915194261E-2</v>
       </c>
       <c r="C15" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8190284160531158E-2</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F15" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8190284160531158E-2</v>
       </c>
       <c r="G15" s="38">
-        <f>G14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35608071308557643</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.3000000000000025</v>
       </c>
       <c r="B16" s="40">
@@ -32780,33 +32783,33 @@
         <v>2.8327037741601009E-2</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D16" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7744077825711426E-2</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F16" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7744077825711426E-2</v>
       </c>
       <c r="G16" s="38">
-        <f>G15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35278366944589518</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2500000000000027</v>
       </c>
       <c r="B17" s="40">
@@ -32814,33 +32817,33 @@
         <v>3.1739651835667224E-2</v>
       </c>
       <c r="C17" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D17" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7297871490891694E-2</v>
       </c>
       <c r="E17" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F17" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7297871490891694E-2</v>
       </c>
       <c r="G17" s="38">
-        <f>G16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34948662580621392</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2000000000000028</v>
       </c>
       <c r="B18" s="40">
@@ -32848,33 +32851,33 @@
         <v>3.5474592846231216E-2</v>
       </c>
       <c r="C18" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D18" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6851665156071962E-2</v>
       </c>
       <c r="E18" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6851665156071962E-2</v>
       </c>
       <c r="G18" s="38">
-        <f>G17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34618958216653267</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.150000000000003</v>
       </c>
       <c r="B19" s="40">
@@ -32882,33 +32885,33 @@
         <v>3.9550041589369964E-2</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D19" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.640545882125223E-2</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F19" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.640545882125223E-2</v>
       </c>
       <c r="G19" s="38">
-        <f>G18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34289253852685142</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.1000000000000032</v>
       </c>
       <c r="B20" s="40">
@@ -32916,33 +32919,33 @@
         <v>4.39835959804269E-2</v>
       </c>
       <c r="C20" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D20" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5959252486432497E-2</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5959252486432497E-2</v>
       </c>
       <c r="G20" s="38">
-        <f>G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33959549488717017</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0500000000000034</v>
       </c>
       <c r="B21" s="40">
@@ -32950,33 +32953,33 @@
         <v>4.8792018579182417E-2</v>
       </c>
       <c r="C21" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D21" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5513046151612765E-2</v>
       </c>
       <c r="E21" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5513046151612765E-2</v>
       </c>
       <c r="G21" s="38">
-        <f>G20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33629845124748892</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0000000000000036</v>
       </c>
       <c r="B22" s="40">
@@ -32984,33 +32987,33 @@
         <v>5.3990966513187674E-2</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D22" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5066839816793033E-2</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5066839816793033E-2</v>
       </c>
       <c r="G22" s="38">
-        <f>G21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33300140760780766</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9500000000000035</v>
       </c>
       <c r="B23" s="40">
@@ -33018,33 +33021,33 @@
         <v>5.9594706068815666E-2</v>
       </c>
       <c r="C23" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4620633481973301E-2</v>
       </c>
       <c r="E23" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4620633481973301E-2</v>
       </c>
       <c r="G23" s="38">
-        <f>G22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32970436396812641</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9000000000000035</v>
       </c>
       <c r="B24" s="40">
@@ -33052,33 +33055,33 @@
         <v>6.5615814774676165E-2</v>
       </c>
       <c r="C24" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4174427147153569E-2</v>
       </c>
       <c r="E24" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4174427147153569E-2</v>
       </c>
       <c r="G24" s="38">
-        <f>G23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32640732032844516</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8500000000000034</v>
       </c>
       <c r="B25" s="40">
@@ -33086,33 +33089,33 @@
         <v>7.2064874336217541E-2</v>
       </c>
       <c r="C25" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3728220812333837E-2</v>
       </c>
       <c r="E25" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3728220812333837E-2</v>
       </c>
       <c r="G25" s="38">
-        <f>G24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32311027668876391</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8000000000000034</v>
       </c>
       <c r="B26" s="40">
@@ -33120,33 +33123,33 @@
         <v>7.8950158300893677E-2</v>
       </c>
       <c r="C26" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3282014477514105E-2</v>
       </c>
       <c r="E26" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3282014477514105E-2</v>
       </c>
       <c r="G26" s="38">
-        <f>G25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31981323304908266</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7500000000000033</v>
       </c>
       <c r="B27" s="40">
@@ -33154,33 +33157,33 @@
         <v>8.6277318826511032E-2</v>
       </c>
       <c r="C27" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2835808142694373E-2</v>
       </c>
       <c r="E27" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2835808142694373E-2</v>
       </c>
       <c r="G27" s="38">
-        <f>G26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31651618940940141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7000000000000033</v>
       </c>
       <c r="B28" s="40">
@@ -33188,33 +33191,33 @@
         <v>9.4049077376886406E-2</v>
       </c>
       <c r="C28" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2389601807874641E-2</v>
       </c>
       <c r="E28" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2389601807874641E-2</v>
       </c>
       <c r="G28" s="38">
-        <f>G27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31321914576972015</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.6500000000000032</v>
       </c>
       <c r="B29" s="40">
@@ -33222,33 +33225,33 @@
         <v>0.10226492456397746</v>
       </c>
       <c r="C29" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1943395473054909E-2</v>
       </c>
       <c r="E29" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1943395473054909E-2</v>
       </c>
       <c r="G29" s="38">
-        <f>G28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3099221021300389</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.6000000000000032</v>
       </c>
       <c r="B30" s="40">
@@ -33256,33 +33259,33 @@
         <v>0.11092083467945499</v>
       </c>
       <c r="C30" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1497189138235177E-2</v>
       </c>
       <c r="E30" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1497189138235177E-2</v>
       </c>
       <c r="G30" s="38">
-        <f>G29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30662505849035765</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5500000000000032</v>
       </c>
       <c r="B31" s="40">
@@ -33290,33 +33293,33 @@
         <v>0.12000900069698503</v>
       </c>
       <c r="C31" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D31" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1050982803415445E-2</v>
       </c>
       <c r="E31" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1050982803415445E-2</v>
       </c>
       <c r="G31" s="38">
-        <f>G30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3033280148506764</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5000000000000031</v>
       </c>
       <c r="B32" s="40">
@@ -33324,33 +33327,33 @@
         <v>0.12951759566589113</v>
       </c>
       <c r="C32" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D32" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0604776468595713E-2</v>
       </c>
       <c r="E32" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0604776468595713E-2</v>
       </c>
       <c r="G32" s="38">
-        <f>G31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30003097121099515</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4500000000000031</v>
       </c>
       <c r="B33" s="40">
@@ -33358,33 +33361,33 @@
         <v>0.13943056644535964</v>
       </c>
       <c r="C33" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D33" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0158570133775981E-2</v>
       </c>
       <c r="E33" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0158570133775981E-2</v>
       </c>
       <c r="G33" s="38">
-        <f>G32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29673392757131389</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.400000000000003</v>
       </c>
       <c r="B34" s="40">
@@ -33392,33 +33395,33 @@
         <v>0.14972746563574424</v>
       </c>
       <c r="C34" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D34" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9712363798956249E-2</v>
       </c>
       <c r="E34" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9712363798956249E-2</v>
       </c>
       <c r="G34" s="38">
-        <f>G33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29343688393163264</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.350000000000003</v>
       </c>
       <c r="B35" s="40">
@@ -33426,33 +33429,33 @@
         <v>0.16038332734191896</v>
       </c>
       <c r="C35" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D35" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9266157464136517E-2</v>
       </c>
       <c r="E35" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9266157464136517E-2</v>
       </c>
       <c r="G35" s="38">
-        <f>G34</f>
+        <f t="shared" ref="G35:G66" si="8">G34</f>
         <v>0</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29013984029195139</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3000000000000029</v>
       </c>
       <c r="B36" s="40">
@@ -33460,33 +33463,33 @@
         <v>0.17136859204780672</v>
       </c>
       <c r="C36" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D36" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8819951129316785E-2</v>
       </c>
       <c r="E36" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8819951129316785E-2</v>
       </c>
       <c r="G36" s="38">
-        <f>G35</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28684279665227014</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2500000000000029</v>
       </c>
       <c r="B37" s="40">
@@ -33494,33 +33497,33 @@
         <v>0.18264908538902128</v>
       </c>
       <c r="C37" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D37" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8373744794497053E-2</v>
       </c>
       <c r="E37" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8373744794497053E-2</v>
       </c>
       <c r="G37" s="38">
-        <f>G36</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28354575301258889</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2000000000000028</v>
       </c>
       <c r="B38" s="40">
@@ -33528,33 +33531,33 @@
         <v>0.19418605498321231</v>
       </c>
       <c r="C38" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D38" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7927538459677321E-2</v>
       </c>
       <c r="E38" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F38" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7927538459677321E-2</v>
       </c>
       <c r="G38" s="38">
-        <f>G37</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28024870937290763</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1500000000000028</v>
       </c>
       <c r="B39" s="40">
@@ -33562,33 +33565,33 @@
         <v>0.20593626871997409</v>
       </c>
       <c r="C39" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D39" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7481332124857589E-2</v>
       </c>
       <c r="E39" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F39" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7481332124857589E-2</v>
       </c>
       <c r="G39" s="38">
-        <f>G38</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27695166573322638</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1000000000000028</v>
       </c>
       <c r="B40" s="40">
@@ -33596,33 +33599,33 @@
         <v>0.21785217703254989</v>
       </c>
       <c r="C40" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D40" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7035125790037857E-2</v>
       </c>
       <c r="E40" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7035125790037857E-2</v>
       </c>
       <c r="G40" s="38">
-        <f>G39</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27365462209354513</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0500000000000027</v>
       </c>
       <c r="B41" s="40">
@@ -33630,33 +33633,33 @@
         <v>0.22988214068423238</v>
       </c>
       <c r="C41" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D41" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6588919455218125E-2</v>
       </c>
       <c r="E41" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F41" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6588919455218125E-2</v>
       </c>
       <c r="G41" s="38">
-        <f>G40</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27035757845386388</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0000000000000027</v>
       </c>
       <c r="B42" s="40">
@@ -33664,33 +33667,33 @@
         <v>0.2419707245191427</v>
       </c>
       <c r="C42" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D42" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6142713120398393E-2</v>
       </c>
       <c r="E42" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F42" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6142713120398393E-2</v>
       </c>
       <c r="G42" s="38">
-        <f>G41</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26706053481418263</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.95000000000000262</v>
       </c>
       <c r="B43" s="40">
@@ -33698,33 +33701,33 @@
         <v>0.25405905646918836</v>
       </c>
       <c r="C43" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D43" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5696506785578661E-2</v>
       </c>
       <c r="E43" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5696506785578661E-2</v>
       </c>
       <c r="G43" s="38">
-        <f>G42</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26376349117450137</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.90000000000000258</v>
       </c>
       <c r="B44" s="40">
@@ -33732,33 +33735,33 @@
         <v>0.26608524989875421</v>
       </c>
       <c r="C44" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D44" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5250300450758928E-2</v>
       </c>
       <c r="E44" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5250300450758928E-2</v>
       </c>
       <c r="G44" s="38">
-        <f>G43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26046644753482012</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.85000000000000253</v>
       </c>
       <c r="B45" s="40">
@@ -33766,33 +33769,33 @@
         <v>0.27798488613099587</v>
       </c>
       <c r="C45" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D45" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4804094115939196E-2</v>
       </c>
       <c r="E45" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F45" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4804094115939196E-2</v>
       </c>
       <c r="G45" s="38">
-        <f>G44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25716940389513887</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.80000000000000249</v>
       </c>
       <c r="B46" s="40">
@@ -33800,33 +33803,33 @@
         <v>0.28969155276148217</v>
       </c>
       <c r="C46" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D46" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4357887781119464E-2</v>
       </c>
       <c r="E46" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F46" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4357887781119464E-2</v>
       </c>
       <c r="G46" s="38">
-        <f>G45</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25387236025545762</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.75000000000000244</v>
       </c>
       <c r="B47" s="40">
@@ -33834,33 +33837,33 @@
         <v>0.30113743215480387</v>
       </c>
       <c r="C47" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D47" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3911681446299732E-2</v>
       </c>
       <c r="E47" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F47" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3911681446299732E-2</v>
       </c>
       <c r="G47" s="38">
-        <f>G46</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25057531661577637</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7000000000000024</v>
       </c>
       <c r="B48" s="40">
@@ -33868,33 +33871,33 @@
         <v>0.31225393336676072</v>
       </c>
       <c r="C48" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D48" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.346547511148E-2</v>
       </c>
       <c r="E48" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F48" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.346547511148E-2</v>
       </c>
       <c r="G48" s="38">
-        <f>G47</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24727827297609511</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.65000000000000235</v>
       </c>
       <c r="B49" s="40">
@@ -33902,33 +33905,33 @@
         <v>0.32297235966791382</v>
       </c>
       <c r="C49" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3019268776660268E-2</v>
       </c>
       <c r="E49" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F49" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3019268776660268E-2</v>
       </c>
       <c r="G49" s="38">
-        <f>G48</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24398122933641386</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.60000000000000231</v>
       </c>
       <c r="B50" s="40">
@@ -33936,33 +33939,33 @@
         <v>0.33322460289179923</v>
       </c>
       <c r="C50" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D50" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2573062441840536E-2</v>
       </c>
       <c r="E50" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F50" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2573062441840536E-2</v>
       </c>
       <c r="G50" s="38">
-        <f>G49</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24068418569673261</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.55000000000000226</v>
       </c>
       <c r="B51" s="40">
@@ -33970,33 +33973,33 @@
         <v>0.34294385501938346</v>
       </c>
       <c r="C51" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2126856107020804E-2</v>
       </c>
       <c r="E51" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F51" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2126856107020804E-2</v>
       </c>
       <c r="G51" s="38">
-        <f>G50</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23738714205705136</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.50000000000000222</v>
       </c>
       <c r="B52" s="40">
@@ -34004,33 +34007,33 @@
         <v>0.35206532676429914</v>
       </c>
       <c r="C52" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1680649772201072E-2</v>
       </c>
       <c r="E52" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F52" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1680649772201072E-2</v>
       </c>
       <c r="G52" s="38">
-        <f>G51</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23409009841737011</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.45000000000000223</v>
       </c>
       <c r="B53" s="40">
@@ -34038,33 +34041,33 @@
         <v>0.36052696246164762</v>
       </c>
       <c r="C53" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D53" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.123444343738134E-2</v>
       </c>
       <c r="E53" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F53" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.123444343738134E-2</v>
       </c>
       <c r="G53" s="38">
-        <f>G52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H53" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23079305477768886</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000224</v>
       </c>
       <c r="B54" s="40">
@@ -34072,33 +34075,33 @@
         <v>0.368270140303323</v>
       </c>
       <c r="C54" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D54" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0788237102561608E-2</v>
       </c>
       <c r="E54" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F54" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0788237102561608E-2</v>
       </c>
       <c r="G54" s="38">
-        <f>G53</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2274960111380076</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.35000000000000225</v>
       </c>
       <c r="B55" s="40">
@@ -34106,33 +34109,33 @@
         <v>0.37524034691693758</v>
       </c>
       <c r="C55" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D55" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0342030767741876E-2</v>
       </c>
       <c r="E55" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F55" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0342030767741876E-2</v>
       </c>
       <c r="G55" s="38">
-        <f>G54</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22419896749832635</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.30000000000000226</v>
       </c>
       <c r="B56" s="40">
@@ -34140,33 +34143,33 @@
         <v>0.38138781546052386</v>
       </c>
       <c r="C56" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D56" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9895824432922144E-2</v>
       </c>
       <c r="E56" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F56" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9895824432922144E-2</v>
       </c>
       <c r="G56" s="38">
-        <f>G55</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2209019238586451</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.25000000000000228</v>
       </c>
       <c r="B57" s="40">
@@ -34174,33 +34177,33 @@
         <v>0.38666811680284902</v>
       </c>
       <c r="C57" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D57" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9449618098102412E-2</v>
       </c>
       <c r="E57" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F57" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9449618098102412E-2</v>
       </c>
       <c r="G57" s="38">
-        <f>G56</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21760488021896385</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.20000000000000229</v>
       </c>
       <c r="B58" s="40">
@@ -34208,33 +34211,33 @@
         <v>0.39104269397545571</v>
       </c>
       <c r="C58" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D58" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.900341176328268E-2</v>
       </c>
       <c r="E58" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F58" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.900341176328268E-2</v>
       </c>
       <c r="G58" s="38">
-        <f>G57</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2143078365792826</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1500000000000023</v>
       </c>
       <c r="B59" s="40">
@@ -34242,33 +34245,33 @@
         <v>0.39447933090788878</v>
       </c>
       <c r="C59" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D59" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8557205428462948E-2</v>
       </c>
       <c r="E59" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F59" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8557205428462948E-2</v>
       </c>
       <c r="G59" s="38">
-        <f>G58</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21101079293960134</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1000000000000023</v>
       </c>
       <c r="B60" s="40">
@@ -34276,33 +34279,33 @@
         <v>0.3969525474770117</v>
       </c>
       <c r="C60" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D60" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8110999093643216E-2</v>
       </c>
       <c r="E60" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F60" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8110999093643216E-2</v>
       </c>
       <c r="G60" s="38">
-        <f>G59</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20771374929992009</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.0000000000002293E-2</v>
       </c>
       <c r="B61" s="40">
@@ -34310,33 +34313,33 @@
         <v>0.39844391409476398</v>
       </c>
       <c r="C61" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D61" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7664792758823484E-2</v>
       </c>
       <c r="E61" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F61" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7664792758823484E-2</v>
       </c>
       <c r="G61" s="38">
-        <f>G60</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20441670566023884</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2898349882893854E-15</v>
       </c>
       <c r="B62" s="40">
@@ -34344,33 +34347,33 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="C62" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D62" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7218586424003752E-2</v>
       </c>
       <c r="E62" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F62" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7218586424003752E-2</v>
       </c>
       <c r="G62" s="38">
-        <f>G61</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H62" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20111966202055759</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9999999999997713E-2</v>
       </c>
       <c r="B63" s="40">
@@ -34378,33 +34381,33 @@
         <v>0.3984439140947641</v>
       </c>
       <c r="C63" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D63" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.677238008918402E-2</v>
       </c>
       <c r="E63" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F63" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.677238008918402E-2</v>
       </c>
       <c r="G63" s="38">
-        <f>G62</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H63" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19782261838087634</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999997716E-2</v>
       </c>
       <c r="B64" s="40">
@@ -34412,33 +34415,33 @@
         <v>0.39695254747701186</v>
       </c>
       <c r="C64" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D64" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6326173754364288E-2</v>
       </c>
       <c r="E64" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F64" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6326173754364288E-2</v>
       </c>
       <c r="G64" s="38">
-        <f>G63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19452557474119508</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14999999999999772</v>
       </c>
       <c r="B65" s="40">
@@ -34446,33 +34449,33 @@
         <v>0.39447933090788906</v>
       </c>
       <c r="C65" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D65" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5879967419544556E-2</v>
       </c>
       <c r="E65" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F65" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5879967419544556E-2</v>
       </c>
       <c r="G65" s="38">
-        <f>G64</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19122853110151383</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999774</v>
       </c>
       <c r="B66" s="40">
@@ -34480,1931 +34483,1931 @@
         <v>0.39104269397545605</v>
       </c>
       <c r="C66" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D66" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5433761084724824E-2</v>
       </c>
       <c r="E66" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F66" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5433761084724824E-2</v>
       </c>
       <c r="G66" s="38">
-        <f>G65</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18793148746183258</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24999999999999772</v>
       </c>
       <c r="B67" s="40">
-        <f t="shared" ref="B67:B122" si="7">_xlfn.NORM.DIST(A67,0,1,FALSE)</f>
+        <f t="shared" ref="B67:B122" si="9">_xlfn.NORM.DIST(A67,0,1,FALSE)</f>
         <v>0.38666811680284946</v>
       </c>
       <c r="C67" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D67" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4987554749905092E-2</v>
       </c>
       <c r="E67" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F67" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4987554749905092E-2</v>
       </c>
       <c r="G67" s="38">
-        <f>G66</f>
+        <f t="shared" ref="G67:G98" si="10">G66</f>
         <v>0</v>
       </c>
       <c r="H67" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18463444382215133</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
-        <f t="shared" ref="A68:A122" si="8">A67+0.05</f>
+        <f t="shared" ref="A68:A122" si="11">A67+0.05</f>
         <v>0.29999999999999771</v>
       </c>
       <c r="B68" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38138781546052436</v>
       </c>
       <c r="C68" s="38">
-        <f t="shared" ref="C68:C122" si="9">C67</f>
+        <f t="shared" ref="C68:C122" si="12">C67</f>
         <v>-2</v>
       </c>
       <c r="D68" s="40">
-        <f t="shared" ref="D68:D122" si="10">D67-($D$2/COUNTA($A$2:$A$122))</f>
+        <f t="shared" ref="D68:D122" si="13">D67-($D$2/COUNTA($A$2:$A$122))</f>
         <v>2.4541348415085359E-2</v>
       </c>
       <c r="E68" s="38">
-        <f t="shared" ref="E68:E122" si="11">E67</f>
+        <f t="shared" ref="E68:E122" si="14">E67</f>
         <v>2</v>
       </c>
       <c r="F68" s="40">
-        <f t="shared" ref="F68:F122" si="12">D68</f>
+        <f t="shared" ref="F68:F122" si="15">D68</f>
         <v>2.4541348415085359E-2</v>
       </c>
       <c r="G68" s="38">
-        <f>G67</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H68" s="13">
-        <f t="shared" ref="H68:H122" si="13">H67-($H$2/COUNTA($A$2:$A$122))</f>
+        <f t="shared" ref="H68:H122" si="16">H67-($H$2/COUNTA($A$2:$A$122))</f>
         <v>0.18133740018247008</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.3499999999999977</v>
       </c>
       <c r="B69" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37524034691693819</v>
       </c>
       <c r="C69" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D69" s="40">
+        <f t="shared" si="13"/>
+        <v>2.4095142080265627E-2</v>
+      </c>
+      <c r="E69" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F69" s="40">
+        <f t="shared" si="15"/>
+        <v>2.4095142080265627E-2</v>
+      </c>
+      <c r="G69" s="38">
         <f t="shared" si="10"/>
-        <v>2.4095142080265627E-2</v>
-      </c>
-      <c r="E69" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F69" s="40">
-        <f t="shared" si="12"/>
-        <v>2.4095142080265627E-2</v>
-      </c>
-      <c r="G69" s="38">
-        <f>G68</f>
         <v>0</v>
       </c>
       <c r="H69" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.17804035654278882</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.39999999999999769</v>
       </c>
       <c r="B70" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36827014030332367</v>
       </c>
       <c r="C70" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D70" s="40">
+        <f t="shared" si="13"/>
+        <v>2.3648935745445895E-2</v>
+      </c>
+      <c r="E70" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F70" s="40">
+        <f t="shared" si="15"/>
+        <v>2.3648935745445895E-2</v>
+      </c>
+      <c r="G70" s="38">
         <f t="shared" si="10"/>
-        <v>2.3648935745445895E-2</v>
-      </c>
-      <c r="E70" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F70" s="40">
-        <f t="shared" si="12"/>
-        <v>2.3648935745445895E-2</v>
-      </c>
-      <c r="G70" s="38">
-        <f>G69</f>
         <v>0</v>
       </c>
       <c r="H70" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.17474331290310757</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.44999999999999768</v>
       </c>
       <c r="B71" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36052696246164834</v>
       </c>
       <c r="C71" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D71" s="40">
+        <f t="shared" si="13"/>
+        <v>2.3202729410626163E-2</v>
+      </c>
+      <c r="E71" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F71" s="40">
+        <f t="shared" si="15"/>
+        <v>2.3202729410626163E-2</v>
+      </c>
+      <c r="G71" s="38">
         <f t="shared" si="10"/>
-        <v>2.3202729410626163E-2</v>
-      </c>
-      <c r="E71" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F71" s="40">
-        <f t="shared" si="12"/>
-        <v>2.3202729410626163E-2</v>
-      </c>
-      <c r="G71" s="38">
-        <f>G70</f>
         <v>0</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.17144626926342632</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.49999999999999767</v>
       </c>
       <c r="B72" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35206532676429991</v>
       </c>
       <c r="C72" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D72" s="40">
+        <f t="shared" si="13"/>
+        <v>2.2756523075806431E-2</v>
+      </c>
+      <c r="E72" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F72" s="40">
+        <f t="shared" si="15"/>
+        <v>2.2756523075806431E-2</v>
+      </c>
+      <c r="G72" s="38">
         <f t="shared" si="10"/>
-        <v>2.2756523075806431E-2</v>
-      </c>
-      <c r="E72" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F72" s="40">
-        <f t="shared" si="12"/>
-        <v>2.2756523075806431E-2</v>
-      </c>
-      <c r="G72" s="38">
-        <f>G71</f>
         <v>0</v>
       </c>
       <c r="H72" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.16814922562374507</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.54999999999999771</v>
       </c>
       <c r="B73" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34294385501938435</v>
       </c>
       <c r="C73" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D73" s="40">
+        <f t="shared" si="13"/>
+        <v>2.2310316740986699E-2</v>
+      </c>
+      <c r="E73" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="40">
+        <f t="shared" si="15"/>
+        <v>2.2310316740986699E-2</v>
+      </c>
+      <c r="G73" s="38">
         <f t="shared" si="10"/>
-        <v>2.2310316740986699E-2</v>
-      </c>
-      <c r="E73" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F73" s="40">
-        <f t="shared" si="12"/>
-        <v>2.2310316740986699E-2</v>
-      </c>
-      <c r="G73" s="38">
-        <f>G72</f>
         <v>0</v>
       </c>
       <c r="H73" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.16485218198406382</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.59999999999999776</v>
       </c>
       <c r="B74" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33322460289180011</v>
       </c>
       <c r="C74" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D74" s="40">
+        <f t="shared" si="13"/>
+        <v>2.1864110406166967E-2</v>
+      </c>
+      <c r="E74" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F74" s="40">
+        <f t="shared" si="15"/>
+        <v>2.1864110406166967E-2</v>
+      </c>
+      <c r="G74" s="38">
         <f t="shared" si="10"/>
-        <v>2.1864110406166967E-2</v>
-      </c>
-      <c r="E74" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F74" s="40">
-        <f t="shared" si="12"/>
-        <v>2.1864110406166967E-2</v>
-      </c>
-      <c r="G74" s="38">
-        <f>G73</f>
         <v>0</v>
       </c>
       <c r="H74" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.16155513834438257</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.6499999999999978</v>
       </c>
       <c r="B75" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32297235966791477</v>
       </c>
       <c r="C75" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D75" s="40">
+        <f t="shared" si="13"/>
+        <v>2.1417904071347235E-2</v>
+      </c>
+      <c r="E75" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F75" s="40">
+        <f t="shared" si="15"/>
+        <v>2.1417904071347235E-2</v>
+      </c>
+      <c r="G75" s="38">
         <f t="shared" si="10"/>
-        <v>2.1417904071347235E-2</v>
-      </c>
-      <c r="E75" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F75" s="40">
-        <f t="shared" si="12"/>
-        <v>2.1417904071347235E-2</v>
-      </c>
-      <c r="G75" s="38">
-        <f>G74</f>
         <v>0</v>
       </c>
       <c r="H75" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15825809470470131</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.69999999999999785</v>
       </c>
       <c r="B76" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31225393336676177</v>
       </c>
       <c r="C76" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D76" s="40">
+        <f t="shared" si="13"/>
+        <v>2.0971697736527503E-2</v>
+      </c>
+      <c r="E76" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F76" s="40">
+        <f t="shared" si="15"/>
+        <v>2.0971697736527503E-2</v>
+      </c>
+      <c r="G76" s="38">
         <f t="shared" si="10"/>
-        <v>2.0971697736527503E-2</v>
-      </c>
-      <c r="E76" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F76" s="40">
-        <f t="shared" si="12"/>
-        <v>2.0971697736527503E-2</v>
-      </c>
-      <c r="G76" s="38">
-        <f>G75</f>
         <v>0</v>
       </c>
       <c r="H76" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15496105106502006</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.74999999999999789</v>
       </c>
       <c r="B77" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.30113743215480487</v>
       </c>
       <c r="C77" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D77" s="40">
+        <f t="shared" si="13"/>
+        <v>2.0525491401707771E-2</v>
+      </c>
+      <c r="E77" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F77" s="40">
+        <f t="shared" si="15"/>
+        <v>2.0525491401707771E-2</v>
+      </c>
+      <c r="G77" s="38">
         <f t="shared" si="10"/>
-        <v>2.0525491401707771E-2</v>
-      </c>
-      <c r="E77" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F77" s="40">
-        <f t="shared" si="12"/>
-        <v>2.0525491401707771E-2</v>
-      </c>
-      <c r="G77" s="38">
-        <f>G76</f>
         <v>0</v>
       </c>
       <c r="H77" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15166400742533881</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.79999999999999793</v>
       </c>
       <c r="B78" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28969155276148323</v>
       </c>
       <c r="C78" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D78" s="40">
+        <f t="shared" si="13"/>
+        <v>2.0079285066888039E-2</v>
+      </c>
+      <c r="E78" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F78" s="40">
+        <f t="shared" si="15"/>
+        <v>2.0079285066888039E-2</v>
+      </c>
+      <c r="G78" s="38">
         <f t="shared" si="10"/>
-        <v>2.0079285066888039E-2</v>
-      </c>
-      <c r="E78" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F78" s="40">
-        <f t="shared" si="12"/>
-        <v>2.0079285066888039E-2</v>
-      </c>
-      <c r="G78" s="38">
-        <f>G77</f>
         <v>0</v>
       </c>
       <c r="H78" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14836696378565756</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84999999999999798</v>
       </c>
       <c r="B79" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27798488613099692</v>
       </c>
       <c r="C79" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D79" s="40">
+        <f t="shared" si="13"/>
+        <v>1.9633078732068307E-2</v>
+      </c>
+      <c r="E79" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F79" s="40">
+        <f t="shared" si="15"/>
+        <v>1.9633078732068307E-2</v>
+      </c>
+      <c r="G79" s="38">
         <f t="shared" si="10"/>
-        <v>1.9633078732068307E-2</v>
-      </c>
-      <c r="E79" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F79" s="40">
-        <f t="shared" si="12"/>
-        <v>1.9633078732068307E-2</v>
-      </c>
-      <c r="G79" s="38">
-        <f>G78</f>
         <v>0</v>
       </c>
       <c r="H79" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14506992014597631</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.89999999999999802</v>
       </c>
       <c r="B80" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26608524989875532</v>
       </c>
       <c r="C80" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D80" s="40">
+        <f t="shared" si="13"/>
+        <v>1.9186872397248575E-2</v>
+      </c>
+      <c r="E80" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F80" s="40">
+        <f t="shared" si="15"/>
+        <v>1.9186872397248575E-2</v>
+      </c>
+      <c r="G80" s="38">
         <f t="shared" si="10"/>
-        <v>1.9186872397248575E-2</v>
-      </c>
-      <c r="E80" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F80" s="40">
-        <f t="shared" si="12"/>
-        <v>1.9186872397248575E-2</v>
-      </c>
-      <c r="G80" s="38">
-        <f>G79</f>
         <v>0</v>
       </c>
       <c r="H80" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14177287650629505</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.94999999999999807</v>
       </c>
       <c r="B81" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25405905646918947</v>
       </c>
       <c r="C81" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D81" s="40">
+        <f t="shared" si="13"/>
+        <v>1.8740666062428843E-2</v>
+      </c>
+      <c r="E81" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F81" s="40">
+        <f t="shared" si="15"/>
+        <v>1.8740666062428843E-2</v>
+      </c>
+      <c r="G81" s="38">
         <f t="shared" si="10"/>
-        <v>1.8740666062428843E-2</v>
-      </c>
-      <c r="E81" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F81" s="40">
-        <f t="shared" si="12"/>
-        <v>1.8740666062428843E-2</v>
-      </c>
-      <c r="G81" s="38">
-        <f>G80</f>
         <v>0</v>
       </c>
       <c r="H81" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1384758328666138</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99999999999999811</v>
       </c>
       <c r="B82" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24197072451914381</v>
       </c>
       <c r="C82" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D82" s="40">
+        <f t="shared" si="13"/>
+        <v>1.8294459727609111E-2</v>
+      </c>
+      <c r="E82" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F82" s="40">
+        <f t="shared" si="15"/>
+        <v>1.8294459727609111E-2</v>
+      </c>
+      <c r="G82" s="38">
         <f t="shared" si="10"/>
-        <v>1.8294459727609111E-2</v>
-      </c>
-      <c r="E82" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F82" s="40">
-        <f t="shared" si="12"/>
-        <v>1.8294459727609111E-2</v>
-      </c>
-      <c r="G82" s="38">
-        <f>G81</f>
         <v>0</v>
       </c>
       <c r="H82" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.13517878922693255</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.049999999999998</v>
       </c>
       <c r="B83" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22988214068423349</v>
       </c>
       <c r="C83" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D83" s="40">
+        <f t="shared" si="13"/>
+        <v>1.7848253392789379E-2</v>
+      </c>
+      <c r="E83" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F83" s="40">
+        <f t="shared" si="15"/>
+        <v>1.7848253392789379E-2</v>
+      </c>
+      <c r="G83" s="38">
         <f t="shared" si="10"/>
-        <v>1.7848253392789379E-2</v>
-      </c>
-      <c r="E83" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F83" s="40">
-        <f t="shared" si="12"/>
-        <v>1.7848253392789379E-2</v>
-      </c>
-      <c r="G83" s="38">
-        <f>G82</f>
         <v>0</v>
       </c>
       <c r="H83" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1318817455872513</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0999999999999981</v>
       </c>
       <c r="B84" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.21785217703255103</v>
       </c>
       <c r="C84" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D84" s="40">
+        <f t="shared" si="13"/>
+        <v>1.7402047057969647E-2</v>
+      </c>
+      <c r="E84" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F84" s="40">
+        <f t="shared" si="15"/>
+        <v>1.7402047057969647E-2</v>
+      </c>
+      <c r="G84" s="38">
         <f t="shared" si="10"/>
-        <v>1.7402047057969647E-2</v>
-      </c>
-      <c r="E84" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F84" s="40">
-        <f t="shared" si="12"/>
-        <v>1.7402047057969647E-2</v>
-      </c>
-      <c r="G84" s="38">
-        <f>G83</f>
         <v>0</v>
       </c>
       <c r="H84" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.12858470194757005</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1499999999999981</v>
       </c>
       <c r="B85" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20593626871997517</v>
       </c>
       <c r="C85" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D85" s="40">
+        <f t="shared" si="13"/>
+        <v>1.6955840723149915E-2</v>
+      </c>
+      <c r="E85" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F85" s="40">
+        <f t="shared" si="15"/>
+        <v>1.6955840723149915E-2</v>
+      </c>
+      <c r="G85" s="38">
         <f t="shared" si="10"/>
-        <v>1.6955840723149915E-2</v>
-      </c>
-      <c r="E85" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F85" s="40">
-        <f t="shared" si="12"/>
-        <v>1.6955840723149915E-2</v>
-      </c>
-      <c r="G85" s="38">
-        <f>G84</f>
         <v>0</v>
       </c>
       <c r="H85" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.12528765830788879</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1999999999999982</v>
       </c>
       <c r="B86" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19418605498321337</v>
       </c>
       <c r="C86" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D86" s="40">
+        <f t="shared" si="13"/>
+        <v>1.6509634388330183E-2</v>
+      </c>
+      <c r="E86" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="40">
+        <f t="shared" si="15"/>
+        <v>1.6509634388330183E-2</v>
+      </c>
+      <c r="G86" s="38">
         <f t="shared" si="10"/>
-        <v>1.6509634388330183E-2</v>
-      </c>
-      <c r="E86" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F86" s="40">
-        <f t="shared" si="12"/>
-        <v>1.6509634388330183E-2</v>
-      </c>
-      <c r="G86" s="38">
-        <f>G85</f>
         <v>0</v>
       </c>
       <c r="H86" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.12199061466820753</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2499999999999982</v>
       </c>
       <c r="B87" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18264908538902233</v>
       </c>
       <c r="C87" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D87" s="40">
+        <f t="shared" si="13"/>
+        <v>1.6063428053510451E-2</v>
+      </c>
+      <c r="E87" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F87" s="40">
+        <f t="shared" si="15"/>
+        <v>1.6063428053510451E-2</v>
+      </c>
+      <c r="G87" s="38">
         <f t="shared" si="10"/>
-        <v>1.6063428053510451E-2</v>
-      </c>
-      <c r="E87" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F87" s="40">
-        <f t="shared" si="12"/>
-        <v>1.6063428053510451E-2</v>
-      </c>
-      <c r="G87" s="38">
-        <f>G86</f>
         <v>0</v>
       </c>
       <c r="H87" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.11869357102852626</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2999999999999983</v>
       </c>
       <c r="B88" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17136859204780774</v>
       </c>
       <c r="C88" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D88" s="40">
+        <f t="shared" si="13"/>
+        <v>1.5617221718690719E-2</v>
+      </c>
+      <c r="E88" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F88" s="40">
+        <f t="shared" si="15"/>
+        <v>1.5617221718690719E-2</v>
+      </c>
+      <c r="G88" s="38">
         <f t="shared" si="10"/>
-        <v>1.5617221718690719E-2</v>
-      </c>
-      <c r="E88" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F88" s="40">
-        <f t="shared" si="12"/>
-        <v>1.5617221718690719E-2</v>
-      </c>
-      <c r="G88" s="38">
-        <f>G87</f>
         <v>0</v>
       </c>
       <c r="H88" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.115396527388845</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3499999999999983</v>
       </c>
       <c r="B89" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16038332734191996</v>
       </c>
       <c r="C89" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D89" s="40">
+        <f t="shared" si="13"/>
+        <v>1.5171015383870987E-2</v>
+      </c>
+      <c r="E89" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F89" s="40">
+        <f t="shared" si="15"/>
+        <v>1.5171015383870987E-2</v>
+      </c>
+      <c r="G89" s="38">
         <f t="shared" si="10"/>
-        <v>1.5171015383870987E-2</v>
-      </c>
-      <c r="E89" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F89" s="40">
-        <f t="shared" si="12"/>
-        <v>1.5171015383870987E-2</v>
-      </c>
-      <c r="G89" s="38">
-        <f>G88</f>
         <v>0</v>
       </c>
       <c r="H89" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.11209948374916373</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3999999999999984</v>
       </c>
       <c r="B90" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14972746563574521</v>
       </c>
       <c r="C90" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D90" s="40">
+        <f t="shared" si="13"/>
+        <v>1.4724809049051255E-2</v>
+      </c>
+      <c r="E90" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F90" s="40">
+        <f t="shared" si="15"/>
+        <v>1.4724809049051255E-2</v>
+      </c>
+      <c r="G90" s="38">
         <f t="shared" si="10"/>
-        <v>1.4724809049051255E-2</v>
-      </c>
-      <c r="E90" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F90" s="40">
-        <f t="shared" si="12"/>
-        <v>1.4724809049051255E-2</v>
-      </c>
-      <c r="G90" s="38">
-        <f>G89</f>
         <v>0</v>
       </c>
       <c r="H90" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.10880244010948247</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4499999999999984</v>
       </c>
       <c r="B91" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13943056644536062</v>
       </c>
       <c r="C91" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D91" s="40">
+        <f t="shared" si="13"/>
+        <v>1.4278602714231522E-2</v>
+      </c>
+      <c r="E91" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F91" s="40">
+        <f t="shared" si="15"/>
+        <v>1.4278602714231522E-2</v>
+      </c>
+      <c r="G91" s="38">
         <f t="shared" si="10"/>
-        <v>1.4278602714231522E-2</v>
-      </c>
-      <c r="E91" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F91" s="40">
-        <f t="shared" si="12"/>
-        <v>1.4278602714231522E-2</v>
-      </c>
-      <c r="G91" s="38">
-        <f>G90</f>
         <v>0</v>
       </c>
       <c r="H91" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1055053964698012</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999984</v>
       </c>
       <c r="B92" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12951759566589202</v>
       </c>
       <c r="C92" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D92" s="40">
+        <f t="shared" si="13"/>
+        <v>1.383239637941179E-2</v>
+      </c>
+      <c r="E92" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F92" s="40">
+        <f t="shared" si="15"/>
+        <v>1.383239637941179E-2</v>
+      </c>
+      <c r="G92" s="38">
         <f t="shared" si="10"/>
-        <v>1.383239637941179E-2</v>
-      </c>
-      <c r="E92" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F92" s="40">
-        <f t="shared" si="12"/>
-        <v>1.383239637941179E-2</v>
-      </c>
-      <c r="G92" s="38">
-        <f>G91</f>
         <v>0</v>
       </c>
       <c r="H92" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.10220835283011993</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5499999999999985</v>
       </c>
       <c r="B93" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12000900069698586</v>
       </c>
       <c r="C93" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D93" s="40">
+        <f t="shared" si="13"/>
+        <v>1.3386190044592058E-2</v>
+      </c>
+      <c r="E93" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F93" s="40">
+        <f t="shared" si="15"/>
+        <v>1.3386190044592058E-2</v>
+      </c>
+      <c r="G93" s="38">
         <f t="shared" si="10"/>
-        <v>1.3386190044592058E-2</v>
-      </c>
-      <c r="E93" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F93" s="40">
-        <f t="shared" si="12"/>
-        <v>1.3386190044592058E-2</v>
-      </c>
-      <c r="G93" s="38">
-        <f>G92</f>
         <v>0</v>
       </c>
       <c r="H93" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.8911309190438668E-2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5999999999999985</v>
       </c>
       <c r="B94" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11092083467945583</v>
       </c>
       <c r="C94" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D94" s="40">
+        <f t="shared" si="13"/>
+        <v>1.2939983709772326E-2</v>
+      </c>
+      <c r="E94" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F94" s="40">
+        <f t="shared" si="15"/>
+        <v>1.2939983709772326E-2</v>
+      </c>
+      <c r="G94" s="38">
         <f t="shared" si="10"/>
-        <v>1.2939983709772326E-2</v>
-      </c>
-      <c r="E94" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F94" s="40">
-        <f t="shared" si="12"/>
-        <v>1.2939983709772326E-2</v>
-      </c>
-      <c r="G94" s="38">
-        <f>G93</f>
         <v>0</v>
       </c>
       <c r="H94" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.5614265550757402E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6499999999999986</v>
       </c>
       <c r="B95" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10226492456397825</v>
       </c>
       <c r="C95" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D95" s="40">
+        <f t="shared" si="13"/>
+        <v>1.2493777374952594E-2</v>
+      </c>
+      <c r="E95" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F95" s="40">
+        <f t="shared" si="15"/>
+        <v>1.2493777374952594E-2</v>
+      </c>
+      <c r="G95" s="38">
         <f t="shared" si="10"/>
-        <v>1.2493777374952594E-2</v>
-      </c>
-      <c r="E95" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F95" s="40">
-        <f t="shared" si="12"/>
-        <v>1.2493777374952594E-2</v>
-      </c>
-      <c r="G95" s="38">
-        <f>G94</f>
         <v>0</v>
       </c>
       <c r="H95" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.2317221911076136E-2</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6999999999999986</v>
       </c>
       <c r="B96" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4049077376887155E-2</v>
       </c>
       <c r="C96" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D96" s="40">
+        <f t="shared" si="13"/>
+        <v>1.2047571040132862E-2</v>
+      </c>
+      <c r="E96" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F96" s="40">
+        <f t="shared" si="15"/>
+        <v>1.2047571040132862E-2</v>
+      </c>
+      <c r="G96" s="38">
         <f t="shared" si="10"/>
-        <v>1.2047571040132862E-2</v>
-      </c>
-      <c r="E96" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F96" s="40">
-        <f t="shared" si="12"/>
-        <v>1.2047571040132862E-2</v>
-      </c>
-      <c r="G96" s="38">
-        <f>G95</f>
         <v>0</v>
       </c>
       <c r="H96" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.902017827139487E-2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7499999999999987</v>
       </c>
       <c r="B97" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.6277318826511712E-2</v>
       </c>
       <c r="C97" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D97" s="40">
+        <f t="shared" si="13"/>
+        <v>1.160136470531313E-2</v>
+      </c>
+      <c r="E97" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F97" s="40">
+        <f t="shared" si="15"/>
+        <v>1.160136470531313E-2</v>
+      </c>
+      <c r="G97" s="38">
         <f t="shared" si="10"/>
-        <v>1.160136470531313E-2</v>
-      </c>
-      <c r="E97" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F97" s="40">
-        <f t="shared" si="12"/>
-        <v>1.160136470531313E-2</v>
-      </c>
-      <c r="G97" s="38">
-        <f>G96</f>
         <v>0</v>
       </c>
       <c r="H97" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.5723134631713604E-2</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7999999999999987</v>
       </c>
       <c r="B98" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8950158300894344E-2</v>
       </c>
       <c r="C98" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D98" s="40">
+        <f t="shared" si="13"/>
+        <v>1.1155158370493398E-2</v>
+      </c>
+      <c r="E98" s="38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F98" s="40">
+        <f t="shared" si="15"/>
+        <v>1.1155158370493398E-2</v>
+      </c>
+      <c r="G98" s="38">
         <f t="shared" si="10"/>
-        <v>1.1155158370493398E-2</v>
-      </c>
-      <c r="E98" s="38">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F98" s="40">
-        <f t="shared" si="12"/>
-        <v>1.1155158370493398E-2</v>
-      </c>
-      <c r="G98" s="38">
-        <f>G97</f>
         <v>0</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.2426090992032339E-2</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8499999999999988</v>
       </c>
       <c r="B99" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2064874336218165E-2</v>
       </c>
       <c r="C99" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D99" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0708952035673666E-2</v>
       </c>
       <c r="E99" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F99" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0708952035673666E-2</v>
       </c>
       <c r="G99" s="38">
-        <f>G98</f>
+        <f t="shared" ref="G99:G122" si="17">G98</f>
         <v>0</v>
       </c>
       <c r="H99" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.9129047352351073E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8999999999999988</v>
       </c>
       <c r="B100" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.5615814774676734E-2</v>
       </c>
       <c r="C100" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D100" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0262745700853934E-2</v>
       </c>
       <c r="E100" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F100" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0262745700853934E-2</v>
       </c>
       <c r="G100" s="38">
-        <f>G99</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H100" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.5832003712669807E-2</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9499999999999988</v>
       </c>
       <c r="B101" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9594706068816207E-2</v>
       </c>
       <c r="C101" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D101" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.8165393660342021E-3</v>
       </c>
       <c r="E101" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F101" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.8165393660342021E-3</v>
       </c>
       <c r="G101" s="38">
-        <f>G100</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H101" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.2534960072988541E-2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999999989</v>
       </c>
       <c r="B102" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3990966513188167E-2</v>
       </c>
       <c r="C102" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D102" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.37033303121447E-3</v>
       </c>
       <c r="E102" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F102" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.37033303121447E-3</v>
       </c>
       <c r="G102" s="38">
-        <f>G101</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H102" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.9237916433307276E-2</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0499999999999989</v>
       </c>
       <c r="B103" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8792018579182875E-2</v>
       </c>
       <c r="C103" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D103" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.924126696394738E-3</v>
       </c>
       <c r="E103" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F103" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.924126696394738E-3</v>
       </c>
       <c r="G103" s="38">
-        <f>G102</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H103" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.594087279362601E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0999999999999988</v>
       </c>
       <c r="B104" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3983595980427309E-2</v>
       </c>
       <c r="C104" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D104" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.4779203615750059E-3</v>
       </c>
       <c r="E104" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F104" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.4779203615750059E-3</v>
       </c>
       <c r="G104" s="38">
-        <f>G103</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H104" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.2643829153944744E-2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1499999999999986</v>
       </c>
       <c r="B105" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9550041589370331E-2</v>
       </c>
       <c r="C105" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D105" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.0317140267552739E-3</v>
       </c>
       <c r="E105" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F105" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.0317140267552739E-3</v>
       </c>
       <c r="G105" s="38">
-        <f>G104</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H105" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.9346785514263485E-2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1999999999999984</v>
       </c>
       <c r="B106" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.547459284623157E-2</v>
       </c>
       <c r="C106" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D106" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.585507691935541E-3</v>
       </c>
       <c r="E106" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F106" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.585507691935541E-3</v>
       </c>
       <c r="G106" s="38">
-        <f>G105</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H106" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.6049741874582226E-2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2499999999999982</v>
       </c>
       <c r="B107" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.173965183566755E-2</v>
       </c>
       <c r="C107" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D107" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.1393013571158081E-3</v>
       </c>
       <c r="E107" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F107" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.1393013571158081E-3</v>
       </c>
       <c r="G107" s="38">
-        <f>G106</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H107" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2752698234900967E-2</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.299999999999998</v>
       </c>
       <c r="B108" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8327037741601297E-2</v>
       </c>
       <c r="C108" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D108" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.6930950222960752E-3</v>
       </c>
       <c r="E108" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F108" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.6930950222960752E-3</v>
       </c>
       <c r="G108" s="38">
-        <f>G107</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H108" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9455654595219709E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3499999999999979</v>
       </c>
       <c r="B109" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5218219915194514E-2</v>
       </c>
       <c r="C109" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D109" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.2468886874763423E-3</v>
       </c>
       <c r="E109" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F109" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.2468886874763423E-3</v>
       </c>
       <c r="G109" s="38">
-        <f>G108</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H109" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.615861095553845E-2</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3999999999999977</v>
       </c>
       <c r="B110" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2394530294843017E-2</v>
       </c>
       <c r="C110" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D110" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.8006823526566094E-3</v>
       </c>
       <c r="E110" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F110" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.8006823526566094E-3</v>
       </c>
       <c r="G110" s="38">
-        <f>G109</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H110" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.2861567315857191E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4499999999999975</v>
       </c>
       <c r="B111" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9837354391795441E-2</v>
       </c>
       <c r="C111" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D111" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3544760178368764E-3</v>
       </c>
       <c r="E111" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F111" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.3544760178368764E-3</v>
       </c>
       <c r="G111" s="38">
-        <f>G110</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H111" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.9564523676175932E-2</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4999999999999973</v>
       </c>
       <c r="B112" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7528300493568655E-2</v>
       </c>
       <c r="C112" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D112" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.9082696830171435E-3</v>
       </c>
       <c r="E112" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F112" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.9082696830171435E-3</v>
       </c>
       <c r="G112" s="38">
-        <f>G111</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H112" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.6267480036494673E-2</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5499999999999972</v>
       </c>
       <c r="B113" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5449347134395285E-2</v>
       </c>
       <c r="C113" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D113" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.4620633481974106E-3</v>
       </c>
       <c r="E113" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F113" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.4620633481974106E-3</v>
       </c>
       <c r="G113" s="38">
-        <f>G112</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H113" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.2970436396813414E-2</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.599999999999997</v>
       </c>
       <c r="B114" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3582969233685722E-2</v>
       </c>
       <c r="C114" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D114" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.0158570133776777E-3</v>
       </c>
       <c r="E114" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F114" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.0158570133776777E-3</v>
       </c>
       <c r="G114" s="38">
-        <f>G113</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.9673392757132152E-2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6499999999999968</v>
       </c>
       <c r="B115" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.191224360760528E-2</v>
       </c>
       <c r="C115" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D115" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5696506785579448E-3</v>
       </c>
       <c r="E115" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F115" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.5696506785579448E-3</v>
       </c>
       <c r="G115" s="38">
-        <f>G114</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H115" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.637634911745089E-2</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6999999999999966</v>
       </c>
       <c r="B116" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0420934814422692E-2</v>
       </c>
       <c r="C116" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D116" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.1234443437382119E-3</v>
       </c>
       <c r="E116" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F116" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.1234443437382119E-3</v>
       </c>
       <c r="G116" s="38">
-        <f>G115</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H116" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.3079305477769627E-2</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.7499999999999964</v>
       </c>
       <c r="B117" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.0935625015911431E-3</v>
       </c>
       <c r="C117" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D117" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.677238008918479E-3</v>
       </c>
       <c r="E117" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F117" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.677238008918479E-3</v>
       </c>
       <c r="G117" s="38">
-        <f>G116</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H117" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.9782261838088365E-2</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.7999999999999963</v>
       </c>
       <c r="B118" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9154515829800449E-3</v>
       </c>
       <c r="C118" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D118" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.2310316740987461E-3</v>
       </c>
       <c r="E118" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F118" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.2310316740987461E-3</v>
       </c>
       <c r="G118" s="38">
-        <f>G117</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H118" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6485218198407103E-2</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.8499999999999961</v>
       </c>
       <c r="B119" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.872766690614051E-3</v>
       </c>
       <c r="C119" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D119" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7848253392790132E-3</v>
       </c>
       <c r="E119" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F119" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7848253392790132E-3</v>
       </c>
       <c r="G119" s="38">
-        <f>G118</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H119" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.318817455872584E-2</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.8999999999999959</v>
       </c>
       <c r="B120" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9525324197759223E-3</v>
       </c>
       <c r="C120" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D120" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3386190044592803E-3</v>
       </c>
       <c r="E120" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F120" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3386190044592803E-3</v>
       </c>
       <c r="G120" s="38">
-        <f>G119</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H120" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.891130919044578E-3</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9499999999999957</v>
       </c>
       <c r="B121" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1426409230540026E-3</v>
       </c>
       <c r="C121" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D121" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.9241266963954735E-4</v>
       </c>
       <c r="E121" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F121" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.9241266963954735E-4</v>
       </c>
       <c r="G121" s="38">
-        <f>G120</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H121" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.5940872793633157E-3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9999999999999956</v>
       </c>
       <c r="B122" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4318484119380665E-3</v>
       </c>
       <c r="C122" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="D122" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.462063348198145E-4</v>
       </c>
       <c r="E122" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F122" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.462063348198145E-4</v>
       </c>
       <c r="G122" s="38">
-        <f>G121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H122" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.2970436396820538E-3</v>
       </c>
     </row>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="765" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5354646-4EDD-4B5B-82A8-A73473C6D0B7}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EB8F0A7-3DA3-4608-A8E3-9693CCAE1A90}"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="5280" windowWidth="38700" windowHeight="15195" tabRatio="854" firstSheet="2" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="18540" yWindow="2460" windowWidth="37770" windowHeight="15210" tabRatio="854" firstSheet="2" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -22801,12 +22801,12 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -22820,7 +22820,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -23125,7 +23125,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>40</v>
@@ -23143,7 +23143,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
@@ -23191,12 +23191,12 @@
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="23">
         <v>0</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="23">
         <v>0.01</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="23">
         <v>0.02</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="23">
         <v>0.03</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="23">
         <v>0.04</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>1.536E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="23">
         <v>0.05</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="23">
         <v>0.06</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="23">
         <v>0.08</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="23">
         <v>0.09</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="23">
         <v>0.1</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>0.11</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="23">
         <v>0.12</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="23">
         <v>0.13</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="23">
         <v>0.14000000000000001</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="23">
         <v>0.15</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>1.9125E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="23">
         <v>0.16</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
         <v>0.17</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="23">
         <v>0.18</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="23">
         <v>0.19</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="23">
         <v>0.2</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
         <v>0.21</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="23">
         <v>0.22</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="23">
         <v>0.23</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="23">
         <v>0.24</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="23">
         <v>0.25</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="23">
         <v>0.26</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="23">
         <v>0.27</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="23">
         <v>0.28000000000000003</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="23">
         <v>0.28999999999999998</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="23">
         <v>0.3</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="23">
         <v>0.31</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="23">
         <v>0.32</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="23">
         <v>0.33</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>7.2963E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="23">
         <v>0.34</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="23">
         <v>0.35</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="23">
         <v>0.36</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="23">
         <v>0.37</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>8.624699999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="23">
         <v>0.38</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="23">
         <v>0.39</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="23">
         <v>0.4</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="23">
         <v>0.41</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B44" s="23">
         <v>0.42</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>0.102312</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="23">
         <v>0.43</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>0.105393</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" s="23">
         <v>0.44</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>0.10841600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" s="23">
         <v>0.45</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>0.11137500000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" s="23">
         <v>0.46</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>0.11426400000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="23">
         <v>0.47</v>
       </c>
@@ -23639,7 +23639,7 @@
         <v>0.117077</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="23">
         <v>0.48</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>0.119808</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="23">
         <v>0.49</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>0.12245099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="23">
         <v>0.5</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="23">
         <v>0.51</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>0.12744900000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="23">
         <v>0.52</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>0.12979200000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="23">
         <v>0.53</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>0.132023</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" s="23">
         <v>0.54</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>0.13413600000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" s="23">
         <v>0.55000000000000004</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>0.136125</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" s="23">
         <v>0.56000000000000005</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>0.137984</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" s="23">
         <v>0.56999999999999995</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>0.139707</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" s="23">
         <v>0.57999999999999996</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>0.141288</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B61" s="23">
         <v>0.59</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>0.14272099999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62" s="23">
         <v>0.6</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B63" s="23">
         <v>0.61</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>0.145119</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B64" s="23">
         <v>0.62</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>0.14607200000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B65" s="23">
         <v>0.63</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>0.14685300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66" s="23">
         <v>0.64</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>0.147456</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B67" s="23">
         <v>0.65</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>0.14787500000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B68" s="23">
         <v>0.66</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>0.14810400000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B69" s="23">
         <v>0.67</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>0.14813700000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70" s="23">
         <v>0.68</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>0.14796800000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B71" s="23">
         <v>0.69</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>0.147591</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B72" s="23">
         <v>0.7</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B73" s="23">
         <v>0.71</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>0.14618900000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74" s="23">
         <v>0.72</v>
       </c>
@@ -23864,7 +23864,7 @@
         <v>0.145152</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B75" s="23">
         <v>0.73</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>0.14388299999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B76" s="23">
         <v>0.74</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>0.142376</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B77" s="23">
         <v>0.75</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B78" s="23">
         <v>0.76</v>
       </c>
@@ -23900,7 +23900,7 @@
         <v>0.138624</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B79" s="23">
         <v>0.77</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>0.13636699999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B80" s="23">
         <v>0.78</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>0.13384799999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" s="23">
         <v>0.79</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>0.13106100000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" s="23">
         <v>0.8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" s="23">
         <v>0.81</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>0.12465899999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" s="23">
         <v>0.82</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>0.12103200000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" s="23">
         <v>0.83</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>0.11711300000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" s="23">
         <v>0.84</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>0.11289600000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" s="23">
         <v>0.85</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>0.108375</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" s="23">
         <v>0.86</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>0.103544</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" s="23">
         <v>0.87</v>
       </c>
@@ -23999,7 +23999,7 @@
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" s="23">
         <v>0.88</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="23">
         <v>0.89</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" s="23">
         <v>0.9</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" s="23">
         <v>0.91</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" s="23">
         <v>0.92</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" s="23">
         <v>0.93</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" s="23">
         <v>0.94</v>
       </c>
@@ -24062,7 +24062,7 @@
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="23">
         <v>0.95</v>
       </c>
@@ -24071,7 +24071,7 @@
         <v>4.512500000000004E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="23">
         <v>0.96</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="23">
         <v>0.97</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="23">
         <v>0.98</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B101" s="23">
         <v>0.99</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B102" s="23">
         <v>1</v>
       </c>
@@ -24132,14 +24132,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
+    <col min="10" max="12" width="18.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="24">
         <v>-3</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>0.3191538243211462</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="24">
         <f>A2+0.05</f>
         <v>-2.95</v>
@@ -24247,7 +24247,7 @@
         <v>0.31756599434939919</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="24">
         <f t="shared" ref="A4:A67" si="3">A3+0.05</f>
         <v>-2.9000000000000004</v>
@@ -24293,7 +24293,7 @@
         <v>0.31597816437765219</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="24">
         <f t="shared" si="3"/>
         <v>-2.8500000000000005</v>
@@ -24339,7 +24339,7 @@
         <v>0.31439033440590519</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="24">
         <f t="shared" si="3"/>
         <v>-2.8000000000000007</v>
@@ -24385,7 +24385,7 @@
         <v>0.31280250443415819</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="24">
         <f t="shared" si="3"/>
         <v>-2.7500000000000009</v>
@@ -24431,7 +24431,7 @@
         <v>0.31121467446241119</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="24">
         <f t="shared" si="3"/>
         <v>-2.7000000000000011</v>
@@ -24477,7 +24477,7 @@
         <v>0.30962684449066419</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="24">
         <f t="shared" si="3"/>
         <v>-2.6500000000000012</v>
@@ -24523,7 +24523,7 @@
         <v>0.30803901451891719</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="24">
         <f t="shared" si="3"/>
         <v>-2.6000000000000014</v>
@@ -24569,7 +24569,7 @@
         <v>0.30645118454717019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="24">
         <f t="shared" si="3"/>
         <v>-2.5500000000000016</v>
@@ -24615,7 +24615,7 @@
         <v>0.30486335457542318</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="24">
         <f t="shared" si="3"/>
         <v>-2.5000000000000018</v>
@@ -24661,7 +24661,7 @@
         <v>0.30327552460367618</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="24">
         <f t="shared" si="3"/>
         <v>-2.450000000000002</v>
@@ -24707,7 +24707,7 @@
         <v>0.30168769463192918</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="24">
         <f t="shared" si="3"/>
         <v>-2.4000000000000021</v>
@@ -24753,7 +24753,7 @@
         <v>0.30009986466018218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="24">
         <f t="shared" si="3"/>
         <v>-2.3500000000000023</v>
@@ -24799,7 +24799,7 @@
         <v>0.29851203468843518</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="24">
         <f t="shared" si="3"/>
         <v>-2.3000000000000025</v>
@@ -24845,7 +24845,7 @@
         <v>0.29692420471668818</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="24">
         <f t="shared" si="3"/>
         <v>-2.2500000000000027</v>
@@ -24891,7 +24891,7 @@
         <v>0.29533637474494118</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="24">
         <f t="shared" si="3"/>
         <v>-2.2000000000000028</v>
@@ -24937,7 +24937,7 @@
         <v>0.29374854477319418</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="24">
         <f t="shared" si="3"/>
         <v>-2.150000000000003</v>
@@ -24983,7 +24983,7 @@
         <v>0.29216071480144717</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="24">
         <f t="shared" si="3"/>
         <v>-2.1000000000000032</v>
@@ -25029,7 +25029,7 @@
         <v>0.29057288482970017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="24">
         <f t="shared" si="3"/>
         <v>-2.0500000000000034</v>
@@ -25075,7 +25075,7 @@
         <v>0.28898505485795317</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="24">
         <f t="shared" si="3"/>
         <v>-2.0000000000000036</v>
@@ -25121,7 +25121,7 @@
         <v>0.28739722488620617</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="24">
         <f t="shared" si="3"/>
         <v>-1.9500000000000035</v>
@@ -25167,7 +25167,7 @@
         <v>0.28580939491445917</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="24">
         <f t="shared" si="3"/>
         <v>-1.9000000000000035</v>
@@ -25213,7 +25213,7 @@
         <v>0.28422156494271217</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="24">
         <f t="shared" si="3"/>
         <v>-1.8500000000000034</v>
@@ -25259,7 +25259,7 @@
         <v>0.28263373497096517</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="24">
         <f t="shared" si="3"/>
         <v>-1.8000000000000034</v>
@@ -25305,7 +25305,7 @@
         <v>0.28104590499921817</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="24">
         <f t="shared" si="3"/>
         <v>-1.7500000000000033</v>
@@ -25351,7 +25351,7 @@
         <v>0.27945807502747116</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
         <f t="shared" si="3"/>
         <v>-1.7000000000000033</v>
@@ -25397,7 +25397,7 @@
         <v>0.27787024505572416</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="24">
         <f t="shared" si="3"/>
         <v>-1.6500000000000032</v>
@@ -25443,7 +25443,7 @@
         <v>0.27628241508397716</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="24">
         <f t="shared" si="3"/>
         <v>-1.6000000000000032</v>
@@ -25489,7 +25489,7 @@
         <v>0.27469458511223016</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="24">
         <f t="shared" si="3"/>
         <v>-1.5500000000000032</v>
@@ -25535,7 +25535,7 @@
         <v>0.27310675514048316</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="24">
         <f t="shared" si="3"/>
         <v>-1.5000000000000031</v>
@@ -25581,7 +25581,7 @@
         <v>0.27151892516873616</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="24">
         <f t="shared" si="3"/>
         <v>-1.4500000000000031</v>
@@ -25627,7 +25627,7 @@
         <v>0.26993109519698916</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="24">
         <f t="shared" si="3"/>
         <v>-1.400000000000003</v>
@@ -25673,7 +25673,7 @@
         <v>0.26834326522524216</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="24">
         <f t="shared" si="3"/>
         <v>-1.350000000000003</v>
@@ -25719,7 +25719,7 @@
         <v>0.26675543525349515</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="24">
         <f t="shared" si="3"/>
         <v>-1.3000000000000029</v>
@@ -25765,7 +25765,7 @@
         <v>0.26516760528174815</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="24">
         <f t="shared" si="3"/>
         <v>-1.2500000000000029</v>
@@ -25811,7 +25811,7 @@
         <v>0.26357977531000115</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="24">
         <f t="shared" si="3"/>
         <v>-1.2000000000000028</v>
@@ -25857,7 +25857,7 @@
         <v>0.26199194533825415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="24">
         <f t="shared" si="3"/>
         <v>-1.1500000000000028</v>
@@ -25903,7 +25903,7 @@
         <v>0.26040411536650715</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="24">
         <f t="shared" si="3"/>
         <v>-1.1000000000000028</v>
@@ -25949,7 +25949,7 @@
         <v>0.25881628539476015</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="24">
         <f t="shared" si="3"/>
         <v>-1.0500000000000027</v>
@@ -25995,7 +25995,7 @@
         <v>0.25722845542301315</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="24">
         <f t="shared" si="3"/>
         <v>-1.0000000000000027</v>
@@ -26041,7 +26041,7 @@
         <v>0.25564062545126615</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="24">
         <f t="shared" si="3"/>
         <v>-0.95000000000000262</v>
@@ -26087,7 +26087,7 @@
         <v>0.25405279547951914</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="24">
         <f t="shared" si="3"/>
         <v>-0.90000000000000258</v>
@@ -26133,7 +26133,7 @@
         <v>0.25246496550777214</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="24">
         <f t="shared" si="3"/>
         <v>-0.85000000000000253</v>
@@ -26179,7 +26179,7 @@
         <v>0.25087713553602514</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="24">
         <f t="shared" si="3"/>
         <v>-0.80000000000000249</v>
@@ -26225,7 +26225,7 @@
         <v>0.24928930556427814</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="24">
         <f t="shared" si="3"/>
         <v>-0.75000000000000244</v>
@@ -26271,7 +26271,7 @@
         <v>0.24770147559253114</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="24">
         <f t="shared" si="3"/>
         <v>-0.7000000000000024</v>
@@ -26317,7 +26317,7 @@
         <v>0.24611364562078414</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="24">
         <f t="shared" si="3"/>
         <v>-0.65000000000000235</v>
@@ -26363,7 +26363,7 @@
         <v>0.24452581564903714</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="24">
         <f t="shared" si="3"/>
         <v>-0.60000000000000231</v>
@@ -26409,7 +26409,7 @@
         <v>0.24293798567729014</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="24">
         <f t="shared" si="3"/>
         <v>-0.55000000000000226</v>
@@ -26455,7 +26455,7 @@
         <v>0.24135015570554313</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="24">
         <f t="shared" si="3"/>
         <v>-0.50000000000000222</v>
@@ -26501,7 +26501,7 @@
         <v>0.23976232573379613</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="24">
         <f t="shared" si="3"/>
         <v>-0.45000000000000223</v>
@@ -26547,7 +26547,7 @@
         <v>0.23817449576204913</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="24">
         <f t="shared" si="3"/>
         <v>-0.40000000000000224</v>
@@ -26593,7 +26593,7 @@
         <v>0.23658666579030213</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="24">
         <f t="shared" si="3"/>
         <v>-0.35000000000000225</v>
@@ -26639,7 +26639,7 @@
         <v>0.23499883581855513</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="24">
         <f t="shared" si="3"/>
         <v>-0.30000000000000226</v>
@@ -26685,7 +26685,7 @@
         <v>0.23341100584680813</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="24">
         <f t="shared" si="3"/>
         <v>-0.25000000000000228</v>
@@ -26731,7 +26731,7 @@
         <v>0.23182317587506113</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="24">
         <f t="shared" si="3"/>
         <v>-0.20000000000000229</v>
@@ -26777,7 +26777,7 @@
         <v>0.23023534590331413</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="24">
         <f t="shared" si="3"/>
         <v>-0.1500000000000023</v>
@@ -26823,7 +26823,7 @@
         <v>0.22864751593156712</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="24">
         <f t="shared" si="3"/>
         <v>-0.1000000000000023</v>
@@ -26869,7 +26869,7 @@
         <v>0.22705968595982012</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="24">
         <f t="shared" si="3"/>
         <v>-5.0000000000002293E-2</v>
@@ -26915,7 +26915,7 @@
         <v>0.22547185598807312</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="24">
         <f t="shared" si="3"/>
         <v>-2.2898349882893854E-15</v>
@@ -26961,7 +26961,7 @@
         <v>0.22388402601632612</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="24">
         <f t="shared" si="3"/>
         <v>4.9999999999997713E-2</v>
@@ -27007,7 +27007,7 @@
         <v>0.22229619604457912</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="24">
         <f t="shared" si="3"/>
         <v>9.9999999999997716E-2</v>
@@ -27053,7 +27053,7 @@
         <v>0.22070836607283212</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="24">
         <f t="shared" si="3"/>
         <v>0.14999999999999772</v>
@@ -27099,7 +27099,7 @@
         <v>0.21912053610108512</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="24">
         <f t="shared" si="3"/>
         <v>0.19999999999999774</v>
@@ -27145,7 +27145,7 @@
         <v>0.21753270612933812</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="24">
         <f t="shared" si="3"/>
         <v>0.24999999999999772</v>
@@ -27191,7 +27191,7 @@
         <v>0.21594487615759111</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A122" si="14">A67+0.05</f>
         <v>0.29999999999999771</v>
@@ -27237,7 +27237,7 @@
         <v>0.21435704618584411</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="24">
         <f t="shared" si="14"/>
         <v>0.3499999999999977</v>
@@ -27283,7 +27283,7 @@
         <v>0.21276921621409711</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="24">
         <f t="shared" si="14"/>
         <v>0.39999999999999769</v>
@@ -27329,7 +27329,7 @@
         <v>0.21118138624235011</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="24">
         <f t="shared" si="14"/>
         <v>0.44999999999999768</v>
@@ -27375,7 +27375,7 @@
         <v>0.20959355627060311</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="24">
         <f t="shared" si="14"/>
         <v>0.49999999999999767</v>
@@ -27421,7 +27421,7 @@
         <v>0.20800572629885611</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="24">
         <f t="shared" si="14"/>
         <v>0.54999999999999771</v>
@@ -27467,7 +27467,7 @@
         <v>0.20641789632710911</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="24">
         <f t="shared" si="14"/>
         <v>0.59999999999999776</v>
@@ -27513,7 +27513,7 @@
         <v>0.20483006635536211</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="24">
         <f t="shared" si="14"/>
         <v>0.6499999999999978</v>
@@ -27559,7 +27559,7 @@
         <v>0.2032422363836151</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="24">
         <f t="shared" si="14"/>
         <v>0.69999999999999785</v>
@@ -27605,7 +27605,7 @@
         <v>0.2016544064118681</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="24">
         <f t="shared" si="14"/>
         <v>0.74999999999999789</v>
@@ -27651,7 +27651,7 @@
         <v>0.2000665764401211</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="24">
         <f t="shared" si="14"/>
         <v>0.79999999999999793</v>
@@ -27697,7 +27697,7 @@
         <v>0.1984787464683741</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="24">
         <f t="shared" si="14"/>
         <v>0.84999999999999798</v>
@@ -27743,7 +27743,7 @@
         <v>0.1968909164966271</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="24">
         <f t="shared" si="14"/>
         <v>0.89999999999999802</v>
@@ -27789,7 +27789,7 @@
         <v>0.1953030865248801</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="24">
         <f t="shared" si="14"/>
         <v>0.94999999999999807</v>
@@ -27835,7 +27835,7 @@
         <v>0.1937152565531331</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="24">
         <f t="shared" si="14"/>
         <v>0.99999999999999811</v>
@@ -27881,7 +27881,7 @@
         <v>0.1921274265813861</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="24">
         <f t="shared" si="14"/>
         <v>1.049999999999998</v>
@@ -27927,7 +27927,7 @@
         <v>0.19053959660963909</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="24">
         <f t="shared" si="14"/>
         <v>1.0999999999999981</v>
@@ -27973,7 +27973,7 @@
         <v>0.18895176663789209</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="24">
         <f t="shared" si="14"/>
         <v>1.1499999999999981</v>
@@ -28019,7 +28019,7 @@
         <v>0.18736393666614509</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="24">
         <f t="shared" si="14"/>
         <v>1.1999999999999982</v>
@@ -28065,7 +28065,7 @@
         <v>0.18577610669439809</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="24">
         <f t="shared" si="14"/>
         <v>1.2499999999999982</v>
@@ -28111,7 +28111,7 @@
         <v>0.18418827672265109</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="24">
         <f t="shared" si="14"/>
         <v>1.2999999999999983</v>
@@ -28157,7 +28157,7 @@
         <v>0.18260044675090409</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="24">
         <f t="shared" si="14"/>
         <v>1.3499999999999983</v>
@@ -28203,7 +28203,7 @@
         <v>0.18101261677915709</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="24">
         <f t="shared" si="14"/>
         <v>1.3999999999999984</v>
@@ -28249,7 +28249,7 @@
         <v>0.17942478680741009</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="24">
         <f t="shared" si="14"/>
         <v>1.4499999999999984</v>
@@ -28295,7 +28295,7 @@
         <v>0.17783695683566308</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="24">
         <f t="shared" si="14"/>
         <v>1.4999999999999984</v>
@@ -28341,7 +28341,7 @@
         <v>0.17624912686391608</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="24">
         <f t="shared" si="14"/>
         <v>1.5499999999999985</v>
@@ -28387,7 +28387,7 @@
         <v>0.17466129689216908</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="24">
         <f t="shared" si="14"/>
         <v>1.5999999999999985</v>
@@ -28433,7 +28433,7 @@
         <v>0.17307346692042208</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="24">
         <f t="shared" si="14"/>
         <v>1.6499999999999986</v>
@@ -28479,7 +28479,7 @@
         <v>0.17148563694867508</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="24">
         <f t="shared" si="14"/>
         <v>1.6999999999999986</v>
@@ -28525,7 +28525,7 @@
         <v>0.16989780697692808</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="24">
         <f t="shared" si="14"/>
         <v>1.7499999999999987</v>
@@ -28571,7 +28571,7 @@
         <v>0.16830997700518108</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="24">
         <f t="shared" si="14"/>
         <v>1.7999999999999987</v>
@@ -28617,7 +28617,7 @@
         <v>0.16672214703343408</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="24">
         <f t="shared" si="14"/>
         <v>1.8499999999999988</v>
@@ -28663,7 +28663,7 @@
         <v>0.16513431706168707</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="24">
         <f t="shared" si="14"/>
         <v>1.8999999999999988</v>
@@ -28709,7 +28709,7 @@
         <v>0.16354648708994007</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="24">
         <f t="shared" si="14"/>
         <v>1.9499999999999988</v>
@@ -28755,7 +28755,7 @@
         <v>0.16195865711819307</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="24">
         <f t="shared" si="14"/>
         <v>1.9999999999999989</v>
@@ -28801,7 +28801,7 @@
         <v>0.16037082714644607</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="24">
         <f t="shared" si="14"/>
         <v>2.0499999999999989</v>
@@ -28847,7 +28847,7 @@
         <v>0.15878299717469907</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="24">
         <f t="shared" si="14"/>
         <v>2.0999999999999988</v>
@@ -28893,7 +28893,7 @@
         <v>0.15719516720295207</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="24">
         <f t="shared" si="14"/>
         <v>2.1499999999999986</v>
@@ -28939,7 +28939,7 @@
         <v>0.15560733723120507</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="24">
         <f t="shared" si="14"/>
         <v>2.1999999999999984</v>
@@ -28985,7 +28985,7 @@
         <v>0.15401950725945807</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="24">
         <f t="shared" si="14"/>
         <v>2.2499999999999982</v>
@@ -29031,7 +29031,7 @@
         <v>0.15243167728771106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="24">
         <f t="shared" si="14"/>
         <v>2.299999999999998</v>
@@ -29077,7 +29077,7 @@
         <v>0.15084384731596406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="24">
         <f t="shared" si="14"/>
         <v>2.3499999999999979</v>
@@ -29123,7 +29123,7 @@
         <v>0.14925601734421706</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="24">
         <f t="shared" si="14"/>
         <v>2.3999999999999977</v>
@@ -29169,7 +29169,7 @@
         <v>0.14766818737247006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="24">
         <f t="shared" si="14"/>
         <v>2.4499999999999975</v>
@@ -29215,7 +29215,7 @@
         <v>0.14608035740072306</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="24">
         <f t="shared" si="14"/>
         <v>2.4999999999999973</v>
@@ -29261,7 +29261,7 @@
         <v>0.14449252742897606</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="24">
         <f t="shared" si="14"/>
         <v>2.5499999999999972</v>
@@ -29307,7 +29307,7 @@
         <v>0.14290469745722906</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="24">
         <f t="shared" si="14"/>
         <v>2.599999999999997</v>
@@ -29353,7 +29353,7 @@
         <v>0.14131686748548206</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="24">
         <f t="shared" si="14"/>
         <v>2.6499999999999968</v>
@@ -29399,7 +29399,7 @@
         <v>0.13972903751373505</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="24">
         <f t="shared" si="14"/>
         <v>2.6999999999999966</v>
@@ -29445,7 +29445,7 @@
         <v>0.13814120754198805</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" s="24">
         <f t="shared" si="14"/>
         <v>2.7499999999999964</v>
@@ -29491,7 +29491,7 @@
         <v>0.13655337757024105</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="24">
         <f t="shared" si="14"/>
         <v>2.7999999999999963</v>
@@ -29537,7 +29537,7 @@
         <v>0.13496554759849405</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="24">
         <f t="shared" si="14"/>
         <v>2.8499999999999961</v>
@@ -29583,7 +29583,7 @@
         <v>0.13337771762674705</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="24">
         <f t="shared" si="14"/>
         <v>2.8999999999999959</v>
@@ -29629,7 +29629,7 @@
         <v>0.13178988765500005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="24">
         <f t="shared" si="14"/>
         <v>2.9499999999999957</v>
@@ -29675,7 +29675,7 @@
         <v>0.13020205768325305</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="24">
         <f t="shared" si="14"/>
         <v>2.9999999999999956</v>
@@ -29721,7 +29721,7 @@
         <v>0.12861422771150605</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="I123" s="24">
@@ -29753,7 +29753,7 @@
         <v>0.12702639773975904</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="I124" s="24">
@@ -29785,7 +29785,7 @@
         <v>0.12543856776801204</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="I125" s="24">
@@ -29817,7 +29817,7 @@
         <v>0.12385073779626504</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="I126" s="24">
@@ -29849,7 +29849,7 @@
         <v>0.12226290782451804</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="I127" s="24">
@@ -29881,7 +29881,7 @@
         <v>0.12067507785277104</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="I128" s="24">
@@ -29913,7 +29913,7 @@
         <v>0.11908724788102404</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="I129" s="24">
@@ -29945,7 +29945,7 @@
         <v>0.11749941790927704</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="I130" s="24">
@@ -29977,7 +29977,7 @@
         <v>0.11591158793753004</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="I131" s="24">
@@ -30009,7 +30009,7 @@
         <v>0.11432375796578303</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="I132" s="24">
@@ -30041,7 +30041,7 @@
         <v>0.11273592799403603</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="I133" s="24">
@@ -30073,7 +30073,7 @@
         <v>0.11114809802228903</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="I134" s="24">
@@ -30105,7 +30105,7 @@
         <v>0.10956026805054203</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="I135" s="24">
@@ -30137,7 +30137,7 @@
         <v>0.10797243807879503</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="I136" s="24">
@@ -30169,7 +30169,7 @@
         <v>0.10638460810704803</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="I137" s="24">
@@ -30201,7 +30201,7 @@
         <v>0.10479677813530103</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="I138" s="24">
@@ -30233,7 +30233,7 @@
         <v>0.10320894816355403</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="I139" s="24">
@@ -30265,7 +30265,7 @@
         <v>0.10162111819180702</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="I140" s="24">
@@ -30297,7 +30297,7 @@
         <v>0.10003328822006002</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I141" s="24">
         <f t="shared" si="30"/>
         <v>1.9499999999999917</v>
@@ -30327,7 +30327,7 @@
         <v>9.8445458248313022E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I142" s="24">
         <f t="shared" si="30"/>
         <v>1.9999999999999918</v>
@@ -30357,7 +30357,7 @@
         <v>9.6857628276566021E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I143" s="24">
         <f t="shared" si="30"/>
         <v>2.0499999999999918</v>
@@ -30387,7 +30387,7 @@
         <v>9.526979830481902E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I144" s="24">
         <f t="shared" si="30"/>
         <v>2.0999999999999917</v>
@@ -30417,7 +30417,7 @@
         <v>9.3681968333072019E-2</v>
       </c>
     </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I145" s="24">
         <f t="shared" si="30"/>
         <v>2.1499999999999915</v>
@@ -30447,7 +30447,7 @@
         <v>9.2094138361325018E-2</v>
       </c>
     </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I146" s="24">
         <f t="shared" si="30"/>
         <v>2.1999999999999913</v>
@@ -30477,7 +30477,7 @@
         <v>9.0506308389578016E-2</v>
       </c>
     </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I147" s="24">
         <f t="shared" si="30"/>
         <v>2.2499999999999911</v>
@@ -30507,7 +30507,7 @@
         <v>8.8918478417831015E-2</v>
       </c>
     </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I148" s="24">
         <f t="shared" si="30"/>
         <v>2.2999999999999909</v>
@@ -30537,7 +30537,7 @@
         <v>8.7330648446084014E-2</v>
       </c>
     </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I149" s="24">
         <f t="shared" si="30"/>
         <v>2.3499999999999908</v>
@@ -30567,7 +30567,7 @@
         <v>8.5742818474337013E-2</v>
       </c>
     </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I150" s="24">
         <f t="shared" si="30"/>
         <v>2.3999999999999906</v>
@@ -30597,7 +30597,7 @@
         <v>8.4154988502590011E-2</v>
       </c>
     </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I151" s="24">
         <f t="shared" si="30"/>
         <v>2.4499999999999904</v>
@@ -30627,7 +30627,7 @@
         <v>8.256715853084301E-2</v>
       </c>
     </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I152" s="24">
         <f>I151+0.05</f>
         <v>2.4999999999999902</v>
@@ -30657,7 +30657,7 @@
         <v>8.0979328559096009E-2</v>
       </c>
     </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I153" s="24">
         <f t="shared" ref="I153:I170" si="31">I152+0.05</f>
         <v>2.5499999999999901</v>
@@ -30687,7 +30687,7 @@
         <v>7.9391498587349008E-2</v>
       </c>
     </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I154" s="24">
         <f t="shared" si="31"/>
         <v>2.5999999999999899</v>
@@ -30717,7 +30717,7 @@
         <v>7.7803668615602006E-2</v>
       </c>
     </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I155" s="24">
         <f t="shared" si="31"/>
         <v>2.6499999999999897</v>
@@ -30747,7 +30747,7 @@
         <v>7.6215838643855005E-2</v>
       </c>
     </row>
-    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I156" s="24">
         <f t="shared" si="31"/>
         <v>2.6999999999999895</v>
@@ -30777,7 +30777,7 @@
         <v>7.4628008672108004E-2</v>
       </c>
     </row>
-    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I157" s="24">
         <f t="shared" si="31"/>
         <v>2.7499999999999893</v>
@@ -30807,7 +30807,7 @@
         <v>7.3040178700361003E-2</v>
       </c>
     </row>
-    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I158" s="24">
         <f t="shared" si="31"/>
         <v>2.7999999999999892</v>
@@ -30837,7 +30837,7 @@
         <v>7.1452348728614001E-2</v>
       </c>
     </row>
-    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I159" s="24">
         <f t="shared" si="31"/>
         <v>2.849999999999989</v>
@@ -30867,7 +30867,7 @@
         <v>6.9864518756867E-2</v>
       </c>
     </row>
-    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I160" s="24">
         <f t="shared" si="31"/>
         <v>2.8999999999999888</v>
@@ -30897,7 +30897,7 @@
         <v>6.8276688785119999E-2</v>
       </c>
     </row>
-    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I161" s="24">
         <f t="shared" si="31"/>
         <v>2.9499999999999886</v>
@@ -30927,7 +30927,7 @@
         <v>6.6688858813372998E-2</v>
       </c>
     </row>
-    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I162" s="24">
         <f t="shared" si="31"/>
         <v>2.9999999999999885</v>
@@ -30957,7 +30957,7 @@
         <v>6.5101028841625996E-2</v>
       </c>
     </row>
-    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I163" s="24">
         <f t="shared" si="31"/>
         <v>3.0499999999999883</v>
@@ -30987,7 +30987,7 @@
         <v>6.3513198869878995E-2</v>
       </c>
     </row>
-    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I164" s="24">
         <f t="shared" si="31"/>
         <v>3.0999999999999881</v>
@@ -31017,7 +31017,7 @@
         <v>6.1925368898132001E-2</v>
       </c>
     </row>
-    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I165" s="24">
         <f t="shared" si="31"/>
         <v>3.1499999999999879</v>
@@ -31047,7 +31047,7 @@
         <v>6.0337538926385006E-2</v>
       </c>
     </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I166" s="24">
         <f t="shared" si="31"/>
         <v>3.1999999999999877</v>
@@ -31077,7 +31077,7 @@
         <v>5.8749708954638012E-2</v>
       </c>
     </row>
-    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I167" s="24">
         <f t="shared" si="31"/>
         <v>3.2499999999999876</v>
@@ -31107,7 +31107,7 @@
         <v>5.7161878982891018E-2</v>
       </c>
     </row>
-    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I168" s="24">
         <f t="shared" si="31"/>
         <v>3.2999999999999874</v>
@@ -31137,7 +31137,7 @@
         <v>5.5574049011144024E-2</v>
       </c>
     </row>
-    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I169" s="24">
         <f t="shared" si="31"/>
         <v>3.3499999999999872</v>
@@ -31167,7 +31167,7 @@
         <v>5.3986219039397029E-2</v>
       </c>
     </row>
-    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I170" s="24">
         <f t="shared" si="31"/>
         <v>3.399999999999987</v>
@@ -31197,7 +31197,7 @@
         <v>5.2398389067650035E-2</v>
       </c>
     </row>
-    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I171" s="24">
         <f>I170+0.05</f>
         <v>3.4499999999999869</v>
@@ -31227,7 +31227,7 @@
         <v>5.0810559095903041E-2</v>
       </c>
     </row>
-    <row r="172" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I172" s="24">
         <f t="shared" ref="I172:I186" si="32">I171+0.05</f>
         <v>3.4999999999999867</v>
@@ -31257,7 +31257,7 @@
         <v>4.9222729124156046E-2</v>
       </c>
     </row>
-    <row r="173" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I173" s="24">
         <f t="shared" si="32"/>
         <v>3.5499999999999865</v>
@@ -31287,7 +31287,7 @@
         <v>4.7634899152409052E-2</v>
       </c>
     </row>
-    <row r="174" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I174" s="24">
         <f t="shared" si="32"/>
         <v>3.5999999999999863</v>
@@ -31317,7 +31317,7 @@
         <v>4.6047069180662058E-2</v>
       </c>
     </row>
-    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I175" s="24">
         <f t="shared" si="32"/>
         <v>3.6499999999999861</v>
@@ -31347,7 +31347,7 @@
         <v>4.4459239208915063E-2</v>
       </c>
     </row>
-    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I176" s="24">
         <f t="shared" si="32"/>
         <v>3.699999999999986</v>
@@ -31377,7 +31377,7 @@
         <v>4.2871409237168069E-2</v>
       </c>
     </row>
-    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I177" s="24">
         <f t="shared" si="32"/>
         <v>3.7499999999999858</v>
@@ -31407,7 +31407,7 @@
         <v>4.1283579265421075E-2</v>
       </c>
     </row>
-    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I178" s="24">
         <f t="shared" si="32"/>
         <v>3.7999999999999856</v>
@@ -31437,7 +31437,7 @@
         <v>3.9695749293674081E-2</v>
       </c>
     </row>
-    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I179" s="24">
         <f t="shared" si="32"/>
         <v>3.8499999999999854</v>
@@ -31467,7 +31467,7 @@
         <v>3.8107919321927086E-2</v>
       </c>
     </row>
-    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I180" s="24">
         <f t="shared" si="32"/>
         <v>3.8999999999999853</v>
@@ -31497,7 +31497,7 @@
         <v>3.6520089350180092E-2</v>
       </c>
     </row>
-    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I181" s="24">
         <f t="shared" si="32"/>
         <v>3.9499999999999851</v>
@@ -31527,7 +31527,7 @@
         <v>3.4932259378433098E-2</v>
       </c>
     </row>
-    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I182" s="24">
         <f t="shared" si="32"/>
         <v>3.9999999999999849</v>
@@ -31557,7 +31557,7 @@
         <v>3.3344429406686103E-2</v>
       </c>
     </row>
-    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I183" s="24">
         <f t="shared" si="32"/>
         <v>4.0499999999999847</v>
@@ -31587,7 +31587,7 @@
         <v>3.1756599434939109E-2</v>
       </c>
     </row>
-    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I184" s="24">
         <f t="shared" si="32"/>
         <v>4.0999999999999845</v>
@@ -31617,7 +31617,7 @@
         <v>3.0168769463192115E-2</v>
       </c>
     </row>
-    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I185" s="24">
         <f t="shared" si="32"/>
         <v>4.1499999999999844</v>
@@ -31647,7 +31647,7 @@
         <v>2.858093949144512E-2</v>
       </c>
     </row>
-    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I186" s="24">
         <f t="shared" si="32"/>
         <v>4.1999999999999842</v>
@@ -31677,7 +31677,7 @@
         <v>2.6993109519698126E-2</v>
       </c>
     </row>
-    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I187" s="24">
         <f>I186+0.05</f>
         <v>4.249999999999984</v>
@@ -31707,7 +31707,7 @@
         <v>2.5405279547951132E-2</v>
       </c>
     </row>
-    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I188" s="24">
         <f t="shared" ref="I188:I194" si="33">I187+0.05</f>
         <v>4.2999999999999838</v>
@@ -31737,7 +31737,7 @@
         <v>2.3817449576204137E-2</v>
       </c>
     </row>
-    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I189" s="24">
         <f t="shared" si="33"/>
         <v>4.3499999999999837</v>
@@ -31767,7 +31767,7 @@
         <v>2.2229619604457143E-2</v>
       </c>
     </row>
-    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I190" s="24">
         <f t="shared" si="33"/>
         <v>4.3999999999999835</v>
@@ -31797,7 +31797,7 @@
         <v>2.0641789632710149E-2</v>
       </c>
     </row>
-    <row r="191" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I191" s="24">
         <f t="shared" si="33"/>
         <v>4.4499999999999833</v>
@@ -31827,7 +31827,7 @@
         <v>1.9053959660963155E-2</v>
       </c>
     </row>
-    <row r="192" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I192" s="24">
         <f t="shared" si="33"/>
         <v>4.4999999999999831</v>
@@ -31857,7 +31857,7 @@
         <v>1.746612968921616E-2</v>
       </c>
     </row>
-    <row r="193" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I193" s="24">
         <f t="shared" si="33"/>
         <v>4.5499999999999829</v>
@@ -31887,7 +31887,7 @@
         <v>1.5878299717469166E-2</v>
       </c>
     </row>
-    <row r="194" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I194" s="24">
         <f t="shared" si="33"/>
         <v>4.5999999999999828</v>
@@ -31917,7 +31917,7 @@
         <v>1.429046974572217E-2</v>
       </c>
     </row>
-    <row r="195" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I195" s="24">
         <f>I194+0.05</f>
         <v>4.6499999999999826</v>
@@ -31947,7 +31947,7 @@
         <v>1.2702639773975174E-2</v>
       </c>
     </row>
-    <row r="196" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I196" s="24">
         <f t="shared" ref="I196:I201" si="35">I195+0.05</f>
         <v>4.6999999999999824</v>
@@ -31977,7 +31977,7 @@
         <v>1.1114809802228178E-2</v>
       </c>
     </row>
-    <row r="197" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I197" s="24">
         <f t="shared" si="35"/>
         <v>4.7499999999999822</v>
@@ -32007,7 +32007,7 @@
         <v>9.5269798304811817E-3</v>
       </c>
     </row>
-    <row r="198" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I198" s="24">
         <f t="shared" si="35"/>
         <v>4.7999999999999821</v>
@@ -32037,7 +32037,7 @@
         <v>7.9391498587341857E-3</v>
       </c>
     </row>
-    <row r="199" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I199" s="24">
         <f t="shared" si="35"/>
         <v>4.8499999999999819</v>
@@ -32067,7 +32067,7 @@
         <v>6.3513198869871897E-3</v>
       </c>
     </row>
-    <row r="200" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I200" s="24">
         <f t="shared" si="35"/>
         <v>4.8999999999999817</v>
@@ -32097,7 +32097,7 @@
         <v>4.7634899152401936E-3</v>
       </c>
     </row>
-    <row r="201" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I201" s="24">
         <f t="shared" si="35"/>
         <v>4.9499999999999815</v>
@@ -32127,7 +32127,7 @@
         <v>3.1756599434931976E-3</v>
       </c>
     </row>
-    <row r="202" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I202" s="24">
         <f>I201+0.05</f>
         <v>4.9999999999999813</v>
@@ -32170,24 +32170,26 @@
   <dimension ref="B4:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F11"/>
+      <selection activeCell="I5" sqref="I5:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="2" width="9.1328125" style="26"/>
+    <col min="3" max="3" width="6.86328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.73046875" style="26" customWidth="1"/>
+    <col min="6" max="10" width="9.1328125" style="26"/>
+    <col min="11" max="11" width="12.73046875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="26"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D4" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D5" s="26" t="str">
         <f>"True"</f>
         <v>True</v>
@@ -32197,7 +32199,7 @@
         <v>False</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="43" t="s">
         <v>24</v>
       </c>
@@ -32211,7 +32213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="43"/>
       <c r="C7" s="37" t="s">
         <v>26</v>
@@ -32223,7 +32225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="43"/>
       <c r="C8" s="42" t="s">
         <v>23</v>
@@ -32235,7 +32237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="43"/>
       <c r="C9" s="42"/>
       <c r="D9" s="33" t="s">
@@ -32245,7 +32247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
@@ -32270,12 +32272,12 @@
       <selection activeCell="H3" sqref="H3:H122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="16384" width="9.1328125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
@@ -32301,7 +32303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="39">
         <v>-3</v>
       </c>
@@ -32331,7 +32333,7 @@
         <v>0.3989422804014327</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="39">
         <f>A2+0.05</f>
         <v>-2.95</v>
@@ -32365,7 +32367,7 @@
         <v>0.39564523676175145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="39">
         <f t="shared" ref="A4:A67" si="2">A3+0.05</f>
         <v>-2.9000000000000004</v>
@@ -32399,7 +32401,7 @@
         <v>0.3923481931220702</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="39">
         <f t="shared" si="2"/>
         <v>-2.8500000000000005</v>
@@ -32433,7 +32435,7 @@
         <v>0.38905114948238895</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="39">
         <f t="shared" si="2"/>
         <v>-2.8000000000000007</v>
@@ -32467,7 +32469,7 @@
         <v>0.3857541058427077</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="39">
         <f t="shared" si="2"/>
         <v>-2.7500000000000009</v>
@@ -32501,7 +32503,7 @@
         <v>0.38245706220302644</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="39">
         <f t="shared" si="2"/>
         <v>-2.7000000000000011</v>
@@ -32535,7 +32537,7 @@
         <v>0.37916001856334519</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="39">
         <f t="shared" si="2"/>
         <v>-2.6500000000000012</v>
@@ -32569,7 +32571,7 @@
         <v>0.37586297492366394</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="39">
         <f t="shared" si="2"/>
         <v>-2.6000000000000014</v>
@@ -32603,7 +32605,7 @@
         <v>0.37256593128398269</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="39">
         <f t="shared" si="2"/>
         <v>-2.5500000000000016</v>
@@ -32637,7 +32639,7 @@
         <v>0.36926888764430144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="39">
         <f t="shared" si="2"/>
         <v>-2.5000000000000018</v>
@@ -32671,7 +32673,7 @@
         <v>0.36597184400462018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="39">
         <f t="shared" si="2"/>
         <v>-2.450000000000002</v>
@@ -32705,7 +32707,7 @@
         <v>0.36267480036493893</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="39">
         <f t="shared" si="2"/>
         <v>-2.4000000000000021</v>
@@ -32739,7 +32741,7 @@
         <v>0.35937775672525768</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="39">
         <f t="shared" si="2"/>
         <v>-2.3500000000000023</v>
@@ -32773,7 +32775,7 @@
         <v>0.35608071308557643</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="39">
         <f t="shared" si="2"/>
         <v>-2.3000000000000025</v>
@@ -32807,7 +32809,7 @@
         <v>0.35278366944589518</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="39">
         <f t="shared" si="2"/>
         <v>-2.2500000000000027</v>
@@ -32841,7 +32843,7 @@
         <v>0.34948662580621392</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="39">
         <f t="shared" si="2"/>
         <v>-2.2000000000000028</v>
@@ -32875,7 +32877,7 @@
         <v>0.34618958216653267</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="39">
         <f t="shared" si="2"/>
         <v>-2.150000000000003</v>
@@ -32909,7 +32911,7 @@
         <v>0.34289253852685142</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="39">
         <f t="shared" si="2"/>
         <v>-2.1000000000000032</v>
@@ -32943,7 +32945,7 @@
         <v>0.33959549488717017</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="39">
         <f t="shared" si="2"/>
         <v>-2.0500000000000034</v>
@@ -32977,7 +32979,7 @@
         <v>0.33629845124748892</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="39">
         <f t="shared" si="2"/>
         <v>-2.0000000000000036</v>
@@ -33011,7 +33013,7 @@
         <v>0.33300140760780766</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="39">
         <f t="shared" si="2"/>
         <v>-1.9500000000000035</v>
@@ -33045,7 +33047,7 @@
         <v>0.32970436396812641</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="39">
         <f t="shared" si="2"/>
         <v>-1.9000000000000035</v>
@@ -33079,7 +33081,7 @@
         <v>0.32640732032844516</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="39">
         <f t="shared" si="2"/>
         <v>-1.8500000000000034</v>
@@ -33113,7 +33115,7 @@
         <v>0.32311027668876391</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="39">
         <f t="shared" si="2"/>
         <v>-1.8000000000000034</v>
@@ -33147,7 +33149,7 @@
         <v>0.31981323304908266</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="39">
         <f t="shared" si="2"/>
         <v>-1.7500000000000033</v>
@@ -33181,7 +33183,7 @@
         <v>0.31651618940940141</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="39">
         <f t="shared" si="2"/>
         <v>-1.7000000000000033</v>
@@ -33215,7 +33217,7 @@
         <v>0.31321914576972015</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="39">
         <f t="shared" si="2"/>
         <v>-1.6500000000000032</v>
@@ -33249,7 +33251,7 @@
         <v>0.3099221021300389</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="39">
         <f t="shared" si="2"/>
         <v>-1.6000000000000032</v>
@@ -33283,7 +33285,7 @@
         <v>0.30662505849035765</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="39">
         <f t="shared" si="2"/>
         <v>-1.5500000000000032</v>
@@ -33317,7 +33319,7 @@
         <v>0.3033280148506764</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="39">
         <f t="shared" si="2"/>
         <v>-1.5000000000000031</v>
@@ -33351,7 +33353,7 @@
         <v>0.30003097121099515</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="39">
         <f t="shared" si="2"/>
         <v>-1.4500000000000031</v>
@@ -33385,7 +33387,7 @@
         <v>0.29673392757131389</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="39">
         <f t="shared" si="2"/>
         <v>-1.400000000000003</v>
@@ -33419,7 +33421,7 @@
         <v>0.29343688393163264</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="39">
         <f t="shared" si="2"/>
         <v>-1.350000000000003</v>
@@ -33453,7 +33455,7 @@
         <v>0.29013984029195139</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="39">
         <f t="shared" si="2"/>
         <v>-1.3000000000000029</v>
@@ -33487,7 +33489,7 @@
         <v>0.28684279665227014</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="39">
         <f t="shared" si="2"/>
         <v>-1.2500000000000029</v>
@@ -33521,7 +33523,7 @@
         <v>0.28354575301258889</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="39">
         <f t="shared" si="2"/>
         <v>-1.2000000000000028</v>
@@ -33555,7 +33557,7 @@
         <v>0.28024870937290763</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="39">
         <f t="shared" si="2"/>
         <v>-1.1500000000000028</v>
@@ -33589,7 +33591,7 @@
         <v>0.27695166573322638</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="39">
         <f t="shared" si="2"/>
         <v>-1.1000000000000028</v>
@@ -33623,7 +33625,7 @@
         <v>0.27365462209354513</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="39">
         <f t="shared" si="2"/>
         <v>-1.0500000000000027</v>
@@ -33657,7 +33659,7 @@
         <v>0.27035757845386388</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>-1.0000000000000027</v>
@@ -33691,7 +33693,7 @@
         <v>0.26706053481418263</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>-0.95000000000000262</v>
@@ -33725,7 +33727,7 @@
         <v>0.26376349117450137</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>-0.90000000000000258</v>
@@ -33759,7 +33761,7 @@
         <v>0.26046644753482012</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>-0.85000000000000253</v>
@@ -33793,7 +33795,7 @@
         <v>0.25716940389513887</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>-0.80000000000000249</v>
@@ -33827,7 +33829,7 @@
         <v>0.25387236025545762</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>-0.75000000000000244</v>
@@ -33861,7 +33863,7 @@
         <v>0.25057531661577637</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="39">
         <f t="shared" si="2"/>
         <v>-0.7000000000000024</v>
@@ -33895,7 +33897,7 @@
         <v>0.24727827297609511</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>-0.65000000000000235</v>
@@ -33929,7 +33931,7 @@
         <v>0.24398122933641386</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="39">
         <f t="shared" si="2"/>
         <v>-0.60000000000000231</v>
@@ -33963,7 +33965,7 @@
         <v>0.24068418569673261</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="39">
         <f t="shared" si="2"/>
         <v>-0.55000000000000226</v>
@@ -33997,7 +33999,7 @@
         <v>0.23738714205705136</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="39">
         <f t="shared" si="2"/>
         <v>-0.50000000000000222</v>
@@ -34031,7 +34033,7 @@
         <v>0.23409009841737011</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="39">
         <f t="shared" si="2"/>
         <v>-0.45000000000000223</v>
@@ -34065,7 +34067,7 @@
         <v>0.23079305477768886</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="39">
         <f t="shared" si="2"/>
         <v>-0.40000000000000224</v>
@@ -34099,7 +34101,7 @@
         <v>0.2274960111380076</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="39">
         <f t="shared" si="2"/>
         <v>-0.35000000000000225</v>
@@ -34133,7 +34135,7 @@
         <v>0.22419896749832635</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="39">
         <f t="shared" si="2"/>
         <v>-0.30000000000000226</v>
@@ -34167,7 +34169,7 @@
         <v>0.2209019238586451</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="39">
         <f t="shared" si="2"/>
         <v>-0.25000000000000228</v>
@@ -34201,7 +34203,7 @@
         <v>0.21760488021896385</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="39">
         <f t="shared" si="2"/>
         <v>-0.20000000000000229</v>
@@ -34235,7 +34237,7 @@
         <v>0.2143078365792826</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="39">
         <f t="shared" si="2"/>
         <v>-0.1500000000000023</v>
@@ -34269,7 +34271,7 @@
         <v>0.21101079293960134</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="39">
         <f t="shared" si="2"/>
         <v>-0.1000000000000023</v>
@@ -34303,7 +34305,7 @@
         <v>0.20771374929992009</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="39">
         <f t="shared" si="2"/>
         <v>-5.0000000000002293E-2</v>
@@ -34337,7 +34339,7 @@
         <v>0.20441670566023884</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="39">
         <f t="shared" si="2"/>
         <v>-2.2898349882893854E-15</v>
@@ -34371,7 +34373,7 @@
         <v>0.20111966202055759</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="39">
         <f t="shared" si="2"/>
         <v>4.9999999999997713E-2</v>
@@ -34405,7 +34407,7 @@
         <v>0.19782261838087634</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="39">
         <f t="shared" si="2"/>
         <v>9.9999999999997716E-2</v>
@@ -34439,7 +34441,7 @@
         <v>0.19452557474119508</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="39">
         <f t="shared" si="2"/>
         <v>0.14999999999999772</v>
@@ -34473,7 +34475,7 @@
         <v>0.19122853110151383</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="39">
         <f t="shared" si="2"/>
         <v>0.19999999999999774</v>
@@ -34507,7 +34509,7 @@
         <v>0.18793148746183258</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="39">
         <f t="shared" si="2"/>
         <v>0.24999999999999772</v>
@@ -34541,7 +34543,7 @@
         <v>0.18463444382215133</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="39">
         <f t="shared" ref="A68:A122" si="11">A67+0.05</f>
         <v>0.29999999999999771</v>
@@ -34575,7 +34577,7 @@
         <v>0.18133740018247008</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="39">
         <f t="shared" si="11"/>
         <v>0.3499999999999977</v>
@@ -34609,7 +34611,7 @@
         <v>0.17804035654278882</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="39">
         <f t="shared" si="11"/>
         <v>0.39999999999999769</v>
@@ -34643,7 +34645,7 @@
         <v>0.17474331290310757</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="39">
         <f t="shared" si="11"/>
         <v>0.44999999999999768</v>
@@ -34677,7 +34679,7 @@
         <v>0.17144626926342632</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="39">
         <f t="shared" si="11"/>
         <v>0.49999999999999767</v>
@@ -34711,7 +34713,7 @@
         <v>0.16814922562374507</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="39">
         <f t="shared" si="11"/>
         <v>0.54999999999999771</v>
@@ -34745,7 +34747,7 @@
         <v>0.16485218198406382</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="39">
         <f t="shared" si="11"/>
         <v>0.59999999999999776</v>
@@ -34779,7 +34781,7 @@
         <v>0.16155513834438257</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="39">
         <f t="shared" si="11"/>
         <v>0.6499999999999978</v>
@@ -34813,7 +34815,7 @@
         <v>0.15825809470470131</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="39">
         <f t="shared" si="11"/>
         <v>0.69999999999999785</v>
@@ -34847,7 +34849,7 @@
         <v>0.15496105106502006</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="39">
         <f t="shared" si="11"/>
         <v>0.74999999999999789</v>
@@ -34881,7 +34883,7 @@
         <v>0.15166400742533881</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="39">
         <f t="shared" si="11"/>
         <v>0.79999999999999793</v>
@@ -34915,7 +34917,7 @@
         <v>0.14836696378565756</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="39">
         <f t="shared" si="11"/>
         <v>0.84999999999999798</v>
@@ -34949,7 +34951,7 @@
         <v>0.14506992014597631</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="39">
         <f t="shared" si="11"/>
         <v>0.89999999999999802</v>
@@ -34983,7 +34985,7 @@
         <v>0.14177287650629505</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="39">
         <f t="shared" si="11"/>
         <v>0.94999999999999807</v>
@@ -35017,7 +35019,7 @@
         <v>0.1384758328666138</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="39">
         <f t="shared" si="11"/>
         <v>0.99999999999999811</v>
@@ -35051,7 +35053,7 @@
         <v>0.13517878922693255</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="39">
         <f t="shared" si="11"/>
         <v>1.049999999999998</v>
@@ -35085,7 +35087,7 @@
         <v>0.1318817455872513</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="39">
         <f t="shared" si="11"/>
         <v>1.0999999999999981</v>
@@ -35119,7 +35121,7 @@
         <v>0.12858470194757005</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="39">
         <f t="shared" si="11"/>
         <v>1.1499999999999981</v>
@@ -35153,7 +35155,7 @@
         <v>0.12528765830788879</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="39">
         <f t="shared" si="11"/>
         <v>1.1999999999999982</v>
@@ -35187,7 +35189,7 @@
         <v>0.12199061466820753</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="39">
         <f t="shared" si="11"/>
         <v>1.2499999999999982</v>
@@ -35221,7 +35223,7 @@
         <v>0.11869357102852626</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="39">
         <f t="shared" si="11"/>
         <v>1.2999999999999983</v>
@@ -35255,7 +35257,7 @@
         <v>0.115396527388845</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="39">
         <f t="shared" si="11"/>
         <v>1.3499999999999983</v>
@@ -35289,7 +35291,7 @@
         <v>0.11209948374916373</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="39">
         <f t="shared" si="11"/>
         <v>1.3999999999999984</v>
@@ -35323,7 +35325,7 @@
         <v>0.10880244010948247</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="39">
         <f t="shared" si="11"/>
         <v>1.4499999999999984</v>
@@ -35357,7 +35359,7 @@
         <v>0.1055053964698012</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="39">
         <f t="shared" si="11"/>
         <v>1.4999999999999984</v>
@@ -35391,7 +35393,7 @@
         <v>0.10220835283011993</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="39">
         <f t="shared" si="11"/>
         <v>1.5499999999999985</v>
@@ -35425,7 +35427,7 @@
         <v>9.8911309190438668E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="39">
         <f t="shared" si="11"/>
         <v>1.5999999999999985</v>
@@ -35459,7 +35461,7 @@
         <v>9.5614265550757402E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="39">
         <f t="shared" si="11"/>
         <v>1.6499999999999986</v>
@@ -35493,7 +35495,7 @@
         <v>9.2317221911076136E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="39">
         <f t="shared" si="11"/>
         <v>1.6999999999999986</v>
@@ -35527,7 +35529,7 @@
         <v>8.902017827139487E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="39">
         <f t="shared" si="11"/>
         <v>1.7499999999999987</v>
@@ -35561,7 +35563,7 @@
         <v>8.5723134631713604E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="39">
         <f t="shared" si="11"/>
         <v>1.7999999999999987</v>
@@ -35595,7 +35597,7 @@
         <v>8.2426090992032339E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="39">
         <f t="shared" si="11"/>
         <v>1.8499999999999988</v>
@@ -35629,7 +35631,7 @@
         <v>7.9129047352351073E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="39">
         <f t="shared" si="11"/>
         <v>1.8999999999999988</v>
@@ -35663,7 +35665,7 @@
         <v>7.5832003712669807E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="39">
         <f t="shared" si="11"/>
         <v>1.9499999999999988</v>
@@ -35697,7 +35699,7 @@
         <v>7.2534960072988541E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="39">
         <f t="shared" si="11"/>
         <v>1.9999999999999989</v>
@@ -35731,7 +35733,7 @@
         <v>6.9237916433307276E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="39">
         <f t="shared" si="11"/>
         <v>2.0499999999999989</v>
@@ -35765,7 +35767,7 @@
         <v>6.594087279362601E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="39">
         <f t="shared" si="11"/>
         <v>2.0999999999999988</v>
@@ -35799,7 +35801,7 @@
         <v>6.2643829153944744E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="39">
         <f t="shared" si="11"/>
         <v>2.1499999999999986</v>
@@ -35833,7 +35835,7 @@
         <v>5.9346785514263485E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="39">
         <f t="shared" si="11"/>
         <v>2.1999999999999984</v>
@@ -35867,7 +35869,7 @@
         <v>5.6049741874582226E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="39">
         <f t="shared" si="11"/>
         <v>2.2499999999999982</v>
@@ -35901,7 +35903,7 @@
         <v>5.2752698234900967E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="39">
         <f t="shared" si="11"/>
         <v>2.299999999999998</v>
@@ -35935,7 +35937,7 @@
         <v>4.9455654595219709E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="39">
         <f t="shared" si="11"/>
         <v>2.3499999999999979</v>
@@ -35969,7 +35971,7 @@
         <v>4.615861095553845E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="39">
         <f t="shared" si="11"/>
         <v>2.3999999999999977</v>
@@ -36003,7 +36005,7 @@
         <v>4.2861567315857191E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="39">
         <f t="shared" si="11"/>
         <v>2.4499999999999975</v>
@@ -36037,7 +36039,7 @@
         <v>3.9564523676175932E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="39">
         <f t="shared" si="11"/>
         <v>2.4999999999999973</v>
@@ -36071,7 +36073,7 @@
         <v>3.6267480036494673E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="39">
         <f t="shared" si="11"/>
         <v>2.5499999999999972</v>
@@ -36105,7 +36107,7 @@
         <v>3.2970436396813414E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="39">
         <f t="shared" si="11"/>
         <v>2.599999999999997</v>
@@ -36139,7 +36141,7 @@
         <v>2.9673392757132152E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="39">
         <f t="shared" si="11"/>
         <v>2.6499999999999968</v>
@@ -36173,7 +36175,7 @@
         <v>2.637634911745089E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="39">
         <f t="shared" si="11"/>
         <v>2.6999999999999966</v>
@@ -36207,7 +36209,7 @@
         <v>2.3079305477769627E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="39">
         <f t="shared" si="11"/>
         <v>2.7499999999999964</v>
@@ -36241,7 +36243,7 @@
         <v>1.9782261838088365E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="39">
         <f t="shared" si="11"/>
         <v>2.7999999999999963</v>
@@ -36275,7 +36277,7 @@
         <v>1.6485218198407103E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="39">
         <f t="shared" si="11"/>
         <v>2.8499999999999961</v>
@@ -36309,7 +36311,7 @@
         <v>1.318817455872584E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="39">
         <f t="shared" si="11"/>
         <v>2.8999999999999959</v>
@@ -36343,7 +36345,7 @@
         <v>9.891130919044578E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="39">
         <f t="shared" si="11"/>
         <v>2.9499999999999957</v>
@@ -36377,7 +36379,7 @@
         <v>6.5940872793633157E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="39">
         <f t="shared" si="11"/>
         <v>2.9999999999999956</v>
@@ -36427,14 +36429,14 @@
       <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:27" x14ac:dyDescent="0.45">
       <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
@@ -36466,7 +36468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="858" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9FA86294-D798-461F-A159-47C1960722D7}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64B3F34E-1E05-4E61-A187-7E02B06B7C78}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="854" firstSheet="5" activeTab="12" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
@@ -20026,6 +20026,16 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25832,7 +25842,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657866" cy="6281108"/>
+    <xdr:ext cx="8653373" cy="6281108"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64B3F34E-1E05-4E61-A187-7E02B06B7C78}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A3B8A89F-7EF7-4C68-973A-0F9BFD7FAE6B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="854" firstSheet="5" activeTab="12" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="854" activeTab="3" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>CAR</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Econoimc</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>Insignificant</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +614,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23477,7 +23495,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="241" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25842,7 +25860,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8653373" cy="6281108"/>
+    <xdr:ext cx="4333677" cy="3146017"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -29049,12 +29067,12 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -29068,7 +29086,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -29089,7 +29107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -29115,7 +29133,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -29142,7 +29160,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -29168,7 +29186,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -29194,7 +29212,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -29221,7 +29239,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -29248,7 +29266,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -29275,7 +29293,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -29302,7 +29320,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -29329,7 +29347,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -29355,7 +29373,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -29373,7 +29391,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>40</v>
@@ -29391,7 +29409,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -29399,7 +29417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
@@ -29411,7 +29429,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
@@ -29439,12 +29457,12 @@
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.73046875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
@@ -29452,7 +29470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="23">
         <v>0</v>
       </c>
@@ -29461,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="23">
         <v>0.01</v>
       </c>
@@ -29470,7 +29488,7 @@
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>0.02</v>
       </c>
@@ -29479,7 +29497,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
         <v>0.03</v>
       </c>
@@ -29488,7 +29506,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>0.04</v>
       </c>
@@ -29497,7 +29515,7 @@
         <v>1.536E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <v>0.05</v>
       </c>
@@ -29506,7 +29524,7 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23">
         <v>0.06</v>
       </c>
@@ -29515,7 +29533,7 @@
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -29524,7 +29542,7 @@
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>0.08</v>
       </c>
@@ -29533,7 +29551,7 @@
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
         <v>0.09</v>
       </c>
@@ -29542,7 +29560,7 @@
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>0.1</v>
       </c>
@@ -29551,7 +29569,7 @@
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>0.11</v>
       </c>
@@ -29560,7 +29578,7 @@
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>0.12</v>
       </c>
@@ -29569,7 +29587,7 @@
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="23">
         <v>0.13</v>
       </c>
@@ -29578,7 +29596,7 @@
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="23">
         <v>0.14000000000000001</v>
       </c>
@@ -29587,7 +29605,7 @@
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
         <v>0.15</v>
       </c>
@@ -29596,7 +29614,7 @@
         <v>1.9125E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
         <v>0.16</v>
       </c>
@@ -29605,7 +29623,7 @@
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <v>0.17</v>
       </c>
@@ -29614,7 +29632,7 @@
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
         <v>0.18</v>
       </c>
@@ -29623,7 +29641,7 @@
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="23">
         <v>0.19</v>
       </c>
@@ -29632,7 +29650,7 @@
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
         <v>0.2</v>
       </c>
@@ -29641,7 +29659,7 @@
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="23">
         <v>0.21</v>
       </c>
@@ -29650,7 +29668,7 @@
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="23">
         <v>0.22</v>
       </c>
@@ -29659,7 +29677,7 @@
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="23">
         <v>0.23</v>
       </c>
@@ -29668,7 +29686,7 @@
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="23">
         <v>0.24</v>
       </c>
@@ -29677,7 +29695,7 @@
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="23">
         <v>0.25</v>
       </c>
@@ -29686,7 +29704,7 @@
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="23">
         <v>0.26</v>
       </c>
@@ -29695,7 +29713,7 @@
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="23">
         <v>0.27</v>
       </c>
@@ -29707,7 +29725,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="23">
         <v>0.28000000000000003</v>
       </c>
@@ -29716,7 +29734,7 @@
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="23">
         <v>0.28999999999999998</v>
       </c>
@@ -29725,7 +29743,7 @@
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="23">
         <v>0.3</v>
       </c>
@@ -29734,7 +29752,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="23">
         <v>0.31</v>
       </c>
@@ -29743,7 +29761,7 @@
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="23">
         <v>0.32</v>
       </c>
@@ -29752,7 +29770,7 @@
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="23">
         <v>0.33</v>
       </c>
@@ -29761,7 +29779,7 @@
         <v>7.2963E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="23">
         <v>0.34</v>
       </c>
@@ -29770,7 +29788,7 @@
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="23">
         <v>0.35</v>
       </c>
@@ -29779,7 +29797,7 @@
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
         <v>0.36</v>
       </c>
@@ -29788,7 +29806,7 @@
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
         <v>0.37</v>
       </c>
@@ -29797,7 +29815,7 @@
         <v>8.624699999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
         <v>0.38</v>
       </c>
@@ -29806,7 +29824,7 @@
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
         <v>0.39</v>
       </c>
@@ -29815,7 +29833,7 @@
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
         <v>0.4</v>
       </c>
@@ -29824,7 +29842,7 @@
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="23">
         <v>0.41</v>
       </c>
@@ -29833,7 +29851,7 @@
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="23">
         <v>0.42</v>
       </c>
@@ -29842,7 +29860,7 @@
         <v>0.102312</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="23">
         <v>0.43</v>
       </c>
@@ -29851,7 +29869,7 @@
         <v>0.105393</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="23">
         <v>0.44</v>
       </c>
@@ -29860,7 +29878,7 @@
         <v>0.10841600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="23">
         <v>0.45</v>
       </c>
@@ -29869,7 +29887,7 @@
         <v>0.11137500000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="23">
         <v>0.46</v>
       </c>
@@ -29878,7 +29896,7 @@
         <v>0.11426400000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="23">
         <v>0.47</v>
       </c>
@@ -29887,7 +29905,7 @@
         <v>0.117077</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="23">
         <v>0.48</v>
       </c>
@@ -29896,7 +29914,7 @@
         <v>0.119808</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="23">
         <v>0.49</v>
       </c>
@@ -29905,7 +29923,7 @@
         <v>0.12245099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="23">
         <v>0.5</v>
       </c>
@@ -29914,7 +29932,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="23">
         <v>0.51</v>
       </c>
@@ -29923,7 +29941,7 @@
         <v>0.12744900000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
         <v>0.52</v>
       </c>
@@ -29932,7 +29950,7 @@
         <v>0.12979200000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="23">
         <v>0.53</v>
       </c>
@@ -29941,7 +29959,7 @@
         <v>0.132023</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="23">
         <v>0.54</v>
       </c>
@@ -29950,7 +29968,7 @@
         <v>0.13413600000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="23">
         <v>0.55000000000000004</v>
       </c>
@@ -29959,7 +29977,7 @@
         <v>0.136125</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="23">
         <v>0.56000000000000005</v>
       </c>
@@ -29968,7 +29986,7 @@
         <v>0.137984</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="23">
         <v>0.56999999999999995</v>
       </c>
@@ -29977,7 +29995,7 @@
         <v>0.139707</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="23">
         <v>0.57999999999999996</v>
       </c>
@@ -29986,7 +30004,7 @@
         <v>0.141288</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="23">
         <v>0.59</v>
       </c>
@@ -29995,7 +30013,7 @@
         <v>0.14272099999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="23">
         <v>0.6</v>
       </c>
@@ -30004,7 +30022,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="23">
         <v>0.61</v>
       </c>
@@ -30013,7 +30031,7 @@
         <v>0.145119</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="23">
         <v>0.62</v>
       </c>
@@ -30022,7 +30040,7 @@
         <v>0.14607200000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="23">
         <v>0.63</v>
       </c>
@@ -30031,7 +30049,7 @@
         <v>0.14685300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="23">
         <v>0.64</v>
       </c>
@@ -30040,7 +30058,7 @@
         <v>0.147456</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="23">
         <v>0.65</v>
       </c>
@@ -30049,7 +30067,7 @@
         <v>0.14787500000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="23">
         <v>0.66</v>
       </c>
@@ -30058,7 +30076,7 @@
         <v>0.14810400000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="23">
         <v>0.67</v>
       </c>
@@ -30067,7 +30085,7 @@
         <v>0.14813700000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="23">
         <v>0.68</v>
       </c>
@@ -30076,7 +30094,7 @@
         <v>0.14796800000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="23">
         <v>0.69</v>
       </c>
@@ -30085,7 +30103,7 @@
         <v>0.147591</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="23">
         <v>0.7</v>
       </c>
@@ -30094,7 +30112,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="23">
         <v>0.71</v>
       </c>
@@ -30103,7 +30121,7 @@
         <v>0.14618900000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="23">
         <v>0.72</v>
       </c>
@@ -30112,7 +30130,7 @@
         <v>0.145152</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="23">
         <v>0.73</v>
       </c>
@@ -30121,7 +30139,7 @@
         <v>0.14388299999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="23">
         <v>0.74</v>
       </c>
@@ -30130,7 +30148,7 @@
         <v>0.142376</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="23">
         <v>0.75</v>
       </c>
@@ -30139,7 +30157,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="23">
         <v>0.76</v>
       </c>
@@ -30148,7 +30166,7 @@
         <v>0.138624</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="23">
         <v>0.77</v>
       </c>
@@ -30157,7 +30175,7 @@
         <v>0.13636699999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="23">
         <v>0.78</v>
       </c>
@@ -30166,7 +30184,7 @@
         <v>0.13384799999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="23">
         <v>0.79</v>
       </c>
@@ -30175,7 +30193,7 @@
         <v>0.13106100000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="23">
         <v>0.8</v>
       </c>
@@ -30184,7 +30202,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="23">
         <v>0.81</v>
       </c>
@@ -30193,7 +30211,7 @@
         <v>0.12465899999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="23">
         <v>0.82</v>
       </c>
@@ -30202,7 +30220,7 @@
         <v>0.12103200000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="23">
         <v>0.83</v>
       </c>
@@ -30211,7 +30229,7 @@
         <v>0.11711300000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="23">
         <v>0.84</v>
       </c>
@@ -30220,7 +30238,7 @@
         <v>0.11289600000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="23">
         <v>0.85</v>
       </c>
@@ -30229,7 +30247,7 @@
         <v>0.108375</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="23">
         <v>0.86</v>
       </c>
@@ -30238,7 +30256,7 @@
         <v>0.103544</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="23">
         <v>0.87</v>
       </c>
@@ -30247,7 +30265,7 @@
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="23">
         <v>0.88</v>
       </c>
@@ -30256,7 +30274,7 @@
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="23">
         <v>0.89</v>
       </c>
@@ -30265,7 +30283,7 @@
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="23">
         <v>0.9</v>
       </c>
@@ -30274,7 +30292,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="23">
         <v>0.91</v>
       </c>
@@ -30283,7 +30301,7 @@
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="23">
         <v>0.92</v>
       </c>
@@ -30292,7 +30310,7 @@
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="23">
         <v>0.93</v>
       </c>
@@ -30301,7 +30319,7 @@
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="23">
         <v>0.94</v>
       </c>
@@ -30310,7 +30328,7 @@
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="23">
         <v>0.95</v>
       </c>
@@ -30319,7 +30337,7 @@
         <v>4.512500000000004E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="23">
         <v>0.96</v>
       </c>
@@ -30328,7 +30346,7 @@
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="23">
         <v>0.97</v>
       </c>
@@ -30337,7 +30355,7 @@
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="23">
         <v>0.98</v>
       </c>
@@ -30346,7 +30364,7 @@
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="23">
         <v>0.99</v>
       </c>
@@ -30355,7 +30373,7 @@
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="23">
         <v>1</v>
       </c>
@@ -30380,14 +30398,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.73046875" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="12" width="18.73046875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="12" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -30407,7 +30425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>-3</v>
       </c>
@@ -30449,7 +30467,7 @@
         <v>0.3191538243211462</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <f>A2+0.05</f>
         <v>-2.95</v>
@@ -30495,7 +30513,7 @@
         <v>0.31756599434939919</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <f t="shared" ref="A4:A67" si="3">A3+0.05</f>
         <v>-2.9000000000000004</v>
@@ -30541,7 +30559,7 @@
         <v>0.31597816437765219</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <f t="shared" si="3"/>
         <v>-2.8500000000000005</v>
@@ -30587,7 +30605,7 @@
         <v>0.31439033440590519</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <f t="shared" si="3"/>
         <v>-2.8000000000000007</v>
@@ -30633,7 +30651,7 @@
         <v>0.31280250443415819</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <f t="shared" si="3"/>
         <v>-2.7500000000000009</v>
@@ -30679,7 +30697,7 @@
         <v>0.31121467446241119</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <f t="shared" si="3"/>
         <v>-2.7000000000000011</v>
@@ -30725,7 +30743,7 @@
         <v>0.30962684449066419</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <f t="shared" si="3"/>
         <v>-2.6500000000000012</v>
@@ -30771,7 +30789,7 @@
         <v>0.30803901451891719</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <f t="shared" si="3"/>
         <v>-2.6000000000000014</v>
@@ -30817,7 +30835,7 @@
         <v>0.30645118454717019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <f t="shared" si="3"/>
         <v>-2.5500000000000016</v>
@@ -30863,7 +30881,7 @@
         <v>0.30486335457542318</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f t="shared" si="3"/>
         <v>-2.5000000000000018</v>
@@ -30909,7 +30927,7 @@
         <v>0.30327552460367618</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" si="3"/>
         <v>-2.450000000000002</v>
@@ -30955,7 +30973,7 @@
         <v>0.30168769463192918</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f t="shared" si="3"/>
         <v>-2.4000000000000021</v>
@@ -31001,7 +31019,7 @@
         <v>0.30009986466018218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f t="shared" si="3"/>
         <v>-2.3500000000000023</v>
@@ -31047,7 +31065,7 @@
         <v>0.29851203468843518</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f t="shared" si="3"/>
         <v>-2.3000000000000025</v>
@@ -31093,7 +31111,7 @@
         <v>0.29692420471668818</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <f t="shared" si="3"/>
         <v>-2.2500000000000027</v>
@@ -31139,7 +31157,7 @@
         <v>0.29533637474494118</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" si="3"/>
         <v>-2.2000000000000028</v>
@@ -31185,7 +31203,7 @@
         <v>0.29374854477319418</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="3"/>
         <v>-2.150000000000003</v>
@@ -31231,7 +31249,7 @@
         <v>0.29216071480144717</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="3"/>
         <v>-2.1000000000000032</v>
@@ -31277,7 +31295,7 @@
         <v>0.29057288482970017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="3"/>
         <v>-2.0500000000000034</v>
@@ -31323,7 +31341,7 @@
         <v>0.28898505485795317</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="3"/>
         <v>-2.0000000000000036</v>
@@ -31369,7 +31387,7 @@
         <v>0.28739722488620617</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f t="shared" si="3"/>
         <v>-1.9500000000000035</v>
@@ -31415,7 +31433,7 @@
         <v>0.28580939491445917</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f t="shared" si="3"/>
         <v>-1.9000000000000035</v>
@@ -31461,7 +31479,7 @@
         <v>0.28422156494271217</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="3"/>
         <v>-1.8500000000000034</v>
@@ -31507,7 +31525,7 @@
         <v>0.28263373497096517</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="3"/>
         <v>-1.8000000000000034</v>
@@ -31553,7 +31571,7 @@
         <v>0.28104590499921817</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="3"/>
         <v>-1.7500000000000033</v>
@@ -31599,7 +31617,7 @@
         <v>0.27945807502747116</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="3"/>
         <v>-1.7000000000000033</v>
@@ -31645,7 +31663,7 @@
         <v>0.27787024505572416</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="3"/>
         <v>-1.6500000000000032</v>
@@ -31691,7 +31709,7 @@
         <v>0.27628241508397716</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="3"/>
         <v>-1.6000000000000032</v>
@@ -31737,7 +31755,7 @@
         <v>0.27469458511223016</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="3"/>
         <v>-1.5500000000000032</v>
@@ -31783,7 +31801,7 @@
         <v>0.27310675514048316</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="3"/>
         <v>-1.5000000000000031</v>
@@ -31829,7 +31847,7 @@
         <v>0.27151892516873616</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="3"/>
         <v>-1.4500000000000031</v>
@@ -31875,7 +31893,7 @@
         <v>0.26993109519698916</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="3"/>
         <v>-1.400000000000003</v>
@@ -31921,7 +31939,7 @@
         <v>0.26834326522524216</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="3"/>
         <v>-1.350000000000003</v>
@@ -31967,7 +31985,7 @@
         <v>0.26675543525349515</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <f t="shared" si="3"/>
         <v>-1.3000000000000029</v>
@@ -32013,7 +32031,7 @@
         <v>0.26516760528174815</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f t="shared" si="3"/>
         <v>-1.2500000000000029</v>
@@ -32059,7 +32077,7 @@
         <v>0.26357977531000115</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="3"/>
         <v>-1.2000000000000028</v>
@@ -32105,7 +32123,7 @@
         <v>0.26199194533825415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="3"/>
         <v>-1.1500000000000028</v>
@@ -32151,7 +32169,7 @@
         <v>0.26040411536650715</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="3"/>
         <v>-1.1000000000000028</v>
@@ -32197,7 +32215,7 @@
         <v>0.25881628539476015</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="3"/>
         <v>-1.0500000000000027</v>
@@ -32243,7 +32261,7 @@
         <v>0.25722845542301315</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="3"/>
         <v>-1.0000000000000027</v>
@@ -32289,7 +32307,7 @@
         <v>0.25564062545126615</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="3"/>
         <v>-0.95000000000000262</v>
@@ -32335,7 +32353,7 @@
         <v>0.25405279547951914</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="3"/>
         <v>-0.90000000000000258</v>
@@ -32381,7 +32399,7 @@
         <v>0.25246496550777214</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f t="shared" si="3"/>
         <v>-0.85000000000000253</v>
@@ -32427,7 +32445,7 @@
         <v>0.25087713553602514</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="3"/>
         <v>-0.80000000000000249</v>
@@ -32473,7 +32491,7 @@
         <v>0.24928930556427814</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="3"/>
         <v>-0.75000000000000244</v>
@@ -32519,7 +32537,7 @@
         <v>0.24770147559253114</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f t="shared" si="3"/>
         <v>-0.7000000000000024</v>
@@ -32565,7 +32583,7 @@
         <v>0.24611364562078414</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <f t="shared" si="3"/>
         <v>-0.65000000000000235</v>
@@ -32611,7 +32629,7 @@
         <v>0.24452581564903714</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <f t="shared" si="3"/>
         <v>-0.60000000000000231</v>
@@ -32657,7 +32675,7 @@
         <v>0.24293798567729014</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f t="shared" si="3"/>
         <v>-0.55000000000000226</v>
@@ -32703,7 +32721,7 @@
         <v>0.24135015570554313</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="3"/>
         <v>-0.50000000000000222</v>
@@ -32749,7 +32767,7 @@
         <v>0.23976232573379613</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f t="shared" si="3"/>
         <v>-0.45000000000000223</v>
@@ -32795,7 +32813,7 @@
         <v>0.23817449576204913</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f t="shared" si="3"/>
         <v>-0.40000000000000224</v>
@@ -32841,7 +32859,7 @@
         <v>0.23658666579030213</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="3"/>
         <v>-0.35000000000000225</v>
@@ -32887,7 +32905,7 @@
         <v>0.23499883581855513</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="3"/>
         <v>-0.30000000000000226</v>
@@ -32933,7 +32951,7 @@
         <v>0.23341100584680813</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f t="shared" si="3"/>
         <v>-0.25000000000000228</v>
@@ -32979,7 +32997,7 @@
         <v>0.23182317587506113</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f t="shared" si="3"/>
         <v>-0.20000000000000229</v>
@@ -33025,7 +33043,7 @@
         <v>0.23023534590331413</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f t="shared" si="3"/>
         <v>-0.1500000000000023</v>
@@ -33071,7 +33089,7 @@
         <v>0.22864751593156712</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f t="shared" si="3"/>
         <v>-0.1000000000000023</v>
@@ -33117,7 +33135,7 @@
         <v>0.22705968595982012</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <f t="shared" si="3"/>
         <v>-5.0000000000002293E-2</v>
@@ -33163,7 +33181,7 @@
         <v>0.22547185598807312</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <f t="shared" si="3"/>
         <v>-2.2898349882893854E-15</v>
@@ -33209,7 +33227,7 @@
         <v>0.22388402601632612</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <f t="shared" si="3"/>
         <v>4.9999999999997713E-2</v>
@@ -33255,7 +33273,7 @@
         <v>0.22229619604457912</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <f t="shared" si="3"/>
         <v>9.9999999999997716E-2</v>
@@ -33301,7 +33319,7 @@
         <v>0.22070836607283212</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f t="shared" si="3"/>
         <v>0.14999999999999772</v>
@@ -33347,7 +33365,7 @@
         <v>0.21912053610108512</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <f t="shared" si="3"/>
         <v>0.19999999999999774</v>
@@ -33393,7 +33411,7 @@
         <v>0.21753270612933812</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f t="shared" si="3"/>
         <v>0.24999999999999772</v>
@@ -33439,7 +33457,7 @@
         <v>0.21594487615759111</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A122" si="14">A67+0.05</f>
         <v>0.29999999999999771</v>
@@ -33485,7 +33503,7 @@
         <v>0.21435704618584411</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="14"/>
         <v>0.3499999999999977</v>
@@ -33531,7 +33549,7 @@
         <v>0.21276921621409711</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="14"/>
         <v>0.39999999999999769</v>
@@ -33577,7 +33595,7 @@
         <v>0.21118138624235011</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="14"/>
         <v>0.44999999999999768</v>
@@ -33623,7 +33641,7 @@
         <v>0.20959355627060311</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <f t="shared" si="14"/>
         <v>0.49999999999999767</v>
@@ -33669,7 +33687,7 @@
         <v>0.20800572629885611</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f t="shared" si="14"/>
         <v>0.54999999999999771</v>
@@ -33715,7 +33733,7 @@
         <v>0.20641789632710911</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <f t="shared" si="14"/>
         <v>0.59999999999999776</v>
@@ -33761,7 +33779,7 @@
         <v>0.20483006635536211</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <f t="shared" si="14"/>
         <v>0.6499999999999978</v>
@@ -33807,7 +33825,7 @@
         <v>0.2032422363836151</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <f t="shared" si="14"/>
         <v>0.69999999999999785</v>
@@ -33853,7 +33871,7 @@
         <v>0.2016544064118681</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <f t="shared" si="14"/>
         <v>0.74999999999999789</v>
@@ -33899,7 +33917,7 @@
         <v>0.2000665764401211</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <f t="shared" si="14"/>
         <v>0.79999999999999793</v>
@@ -33945,7 +33963,7 @@
         <v>0.1984787464683741</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <f t="shared" si="14"/>
         <v>0.84999999999999798</v>
@@ -33991,7 +34009,7 @@
         <v>0.1968909164966271</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <f t="shared" si="14"/>
         <v>0.89999999999999802</v>
@@ -34037,7 +34055,7 @@
         <v>0.1953030865248801</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <f t="shared" si="14"/>
         <v>0.94999999999999807</v>
@@ -34083,7 +34101,7 @@
         <v>0.1937152565531331</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <f t="shared" si="14"/>
         <v>0.99999999999999811</v>
@@ -34129,7 +34147,7 @@
         <v>0.1921274265813861</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <f t="shared" si="14"/>
         <v>1.049999999999998</v>
@@ -34175,7 +34193,7 @@
         <v>0.19053959660963909</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <f t="shared" si="14"/>
         <v>1.0999999999999981</v>
@@ -34221,7 +34239,7 @@
         <v>0.18895176663789209</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <f t="shared" si="14"/>
         <v>1.1499999999999981</v>
@@ -34267,7 +34285,7 @@
         <v>0.18736393666614509</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <f t="shared" si="14"/>
         <v>1.1999999999999982</v>
@@ -34313,7 +34331,7 @@
         <v>0.18577610669439809</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <f t="shared" si="14"/>
         <v>1.2499999999999982</v>
@@ -34359,7 +34377,7 @@
         <v>0.18418827672265109</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <f t="shared" si="14"/>
         <v>1.2999999999999983</v>
@@ -34405,7 +34423,7 @@
         <v>0.18260044675090409</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <f t="shared" si="14"/>
         <v>1.3499999999999983</v>
@@ -34451,7 +34469,7 @@
         <v>0.18101261677915709</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <f t="shared" si="14"/>
         <v>1.3999999999999984</v>
@@ -34497,7 +34515,7 @@
         <v>0.17942478680741009</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <f t="shared" si="14"/>
         <v>1.4499999999999984</v>
@@ -34543,7 +34561,7 @@
         <v>0.17783695683566308</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <f t="shared" si="14"/>
         <v>1.4999999999999984</v>
@@ -34589,7 +34607,7 @@
         <v>0.17624912686391608</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <f t="shared" si="14"/>
         <v>1.5499999999999985</v>
@@ -34635,7 +34653,7 @@
         <v>0.17466129689216908</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <f t="shared" si="14"/>
         <v>1.5999999999999985</v>
@@ -34681,7 +34699,7 @@
         <v>0.17307346692042208</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <f t="shared" si="14"/>
         <v>1.6499999999999986</v>
@@ -34727,7 +34745,7 @@
         <v>0.17148563694867508</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <f t="shared" si="14"/>
         <v>1.6999999999999986</v>
@@ -34773,7 +34791,7 @@
         <v>0.16989780697692808</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <f t="shared" si="14"/>
         <v>1.7499999999999987</v>
@@ -34819,7 +34837,7 @@
         <v>0.16830997700518108</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <f t="shared" si="14"/>
         <v>1.7999999999999987</v>
@@ -34865,7 +34883,7 @@
         <v>0.16672214703343408</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <f t="shared" si="14"/>
         <v>1.8499999999999988</v>
@@ -34911,7 +34929,7 @@
         <v>0.16513431706168707</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <f t="shared" si="14"/>
         <v>1.8999999999999988</v>
@@ -34957,7 +34975,7 @@
         <v>0.16354648708994007</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <f t="shared" si="14"/>
         <v>1.9499999999999988</v>
@@ -35003,7 +35021,7 @@
         <v>0.16195865711819307</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <f t="shared" si="14"/>
         <v>1.9999999999999989</v>
@@ -35049,7 +35067,7 @@
         <v>0.16037082714644607</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <f t="shared" si="14"/>
         <v>2.0499999999999989</v>
@@ -35095,7 +35113,7 @@
         <v>0.15878299717469907</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <f t="shared" si="14"/>
         <v>2.0999999999999988</v>
@@ -35141,7 +35159,7 @@
         <v>0.15719516720295207</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <f t="shared" si="14"/>
         <v>2.1499999999999986</v>
@@ -35187,7 +35205,7 @@
         <v>0.15560733723120507</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <f t="shared" si="14"/>
         <v>2.1999999999999984</v>
@@ -35233,7 +35251,7 @@
         <v>0.15401950725945807</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <f t="shared" si="14"/>
         <v>2.2499999999999982</v>
@@ -35279,7 +35297,7 @@
         <v>0.15243167728771106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <f t="shared" si="14"/>
         <v>2.299999999999998</v>
@@ -35325,7 +35343,7 @@
         <v>0.15084384731596406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <f t="shared" si="14"/>
         <v>2.3499999999999979</v>
@@ -35371,7 +35389,7 @@
         <v>0.14925601734421706</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <f t="shared" si="14"/>
         <v>2.3999999999999977</v>
@@ -35417,7 +35435,7 @@
         <v>0.14766818737247006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <f t="shared" si="14"/>
         <v>2.4499999999999975</v>
@@ -35463,7 +35481,7 @@
         <v>0.14608035740072306</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <f t="shared" si="14"/>
         <v>2.4999999999999973</v>
@@ -35509,7 +35527,7 @@
         <v>0.14449252742897606</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <f t="shared" si="14"/>
         <v>2.5499999999999972</v>
@@ -35555,7 +35573,7 @@
         <v>0.14290469745722906</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <f t="shared" si="14"/>
         <v>2.599999999999997</v>
@@ -35601,7 +35619,7 @@
         <v>0.14131686748548206</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <f t="shared" si="14"/>
         <v>2.6499999999999968</v>
@@ -35647,7 +35665,7 @@
         <v>0.13972903751373505</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <f t="shared" si="14"/>
         <v>2.6999999999999966</v>
@@ -35693,7 +35711,7 @@
         <v>0.13814120754198805</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <f t="shared" si="14"/>
         <v>2.7499999999999964</v>
@@ -35739,7 +35757,7 @@
         <v>0.13655337757024105</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <f t="shared" si="14"/>
         <v>2.7999999999999963</v>
@@ -35785,7 +35803,7 @@
         <v>0.13496554759849405</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <f t="shared" si="14"/>
         <v>2.8499999999999961</v>
@@ -35831,7 +35849,7 @@
         <v>0.13337771762674705</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <f t="shared" si="14"/>
         <v>2.8999999999999959</v>
@@ -35877,7 +35895,7 @@
         <v>0.13178988765500005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <f t="shared" si="14"/>
         <v>2.9499999999999957</v>
@@ -35923,7 +35941,7 @@
         <v>0.13020205768325305</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <f t="shared" si="14"/>
         <v>2.9999999999999956</v>
@@ -35969,7 +35987,7 @@
         <v>0.12861422771150605</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="I123" s="24">
@@ -36001,7 +36019,7 @@
         <v>0.12702639773975904</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="I124" s="24">
@@ -36033,7 +36051,7 @@
         <v>0.12543856776801204</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="I125" s="24">
@@ -36065,7 +36083,7 @@
         <v>0.12385073779626504</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="I126" s="24">
@@ -36097,7 +36115,7 @@
         <v>0.12226290782451804</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="I127" s="24">
@@ -36129,7 +36147,7 @@
         <v>0.12067507785277104</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="I128" s="24">
@@ -36161,7 +36179,7 @@
         <v>0.11908724788102404</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="I129" s="24">
@@ -36193,7 +36211,7 @@
         <v>0.11749941790927704</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="I130" s="24">
@@ -36225,7 +36243,7 @@
         <v>0.11591158793753004</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="I131" s="24">
@@ -36257,7 +36275,7 @@
         <v>0.11432375796578303</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="I132" s="24">
@@ -36289,7 +36307,7 @@
         <v>0.11273592799403603</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="I133" s="24">
@@ -36321,7 +36339,7 @@
         <v>0.11114809802228903</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="I134" s="24">
@@ -36353,7 +36371,7 @@
         <v>0.10956026805054203</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="I135" s="24">
@@ -36385,7 +36403,7 @@
         <v>0.10797243807879503</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="I136" s="24">
@@ -36417,7 +36435,7 @@
         <v>0.10638460810704803</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="I137" s="24">
@@ -36449,7 +36467,7 @@
         <v>0.10479677813530103</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="I138" s="24">
@@ -36481,7 +36499,7 @@
         <v>0.10320894816355403</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="I139" s="24">
@@ -36513,7 +36531,7 @@
         <v>0.10162111819180702</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="I140" s="24">
@@ -36545,7 +36563,7 @@
         <v>0.10003328822006002</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I141" s="24">
         <f t="shared" si="30"/>
         <v>1.9499999999999917</v>
@@ -36575,7 +36593,7 @@
         <v>9.8445458248313022E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I142" s="24">
         <f t="shared" si="30"/>
         <v>1.9999999999999918</v>
@@ -36605,7 +36623,7 @@
         <v>9.6857628276566021E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I143" s="24">
         <f t="shared" si="30"/>
         <v>2.0499999999999918</v>
@@ -36635,7 +36653,7 @@
         <v>9.526979830481902E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I144" s="24">
         <f t="shared" si="30"/>
         <v>2.0999999999999917</v>
@@ -36665,7 +36683,7 @@
         <v>9.3681968333072019E-2</v>
       </c>
     </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I145" s="24">
         <f t="shared" si="30"/>
         <v>2.1499999999999915</v>
@@ -36695,7 +36713,7 @@
         <v>9.2094138361325018E-2</v>
       </c>
     </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I146" s="24">
         <f t="shared" si="30"/>
         <v>2.1999999999999913</v>
@@ -36725,7 +36743,7 @@
         <v>9.0506308389578016E-2</v>
       </c>
     </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I147" s="24">
         <f t="shared" si="30"/>
         <v>2.2499999999999911</v>
@@ -36755,7 +36773,7 @@
         <v>8.8918478417831015E-2</v>
       </c>
     </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I148" s="24">
         <f t="shared" si="30"/>
         <v>2.2999999999999909</v>
@@ -36785,7 +36803,7 @@
         <v>8.7330648446084014E-2</v>
       </c>
     </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I149" s="24">
         <f t="shared" si="30"/>
         <v>2.3499999999999908</v>
@@ -36815,7 +36833,7 @@
         <v>8.5742818474337013E-2</v>
       </c>
     </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" s="24">
         <f t="shared" si="30"/>
         <v>2.3999999999999906</v>
@@ -36845,7 +36863,7 @@
         <v>8.4154988502590011E-2</v>
       </c>
     </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I151" s="24">
         <f t="shared" si="30"/>
         <v>2.4499999999999904</v>
@@ -36875,7 +36893,7 @@
         <v>8.256715853084301E-2</v>
       </c>
     </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I152" s="24">
         <f>I151+0.05</f>
         <v>2.4999999999999902</v>
@@ -36905,7 +36923,7 @@
         <v>8.0979328559096009E-2</v>
       </c>
     </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I153" s="24">
         <f t="shared" ref="I153:I170" si="31">I152+0.05</f>
         <v>2.5499999999999901</v>
@@ -36935,7 +36953,7 @@
         <v>7.9391498587349008E-2</v>
       </c>
     </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I154" s="24">
         <f t="shared" si="31"/>
         <v>2.5999999999999899</v>
@@ -36965,7 +36983,7 @@
         <v>7.7803668615602006E-2</v>
       </c>
     </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I155" s="24">
         <f t="shared" si="31"/>
         <v>2.6499999999999897</v>
@@ -36995,7 +37013,7 @@
         <v>7.6215838643855005E-2</v>
       </c>
     </row>
-    <row r="156" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I156" s="24">
         <f t="shared" si="31"/>
         <v>2.6999999999999895</v>
@@ -37025,7 +37043,7 @@
         <v>7.4628008672108004E-2</v>
       </c>
     </row>
-    <row r="157" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I157" s="24">
         <f t="shared" si="31"/>
         <v>2.7499999999999893</v>
@@ -37055,7 +37073,7 @@
         <v>7.3040178700361003E-2</v>
       </c>
     </row>
-    <row r="158" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I158" s="24">
         <f t="shared" si="31"/>
         <v>2.7999999999999892</v>
@@ -37085,7 +37103,7 @@
         <v>7.1452348728614001E-2</v>
       </c>
     </row>
-    <row r="159" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I159" s="24">
         <f t="shared" si="31"/>
         <v>2.849999999999989</v>
@@ -37115,7 +37133,7 @@
         <v>6.9864518756867E-2</v>
       </c>
     </row>
-    <row r="160" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I160" s="24">
         <f t="shared" si="31"/>
         <v>2.8999999999999888</v>
@@ -37145,7 +37163,7 @@
         <v>6.8276688785119999E-2</v>
       </c>
     </row>
-    <row r="161" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I161" s="24">
         <f t="shared" si="31"/>
         <v>2.9499999999999886</v>
@@ -37175,7 +37193,7 @@
         <v>6.6688858813372998E-2</v>
       </c>
     </row>
-    <row r="162" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I162" s="24">
         <f t="shared" si="31"/>
         <v>2.9999999999999885</v>
@@ -37205,7 +37223,7 @@
         <v>6.5101028841625996E-2</v>
       </c>
     </row>
-    <row r="163" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I163" s="24">
         <f t="shared" si="31"/>
         <v>3.0499999999999883</v>
@@ -37235,7 +37253,7 @@
         <v>6.3513198869878995E-2</v>
       </c>
     </row>
-    <row r="164" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I164" s="24">
         <f t="shared" si="31"/>
         <v>3.0999999999999881</v>
@@ -37265,7 +37283,7 @@
         <v>6.1925368898132001E-2</v>
       </c>
     </row>
-    <row r="165" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I165" s="24">
         <f t="shared" si="31"/>
         <v>3.1499999999999879</v>
@@ -37295,7 +37313,7 @@
         <v>6.0337538926385006E-2</v>
       </c>
     </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I166" s="24">
         <f t="shared" si="31"/>
         <v>3.1999999999999877</v>
@@ -37325,7 +37343,7 @@
         <v>5.8749708954638012E-2</v>
       </c>
     </row>
-    <row r="167" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I167" s="24">
         <f t="shared" si="31"/>
         <v>3.2499999999999876</v>
@@ -37355,7 +37373,7 @@
         <v>5.7161878982891018E-2</v>
       </c>
     </row>
-    <row r="168" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I168" s="24">
         <f t="shared" si="31"/>
         <v>3.2999999999999874</v>
@@ -37385,7 +37403,7 @@
         <v>5.5574049011144024E-2</v>
       </c>
     </row>
-    <row r="169" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I169" s="24">
         <f t="shared" si="31"/>
         <v>3.3499999999999872</v>
@@ -37415,7 +37433,7 @@
         <v>5.3986219039397029E-2</v>
       </c>
     </row>
-    <row r="170" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I170" s="24">
         <f t="shared" si="31"/>
         <v>3.399999999999987</v>
@@ -37445,7 +37463,7 @@
         <v>5.2398389067650035E-2</v>
       </c>
     </row>
-    <row r="171" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I171" s="24">
         <f>I170+0.05</f>
         <v>3.4499999999999869</v>
@@ -37475,7 +37493,7 @@
         <v>5.0810559095903041E-2</v>
       </c>
     </row>
-    <row r="172" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I172" s="24">
         <f t="shared" ref="I172:I186" si="32">I171+0.05</f>
         <v>3.4999999999999867</v>
@@ -37505,7 +37523,7 @@
         <v>4.9222729124156046E-2</v>
       </c>
     </row>
-    <row r="173" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I173" s="24">
         <f t="shared" si="32"/>
         <v>3.5499999999999865</v>
@@ -37535,7 +37553,7 @@
         <v>4.7634899152409052E-2</v>
       </c>
     </row>
-    <row r="174" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I174" s="24">
         <f t="shared" si="32"/>
         <v>3.5999999999999863</v>
@@ -37565,7 +37583,7 @@
         <v>4.6047069180662058E-2</v>
       </c>
     </row>
-    <row r="175" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I175" s="24">
         <f t="shared" si="32"/>
         <v>3.6499999999999861</v>
@@ -37595,7 +37613,7 @@
         <v>4.4459239208915063E-2</v>
       </c>
     </row>
-    <row r="176" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I176" s="24">
         <f t="shared" si="32"/>
         <v>3.699999999999986</v>
@@ -37625,7 +37643,7 @@
         <v>4.2871409237168069E-2</v>
       </c>
     </row>
-    <row r="177" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I177" s="24">
         <f t="shared" si="32"/>
         <v>3.7499999999999858</v>
@@ -37655,7 +37673,7 @@
         <v>4.1283579265421075E-2</v>
       </c>
     </row>
-    <row r="178" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I178" s="24">
         <f t="shared" si="32"/>
         <v>3.7999999999999856</v>
@@ -37685,7 +37703,7 @@
         <v>3.9695749293674081E-2</v>
       </c>
     </row>
-    <row r="179" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I179" s="24">
         <f t="shared" si="32"/>
         <v>3.8499999999999854</v>
@@ -37715,7 +37733,7 @@
         <v>3.8107919321927086E-2</v>
       </c>
     </row>
-    <row r="180" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I180" s="24">
         <f t="shared" si="32"/>
         <v>3.8999999999999853</v>
@@ -37745,7 +37763,7 @@
         <v>3.6520089350180092E-2</v>
       </c>
     </row>
-    <row r="181" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I181" s="24">
         <f t="shared" si="32"/>
         <v>3.9499999999999851</v>
@@ -37775,7 +37793,7 @@
         <v>3.4932259378433098E-2</v>
       </c>
     </row>
-    <row r="182" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I182" s="24">
         <f t="shared" si="32"/>
         <v>3.9999999999999849</v>
@@ -37805,7 +37823,7 @@
         <v>3.3344429406686103E-2</v>
       </c>
     </row>
-    <row r="183" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I183" s="24">
         <f t="shared" si="32"/>
         <v>4.0499999999999847</v>
@@ -37835,7 +37853,7 @@
         <v>3.1756599434939109E-2</v>
       </c>
     </row>
-    <row r="184" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I184" s="24">
         <f t="shared" si="32"/>
         <v>4.0999999999999845</v>
@@ -37865,7 +37883,7 @@
         <v>3.0168769463192115E-2</v>
       </c>
     </row>
-    <row r="185" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I185" s="24">
         <f t="shared" si="32"/>
         <v>4.1499999999999844</v>
@@ -37895,7 +37913,7 @@
         <v>2.858093949144512E-2</v>
       </c>
     </row>
-    <row r="186" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I186" s="24">
         <f t="shared" si="32"/>
         <v>4.1999999999999842</v>
@@ -37925,7 +37943,7 @@
         <v>2.6993109519698126E-2</v>
       </c>
     </row>
-    <row r="187" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I187" s="24">
         <f>I186+0.05</f>
         <v>4.249999999999984</v>
@@ -37955,7 +37973,7 @@
         <v>2.5405279547951132E-2</v>
       </c>
     </row>
-    <row r="188" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I188" s="24">
         <f t="shared" ref="I188:I194" si="33">I187+0.05</f>
         <v>4.2999999999999838</v>
@@ -37985,7 +38003,7 @@
         <v>2.3817449576204137E-2</v>
       </c>
     </row>
-    <row r="189" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I189" s="24">
         <f t="shared" si="33"/>
         <v>4.3499999999999837</v>
@@ -38015,7 +38033,7 @@
         <v>2.2229619604457143E-2</v>
       </c>
     </row>
-    <row r="190" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I190" s="24">
         <f t="shared" si="33"/>
         <v>4.3999999999999835</v>
@@ -38045,7 +38063,7 @@
         <v>2.0641789632710149E-2</v>
       </c>
     </row>
-    <row r="191" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I191" s="24">
         <f t="shared" si="33"/>
         <v>4.4499999999999833</v>
@@ -38075,7 +38093,7 @@
         <v>1.9053959660963155E-2</v>
       </c>
     </row>
-    <row r="192" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I192" s="24">
         <f t="shared" si="33"/>
         <v>4.4999999999999831</v>
@@ -38105,7 +38123,7 @@
         <v>1.746612968921616E-2</v>
       </c>
     </row>
-    <row r="193" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I193" s="24">
         <f t="shared" si="33"/>
         <v>4.5499999999999829</v>
@@ -38135,7 +38153,7 @@
         <v>1.5878299717469166E-2</v>
       </c>
     </row>
-    <row r="194" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I194" s="24">
         <f t="shared" si="33"/>
         <v>4.5999999999999828</v>
@@ -38165,7 +38183,7 @@
         <v>1.429046974572217E-2</v>
       </c>
     </row>
-    <row r="195" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I195" s="24">
         <f>I194+0.05</f>
         <v>4.6499999999999826</v>
@@ -38195,7 +38213,7 @@
         <v>1.2702639773975174E-2</v>
       </c>
     </row>
-    <row r="196" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I196" s="24">
         <f t="shared" ref="I196:I201" si="35">I195+0.05</f>
         <v>4.6999999999999824</v>
@@ -38225,7 +38243,7 @@
         <v>1.1114809802228178E-2</v>
       </c>
     </row>
-    <row r="197" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I197" s="24">
         <f t="shared" si="35"/>
         <v>4.7499999999999822</v>
@@ -38255,7 +38273,7 @@
         <v>9.5269798304811817E-3</v>
       </c>
     </row>
-    <row r="198" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I198" s="24">
         <f t="shared" si="35"/>
         <v>4.7999999999999821</v>
@@ -38285,7 +38303,7 @@
         <v>7.9391498587341857E-3</v>
       </c>
     </row>
-    <row r="199" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I199" s="24">
         <f t="shared" si="35"/>
         <v>4.8499999999999819</v>
@@ -38315,7 +38333,7 @@
         <v>6.3513198869871897E-3</v>
       </c>
     </row>
-    <row r="200" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I200" s="24">
         <f t="shared" si="35"/>
         <v>4.8999999999999817</v>
@@ -38345,7 +38363,7 @@
         <v>4.7634899152401936E-3</v>
       </c>
     </row>
-    <row r="201" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I201" s="24">
         <f t="shared" si="35"/>
         <v>4.9499999999999815</v>
@@ -38375,7 +38393,7 @@
         <v>3.1756599434931976E-3</v>
       </c>
     </row>
-    <row r="202" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I202" s="24">
         <f>I201+0.05</f>
         <v>4.9999999999999813</v>
@@ -38415,29 +38433,34 @@
   <sheetPr>
     <tabColor rgb="FF00447C"/>
   </sheetPr>
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="26"/>
-    <col min="3" max="3" width="6.86328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.73046875" style="26" customWidth="1"/>
-    <col min="6" max="10" width="9.1328125" style="26"/>
-    <col min="11" max="11" width="12.73046875" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="26"/>
+    <col min="1" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" style="26" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="26"/>
+    <col min="9" max="9" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="D4" s="41" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="E4" s="42"/>
+      <c r="J4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="26" t="str">
         <f>"True"</f>
         <v>True</v>
@@ -38446,9 +38469,15 @@
         <f>"False"</f>
         <v>False</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="43" t="s">
+      <c r="J5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -38460,9 +38489,21 @@
       <c r="E6" s="34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="43"/>
+      <c r="H6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
         <v>26</v>
       </c>
@@ -38472,10 +38513,20 @@
       <c r="E7" s="35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -38484,23 +38535,46 @@
       <c r="E8" s="30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H9" s="44"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B6:B9"/>
@@ -38520,12 +38594,12 @@
       <selection activeCell="Q162" sqref="Q162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="38"/>
+    <col min="1" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
@@ -38572,7 +38646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>-3</v>
       </c>
@@ -38632,7 +38706,7 @@
         <v>0.3989422804014327</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <f>A2+0.05</f>
         <v>-2.95</v>
@@ -38697,7 +38771,7 @@
         <v>0.39646437803869089</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <f t="shared" ref="A4:A67" si="7">A3+0.05</f>
         <v>-2.9000000000000004</v>
@@ -38762,7 +38836,7 @@
         <v>0.39398647567594908</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <f t="shared" si="7"/>
         <v>-2.8500000000000005</v>
@@ -38827,7 +38901,7 @@
         <v>0.39150857331320726</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <f t="shared" si="7"/>
         <v>-2.8000000000000007</v>
@@ -38892,7 +38966,7 @@
         <v>0.38903067095046545</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <f t="shared" si="7"/>
         <v>-2.7500000000000009</v>
@@ -38957,7 +39031,7 @@
         <v>0.38655276858772364</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <f t="shared" si="7"/>
         <v>-2.7000000000000011</v>
@@ -39022,7 +39096,7 @@
         <v>0.38407486622498183</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <f t="shared" si="7"/>
         <v>-2.6500000000000012</v>
@@ -39087,7 +39161,7 @@
         <v>0.38159696386224001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <f t="shared" si="7"/>
         <v>-2.6000000000000014</v>
@@ -39152,7 +39226,7 @@
         <v>0.3791190614994982</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <f t="shared" si="7"/>
         <v>-2.5500000000000016</v>
@@ -39217,7 +39291,7 @@
         <v>0.37664115913675639</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <f t="shared" si="7"/>
         <v>-2.5000000000000018</v>
@@ -39282,7 +39356,7 @@
         <v>0.37416325677401457</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <f t="shared" si="7"/>
         <v>-2.450000000000002</v>
@@ -39347,7 +39421,7 @@
         <v>0.37168535441127276</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <f t="shared" si="7"/>
         <v>-2.4000000000000021</v>
@@ -39412,7 +39486,7 @@
         <v>0.36920745204853095</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f t="shared" si="7"/>
         <v>-2.3500000000000023</v>
@@ -39477,7 +39551,7 @@
         <v>0.36672954968578914</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="7"/>
         <v>-2.3000000000000025</v>
@@ -39542,7 +39616,7 @@
         <v>0.36425164732304732</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="7"/>
         <v>-2.2500000000000027</v>
@@ -39607,7 +39681,7 @@
         <v>0.36177374496030551</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="7"/>
         <v>-2.2000000000000028</v>
@@ -39672,7 +39746,7 @@
         <v>0.3592958425975637</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="7"/>
         <v>-2.150000000000003</v>
@@ -39737,7 +39811,7 @@
         <v>0.35681794023482188</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="7"/>
         <v>-2.1000000000000032</v>
@@ -39802,7 +39876,7 @@
         <v>0.35434003787208007</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f t="shared" si="7"/>
         <v>-2.0500000000000034</v>
@@ -39867,7 +39941,7 @@
         <v>0.35186213550933826</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <f t="shared" si="7"/>
         <v>-2.0000000000000036</v>
@@ -39932,7 +40006,7 @@
         <v>0.34938423314659645</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <f t="shared" si="7"/>
         <v>-1.9500000000000035</v>
@@ -39997,7 +40071,7 @@
         <v>0.34690633078385463</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f t="shared" si="7"/>
         <v>-1.9000000000000035</v>
@@ -40062,7 +40136,7 @@
         <v>0.34442842842111282</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f t="shared" si="7"/>
         <v>-1.8500000000000034</v>
@@ -40127,7 +40201,7 @@
         <v>0.34195052605837101</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f t="shared" si="7"/>
         <v>-1.8000000000000034</v>
@@ -40192,7 +40266,7 @@
         <v>0.33947262369562919</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="7"/>
         <v>-1.7500000000000033</v>
@@ -40257,7 +40331,7 @@
         <v>0.33699472133288738</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <f t="shared" si="7"/>
         <v>-1.7000000000000033</v>
@@ -40322,7 +40396,7 @@
         <v>0.33451681897014557</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <f t="shared" si="7"/>
         <v>-1.6500000000000032</v>
@@ -40387,7 +40461,7 @@
         <v>0.33203891660740376</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="7"/>
         <v>-1.6000000000000032</v>
@@ -40452,7 +40526,7 @@
         <v>0.32956101424466194</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="7"/>
         <v>-1.5500000000000032</v>
@@ -40517,7 +40591,7 @@
         <v>0.32708311188192013</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="7"/>
         <v>-1.5000000000000031</v>
@@ -40582,7 +40656,7 @@
         <v>0.32460520951917832</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f t="shared" si="7"/>
         <v>-1.4500000000000031</v>
@@ -40647,7 +40721,7 @@
         <v>0.3221273071564365</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="7"/>
         <v>-1.400000000000003</v>
@@ -40712,7 +40786,7 @@
         <v>0.31964940479369469</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f t="shared" si="7"/>
         <v>-1.350000000000003</v>
@@ -40777,7 +40851,7 @@
         <v>0.31717150243095288</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="7"/>
         <v>-1.3000000000000029</v>
@@ -40842,7 +40916,7 @@
         <v>0.31469360006821107</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f t="shared" si="7"/>
         <v>-1.2500000000000029</v>
@@ -40907,7 +40981,7 @@
         <v>0.31221569770546925</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <f t="shared" si="7"/>
         <v>-1.2000000000000028</v>
@@ -40972,7 +41046,7 @@
         <v>0.30973779534272744</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <f t="shared" si="7"/>
         <v>-1.1500000000000028</v>
@@ -41037,7 +41111,7 @@
         <v>0.30725989297998563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f t="shared" si="7"/>
         <v>-1.1000000000000028</v>
@@ -41102,7 +41176,7 @@
         <v>0.30478199061724381</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" si="7"/>
         <v>-1.0500000000000027</v>
@@ -41167,7 +41241,7 @@
         <v>0.302304088254502</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="7"/>
         <v>-1.0000000000000027</v>
@@ -41232,7 +41306,7 @@
         <v>0.29982618589176019</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="7"/>
         <v>-0.95000000000000262</v>
@@ -41297,7 +41371,7 @@
         <v>0.29734828352901838</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="7"/>
         <v>-0.90000000000000258</v>
@@ -41362,7 +41436,7 @@
         <v>0.29487038116627656</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="7"/>
         <v>-0.85000000000000253</v>
@@ -41427,7 +41501,7 @@
         <v>0.29239247880353475</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="7"/>
         <v>-0.80000000000000249</v>
@@ -41492,7 +41566,7 @@
         <v>0.28991457644079294</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="7"/>
         <v>-0.75000000000000244</v>
@@ -41557,7 +41631,7 @@
         <v>0.28743667407805112</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <f t="shared" si="7"/>
         <v>-0.7000000000000024</v>
@@ -41622,7 +41696,7 @@
         <v>0.28495877171530931</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f t="shared" si="7"/>
         <v>-0.65000000000000235</v>
@@ -41687,7 +41761,7 @@
         <v>0.2824808693525675</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" si="7"/>
         <v>-0.60000000000000231</v>
@@ -41752,7 +41826,7 @@
         <v>0.28000296698982569</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <f t="shared" si="7"/>
         <v>-0.55000000000000226</v>
@@ -41817,7 +41891,7 @@
         <v>0.27752506462708387</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f t="shared" si="7"/>
         <v>-0.50000000000000222</v>
@@ -41882,7 +41956,7 @@
         <v>0.27504716226434206</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <f t="shared" si="7"/>
         <v>-0.45000000000000223</v>
@@ -41947,7 +42021,7 @@
         <v>0.27256925990160025</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f t="shared" si="7"/>
         <v>-0.40000000000000224</v>
@@ -42012,7 +42086,7 @@
         <v>0.27009135753885843</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f t="shared" si="7"/>
         <v>-0.35000000000000225</v>
@@ -42077,7 +42151,7 @@
         <v>0.26761345517611662</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <f t="shared" si="7"/>
         <v>-0.30000000000000226</v>
@@ -42142,7 +42216,7 @@
         <v>0.26513555281337481</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f t="shared" si="7"/>
         <v>-0.25000000000000228</v>
@@ -42207,7 +42281,7 @@
         <v>0.262657650450633</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="7"/>
         <v>-0.20000000000000229</v>
@@ -42272,7 +42346,7 @@
         <v>0.26017974808789118</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f t="shared" si="7"/>
         <v>-0.1500000000000023</v>
@@ -42337,7 +42411,7 @@
         <v>0.25770184572514937</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="7"/>
         <v>-0.1000000000000023</v>
@@ -42402,7 +42476,7 @@
         <v>0.25522394336240756</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <f t="shared" si="7"/>
         <v>-5.0000000000002293E-2</v>
@@ -42467,7 +42541,7 @@
         <v>0.25274604099966574</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f t="shared" si="7"/>
         <v>-2.2898349882893854E-15</v>
@@ -42532,7 +42606,7 @@
         <v>0.25026813863692393</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <f t="shared" si="7"/>
         <v>4.9999999999997713E-2</v>
@@ -42597,7 +42671,7 @@
         <v>0.24779023627418212</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <f t="shared" si="7"/>
         <v>9.9999999999997716E-2</v>
@@ -42662,7 +42736,7 @@
         <v>0.24531233391144031</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <f t="shared" si="7"/>
         <v>0.14999999999999772</v>
@@ -42727,7 +42801,7 @@
         <v>0.24283443154869849</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f t="shared" si="7"/>
         <v>0.19999999999999774</v>
@@ -42792,7 +42866,7 @@
         <v>0.24035652918595668</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f t="shared" si="7"/>
         <v>0.24999999999999772</v>
@@ -42857,7 +42931,7 @@
         <v>0.23787862682321487</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" ref="A68:A122" si="23">A67+0.05</f>
         <v>0.29999999999999771</v>
@@ -42922,7 +42996,7 @@
         <v>0.23540072446047305</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <f t="shared" si="23"/>
         <v>0.3499999999999977</v>
@@ -42987,7 +43061,7 @@
         <v>0.23292282209773124</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f t="shared" si="23"/>
         <v>0.39999999999999769</v>
@@ -43052,7 +43126,7 @@
         <v>0.23044491973498943</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" si="23"/>
         <v>0.44999999999999768</v>
@@ -43117,7 +43191,7 @@
         <v>0.22796701737224762</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <f t="shared" si="23"/>
         <v>0.49999999999999767</v>
@@ -43182,7 +43256,7 @@
         <v>0.2254891150095058</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f t="shared" si="23"/>
         <v>0.54999999999999771</v>
@@ -43247,7 +43321,7 @@
         <v>0.22301121264676399</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f t="shared" si="23"/>
         <v>0.59999999999999776</v>
@@ -43312,7 +43386,7 @@
         <v>0.22053331028402218</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <f t="shared" si="23"/>
         <v>0.6499999999999978</v>
@@ -43377,7 +43451,7 @@
         <v>0.21805540792128036</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <f t="shared" si="23"/>
         <v>0.69999999999999785</v>
@@ -43442,7 +43516,7 @@
         <v>0.21557750555853855</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <f t="shared" si="23"/>
         <v>0.74999999999999789</v>
@@ -43507,7 +43581,7 @@
         <v>0.21309960319579674</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f t="shared" si="23"/>
         <v>0.79999999999999793</v>
@@ -43572,7 +43646,7 @@
         <v>0.21062170083305493</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f t="shared" si="23"/>
         <v>0.84999999999999798</v>
@@ -43637,7 +43711,7 @@
         <v>0.20814379847031311</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="23"/>
         <v>0.89999999999999802</v>
@@ -43702,7 +43776,7 @@
         <v>0.2056658961075713</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="23"/>
         <v>0.94999999999999807</v>
@@ -43767,7 +43841,7 @@
         <v>0.20318799374482949</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <f t="shared" si="23"/>
         <v>0.99999999999999811</v>
@@ -43832,7 +43906,7 @@
         <v>0.20071009138208767</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <f t="shared" si="23"/>
         <v>1.049999999999998</v>
@@ -43897,7 +43971,7 @@
         <v>0.19823218901934586</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f t="shared" si="23"/>
         <v>1.0999999999999981</v>
@@ -43962,7 +44036,7 @@
         <v>0.19575428665660405</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" si="23"/>
         <v>1.1499999999999981</v>
@@ -44027,7 +44101,7 @@
         <v>0.19327638429386224</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <f t="shared" si="23"/>
         <v>1.1999999999999982</v>
@@ -44092,7 +44166,7 @@
         <v>0.19079848193112042</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f t="shared" si="23"/>
         <v>1.2499999999999982</v>
@@ -44157,7 +44231,7 @@
         <v>0.18832057956837861</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <f t="shared" si="23"/>
         <v>1.2999999999999983</v>
@@ -44222,7 +44296,7 @@
         <v>0.1858426772056368</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <f t="shared" si="23"/>
         <v>1.3499999999999983</v>
@@ -44287,7 +44361,7 @@
         <v>0.18336477484289498</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f t="shared" si="23"/>
         <v>1.3999999999999984</v>
@@ -44352,7 +44426,7 @@
         <v>0.18088687248015317</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f t="shared" si="23"/>
         <v>1.4499999999999984</v>
@@ -44417,7 +44491,7 @@
         <v>0.17840897011741136</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f t="shared" si="23"/>
         <v>1.4999999999999984</v>
@@ -44482,7 +44556,7 @@
         <v>0.17593106775466955</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f t="shared" si="23"/>
         <v>1.5499999999999985</v>
@@ -44547,7 +44621,7 @@
         <v>0.17345316539192773</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <f t="shared" si="23"/>
         <v>1.5999999999999985</v>
@@ -44612,7 +44686,7 @@
         <v>0.17097526302918592</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <f t="shared" si="23"/>
         <v>1.6499999999999986</v>
@@ -44677,7 +44751,7 @@
         <v>0.16849736066644411</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <f t="shared" si="23"/>
         <v>1.6999999999999986</v>
@@ -44742,7 +44816,7 @@
         <v>0.16601945830370229</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f t="shared" si="23"/>
         <v>1.7499999999999987</v>
@@ -44807,7 +44881,7 @@
         <v>0.16354155594096048</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" si="23"/>
         <v>1.7999999999999987</v>
@@ -44872,7 +44946,7 @@
         <v>0.16106365357821867</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="23"/>
         <v>1.8499999999999988</v>
@@ -44937,7 +45011,7 @@
         <v>0.15858575121547686</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="23"/>
         <v>1.8999999999999988</v>
@@ -45002,7 +45076,7 @@
         <v>0.15610784885273504</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="23"/>
         <v>1.9499999999999988</v>
@@ -45067,7 +45141,7 @@
         <v>0.15362994648999323</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <f t="shared" si="23"/>
         <v>1.9999999999999989</v>
@@ -45132,7 +45206,7 @@
         <v>0.15115204412725142</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f t="shared" si="23"/>
         <v>2.0499999999999989</v>
@@ -45197,7 +45271,7 @@
         <v>0.1486741417645096</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <f t="shared" si="23"/>
         <v>2.0999999999999988</v>
@@ -45262,7 +45336,7 @@
         <v>0.14619623940176779</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f t="shared" si="23"/>
         <v>2.1499999999999986</v>
@@ -45327,7 +45401,7 @@
         <v>0.14371833703902598</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f t="shared" si="23"/>
         <v>2.1999999999999984</v>
@@ -45392,7 +45466,7 @@
         <v>0.14124043467628417</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <f t="shared" si="23"/>
         <v>2.2499999999999982</v>
@@ -45457,7 +45531,7 @@
         <v>0.13876253231354235</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <f t="shared" si="23"/>
         <v>2.299999999999998</v>
@@ -45522,7 +45596,7 @@
         <v>0.13628462995080054</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <f t="shared" si="23"/>
         <v>2.3499999999999979</v>
@@ -45587,7 +45661,7 @@
         <v>0.13380672758805873</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <f t="shared" si="23"/>
         <v>2.3999999999999977</v>
@@ -45652,7 +45726,7 @@
         <v>0.13132882522531691</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <f t="shared" si="23"/>
         <v>2.4499999999999975</v>
@@ -45717,7 +45791,7 @@
         <v>0.1288509228625751</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <f t="shared" si="23"/>
         <v>2.4999999999999973</v>
@@ -45782,7 +45856,7 @@
         <v>0.12637302049983329</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <f t="shared" si="23"/>
         <v>2.5499999999999972</v>
@@ -45847,7 +45921,7 @@
         <v>0.12389511813709148</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <f t="shared" si="23"/>
         <v>2.599999999999997</v>
@@ -45912,7 +45986,7 @@
         <v>0.12141721577434966</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f t="shared" si="23"/>
         <v>2.6499999999999968</v>
@@ -45977,7 +46051,7 @@
         <v>0.11893931341160785</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f t="shared" si="23"/>
         <v>2.6999999999999966</v>
@@ -46042,7 +46116,7 @@
         <v>0.11646141104886604</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="23"/>
         <v>2.7499999999999964</v>
@@ -46107,7 +46181,7 @@
         <v>0.11398350868612422</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="23"/>
         <v>2.7999999999999963</v>
@@ -46172,7 +46246,7 @@
         <v>0.11150560632338241</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <f t="shared" si="23"/>
         <v>2.8499999999999961</v>
@@ -46237,7 +46311,7 @@
         <v>0.1090277039606406</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f t="shared" si="23"/>
         <v>2.8999999999999959</v>
@@ -46302,7 +46376,7 @@
         <v>0.10654980159789879</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f t="shared" si="23"/>
         <v>2.9499999999999957</v>
@@ -46367,7 +46441,7 @@
         <v>0.10407189923515697</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <f t="shared" si="23"/>
         <v>2.9999999999999956</v>
@@ -46432,7 +46506,7 @@
         <v>0.10159399687241516</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J123" s="39">
         <f t="shared" si="29"/>
         <v>2.0499999999999954</v>
@@ -46465,7 +46539,7 @@
         <v>9.9116094509673347E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J124" s="39">
         <f t="shared" si="29"/>
         <v>2.0999999999999952</v>
@@ -46498,7 +46572,7 @@
         <v>9.6638192146931534E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J125" s="39">
         <f t="shared" si="29"/>
         <v>2.149999999999995</v>
@@ -46531,7 +46605,7 @@
         <v>9.4160289784189721E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J126" s="39">
         <f t="shared" si="29"/>
         <v>2.1999999999999948</v>
@@ -46564,7 +46638,7 @@
         <v>9.1682387421447908E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J127" s="39">
         <f t="shared" si="29"/>
         <v>2.2499999999999947</v>
@@ -46597,7 +46671,7 @@
         <v>8.9204485058706096E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J128" s="39">
         <f t="shared" si="29"/>
         <v>2.2999999999999945</v>
@@ -46630,7 +46704,7 @@
         <v>8.6726582695964283E-2</v>
       </c>
     </row>
-    <row r="129" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J129" s="39">
         <f t="shared" si="29"/>
         <v>2.3499999999999943</v>
@@ -46663,7 +46737,7 @@
         <v>8.424868033322247E-2</v>
       </c>
     </row>
-    <row r="130" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J130" s="39">
         <f t="shared" si="29"/>
         <v>2.3999999999999941</v>
@@ -46696,7 +46770,7 @@
         <v>8.1770777970480657E-2</v>
       </c>
     </row>
-    <row r="131" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J131" s="39">
         <f t="shared" si="29"/>
         <v>2.449999999999994</v>
@@ -46729,7 +46803,7 @@
         <v>7.9292875607738844E-2</v>
       </c>
     </row>
-    <row r="132" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J132" s="39">
         <f t="shared" ref="J132:J162" si="37">J131+0.05</f>
         <v>2.4999999999999938</v>
@@ -46762,7 +46836,7 @@
         <v>7.6814973244997031E-2</v>
       </c>
     </row>
-    <row r="133" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J133" s="39">
         <f t="shared" si="37"/>
         <v>2.5499999999999936</v>
@@ -46795,7 +46869,7 @@
         <v>7.4337070882255218E-2</v>
       </c>
     </row>
-    <row r="134" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J134" s="39">
         <f t="shared" si="37"/>
         <v>2.5999999999999934</v>
@@ -46828,7 +46902,7 @@
         <v>7.1859168519513406E-2</v>
       </c>
     </row>
-    <row r="135" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J135" s="39">
         <f t="shared" si="37"/>
         <v>2.6499999999999932</v>
@@ -46861,7 +46935,7 @@
         <v>6.9381266156771593E-2</v>
       </c>
     </row>
-    <row r="136" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J136" s="39">
         <f t="shared" si="37"/>
         <v>2.6999999999999931</v>
@@ -46894,7 +46968,7 @@
         <v>6.690336379402978E-2</v>
       </c>
     </row>
-    <row r="137" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J137" s="39">
         <f t="shared" si="37"/>
         <v>2.7499999999999929</v>
@@ -46927,7 +47001,7 @@
         <v>6.4425461431287967E-2</v>
       </c>
     </row>
-    <row r="138" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J138" s="39">
         <f t="shared" si="37"/>
         <v>2.7999999999999927</v>
@@ -46960,7 +47034,7 @@
         <v>6.1947559068546147E-2</v>
       </c>
     </row>
-    <row r="139" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J139" s="39">
         <f t="shared" si="37"/>
         <v>2.8499999999999925</v>
@@ -46993,7 +47067,7 @@
         <v>5.9469656705804327E-2</v>
       </c>
     </row>
-    <row r="140" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J140" s="39">
         <f t="shared" si="37"/>
         <v>2.8999999999999924</v>
@@ -47026,7 +47100,7 @@
         <v>5.6991754343062508E-2</v>
       </c>
     </row>
-    <row r="141" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J141" s="39">
         <f t="shared" si="37"/>
         <v>2.9499999999999922</v>
@@ -47059,7 +47133,7 @@
         <v>5.4513851980320688E-2</v>
       </c>
     </row>
-    <row r="142" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J142" s="39">
         <f t="shared" si="37"/>
         <v>2.999999999999992</v>
@@ -47092,7 +47166,7 @@
         <v>5.2035949617578868E-2</v>
       </c>
     </row>
-    <row r="143" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J143" s="39">
         <f t="shared" si="37"/>
         <v>3.0499999999999918</v>
@@ -47125,7 +47199,7 @@
         <v>4.9558047254837048E-2</v>
       </c>
     </row>
-    <row r="144" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J144" s="39">
         <f t="shared" si="37"/>
         <v>3.0999999999999917</v>
@@ -47158,7 +47232,7 @@
         <v>4.7080144892095228E-2</v>
       </c>
     </row>
-    <row r="145" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J145" s="39">
         <f t="shared" si="37"/>
         <v>3.1499999999999915</v>
@@ -47191,7 +47265,7 @@
         <v>4.4602242529353409E-2</v>
       </c>
     </row>
-    <row r="146" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J146" s="39">
         <f t="shared" si="37"/>
         <v>3.1999999999999913</v>
@@ -47224,7 +47298,7 @@
         <v>4.2124340166611589E-2</v>
       </c>
     </row>
-    <row r="147" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J147" s="39">
         <f t="shared" si="37"/>
         <v>3.2499999999999911</v>
@@ -47257,7 +47331,7 @@
         <v>3.9646437803869769E-2</v>
       </c>
     </row>
-    <row r="148" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J148" s="39">
         <f t="shared" si="37"/>
         <v>3.2999999999999909</v>
@@ -47290,7 +47364,7 @@
         <v>3.7168535441127949E-2</v>
       </c>
     </row>
-    <row r="149" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J149" s="39">
         <f t="shared" si="37"/>
         <v>3.3499999999999908</v>
@@ -47323,7 +47397,7 @@
         <v>3.4690633078386129E-2</v>
       </c>
     </row>
-    <row r="150" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J150" s="39">
         <f t="shared" si="37"/>
         <v>3.3999999999999906</v>
@@ -47356,7 +47430,7 @@
         <v>3.221273071564431E-2</v>
       </c>
     </row>
-    <row r="151" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J151" s="39">
         <f t="shared" si="37"/>
         <v>3.4499999999999904</v>
@@ -47389,7 +47463,7 @@
         <v>2.973482835290249E-2</v>
       </c>
     </row>
-    <row r="152" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J152" s="39">
         <f t="shared" si="37"/>
         <v>3.4999999999999902</v>
@@ -47422,7 +47496,7 @@
         <v>2.725692599016067E-2</v>
       </c>
     </row>
-    <row r="153" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J153" s="39">
         <f t="shared" si="37"/>
         <v>3.5499999999999901</v>
@@ -47455,7 +47529,7 @@
         <v>2.477902362741885E-2</v>
       </c>
     </row>
-    <row r="154" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J154" s="39">
         <f t="shared" si="37"/>
         <v>3.5999999999999899</v>
@@ -47488,7 +47562,7 @@
         <v>2.230112126467703E-2</v>
       </c>
     </row>
-    <row r="155" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J155" s="39">
         <f t="shared" si="37"/>
         <v>3.6499999999999897</v>
@@ -47521,7 +47595,7 @@
         <v>1.9823218901935211E-2</v>
       </c>
     </row>
-    <row r="156" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J156" s="39">
         <f t="shared" si="37"/>
         <v>3.6999999999999895</v>
@@ -47554,7 +47628,7 @@
         <v>1.7345316539193391E-2</v>
       </c>
     </row>
-    <row r="157" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J157" s="39">
         <f t="shared" si="37"/>
         <v>3.7499999999999893</v>
@@ -47587,7 +47661,7 @@
         <v>1.4867414176451573E-2</v>
       </c>
     </row>
-    <row r="158" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J158" s="39">
         <f t="shared" si="37"/>
         <v>3.7999999999999892</v>
@@ -47620,7 +47694,7 @@
         <v>1.2389511813709755E-2</v>
       </c>
     </row>
-    <row r="159" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J159" s="39">
         <f t="shared" si="37"/>
         <v>3.849999999999989</v>
@@ -47653,7 +47727,7 @@
         <v>9.9116094509679366E-3</v>
       </c>
     </row>
-    <row r="160" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J160" s="39">
         <f t="shared" si="37"/>
         <v>3.8999999999999888</v>
@@ -47686,7 +47760,7 @@
         <v>7.4337070882261186E-3</v>
       </c>
     </row>
-    <row r="161" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J161" s="39">
         <f t="shared" si="37"/>
         <v>3.9499999999999886</v>
@@ -47719,7 +47793,7 @@
         <v>4.9558047254843005E-3</v>
       </c>
     </row>
-    <row r="162" spans="10:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J162" s="39">
         <f t="shared" si="37"/>
         <v>3.9999999999999885</v>
@@ -47768,14 +47842,14 @@
       <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:27" x14ac:dyDescent="0.25">
       <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
@@ -47789,10 +47863,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="44">
+      <c r="O6" s="45">
         <v>0</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -47807,7 +47881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -47819,8 +47893,8 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>

--- a/static/media/econometrics/figures.xlsx
+++ b/static/media/econometrics/figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="962" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B086CB7-F3A5-4CCD-945C-C71448C67B3E}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="8_{1372D752-24AE-4C50-9F17-F80FCCBDA68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F06138E-F6E1-4911-9F87-EA6C32C35371}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="33750" windowHeight="21000" tabRatio="946" firstSheet="1" activeTab="10" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="946" firstSheet="3" activeTab="12" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS Fig 4 and 6 (data)" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="CLASSICAL MODEL Fig 1" sheetId="8" r:id="rId10"/>
     <sheet name="CLASSICAL MODEL Fig 2" sheetId="9" r:id="rId11"/>
     <sheet name="HYPOTHESIS Fig 1" sheetId="12" r:id="rId12"/>
+    <sheet name="SPECIFICATION Fig 5" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="beta_0">'OLS Fig 4 and 6 (data)'!#REF!</definedName>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>CAR</t>
   </si>
@@ -234,6 +235,15 @@
   <si>
     <t>t-Student</t>
   </si>
+  <si>
+    <t>Total compensation</t>
+  </si>
+  <si>
+    <t>High risk/stressful job</t>
+  </si>
+  <si>
+    <t>Low risk/stressful job</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +253,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +279,13 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF00447C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +653,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17291,7 +17320,7 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17348,7 +17377,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670856" cy="6294783"/>
+    <xdr:ext cx="8659091" cy="6285713"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19663,6 +19692,461 @@
     </mc:AlternateContent>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780B0C7B-E826-4C6D-ADC5-5E8AF2AEA519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="1447800"/>
+          <a:ext cx="1490663" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Monetary compensation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010C9AE1-4805-4C87-A5D5-FF8E2628346F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="723901"/>
+          <a:ext cx="1490663" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nonmonetary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> compensation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Left Brace 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EE04B6-5123-4F43-9A46-B4930100BE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="361950"/>
+          <a:ext cx="371475" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A86C3F2-8B63-4625-A143-72ED9B3228BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="2352675"/>
+          <a:ext cx="1490663" cy="3171824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Monetary compensation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DC2802-0685-45B7-8D69-AB3DD5368CAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="723899"/>
+          <a:ext cx="1490663" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nonmonetary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> compensation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Left Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7185BC6-746A-432E-BAC8-76030C11704F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5386387" y="361950"/>
+          <a:ext cx="371475" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22843,12 +23327,12 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -22862,7 +23346,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -22883,7 +23367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -22909,7 +23393,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -22936,7 +23420,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -22962,7 +23446,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -22988,7 +23472,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -23015,7 +23499,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -23042,7 +23526,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -23069,7 +23553,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -23096,7 +23580,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -23123,7 +23607,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23149,7 +23633,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -23167,7 +23651,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>40</v>
@@ -23185,7 +23669,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -23193,7 +23677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
@@ -23205,7 +23689,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
@@ -23233,12 +23717,12 @@
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
@@ -23246,7 +23730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="23">
         <v>0</v>
       </c>
@@ -23255,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="23">
         <v>0.01</v>
       </c>
@@ -23264,7 +23748,7 @@
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="23">
         <v>0.02</v>
       </c>
@@ -23273,7 +23757,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="23">
         <v>0.03</v>
       </c>
@@ -23282,7 +23766,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="23">
         <v>0.04</v>
       </c>
@@ -23291,7 +23775,7 @@
         <v>1.536E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="23">
         <v>0.05</v>
       </c>
@@ -23300,7 +23784,7 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="23">
         <v>0.06</v>
       </c>
@@ -23309,7 +23793,7 @@
         <v>3.3839999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -23318,7 +23802,7 @@
         <v>4.5570000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="23">
         <v>0.08</v>
       </c>
@@ -23327,7 +23811,7 @@
         <v>5.8880000000000009E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="23">
         <v>0.09</v>
       </c>
@@ -23336,7 +23820,7 @@
         <v>7.3709999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="23">
         <v>0.1</v>
       </c>
@@ -23345,7 +23829,7 @@
         <v>9.0000000000000028E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>0.11</v>
       </c>
@@ -23354,7 +23838,7 @@
         <v>1.0768999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="23">
         <v>0.12</v>
       </c>
@@ -23363,7 +23847,7 @@
         <v>1.2671999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="23">
         <v>0.13</v>
       </c>
@@ -23372,7 +23856,7 @@
         <v>1.4703000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="23">
         <v>0.14000000000000001</v>
       </c>
@@ -23381,7 +23865,7 @@
         <v>1.6856000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="23">
         <v>0.15</v>
       </c>
@@ -23390,7 +23874,7 @@
         <v>1.9125E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="23">
         <v>0.16</v>
       </c>
@@ -23399,7 +23883,7 @@
         <v>2.1503999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
         <v>0.17</v>
       </c>
@@ -23408,7 +23892,7 @@
         <v>2.3987000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="23">
         <v>0.18</v>
       </c>
@@ -23417,7 +23901,7 @@
         <v>2.6568000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="23">
         <v>0.19</v>
       </c>
@@ -23426,7 +23910,7 @@
         <v>2.9241000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="23">
         <v>0.2</v>
       </c>
@@ -23435,7 +23919,7 @@
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
         <v>0.21</v>
       </c>
@@ -23444,7 +23928,7 @@
         <v>3.4838999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="23">
         <v>0.22</v>
       </c>
@@ -23453,7 +23937,7 @@
         <v>3.7752000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="23">
         <v>0.23</v>
       </c>
@@ -23462,7 +23946,7 @@
         <v>4.0733000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="23">
         <v>0.24</v>
       </c>
@@ -23471,7 +23955,7 @@
         <v>4.3776000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="23">
         <v>0.25</v>
       </c>
@@ -23480,7 +23964,7 @@
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="23">
         <v>0.26</v>
       </c>
@@ -23489,7 +23973,7 @@
         <v>5.0024000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="23">
         <v>0.27</v>
       </c>
@@ -23501,7 +23985,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="23">
         <v>0.28000000000000003</v>
       </c>
@@ -23510,7 +23994,7 @@
         <v>5.6448000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="23">
         <v>0.28999999999999998</v>
       </c>
@@ -23519,7 +24003,7 @@
         <v>5.9710999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="23">
         <v>0.3</v>
       </c>
@@ -23528,7 +24012,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="23">
         <v>0.31</v>
       </c>
@@ -23537,7 +24021,7 @@
         <v>6.6308999999999993E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="23">
         <v>0.32</v>
       </c>
@@ -23546,7 +24030,7 @@
         <v>6.9631999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="23">
         <v>0.33</v>
       </c>
@@ -23555,7 +24039,7 @@
         <v>7.2963E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="23">
         <v>0.34</v>
       </c>
@@ -23564,7 +24048,7 @@
         <v>7.6296000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="23">
         <v>0.35</v>
       </c>
@@ -23573,7 +24057,7 @@
         <v>7.9624999999999987E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="23">
         <v>0.36</v>
       </c>
@@ -23582,7 +24066,7 @@
         <v>8.2944000000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="23">
         <v>0.37</v>
       </c>
@@ -23591,7 +24075,7 @@
         <v>8.624699999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="23">
         <v>0.38</v>
       </c>
@@ -23600,7 +24084,7 @@
         <v>8.9527999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="23">
         <v>0.39</v>
       </c>
@@ -23609,7 +24093,7 @@
         <v>9.2781000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="23">
         <v>0.4</v>
       </c>
@@ -23618,7 +24102,7 @@
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="23">
         <v>0.41</v>
       </c>
@@ -23627,7 +24111,7 @@
         <v>9.9179000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B44" s="23">
         <v>0.42</v>
       </c>
@@ -23636,7 +24120,7 @@
         <v>0.102312</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="23">
         <v>0.43</v>
       </c>
@@ -23645,7 +24129,7 @@
         <v>0.105393</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" s="23">
         <v>0.44</v>
       </c>
@@ -23654,7 +24138,7 @@
         <v>0.10841600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" s="23">
         <v>0.45</v>
       </c>
@@ -23663,7 +24147,7 @@
         <v>0.11137500000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" s="23">
         <v>0.46</v>
       </c>
@@ -23672,7 +24156,7 @@
         <v>0.11426400000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="23">
         <v>0.47</v>
       </c>
@@ -23681,7 +24165,7 @@
         <v>0.117077</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="23">
         <v>0.48</v>
       </c>
@@ -23690,7 +24174,7 @@
         <v>0.119808</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="23">
         <v>0.49</v>
       </c>
@@ -23699,7 +24183,7 @@
         <v>0.12245099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="23">
         <v>0.5</v>
       </c>
@@ -23708,7 +24192,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="23">
         <v>0.51</v>
       </c>
@@ -23717,7 +24201,7 @@
         <v>0.12744900000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="23">
         <v>0.52</v>
       </c>
@@ -23726,7 +24210,7 @@
         <v>0.12979200000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="23">
         <v>0.53</v>
       </c>
@@ -23735,7 +24219,7 @@
         <v>0.132023</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" s="23">
         <v>0.54</v>
       </c>
@@ -23744,7 +24228,7 @@
         <v>0.13413600000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" s="23">
         <v>0.55000000000000004</v>
       </c>
@@ -23753,7 +24237,7 @@
         <v>0.136125</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" s="23">
         <v>0.56000000000000005</v>
       </c>
@@ -23762,7 +24246,7 @@
         <v>0.137984</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" s="23">
         <v>0.56999999999999995</v>
       </c>
@@ -23771,7 +24255,7 @@
         <v>0.139707</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" s="23">
         <v>0.57999999999999996</v>
       </c>
@@ -23780,7 +24264,7 @@
         <v>0.141288</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B61" s="23">
         <v>0.59</v>
       </c>
@@ -23789,7 +24273,7 @@
         <v>0.14272099999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62" s="23">
         <v>0.6</v>
       </c>
@@ -23798,7 +24282,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B63" s="23">
         <v>0.61</v>
       </c>
@@ -23807,7 +24291,7 @@
         <v>0.145119</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B64" s="23">
         <v>0.62</v>
       </c>
@@ -23816,7 +24300,7 @@
         <v>0.14607200000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B65" s="23">
         <v>0.63</v>
       </c>
@@ -23825,7 +24309,7 @@
         <v>0.14685300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66" s="23">
         <v>0.64</v>
       </c>
@@ -23834,7 +24318,7 @@
         <v>0.147456</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B67" s="23">
         <v>0.65</v>
       </c>
@@ -23843,7 +24327,7 @@
         <v>0.14787500000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B68" s="23">
         <v>0.66</v>
       </c>
@@ -23852,7 +24336,7 @@
         <v>0.14810400000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B69" s="23">
         <v>0.67</v>
       </c>
@@ -23861,7 +24345,7 @@
         <v>0.14813700000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70" s="23">
         <v>0.68</v>
       </c>
@@ -23870,7 +24354,7 @@
         <v>0.14796800000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B71" s="23">
         <v>0.69</v>
       </c>
@@ -23879,7 +24363,7 @@
         <v>0.147591</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B72" s="23">
         <v>0.7</v>
       </c>
@@ -23888,7 +24372,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B73" s="23">
         <v>0.71</v>
       </c>
@@ -23897,7 +24381,7 @@
         <v>0.14618900000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74" s="23">
         <v>0.72</v>
       </c>
@@ -23906,7 +24390,7 @@
         <v>0.145152</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B75" s="23">
         <v>0.73</v>
       </c>
@@ -23915,7 +24399,7 @@
         <v>0.14388299999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B76" s="23">
         <v>0.74</v>
       </c>
@@ -23924,7 +24408,7 @@
         <v>0.142376</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B77" s="23">
         <v>0.75</v>
       </c>
@@ -23933,7 +24417,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B78" s="23">
         <v>0.76</v>
       </c>
@@ -23942,7 +24426,7 @@
         <v>0.138624</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B79" s="23">
         <v>0.77</v>
       </c>
@@ -23951,7 +24435,7 @@
         <v>0.13636699999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B80" s="23">
         <v>0.78</v>
       </c>
@@ -23960,7 +24444,7 @@
         <v>0.13384799999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" s="23">
         <v>0.79</v>
       </c>
@@ -23969,7 +24453,7 @@
         <v>0.13106100000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" s="23">
         <v>0.8</v>
       </c>
@@ -23978,7 +24462,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" s="23">
         <v>0.81</v>
       </c>
@@ -23987,7 +24471,7 @@
         <v>0.12465899999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" s="23">
         <v>0.82</v>
       </c>
@@ -23996,7 +24480,7 @@
         <v>0.12103200000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" s="23">
         <v>0.83</v>
       </c>
@@ -24005,7 +24489,7 @@
         <v>0.11711300000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" s="23">
         <v>0.84</v>
       </c>
@@ -24014,7 +24498,7 @@
         <v>0.11289600000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" s="23">
         <v>0.85</v>
       </c>
@@ -24023,7 +24507,7 @@
         <v>0.108375</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" s="23">
         <v>0.86</v>
       </c>
@@ -24032,7 +24516,7 @@
         <v>0.103544</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" s="23">
         <v>0.87</v>
       </c>
@@ -24041,7 +24525,7 @@
         <v>9.8397000000000012E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" s="23">
         <v>0.88</v>
       </c>
@@ -24050,7 +24534,7 @@
         <v>9.2927999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="23">
         <v>0.89</v>
       </c>
@@ -24059,7 +24543,7 @@
         <v>8.7130999999999986E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" s="23">
         <v>0.9</v>
       </c>
@@ -24068,7 +24552,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" s="23">
         <v>0.91</v>
       </c>
@@ -24077,7 +24561,7 @@
         <v>7.4528999999999984E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" s="23">
         <v>0.92</v>
       </c>
@@ -24086,7 +24570,7 @@
         <v>6.7711999999999967E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" s="23">
         <v>0.93</v>
       </c>
@@ -24095,7 +24579,7 @@
         <v>6.0542999999999965E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" s="23">
         <v>0.94</v>
       </c>
@@ -24104,7 +24588,7 @@
         <v>5.3016000000000042E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="23">
         <v>0.95</v>
       </c>
@@ -24113,7 +24597,7 @@
         <v>4.512500000000004E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="23">
         <v>0.96</v>
       </c>
@@ -24122,7 +24606,7 @@
         <v>3.6864000000000029E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="23">
         <v>0.97</v>
       </c>
@@ -24131,7 +24615,7 @@
         <v>2.8227000000000023E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="23">
         <v>0.98</v>
       </c>
@@ -24140,7 +24624,7 @@
         <v>1.9208000000000017E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B101" s="23">
         <v>0.99</v>
       </c>
@@ -24149,7 +24633,7 @@
         <v>9.8010000000000076E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B102" s="23">
         <v>1</v>
       </c>
@@ -24174,14 +24658,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
+    <col min="10" max="12" width="18.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -24201,7 +24685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="24">
         <v>-3</v>
       </c>
@@ -24243,7 +24727,7 @@
         <v>0.3191538243211462</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="24">
         <f>A2+0.05</f>
         <v>-2.95</v>
@@ -24289,7 +24773,7 @@
         <v>0.31756599434939919</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="24">
         <f t="shared" ref="A4:A67" si="3">A3+0.05</f>
         <v>-2.9000000000000004</v>
@@ -24335,7 +24819,7 @@
         <v>0.31597816437765219</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="24">
         <f t="shared" si="3"/>
         <v>-2.8500000000000005</v>
@@ -24381,7 +24865,7 @@
         <v>0.31439033440590519</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="24">
         <f t="shared" si="3"/>
         <v>-2.8000000000000007</v>
@@ -24427,7 +24911,7 @@
         <v>0.31280250443415819</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="24">
         <f t="shared" si="3"/>
         <v>-2.7500000000000009</v>
@@ -24473,7 +24957,7 @@
         <v>0.31121467446241119</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="24">
         <f t="shared" si="3"/>
         <v>-2.7000000000000011</v>
@@ -24519,7 +25003,7 @@
         <v>0.30962684449066419</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="24">
         <f t="shared" si="3"/>
         <v>-2.6500000000000012</v>
@@ -24565,7 +25049,7 @@
         <v>0.30803901451891719</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="24">
         <f t="shared" si="3"/>
         <v>-2.6000000000000014</v>
@@ -24611,7 +25095,7 @@
         <v>0.30645118454717019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="24">
         <f t="shared" si="3"/>
         <v>-2.5500000000000016</v>
@@ -24657,7 +25141,7 @@
         <v>0.30486335457542318</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="24">
         <f t="shared" si="3"/>
         <v>-2.5000000000000018</v>
@@ -24703,7 +25187,7 @@
         <v>0.30327552460367618</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="24">
         <f t="shared" si="3"/>
         <v>-2.450000000000002</v>
@@ -24749,7 +25233,7 @@
         <v>0.30168769463192918</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="24">
         <f t="shared" si="3"/>
         <v>-2.4000000000000021</v>
@@ -24795,7 +25279,7 @@
         <v>0.30009986466018218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="24">
         <f t="shared" si="3"/>
         <v>-2.3500000000000023</v>
@@ -24841,7 +25325,7 @@
         <v>0.29851203468843518</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="24">
         <f t="shared" si="3"/>
         <v>-2.3000000000000025</v>
@@ -24887,7 +25371,7 @@
         <v>0.29692420471668818</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="24">
         <f t="shared" si="3"/>
         <v>-2.2500000000000027</v>
@@ -24933,7 +25417,7 @@
         <v>0.29533637474494118</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="24">
         <f t="shared" si="3"/>
         <v>-2.2000000000000028</v>
@@ -24979,7 +25463,7 @@
         <v>0.29374854477319418</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="24">
         <f t="shared" si="3"/>
         <v>-2.150000000000003</v>
@@ -25025,7 +25509,7 @@
         <v>0.29216071480144717</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="24">
         <f t="shared" si="3"/>
         <v>-2.1000000000000032</v>
@@ -25071,7 +25555,7 @@
         <v>0.29057288482970017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="24">
         <f t="shared" si="3"/>
         <v>-2.0500000000000034</v>
@@ -25117,7 +25601,7 @@
         <v>0.28898505485795317</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="24">
         <f t="shared" si="3"/>
         <v>-2.0000000000000036</v>
@@ -25163,7 +25647,7 @@
         <v>0.28739722488620617</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="24">
         <f t="shared" si="3"/>
         <v>-1.9500000000000035</v>
@@ -25209,7 +25693,7 @@
         <v>0.28580939491445917</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="24">
         <f t="shared" si="3"/>
         <v>-1.9000000000000035</v>
@@ -25255,7 +25739,7 @@
         <v>0.28422156494271217</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="24">
         <f t="shared" si="3"/>
         <v>-1.8500000000000034</v>
@@ -25301,7 +25785,7 @@
         <v>0.28263373497096517</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="24">
         <f t="shared" si="3"/>
         <v>-1.8000000000000034</v>
@@ -25347,7 +25831,7 @@
         <v>0.28104590499921817</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="24">
         <f t="shared" si="3"/>
         <v>-1.7500000000000033</v>
@@ -25393,7 +25877,7 @@
         <v>0.27945807502747116</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
         <f t="shared" si="3"/>
         <v>-1.7000000000000033</v>
@@ -25439,7 +25923,7 @@
         <v>0.27787024505572416</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="24">
         <f t="shared" si="3"/>
         <v>-1.6500000000000032</v>
@@ -25485,7 +25969,7 @@
         <v>0.27628241508397716</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="24">
         <f t="shared" si="3"/>
         <v>-1.6000000000000032</v>
@@ -25531,7 +26015,7 @@
         <v>0.27469458511223016</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="24">
         <f t="shared" si="3"/>
         <v>-1.5500000000000032</v>
@@ -25577,7 +26061,7 @@
         <v>0.27310675514048316</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="24">
         <f t="shared" si="3"/>
         <v>-1.5000000000000031</v>
@@ -25623,7 +26107,7 @@
         <v>0.27151892516873616</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="24">
         <f t="shared" si="3"/>
         <v>-1.4500000000000031</v>
@@ -25669,7 +26153,7 @@
         <v>0.26993109519698916</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="24">
         <f t="shared" si="3"/>
         <v>-1.400000000000003</v>
@@ -25715,7 +26199,7 @@
         <v>0.26834326522524216</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="24">
         <f t="shared" si="3"/>
         <v>-1.350000000000003</v>
@@ -25761,7 +26245,7 @@
         <v>0.26675543525349515</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="24">
         <f t="shared" si="3"/>
         <v>-1.3000000000000029</v>
@@ -25807,7 +26291,7 @@
         <v>0.26516760528174815</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="24">
         <f t="shared" si="3"/>
         <v>-1.2500000000000029</v>
@@ -25853,7 +26337,7 @@
         <v>0.26357977531000115</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="24">
         <f t="shared" si="3"/>
         <v>-1.2000000000000028</v>
@@ -25899,7 +26383,7 @@
         <v>0.26199194533825415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="24">
         <f t="shared" si="3"/>
         <v>-1.1500000000000028</v>
@@ -25945,7 +26429,7 @@
         <v>0.26040411536650715</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="24">
         <f t="shared" si="3"/>
         <v>-1.1000000000000028</v>
@@ -25991,7 +26475,7 @@
         <v>0.25881628539476015</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="24">
         <f t="shared" si="3"/>
         <v>-1.0500000000000027</v>
@@ -26037,7 +26521,7 @@
         <v>0.25722845542301315</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="24">
         <f t="shared" si="3"/>
         <v>-1.0000000000000027</v>
@@ -26083,7 +26567,7 @@
         <v>0.25564062545126615</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="24">
         <f t="shared" si="3"/>
         <v>-0.95000000000000262</v>
@@ -26129,7 +26613,7 @@
         <v>0.25405279547951914</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="24">
         <f t="shared" si="3"/>
         <v>-0.90000000000000258</v>
@@ -26175,7 +26659,7 @@
         <v>0.25246496550777214</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="24">
         <f t="shared" si="3"/>
         <v>-0.85000000000000253</v>
@@ -26221,7 +26705,7 @@
         <v>0.25087713553602514</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="24">
         <f t="shared" si="3"/>
         <v>-0.80000000000000249</v>
@@ -26267,7 +26751,7 @@
         <v>0.24928930556427814</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="24">
         <f t="shared" si="3"/>
         <v>-0.75000000000000244</v>
@@ -26313,7 +26797,7 @@
         <v>0.24770147559253114</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="24">
         <f t="shared" si="3"/>
         <v>-0.7000000000000024</v>
@@ -26359,7 +26843,7 @@
         <v>0.24611364562078414</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="24">
         <f t="shared" si="3"/>
         <v>-0.65000000000000235</v>
@@ -26405,7 +26889,7 @@
         <v>0.24452581564903714</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="24">
         <f t="shared" si="3"/>
         <v>-0.60000000000000231</v>
@@ -26451,7 +26935,7 @@
         <v>0.24293798567729014</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="24">
         <f t="shared" si="3"/>
         <v>-0.55000000000000226</v>
@@ -26497,7 +26981,7 @@
         <v>0.24135015570554313</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="24">
         <f t="shared" si="3"/>
         <v>-0.50000000000000222</v>
@@ -26543,7 +27027,7 @@
         <v>0.23976232573379613</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="24">
         <f t="shared" si="3"/>
         <v>-0.45000000000000223</v>
@@ -26589,7 +27073,7 @@
         <v>0.23817449576204913</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="24">
         <f t="shared" si="3"/>
         <v>-0.40000000000000224</v>
@@ -26635,7 +27119,7 @@
         <v>0.23658666579030213</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="24">
         <f t="shared" si="3"/>
         <v>-0.35000000000000225</v>
@@ -26681,7 +27165,7 @@
         <v>0.23499883581855513</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="24">
         <f t="shared" si="3"/>
         <v>-0.30000000000000226</v>
@@ -26727,7 +27211,7 @@
         <v>0.23341100584680813</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="24">
         <f t="shared" si="3"/>
         <v>-0.25000000000000228</v>
@@ -26773,7 +27257,7 @@
         <v>0.23182317587506113</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="24">
         <f t="shared" si="3"/>
         <v>-0.20000000000000229</v>
@@ -26819,7 +27303,7 @@
         <v>0.23023534590331413</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="24">
         <f t="shared" si="3"/>
         <v>-0.1500000000000023</v>
@@ -26865,7 +27349,7 @@
         <v>0.22864751593156712</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="24">
         <f t="shared" si="3"/>
         <v>-0.1000000000000023</v>
@@ -26911,7 +27395,7 @@
         <v>0.22705968595982012</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="24">
         <f t="shared" si="3"/>
         <v>-5.0000000000002293E-2</v>
@@ -26957,7 +27441,7 @@
         <v>0.22547185598807312</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="24">
         <f t="shared" si="3"/>
         <v>-2.2898349882893854E-15</v>
@@ -27003,7 +27487,7 @@
         <v>0.22388402601632612</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="24">
         <f t="shared" si="3"/>
         <v>4.9999999999997713E-2</v>
@@ -27049,7 +27533,7 @@
         <v>0.22229619604457912</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="24">
         <f t="shared" si="3"/>
         <v>9.9999999999997716E-2</v>
@@ -27095,7 +27579,7 @@
         <v>0.22070836607283212</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="24">
         <f t="shared" si="3"/>
         <v>0.14999999999999772</v>
@@ -27141,7 +27625,7 @@
         <v>0.21912053610108512</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="24">
         <f t="shared" si="3"/>
         <v>0.19999999999999774</v>
@@ -27187,7 +27671,7 @@
         <v>0.21753270612933812</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="24">
         <f t="shared" si="3"/>
         <v>0.24999999999999772</v>
@@ -27233,7 +27717,7 @@
         <v>0.21594487615759111</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A122" si="14">A67+0.05</f>
         <v>0.29999999999999771</v>
@@ -27279,7 +27763,7 @@
         <v>0.21435704618584411</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="24">
         <f t="shared" si="14"/>
         <v>0.3499999999999977</v>
@@ -27325,7 +27809,7 @@
         <v>0.21276921621409711</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="24">
         <f t="shared" si="14"/>
         <v>0.39999999999999769</v>
@@ -27371,7 +27855,7 @@
         <v>0.21118138624235011</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="24">
         <f t="shared" si="14"/>
         <v>0.44999999999999768</v>
@@ -27417,7 +27901,7 @@
         <v>0.20959355627060311</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="24">
         <f t="shared" si="14"/>
         <v>0.49999999999999767</v>
@@ -27463,7 +27947,7 @@
         <v>0.20800572629885611</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="24">
         <f t="shared" si="14"/>
         <v>0.54999999999999771</v>
@@ -27509,7 +27993,7 @@
         <v>0.20641789632710911</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="24">
         <f t="shared" si="14"/>
         <v>0.59999999999999776</v>
@@ -27555,7 +28039,7 @@
         <v>0.20483006635536211</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="24">
         <f t="shared" si="14"/>
         <v>0.6499999999999978</v>
@@ -27601,7 +28085,7 @@
         <v>0.2032422363836151</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="24">
         <f t="shared" si="14"/>
         <v>0.69999999999999785</v>
@@ -27647,7 +28131,7 @@
         <v>0.2016544064118681</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="24">
         <f t="shared" si="14"/>
         <v>0.74999999999999789</v>
@@ -27693,7 +28177,7 @@
         <v>0.2000665764401211</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="24">
         <f t="shared" si="14"/>
         <v>0.79999999999999793</v>
@@ -27739,7 +28223,7 @@
         <v>0.1984787464683741</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="24">
         <f t="shared" si="14"/>
         <v>0.84999999999999798</v>
@@ -27785,7 +28269,7 @@
         <v>0.1968909164966271</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="24">
         <f t="shared" si="14"/>
         <v>0.89999999999999802</v>
@@ -27831,7 +28315,7 @@
         <v>0.1953030865248801</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="24">
         <f t="shared" si="14"/>
         <v>0.94999999999999807</v>
@@ -27877,7 +28361,7 @@
         <v>0.1937152565531331</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="24">
         <f t="shared" si="14"/>
         <v>0.99999999999999811</v>
@@ -27923,7 +28407,7 @@
         <v>0.1921274265813861</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="24">
         <f t="shared" si="14"/>
         <v>1.049999999999998</v>
@@ -27969,7 +28453,7 @@
         <v>0.19053959660963909</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="24">
         <f t="shared" si="14"/>
         <v>1.0999999999999981</v>
@@ -28015,7 +28499,7 @@
         <v>0.18895176663789209</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="24">
         <f t="shared" si="14"/>
         <v>1.1499999999999981</v>
@@ -28061,7 +28545,7 @@
         <v>0.18736393666614509</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="24">
         <f t="shared" si="14"/>
         <v>1.1999999999999982</v>
@@ -28107,7 +28591,7 @@
         <v>0.18577610669439809</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="24">
         <f t="shared" si="14"/>
         <v>1.2499999999999982</v>
@@ -28153,7 +28637,7 @@
         <v>0.18418827672265109</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="24">
         <f t="shared" si="14"/>
         <v>1.2999999999999983</v>
@@ -28199,7 +28683,7 @@
         <v>0.18260044675090409</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="24">
         <f t="shared" si="14"/>
         <v>1.3499999999999983</v>
@@ -28245,7 +28729,7 @@
         <v>0.18101261677915709</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="24">
         <f t="shared" si="14"/>
         <v>1.3999999999999984</v>
@@ -28291,7 +28775,7 @@
         <v>0.17942478680741009</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="24">
         <f t="shared" si="14"/>
         <v>1.4499999999999984</v>
@@ -28337,7 +28821,7 @@
         <v>0.17783695683566308</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="24">
         <f t="shared" si="14"/>
         <v>1.4999999999999984</v>
@@ -28383,7 +28867,7 @@
         <v>0.17624912686391608</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="24">
         <f t="shared" si="14"/>
         <v>1.5499999999999985</v>
@@ -28429,7 +28913,7 @@
         <v>0.17466129689216908</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="24">
         <f t="shared" si="14"/>
         <v>1.5999999999999985</v>
@@ -28475,7 +28959,7 @@
         <v>0.17307346692042208</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="24">
         <f t="shared" si="14"/>
         <v>1.6499999999999986</v>
@@ -28521,7 +29005,7 @@
         <v>0.17148563694867508</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="24">
         <f t="shared" si="14"/>
         <v>1.6999999999999986</v>
@@ -28567,7 +29051,7 @@
         <v>0.16989780697692808</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="24">
         <f t="shared" si="14"/>
         <v>1.7499999999999987</v>
@@ -28613,7 +29097,7 @@
         <v>0.16830997700518108</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="24">
         <f t="shared" si="14"/>
         <v>1.7999999999999987</v>
@@ -28659,7 +29143,7 @@
         <v>0.16672214703343408</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="24">
         <f t="shared" si="14"/>
         <v>1.8499999999999988</v>
@@ -28705,7 +29189,7 @@
         <v>0.16513431706168707</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="24">
         <f t="shared" si="14"/>
         <v>1.8999999999999988</v>
@@ -28751,7 +29235,7 @@
         <v>0.16354648708994007</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="24">
         <f t="shared" si="14"/>
         <v>1.9499999999999988</v>
@@ -28797,7 +29281,7 @@
         <v>0.16195865711819307</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="24">
         <f t="shared" si="14"/>
         <v>1.9999999999999989</v>
@@ -28843,7 +29327,7 @@
         <v>0.16037082714644607</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="24">
         <f t="shared" si="14"/>
         <v>2.0499999999999989</v>
@@ -28889,7 +29373,7 @@
         <v>0.15878299717469907</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="24">
         <f t="shared" si="14"/>
         <v>2.0999999999999988</v>
@@ -28935,7 +29419,7 @@
         <v>0.15719516720295207</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="24">
         <f t="shared" si="14"/>
         <v>2.1499999999999986</v>
@@ -28981,7 +29465,7 @@
         <v>0.15560733723120507</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="24">
         <f t="shared" si="14"/>
         <v>2.1999999999999984</v>
@@ -29027,7 +29511,7 @@
         <v>0.15401950725945807</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="24">
         <f t="shared" si="14"/>
         <v>2.2499999999999982</v>
@@ -29073,7 +29557,7 @@
         <v>0.15243167728771106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="24">
         <f t="shared" si="14"/>
         <v>2.299999999999998</v>
@@ -29119,7 +29603,7 @@
         <v>0.15084384731596406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="24">
         <f t="shared" si="14"/>
         <v>2.3499999999999979</v>
@@ -29165,7 +29649,7 @@
         <v>0.14925601734421706</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="24">
         <f t="shared" si="14"/>
         <v>2.3999999999999977</v>
@@ -29211,7 +29695,7 @@
         <v>0.14766818737247006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="24">
         <f t="shared" si="14"/>
         <v>2.4499999999999975</v>
@@ -29257,7 +29741,7 @@
         <v>0.14608035740072306</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="24">
         <f t="shared" si="14"/>
         <v>2.4999999999999973</v>
@@ -29303,7 +29787,7 @@
         <v>0.14449252742897606</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="24">
         <f t="shared" si="14"/>
         <v>2.5499999999999972</v>
@@ -29349,7 +29833,7 @@
         <v>0.14290469745722906</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="24">
         <f t="shared" si="14"/>
         <v>2.599999999999997</v>
@@ -29395,7 +29879,7 @@
         <v>0.14131686748548206</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="24">
         <f t="shared" si="14"/>
         <v>2.6499999999999968</v>
@@ -29441,7 +29925,7 @@
         <v>0.13972903751373505</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="24">
         <f t="shared" si="14"/>
         <v>2.6999999999999966</v>
@@ -29487,7 +29971,7 @@
         <v>0.13814120754198805</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" s="24">
         <f t="shared" si="14"/>
         <v>2.7499999999999964</v>
@@ -29533,7 +30017,7 @@
         <v>0.13655337757024105</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="24">
         <f t="shared" si="14"/>
         <v>2.7999999999999963</v>
@@ -29579,7 +30063,7 @@
         <v>0.13496554759849405</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="24">
         <f t="shared" si="14"/>
         <v>2.8499999999999961</v>
@@ -29625,7 +30109,7 @@
         <v>0.13337771762674705</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="24">
         <f t="shared" si="14"/>
         <v>2.8999999999999959</v>
@@ -29671,7 +30155,7 @@
         <v>0.13178988765500005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="24">
         <f t="shared" si="14"/>
         <v>2.9499999999999957</v>
@@ -29717,7 +30201,7 @@
         <v>0.13020205768325305</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="24">
         <f t="shared" si="14"/>
         <v>2.9999999999999956</v>
@@ -29763,7 +30247,7 @@
         <v>0.12861422771150605</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="I123" s="24">
@@ -29795,7 +30279,7 @@
         <v>0.12702639773975904</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="I124" s="24">
@@ -29827,7 +30311,7 @@
         <v>0.12543856776801204</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="I125" s="24">
@@ -29859,7 +30343,7 @@
         <v>0.12385073779626504</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="I126" s="24">
@@ -29891,7 +30375,7 @@
         <v>0.12226290782451804</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="I127" s="24">
@@ -29923,7 +30407,7 @@
         <v>0.12067507785277104</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="I128" s="24">
@@ -29955,7 +30439,7 @@
         <v>0.11908724788102404</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="I129" s="24">
@@ -29987,7 +30471,7 @@
         <v>0.11749941790927704</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="I130" s="24">
@@ -30019,7 +30503,7 @@
         <v>0.11591158793753004</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="I131" s="24">
@@ -30051,7 +30535,7 @@
         <v>0.11432375796578303</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="I132" s="24">
@@ -30083,7 +30567,7 @@
         <v>0.11273592799403603</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="I133" s="24">
@@ -30115,7 +30599,7 @@
         <v>0.11114809802228903</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="I134" s="24">
@@ -30147,7 +30631,7 @@
         <v>0.10956026805054203</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="I135" s="24">
@@ -30179,7 +30663,7 @@
         <v>0.10797243807879503</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="I136" s="24">
@@ -30211,7 +30695,7 @@
         <v>0.10638460810704803</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="I137" s="24">
@@ -30243,7 +30727,7 @@
         <v>0.10479677813530103</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="I138" s="24">
@@ -30275,7 +30759,7 @@
         <v>0.10320894816355403</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="I139" s="24">
@@ -30307,7 +30791,7 @@
         <v>0.10162111819180702</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="I140" s="24">
@@ -30339,7 +30823,7 @@
         <v>0.10003328822006002</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I141" s="24">
         <f t="shared" si="30"/>
         <v>1.9499999999999917</v>
@@ -30369,7 +30853,7 @@
         <v>9.8445458248313022E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I142" s="24">
         <f t="shared" si="30"/>
         <v>1.9999999999999918</v>
@@ -30399,7 +30883,7 @@
         <v>9.6857628276566021E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I143" s="24">
         <f t="shared" si="30"/>
         <v>2.0499999999999918</v>
@@ -30429,7 +30913,7 @@
         <v>9.526979830481902E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I144" s="24">
         <f t="shared" si="30"/>
         <v>2.0999999999999917</v>
@@ -30459,7 +30943,7 @@
         <v>9.3681968333072019E-2</v>
       </c>
     </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I145" s="24">
         <f t="shared" si="30"/>
         <v>2.1499999999999915</v>
@@ -30489,7 +30973,7 @@
         <v>9.2094138361325018E-2</v>
       </c>
     </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I146" s="24">
         <f t="shared" si="30"/>
         <v>2.1999999999999913</v>
@@ -30519,7 +31003,7 @@
         <v>9.0506308389578016E-2</v>
       </c>
     </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I147" s="24">
         <f t="shared" si="30"/>
         <v>2.2499999999999911</v>
@@ -30549,7 +31033,7 @@
         <v>8.8918478417831015E-2</v>
       </c>
     </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I148" s="24">
         <f t="shared" si="30"/>
         <v>2.2999999999999909</v>
@@ -30579,7 +31063,7 @@
         <v>8.7330648446084014E-2</v>
       </c>
     </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I149" s="24">
         <f t="shared" si="30"/>
         <v>2.3499999999999908</v>
@@ -30609,7 +31093,7 @@
         <v>8.5742818474337013E-2</v>
       </c>
     </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I150" s="24">
         <f t="shared" si="30"/>
         <v>2.3999999999999906</v>
@@ -30639,7 +31123,7 @@
         <v>8.4154988502590011E-2</v>
       </c>
     </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I151" s="24">
         <f t="shared" si="30"/>
         <v>2.4499999999999904</v>
@@ -30669,7 +31153,7 @@
         <v>8.256715853084301E-2</v>
       </c>
     </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I152" s="24">
         <f>I151+0.05</f>
         <v>2.4999999999999902</v>
@@ -30699,7 +31183,7 @@
         <v>8.0979328559096009E-2</v>
       </c>
     </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I153" s="24">
         <f t="shared" ref="I153:I170" si="31">I152+0.05</f>
         <v>2.5499999999999901</v>
@@ -30729,7 +31213,7 @@
         <v>7.9391498587349008E-2</v>
       </c>
     </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I154" s="24">
         <f t="shared" si="31"/>
         <v>2.5999999999999899</v>
@@ -30759,7 +31243,7 @@
         <v>7.7803668615602006E-2</v>
       </c>
     </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I155" s="24">
         <f t="shared" si="31"/>
         <v>2.6499999999999897</v>
@@ -30789,7 +31273,7 @@
         <v>7.6215838643855005E-2</v>
       </c>
     </row>
-    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I156" s="24">
         <f t="shared" si="31"/>
         <v>2.6999999999999895</v>
@@ -30819,7 +31303,7 @@
         <v>7.4628008672108004E-2</v>
       </c>
     </row>
-    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I157" s="24">
         <f t="shared" si="31"/>
         <v>2.7499999999999893</v>
@@ -30849,7 +31333,7 @@
         <v>7.3040178700361003E-2</v>
       </c>
     </row>
-    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I158" s="24">
         <f t="shared" si="31"/>
         <v>2.7999999999999892</v>
@@ -30879,7 +31363,7 @@
         <v>7.1452348728614001E-2</v>
       </c>
     </row>
-    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I159" s="24">
         <f t="shared" si="31"/>
         <v>2.849999999999989</v>
@@ -30909,7 +31393,7 @@
         <v>6.9864518756867E-2</v>
       </c>
     </row>
-    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I160" s="24">
         <f t="shared" si="31"/>
         <v>2.8999999999999888</v>
@@ -30939,7 +31423,7 @@
         <v>6.8276688785119999E-2</v>
       </c>
     </row>
-    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I161" s="24">
         <f t="shared" si="31"/>
         <v>2.9499999999999886</v>
@@ -30969,7 +31453,7 @@
         <v>6.6688858813372998E-2</v>
       </c>
     </row>
-    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I162" s="24">
         <f t="shared" si="31"/>
         <v>2.9999999999999885</v>
@@ -30999,7 +31483,7 @@
         <v>6.5101028841625996E-2</v>
       </c>
     </row>
-    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I163" s="24">
         <f t="shared" si="31"/>
         <v>3.0499999999999883</v>
@@ -31029,7 +31513,7 @@
         <v>6.3513198869878995E-2</v>
       </c>
     </row>
-    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I164" s="24">
         <f t="shared" si="31"/>
         <v>3.0999999999999881</v>
@@ -31059,7 +31543,7 @@
         <v>6.1925368898132001E-2</v>
       </c>
     </row>
-    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I165" s="24">
         <f t="shared" si="31"/>
         <v>3.1499999999999879</v>
@@ -31089,7 +31573,7 @@
         <v>6.0337538926385006E-2</v>
       </c>
     </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I166" s="24">
         <f t="shared" si="31"/>
         <v>3.1999999999999877</v>
@@ -31119,7 +31603,7 @@
         <v>5.8749708954638012E-2</v>
       </c>
     </row>
-    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I167" s="24">
         <f t="shared" si="31"/>
         <v>3.2499999999999876</v>
@@ -31149,7 +31633,7 @@
         <v>5.7161878982891018E-2</v>
       </c>
     </row>
-    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I168" s="24">
         <f t="shared" si="31"/>
         <v>3.2999999999999874</v>
@@ -31179,7 +31663,7 @@
         <v>5.5574049011144024E-2</v>
       </c>
     </row>
-    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I169" s="24">
         <f t="shared" si="31"/>
         <v>3.3499999999999872</v>
@@ -31209,7 +31693,7 @@
         <v>5.3986219039397029E-2</v>
       </c>
     </row>
-    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I170" s="24">
         <f t="shared" si="31"/>
         <v>3.399999999999987</v>
@@ -31239,7 +31723,7 @@
         <v>5.2398389067650035E-2</v>
       </c>
     </row>
-    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I171" s="24">
         <f>I170+0.05</f>
         <v>3.4499999999999869</v>
@@ -31269,7 +31753,7 @@
         <v>5.0810559095903041E-2</v>
       </c>
     </row>
-    <row r="172" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I172" s="24">
         <f t="shared" ref="I172:I186" si="32">I171+0.05</f>
         <v>3.4999999999999867</v>
@@ -31299,7 +31783,7 @@
         <v>4.9222729124156046E-2</v>
       </c>
     </row>
-    <row r="173" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I173" s="24">
         <f t="shared" si="32"/>
         <v>3.5499999999999865</v>
@@ -31329,7 +31813,7 @@
         <v>4.7634899152409052E-2</v>
       </c>
     </row>
-    <row r="174" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I174" s="24">
         <f t="shared" si="32"/>
         <v>3.5999999999999863</v>
@@ -31359,7 +31843,7 @@
         <v>4.6047069180662058E-2</v>
       </c>
     </row>
-    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I175" s="24">
         <f t="shared" si="32"/>
         <v>3.6499999999999861</v>
@@ -31389,7 +31873,7 @@
         <v>4.4459239208915063E-2</v>
       </c>
     </row>
-    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I176" s="24">
         <f t="shared" si="32"/>
         <v>3.699999999999986</v>
@@ -31419,7 +31903,7 @@
         <v>4.2871409237168069E-2</v>
       </c>
     </row>
-    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I177" s="24">
         <f t="shared" si="32"/>
         <v>3.7499999999999858</v>
@@ -31449,7 +31933,7 @@
         <v>4.1283579265421075E-2</v>
       </c>
     </row>
-    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I178" s="24">
         <f t="shared" si="32"/>
         <v>3.7999999999999856</v>
@@ -31479,7 +31963,7 @@
         <v>3.9695749293674081E-2</v>
       </c>
     </row>
-    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I179" s="24">
         <f t="shared" si="32"/>
         <v>3.8499999999999854</v>
@@ -31509,7 +31993,7 @@
         <v>3.8107919321927086E-2</v>
       </c>
     </row>
-    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I180" s="24">
         <f t="shared" si="32"/>
         <v>3.8999999999999853</v>
@@ -31539,7 +32023,7 @@
         <v>3.6520089350180092E-2</v>
       </c>
     </row>
-    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I181" s="24">
         <f t="shared" si="32"/>
         <v>3.9499999999999851</v>
@@ -31569,7 +32053,7 @@
         <v>3.4932259378433098E-2</v>
       </c>
     </row>
-    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I182" s="24">
         <f t="shared" si="32"/>
         <v>3.9999999999999849</v>
@@ -31599,7 +32083,7 @@
         <v>3.3344429406686103E-2</v>
       </c>
     </row>
-    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I183" s="24">
         <f t="shared" si="32"/>
         <v>4.0499999999999847</v>
@@ -31629,7 +32113,7 @@
         <v>3.1756599434939109E-2</v>
       </c>
     </row>
-    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I184" s="24">
         <f t="shared" si="32"/>
         <v>4.0999999999999845</v>
@@ -31659,7 +32143,7 @@
         <v>3.0168769463192115E-2</v>
       </c>
     </row>
-    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I185" s="24">
         <f t="shared" si="32"/>
         <v>4.1499999999999844</v>
@@ -31689,7 +32173,7 @@
         <v>2.858093949144512E-2</v>
       </c>
     </row>
-    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I186" s="24">
         <f t="shared" si="32"/>
         <v>4.1999999999999842</v>
@@ -31719,7 +32203,7 @@
         <v>2.6993109519698126E-2</v>
       </c>
     </row>
-    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I187" s="24">
         <f>I186+0.05</f>
         <v>4.249999999999984</v>
@@ -31749,7 +32233,7 @@
         <v>2.5405279547951132E-2</v>
       </c>
     </row>
-    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I188" s="24">
         <f t="shared" ref="I188:I194" si="33">I187+0.05</f>
         <v>4.2999999999999838</v>
@@ -31779,7 +32263,7 @@
         <v>2.3817449576204137E-2</v>
       </c>
     </row>
-    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I189" s="24">
         <f t="shared" si="33"/>
         <v>4.3499999999999837</v>
@@ -31809,7 +32293,7 @@
         <v>2.2229619604457143E-2</v>
       </c>
     </row>
-    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I190" s="24">
         <f t="shared" si="33"/>
         <v>4.3999999999999835</v>
@@ -31839,7 +32323,7 @@
         <v>2.0641789632710149E-2</v>
       </c>
     </row>
-    <row r="191" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I191" s="24">
         <f t="shared" si="33"/>
         <v>4.4499999999999833</v>
@@ -31869,7 +32353,7 @@
         <v>1.9053959660963155E-2</v>
       </c>
     </row>
-    <row r="192" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I192" s="24">
         <f t="shared" si="33"/>
         <v>4.4999999999999831</v>
@@ -31899,7 +32383,7 @@
         <v>1.746612968921616E-2</v>
       </c>
     </row>
-    <row r="193" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I193" s="24">
         <f t="shared" si="33"/>
         <v>4.5499999999999829</v>
@@ -31929,7 +32413,7 @@
         <v>1.5878299717469166E-2</v>
       </c>
     </row>
-    <row r="194" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I194" s="24">
         <f t="shared" si="33"/>
         <v>4.5999999999999828</v>
@@ -31959,7 +32443,7 @@
         <v>1.429046974572217E-2</v>
       </c>
     </row>
-    <row r="195" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I195" s="24">
         <f>I194+0.05</f>
         <v>4.6499999999999826</v>
@@ -31989,7 +32473,7 @@
         <v>1.2702639773975174E-2</v>
       </c>
     </row>
-    <row r="196" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I196" s="24">
         <f t="shared" ref="I196:I201" si="35">I195+0.05</f>
         <v>4.6999999999999824</v>
@@ -32019,7 +32503,7 @@
         <v>1.1114809802228178E-2</v>
       </c>
     </row>
-    <row r="197" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I197" s="24">
         <f t="shared" si="35"/>
         <v>4.7499999999999822</v>
@@ -32049,7 +32533,7 @@
         <v>9.5269798304811817E-3</v>
       </c>
     </row>
-    <row r="198" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I198" s="24">
         <f t="shared" si="35"/>
         <v>4.7999999999999821</v>
@@ -32079,7 +32563,7 @@
         <v>7.9391498587341857E-3</v>
       </c>
     </row>
-    <row r="199" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I199" s="24">
         <f t="shared" si="35"/>
         <v>4.8499999999999819</v>
@@ -32109,7 +32593,7 @@
         <v>6.3513198869871897E-3</v>
       </c>
     </row>
-    <row r="200" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I200" s="24">
         <f t="shared" si="35"/>
         <v>4.8999999999999817</v>
@@ -32139,7 +32623,7 @@
         <v>4.7634899152401936E-3</v>
       </c>
     </row>
-    <row r="201" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I201" s="24">
         <f t="shared" si="35"/>
         <v>4.9499999999999815</v>
@@ -32169,7 +32653,7 @@
         <v>3.1756599434931976E-3</v>
       </c>
     </row>
-    <row r="202" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:15" x14ac:dyDescent="0.45">
       <c r="I202" s="24">
         <f>I201+0.05</f>
         <v>4.9999999999999813</v>
@@ -32215,18 +32699,18 @@
       <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="26" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="26"/>
-    <col min="9" max="9" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.7109375" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="2" width="9.1328125" style="26"/>
+    <col min="3" max="3" width="6.86328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.73046875" style="26" customWidth="1"/>
+    <col min="6" max="8" width="9.1328125" style="26"/>
+    <col min="9" max="9" width="6.86328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.73046875" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="26"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D4" s="44" t="s">
         <v>22</v>
       </c>
@@ -32236,7 +32720,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D5" s="26" t="str">
         <f>"True"</f>
         <v>True</v>
@@ -32252,7 +32736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="43" t="s">
         <v>24</v>
       </c>
@@ -32278,7 +32762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="43"/>
       <c r="C7" s="37" t="s">
         <v>26</v>
@@ -32300,7 +32784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="43"/>
       <c r="C8" s="46" t="s">
         <v>23</v>
@@ -32322,7 +32806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="43"/>
       <c r="C9" s="46"/>
       <c r="D9" s="33" t="s">
@@ -32340,7 +32824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="J10" s="41"/>
@@ -32370,17 +32854,17 @@
       <selection activeCell="T1" sqref="T1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="16384" width="9.1328125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>33</v>
       </c>
@@ -32427,7 +32911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="39">
         <v>-3</v>
       </c>
@@ -32495,7 +32979,7 @@
       <c r="Z3" s="42"/>
       <c r="AA3" s="42"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="39">
         <f>A3+0.05</f>
         <v>-2.95</v>
@@ -32568,7 +33052,7 @@
       <c r="Z4" s="42"/>
       <c r="AA4" s="42"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="39">
         <f t="shared" ref="A5:A68" si="7">A4+0.05</f>
         <v>-2.9000000000000004</v>
@@ -32641,7 +33125,7 @@
       <c r="Z5" s="42"/>
       <c r="AA5" s="42"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="39">
         <f t="shared" si="7"/>
         <v>-2.8500000000000005</v>
@@ -32714,7 +33198,7 @@
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="39">
         <f t="shared" si="7"/>
         <v>-2.8000000000000007</v>
@@ -32787,7 +33271,7 @@
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="39">
         <f t="shared" si="7"/>
         <v>-2.7500000000000009</v>
@@ -32860,7 +33344,7 @@
       <c r="Z8" s="42"/>
       <c r="AA8" s="42"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="39">
         <f t="shared" si="7"/>
         <v>-2.7000000000000011</v>
@@ -32933,7 +33417,7 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="42"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="39">
         <f t="shared" si="7"/>
         <v>-2.6500000000000012</v>
@@ -33006,7 +33490,7 @@
       <c r="Z10" s="42"/>
       <c r="AA10" s="42"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="39">
         <f t="shared" si="7"/>
         <v>-2.6000000000000014</v>
@@ -33079,7 +33563,7 @@
       <c r="Z11" s="42"/>
       <c r="AA11" s="42"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="39">
         <f t="shared" si="7"/>
         <v>-2.5500000000000016</v>
@@ -33152,7 +33636,7 @@
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="39">
         <f t="shared" si="7"/>
         <v>-2.5000000000000018</v>
@@ -33225,7 +33709,7 @@
       <c r="Z13" s="42"/>
       <c r="AA13" s="42"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="39">
         <f t="shared" si="7"/>
         <v>-2.450000000000002</v>
@@ -33298,7 +33782,7 @@
       <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="39">
         <f t="shared" si="7"/>
         <v>-2.4000000000000021</v>
@@ -33371,7 +33855,7 @@
       <c r="Z15" s="42"/>
       <c r="AA15" s="42"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="39">
         <f t="shared" si="7"/>
         <v>-2.3500000000000023</v>
@@ -33444,7 +33928,7 @@
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="39">
         <f t="shared" si="7"/>
         <v>-2.3000000000000025</v>
@@ -33517,7 +34001,7 @@
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="39">
         <f t="shared" si="7"/>
         <v>-2.2500000000000027</v>
@@ -33590,7 +34074,7 @@
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="39">
         <f t="shared" si="7"/>
         <v>-2.2000000000000028</v>
@@ -33663,7 +34147,7 @@
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="39">
         <f t="shared" si="7"/>
         <v>-2.150000000000003</v>
@@ -33736,7 +34220,7 @@
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="39">
         <f t="shared" si="7"/>
         <v>-2.1000000000000032</v>
@@ -33809,7 +34293,7 @@
       <c r="Z21" s="42"/>
       <c r="AA21" s="42"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="39">
         <f t="shared" si="7"/>
         <v>-2.0500000000000034</v>
@@ -33882,7 +34366,7 @@
       <c r="Z22" s="42"/>
       <c r="AA22" s="42"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="39">
         <f t="shared" si="7"/>
         <v>-2.0000000000000036</v>
@@ -33955,7 +34439,7 @@
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="39">
         <f t="shared" si="7"/>
         <v>-1.9500000000000035</v>
@@ -34028,7 +34512,7 @@
       <c r="Z24" s="42"/>
       <c r="AA24" s="42"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="39">
         <f t="shared" si="7"/>
         <v>-1.9000000000000035</v>
@@ -34101,7 +34585,7 @@
       <c r="Z25" s="42"/>
       <c r="AA25" s="42"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="39">
         <f t="shared" si="7"/>
         <v>-1.8500000000000034</v>
@@ -34174,7 +34658,7 @@
       <c r="Z26" s="42"/>
       <c r="AA26" s="42"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="39">
         <f t="shared" si="7"/>
         <v>-1.8000000000000034</v>
@@ -34247,7 +34731,7 @@
       <c r="Z27" s="42"/>
       <c r="AA27" s="42"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="39">
         <f t="shared" si="7"/>
         <v>-1.7500000000000033</v>
@@ -34320,7 +34804,7 @@
       <c r="Z28" s="42"/>
       <c r="AA28" s="42"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="39">
         <f t="shared" si="7"/>
         <v>-1.7000000000000033</v>
@@ -34393,7 +34877,7 @@
       <c r="Z29" s="42"/>
       <c r="AA29" s="42"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="39">
         <f t="shared" si="7"/>
         <v>-1.6500000000000032</v>
@@ -34466,7 +34950,7 @@
       <c r="Z30" s="42"/>
       <c r="AA30" s="42"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="39">
         <f t="shared" si="7"/>
         <v>-1.6000000000000032</v>
@@ -34539,7 +35023,7 @@
       <c r="Z31" s="42"/>
       <c r="AA31" s="42"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="39">
         <f t="shared" si="7"/>
         <v>-1.5500000000000032</v>
@@ -34612,7 +35096,7 @@
       <c r="Z32" s="42"/>
       <c r="AA32" s="42"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="39">
         <f t="shared" si="7"/>
         <v>-1.5000000000000031</v>
@@ -34685,7 +35169,7 @@
       <c r="Z33" s="42"/>
       <c r="AA33" s="42"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="39">
         <f t="shared" si="7"/>
         <v>-1.4500000000000031</v>
@@ -34758,7 +35242,7 @@
       <c r="Z34" s="42"/>
       <c r="AA34" s="42"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="39">
         <f t="shared" si="7"/>
         <v>-1.400000000000003</v>
@@ -34831,7 +35315,7 @@
       <c r="Z35" s="42"/>
       <c r="AA35" s="42"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="39">
         <f t="shared" si="7"/>
         <v>-1.350000000000003</v>
@@ -34904,7 +35388,7 @@
       <c r="Z36" s="42"/>
       <c r="AA36" s="42"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="39">
         <f t="shared" si="7"/>
         <v>-1.3000000000000029</v>
@@ -34977,7 +35461,7 @@
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="39">
         <f t="shared" si="7"/>
         <v>-1.2500000000000029</v>
@@ -35050,7 +35534,7 @@
       <c r="Z38" s="42"/>
       <c r="AA38" s="42"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="39">
         <f t="shared" si="7"/>
         <v>-1.2000000000000028</v>
@@ -35123,7 +35607,7 @@
       <c r="Z39" s="42"/>
       <c r="AA39" s="42"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="39">
         <f t="shared" si="7"/>
         <v>-1.1500000000000028</v>
@@ -35196,7 +35680,7 @@
       <c r="Z40" s="42"/>
       <c r="AA40" s="42"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="39">
         <f t="shared" si="7"/>
         <v>-1.1000000000000028</v>
@@ -35269,7 +35753,7 @@
       <c r="Z41" s="42"/>
       <c r="AA41" s="42"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="39">
         <f t="shared" si="7"/>
         <v>-1.0500000000000027</v>
@@ -35342,7 +35826,7 @@
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="39">
         <f t="shared" si="7"/>
         <v>-1.0000000000000027</v>
@@ -35415,7 +35899,7 @@
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="39">
         <f t="shared" si="7"/>
         <v>-0.95000000000000262</v>
@@ -35488,7 +35972,7 @@
       <c r="Z44" s="42"/>
       <c r="AA44" s="42"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="39">
         <f t="shared" si="7"/>
         <v>-0.90000000000000258</v>
@@ -35561,7 +36045,7 @@
       <c r="Z45" s="42"/>
       <c r="AA45" s="42"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="39">
         <f t="shared" si="7"/>
         <v>-0.85000000000000253</v>
@@ -35634,7 +36118,7 @@
       <c r="Z46" s="42"/>
       <c r="AA46" s="42"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="39">
         <f t="shared" si="7"/>
         <v>-0.80000000000000249</v>
@@ -35707,7 +36191,7 @@
       <c r="Z47" s="42"/>
       <c r="AA47" s="42"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="39">
         <f t="shared" si="7"/>
         <v>-0.75000000000000244</v>
@@ -35780,7 +36264,7 @@
       <c r="Z48" s="42"/>
       <c r="AA48" s="42"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="39">
         <f t="shared" si="7"/>
         <v>-0.7000000000000024</v>
@@ -35853,7 +36337,7 @@
       <c r="Z49" s="42"/>
       <c r="AA49" s="42"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="39">
         <f t="shared" si="7"/>
         <v>-0.65000000000000235</v>
@@ -35926,7 +36410,7 @@
       <c r="Z50" s="42"/>
       <c r="AA50" s="42"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A51" s="39">
         <f t="shared" si="7"/>
         <v>-0.60000000000000231</v>
@@ -35999,7 +36483,7 @@
       <c r="Z51" s="42"/>
       <c r="AA51" s="42"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A52" s="39">
         <f t="shared" si="7"/>
         <v>-0.55000000000000226</v>
@@ -36072,7 +36556,7 @@
       <c r="Z52" s="42"/>
       <c r="AA52" s="42"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A53" s="39">
         <f t="shared" si="7"/>
         <v>-0.50000000000000222</v>
@@ -36145,7 +36629,7 @@
       <c r="Z53" s="42"/>
       <c r="AA53" s="42"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A54" s="39">
         <f t="shared" si="7"/>
         <v>-0.45000000000000223</v>
@@ -36218,7 +36702,7 @@
       <c r="Z54" s="42"/>
       <c r="AA54" s="42"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A55" s="39">
         <f t="shared" si="7"/>
         <v>-0.40000000000000224</v>
@@ -36291,7 +36775,7 @@
       <c r="Z55" s="42"/>
       <c r="AA55" s="42"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A56" s="39">
         <f t="shared" si="7"/>
         <v>-0.35000000000000225</v>
@@ -36364,7 +36848,7 @@
       <c r="Z56" s="42"/>
       <c r="AA56" s="42"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A57" s="39">
         <f t="shared" si="7"/>
         <v>-0.30000000000000226</v>
@@ -36437,7 +36921,7 @@
       <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A58" s="39">
         <f t="shared" si="7"/>
         <v>-0.25000000000000228</v>
@@ -36510,7 +36994,7 @@
       <c r="Z58" s="42"/>
       <c r="AA58" s="42"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A59" s="39">
         <f t="shared" si="7"/>
         <v>-0.20000000000000229</v>
@@ -36583,7 +37067,7 @@
       <c r="Z59" s="42"/>
       <c r="AA59" s="42"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A60" s="39">
         <f t="shared" si="7"/>
         <v>-0.1500000000000023</v>
@@ -36656,7 +37140,7 @@
       <c r="Z60" s="42"/>
       <c r="AA60" s="42"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A61" s="39">
         <f t="shared" si="7"/>
         <v>-0.1000000000000023</v>
@@ -36729,7 +37213,7 @@
       <c r="Z61" s="42"/>
       <c r="AA61" s="42"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A62" s="39">
         <f t="shared" si="7"/>
         <v>-5.0000000000002293E-2</v>
@@ -36802,7 +37286,7 @@
       <c r="Z62" s="42"/>
       <c r="AA62" s="42"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A63" s="39">
         <f t="shared" si="7"/>
         <v>-2.2898349882893854E-15</v>
@@ -36875,7 +37359,7 @@
       <c r="Z63" s="42"/>
       <c r="AA63" s="42"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A64" s="39">
         <f t="shared" si="7"/>
         <v>4.9999999999997713E-2</v>
@@ -36948,7 +37432,7 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A65" s="39">
         <f t="shared" si="7"/>
         <v>9.9999999999997716E-2</v>
@@ -37021,7 +37505,7 @@
       <c r="Z65" s="42"/>
       <c r="AA65" s="42"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A66" s="39">
         <f t="shared" si="7"/>
         <v>0.14999999999999772</v>
@@ -37094,7 +37578,7 @@
       <c r="Z66" s="42"/>
       <c r="AA66" s="42"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A67" s="39">
         <f t="shared" si="7"/>
         <v>0.19999999999999774</v>
@@ -37167,7 +37651,7 @@
       <c r="Z67" s="42"/>
       <c r="AA67" s="42"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A68" s="39">
         <f t="shared" si="7"/>
         <v>0.24999999999999772</v>
@@ -37240,7 +37724,7 @@
       <c r="Z68" s="42"/>
       <c r="AA68" s="42"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A69" s="39">
         <f t="shared" ref="A69:A123" si="23">A68+0.05</f>
         <v>0.29999999999999771</v>
@@ -37313,7 +37797,7 @@
       <c r="Z69" s="42"/>
       <c r="AA69" s="42"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A70" s="39">
         <f t="shared" si="23"/>
         <v>0.3499999999999977</v>
@@ -37386,7 +37870,7 @@
       <c r="Z70" s="42"/>
       <c r="AA70" s="42"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A71" s="39">
         <f t="shared" si="23"/>
         <v>0.39999999999999769</v>
@@ -37459,7 +37943,7 @@
       <c r="Z71" s="42"/>
       <c r="AA71" s="42"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A72" s="39">
         <f t="shared" si="23"/>
         <v>0.44999999999999768</v>
@@ -37532,7 +38016,7 @@
       <c r="Z72" s="42"/>
       <c r="AA72" s="42"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A73" s="39">
         <f t="shared" si="23"/>
         <v>0.49999999999999767</v>
@@ -37605,7 +38089,7 @@
       <c r="Z73" s="42"/>
       <c r="AA73" s="42"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A74" s="39">
         <f t="shared" si="23"/>
         <v>0.54999999999999771</v>
@@ -37678,7 +38162,7 @@
       <c r="Z74" s="42"/>
       <c r="AA74" s="42"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A75" s="39">
         <f t="shared" si="23"/>
         <v>0.59999999999999776</v>
@@ -37751,7 +38235,7 @@
       <c r="Z75" s="42"/>
       <c r="AA75" s="42"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A76" s="39">
         <f t="shared" si="23"/>
         <v>0.6499999999999978</v>
@@ -37824,7 +38308,7 @@
       <c r="Z76" s="42"/>
       <c r="AA76" s="42"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A77" s="39">
         <f t="shared" si="23"/>
         <v>0.69999999999999785</v>
@@ -37897,7 +38381,7 @@
       <c r="Z77" s="42"/>
       <c r="AA77" s="42"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A78" s="39">
         <f t="shared" si="23"/>
         <v>0.74999999999999789</v>
@@ -37970,7 +38454,7 @@
       <c r="Z78" s="42"/>
       <c r="AA78" s="42"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A79" s="39">
         <f t="shared" si="23"/>
         <v>0.79999999999999793</v>
@@ -38043,7 +38527,7 @@
       <c r="Z79" s="42"/>
       <c r="AA79" s="42"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A80" s="39">
         <f t="shared" si="23"/>
         <v>0.84999999999999798</v>
@@ -38116,7 +38600,7 @@
       <c r="Z80" s="42"/>
       <c r="AA80" s="42"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A81" s="39">
         <f t="shared" si="23"/>
         <v>0.89999999999999802</v>
@@ -38189,7 +38673,7 @@
       <c r="Z81" s="42"/>
       <c r="AA81" s="42"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A82" s="39">
         <f t="shared" si="23"/>
         <v>0.94999999999999807</v>
@@ -38262,7 +38746,7 @@
       <c r="Z82" s="42"/>
       <c r="AA82" s="42"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A83" s="39">
         <f t="shared" si="23"/>
         <v>0.99999999999999811</v>
@@ -38335,7 +38819,7 @@
       <c r="Z83" s="42"/>
       <c r="AA83" s="42"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A84" s="39">
         <f t="shared" si="23"/>
         <v>1.049999999999998</v>
@@ -38408,7 +38892,7 @@
       <c r="Z84" s="42"/>
       <c r="AA84" s="42"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A85" s="39">
         <f t="shared" si="23"/>
         <v>1.0999999999999981</v>
@@ -38481,7 +38965,7 @@
       <c r="Z85" s="42"/>
       <c r="AA85" s="42"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A86" s="39">
         <f t="shared" si="23"/>
         <v>1.1499999999999981</v>
@@ -38554,7 +39038,7 @@
       <c r="Z86" s="42"/>
       <c r="AA86" s="42"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A87" s="39">
         <f t="shared" si="23"/>
         <v>1.1999999999999982</v>
@@ -38627,7 +39111,7 @@
       <c r="Z87" s="42"/>
       <c r="AA87" s="42"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A88" s="39">
         <f t="shared" si="23"/>
         <v>1.2499999999999982</v>
@@ -38700,7 +39184,7 @@
       <c r="Z88" s="42"/>
       <c r="AA88" s="42"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A89" s="39">
         <f t="shared" si="23"/>
         <v>1.2999999999999983</v>
@@ -38773,7 +39257,7 @@
       <c r="Z89" s="42"/>
       <c r="AA89" s="42"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A90" s="39">
         <f t="shared" si="23"/>
         <v>1.3499999999999983</v>
@@ -38846,7 +39330,7 @@
       <c r="Z90" s="42"/>
       <c r="AA90" s="42"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A91" s="39">
         <f t="shared" si="23"/>
         <v>1.3999999999999984</v>
@@ -38919,7 +39403,7 @@
       <c r="Z91" s="42"/>
       <c r="AA91" s="42"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A92" s="39">
         <f t="shared" si="23"/>
         <v>1.4499999999999984</v>
@@ -38992,7 +39476,7 @@
       <c r="Z92" s="42"/>
       <c r="AA92" s="42"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A93" s="39">
         <f t="shared" si="23"/>
         <v>1.4999999999999984</v>
@@ -39065,7 +39549,7 @@
       <c r="Z93" s="42"/>
       <c r="AA93" s="42"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A94" s="39">
         <f t="shared" si="23"/>
         <v>1.5499999999999985</v>
@@ -39138,7 +39622,7 @@
       <c r="Z94" s="42"/>
       <c r="AA94" s="42"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A95" s="39">
         <f t="shared" si="23"/>
         <v>1.5999999999999985</v>
@@ -39211,7 +39695,7 @@
       <c r="Z95" s="42"/>
       <c r="AA95" s="42"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A96" s="39">
         <f t="shared" si="23"/>
         <v>1.6499999999999986</v>
@@ -39284,7 +39768,7 @@
       <c r="Z96" s="42"/>
       <c r="AA96" s="42"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A97" s="39">
         <f t="shared" si="23"/>
         <v>1.6999999999999986</v>
@@ -39357,7 +39841,7 @@
       <c r="Z97" s="42"/>
       <c r="AA97" s="42"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A98" s="39">
         <f t="shared" si="23"/>
         <v>1.7499999999999987</v>
@@ -39430,7 +39914,7 @@
       <c r="Z98" s="42"/>
       <c r="AA98" s="42"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A99" s="39">
         <f t="shared" si="23"/>
         <v>1.7999999999999987</v>
@@ -39503,7 +39987,7 @@
       <c r="Z99" s="42"/>
       <c r="AA99" s="42"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A100" s="39">
         <f t="shared" si="23"/>
         <v>1.8499999999999988</v>
@@ -39576,7 +40060,7 @@
       <c r="Z100" s="42"/>
       <c r="AA100" s="42"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A101" s="39">
         <f t="shared" si="23"/>
         <v>1.8999999999999988</v>
@@ -39649,7 +40133,7 @@
       <c r="Z101" s="42"/>
       <c r="AA101" s="42"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A102" s="39">
         <f t="shared" si="23"/>
         <v>1.9499999999999988</v>
@@ -39722,7 +40206,7 @@
       <c r="Z102" s="42"/>
       <c r="AA102" s="42"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A103" s="39">
         <f t="shared" si="23"/>
         <v>1.9999999999999989</v>
@@ -39795,7 +40279,7 @@
       <c r="Z103" s="42"/>
       <c r="AA103" s="42"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A104" s="39">
         <f t="shared" si="23"/>
         <v>2.0499999999999989</v>
@@ -39868,7 +40352,7 @@
       <c r="Z104" s="42"/>
       <c r="AA104" s="42"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A105" s="39">
         <f t="shared" si="23"/>
         <v>2.0999999999999988</v>
@@ -39941,7 +40425,7 @@
       <c r="Z105" s="42"/>
       <c r="AA105" s="42"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A106" s="39">
         <f t="shared" si="23"/>
         <v>2.1499999999999986</v>
@@ -40014,7 +40498,7 @@
       <c r="Z106" s="42"/>
       <c r="AA106" s="42"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A107" s="39">
         <f t="shared" si="23"/>
         <v>2.1999999999999984</v>
@@ -40087,7 +40571,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="42"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A108" s="39">
         <f t="shared" si="23"/>
         <v>2.2499999999999982</v>
@@ -40160,7 +40644,7 @@
       <c r="Z108" s="42"/>
       <c r="AA108" s="42"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A109" s="39">
         <f t="shared" si="23"/>
         <v>2.299999999999998</v>
@@ -40233,7 +40717,7 @@
       <c r="Z109" s="42"/>
       <c r="AA109" s="42"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A110" s="39">
         <f t="shared" si="23"/>
         <v>2.3499999999999979</v>
@@ -40306,7 +40790,7 @@
       <c r="Z110" s="42"/>
       <c r="AA110" s="42"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A111" s="39">
         <f t="shared" si="23"/>
         <v>2.3999999999999977</v>
@@ -40379,7 +40863,7 @@
       <c r="Z111" s="42"/>
       <c r="AA111" s="42"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A112" s="39">
         <f t="shared" si="23"/>
         <v>2.4499999999999975</v>
@@ -40452,7 +40936,7 @@
       <c r="Z112" s="42"/>
       <c r="AA112" s="42"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A113" s="39">
         <f t="shared" si="23"/>
         <v>2.4999999999999973</v>
@@ -40525,7 +41009,7 @@
       <c r="Z113" s="42"/>
       <c r="AA113" s="42"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A114" s="39">
         <f t="shared" si="23"/>
         <v>2.5499999999999972</v>
@@ -40598,7 +41082,7 @@
       <c r="Z114" s="42"/>
       <c r="AA114" s="42"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A115" s="39">
         <f t="shared" si="23"/>
         <v>2.599999999999997</v>
@@ -40671,7 +41155,7 @@
       <c r="Z115" s="42"/>
       <c r="AA115" s="42"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A116" s="39">
         <f t="shared" si="23"/>
         <v>2.6499999999999968</v>
@@ -40744,7 +41228,7 @@
       <c r="Z116" s="42"/>
       <c r="AA116" s="42"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A117" s="39">
         <f t="shared" si="23"/>
         <v>2.6999999999999966</v>
@@ -40817,7 +41301,7 @@
       <c r="Z117" s="42"/>
       <c r="AA117" s="42"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A118" s="39">
         <f t="shared" si="23"/>
         <v>2.7499999999999964</v>
@@ -40890,7 +41374,7 @@
       <c r="Z118" s="42"/>
       <c r="AA118" s="42"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A119" s="39">
         <f t="shared" si="23"/>
         <v>2.7999999999999963</v>
@@ -40963,7 +41447,7 @@
       <c r="Z119" s="42"/>
       <c r="AA119" s="42"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A120" s="39">
         <f t="shared" si="23"/>
         <v>2.8499999999999961</v>
@@ -41036,7 +41520,7 @@
       <c r="Z120" s="42"/>
       <c r="AA120" s="42"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A121" s="39">
         <f t="shared" si="23"/>
         <v>2.8999999999999959</v>
@@ -41109,7 +41593,7 @@
       <c r="Z121" s="42"/>
       <c r="AA121" s="42"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A122" s="39">
         <f t="shared" si="23"/>
         <v>2.9499999999999957</v>
@@ -41182,7 +41666,7 @@
       <c r="Z122" s="42"/>
       <c r="AA122" s="42"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A123" s="39">
         <f t="shared" si="23"/>
         <v>2.9999999999999956</v>
@@ -41255,7 +41739,7 @@
       <c r="Z123" s="42"/>
       <c r="AA123" s="42"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J124" s="39">
         <f t="shared" si="29"/>
         <v>2.0499999999999954</v>
@@ -41296,7 +41780,7 @@
       <c r="Z124" s="42"/>
       <c r="AA124" s="42"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J125" s="39">
         <f t="shared" si="29"/>
         <v>2.0999999999999952</v>
@@ -41337,7 +41821,7 @@
       <c r="Z125" s="42"/>
       <c r="AA125" s="42"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J126" s="39">
         <f t="shared" si="29"/>
         <v>2.149999999999995</v>
@@ -41378,7 +41862,7 @@
       <c r="Z126" s="42"/>
       <c r="AA126" s="42"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J127" s="39">
         <f t="shared" si="29"/>
         <v>2.1999999999999948</v>
@@ -41419,7 +41903,7 @@
       <c r="Z127" s="42"/>
       <c r="AA127" s="42"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J128" s="39">
         <f t="shared" si="29"/>
         <v>2.2499999999999947</v>
@@ -41460,7 +41944,7 @@
       <c r="Z128" s="42"/>
       <c r="AA128" s="42"/>
     </row>
-    <row r="129" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J129" s="39">
         <f t="shared" si="29"/>
         <v>2.2999999999999945</v>
@@ -41501,7 +41985,7 @@
       <c r="Z129" s="42"/>
       <c r="AA129" s="42"/>
     </row>
-    <row r="130" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J130" s="39">
         <f t="shared" si="29"/>
         <v>2.3499999999999943</v>
@@ -41542,7 +42026,7 @@
       <c r="Z130" s="42"/>
       <c r="AA130" s="42"/>
     </row>
-    <row r="131" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J131" s="39">
         <f t="shared" si="29"/>
         <v>2.3999999999999941</v>
@@ -41583,7 +42067,7 @@
       <c r="Z131" s="42"/>
       <c r="AA131" s="42"/>
     </row>
-    <row r="132" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J132" s="39">
         <f t="shared" si="29"/>
         <v>2.449999999999994</v>
@@ -41624,7 +42108,7 @@
       <c r="Z132" s="42"/>
       <c r="AA132" s="42"/>
     </row>
-    <row r="133" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J133" s="39">
         <f t="shared" ref="J133:J163" si="37">J132+0.05</f>
         <v>2.4999999999999938</v>
@@ -41665,7 +42149,7 @@
       <c r="Z133" s="42"/>
       <c r="AA133" s="42"/>
     </row>
-    <row r="134" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J134" s="39">
         <f t="shared" si="37"/>
         <v>2.5499999999999936</v>
@@ -41706,7 +42190,7 @@
       <c r="Z134" s="42"/>
       <c r="AA134" s="42"/>
     </row>
-    <row r="135" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J135" s="39">
         <f t="shared" si="37"/>
         <v>2.5999999999999934</v>
@@ -41747,7 +42231,7 @@
       <c r="Z135" s="42"/>
       <c r="AA135" s="42"/>
     </row>
-    <row r="136" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J136" s="39">
         <f t="shared" si="37"/>
         <v>2.6499999999999932</v>
@@ -41788,7 +42272,7 @@
       <c r="Z136" s="42"/>
       <c r="AA136" s="42"/>
     </row>
-    <row r="137" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J137" s="39">
         <f t="shared" si="37"/>
         <v>2.6999999999999931</v>
@@ -41829,7 +42313,7 @@
       <c r="Z137" s="42"/>
       <c r="AA137" s="42"/>
     </row>
-    <row r="138" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J138" s="39">
         <f t="shared" si="37"/>
         <v>2.7499999999999929</v>
@@ -41870,7 +42354,7 @@
       <c r="Z138" s="42"/>
       <c r="AA138" s="42"/>
     </row>
-    <row r="139" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J139" s="39">
         <f t="shared" si="37"/>
         <v>2.7999999999999927</v>
@@ -41911,7 +42395,7 @@
       <c r="Z139" s="42"/>
       <c r="AA139" s="42"/>
     </row>
-    <row r="140" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J140" s="39">
         <f t="shared" si="37"/>
         <v>2.8499999999999925</v>
@@ -41952,7 +42436,7 @@
       <c r="Z140" s="42"/>
       <c r="AA140" s="42"/>
     </row>
-    <row r="141" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J141" s="39">
         <f t="shared" si="37"/>
         <v>2.8999999999999924</v>
@@ -41993,7 +42477,7 @@
       <c r="Z141" s="42"/>
       <c r="AA141" s="42"/>
     </row>
-    <row r="142" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J142" s="39">
         <f t="shared" si="37"/>
         <v>2.9499999999999922</v>
@@ -42034,7 +42518,7 @@
       <c r="Z142" s="42"/>
       <c r="AA142" s="42"/>
     </row>
-    <row r="143" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J143" s="39">
         <f t="shared" si="37"/>
         <v>2.999999999999992</v>
@@ -42075,7 +42559,7 @@
       <c r="Z143" s="42"/>
       <c r="AA143" s="42"/>
     </row>
-    <row r="144" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J144" s="39">
         <f t="shared" si="37"/>
         <v>3.0499999999999918</v>
@@ -42116,7 +42600,7 @@
       <c r="Z144" s="42"/>
       <c r="AA144" s="42"/>
     </row>
-    <row r="145" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J145" s="39">
         <f t="shared" si="37"/>
         <v>3.0999999999999917</v>
@@ -42157,7 +42641,7 @@
       <c r="Z145" s="42"/>
       <c r="AA145" s="42"/>
     </row>
-    <row r="146" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J146" s="39">
         <f t="shared" si="37"/>
         <v>3.1499999999999915</v>
@@ -42198,7 +42682,7 @@
       <c r="Z146" s="42"/>
       <c r="AA146" s="42"/>
     </row>
-    <row r="147" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J147" s="39">
         <f t="shared" si="37"/>
         <v>3.1999999999999913</v>
@@ -42239,7 +42723,7 @@
       <c r="Z147" s="42"/>
       <c r="AA147" s="42"/>
     </row>
-    <row r="148" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J148" s="39">
         <f t="shared" si="37"/>
         <v>3.2499999999999911</v>
@@ -42280,7 +42764,7 @@
       <c r="Z148" s="42"/>
       <c r="AA148" s="42"/>
     </row>
-    <row r="149" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J149" s="39">
         <f t="shared" si="37"/>
         <v>3.2999999999999909</v>
@@ -42321,7 +42805,7 @@
       <c r="Z149" s="42"/>
       <c r="AA149" s="42"/>
     </row>
-    <row r="150" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J150" s="39">
         <f t="shared" si="37"/>
         <v>3.3499999999999908</v>
@@ -42362,7 +42846,7 @@
       <c r="Z150" s="42"/>
       <c r="AA150" s="42"/>
     </row>
-    <row r="151" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J151" s="39">
         <f t="shared" si="37"/>
         <v>3.3999999999999906</v>
@@ -42403,7 +42887,7 @@
       <c r="Z151" s="42"/>
       <c r="AA151" s="42"/>
     </row>
-    <row r="152" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J152" s="39">
         <f t="shared" si="37"/>
         <v>3.4499999999999904</v>
@@ -42444,7 +42928,7 @@
       <c r="Z152" s="42"/>
       <c r="AA152" s="42"/>
     </row>
-    <row r="153" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J153" s="39">
         <f t="shared" si="37"/>
         <v>3.4999999999999902</v>
@@ -42485,7 +42969,7 @@
       <c r="Z153" s="42"/>
       <c r="AA153" s="42"/>
     </row>
-    <row r="154" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J154" s="39">
         <f t="shared" si="37"/>
         <v>3.5499999999999901</v>
@@ -42526,7 +43010,7 @@
       <c r="Z154" s="42"/>
       <c r="AA154" s="42"/>
     </row>
-    <row r="155" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J155" s="39">
         <f t="shared" si="37"/>
         <v>3.5999999999999899</v>
@@ -42567,7 +43051,7 @@
       <c r="Z155" s="42"/>
       <c r="AA155" s="42"/>
     </row>
-    <row r="156" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J156" s="39">
         <f t="shared" si="37"/>
         <v>3.6499999999999897</v>
@@ -42608,7 +43092,7 @@
       <c r="Z156" s="42"/>
       <c r="AA156" s="42"/>
     </row>
-    <row r="157" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J157" s="39">
         <f t="shared" si="37"/>
         <v>3.6999999999999895</v>
@@ -42649,7 +43133,7 @@
       <c r="Z157" s="42"/>
       <c r="AA157" s="42"/>
     </row>
-    <row r="158" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J158" s="39">
         <f t="shared" si="37"/>
         <v>3.7499999999999893</v>
@@ -42690,7 +43174,7 @@
       <c r="Z158" s="42"/>
       <c r="AA158" s="42"/>
     </row>
-    <row r="159" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J159" s="39">
         <f t="shared" si="37"/>
         <v>3.7999999999999892</v>
@@ -42731,7 +43215,7 @@
       <c r="Z159" s="42"/>
       <c r="AA159" s="42"/>
     </row>
-    <row r="160" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J160" s="39">
         <f t="shared" si="37"/>
         <v>3.849999999999989</v>
@@ -42772,7 +43256,7 @@
       <c r="Z160" s="42"/>
       <c r="AA160" s="42"/>
     </row>
-    <row r="161" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J161" s="39">
         <f t="shared" si="37"/>
         <v>3.8999999999999888</v>
@@ -42813,7 +43297,7 @@
       <c r="Z161" s="42"/>
       <c r="AA161" s="42"/>
     </row>
-    <row r="162" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J162" s="39">
         <f t="shared" si="37"/>
         <v>3.9499999999999886</v>
@@ -42854,7 +43338,7 @@
       <c r="Z162" s="42"/>
       <c r="AA162" s="42"/>
     </row>
-    <row r="163" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:27" x14ac:dyDescent="0.45">
       <c r="J163" s="39">
         <f t="shared" si="37"/>
         <v>3.9999999999999885</v>
@@ -42895,7 +43379,7 @@
       <c r="Z163" s="42"/>
       <c r="AA163" s="42"/>
     </row>
-    <row r="164" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T164" s="42"/>
       <c r="U164" s="42"/>
       <c r="V164" s="42"/>
@@ -42905,7 +43389,7 @@
       <c r="Z164" s="42"/>
       <c r="AA164" s="42"/>
     </row>
-    <row r="165" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T165" s="42"/>
       <c r="U165" s="42"/>
       <c r="V165" s="42"/>
@@ -42915,7 +43399,7 @@
       <c r="Z165" s="42"/>
       <c r="AA165" s="42"/>
     </row>
-    <row r="166" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T166" s="42"/>
       <c r="U166" s="42"/>
       <c r="V166" s="42"/>
@@ -42925,7 +43409,7 @@
       <c r="Z166" s="42"/>
       <c r="AA166" s="42"/>
     </row>
-    <row r="167" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T167" s="42"/>
       <c r="U167" s="42"/>
       <c r="V167" s="42"/>
@@ -42935,7 +43419,7 @@
       <c r="Z167" s="42"/>
       <c r="AA167" s="42"/>
     </row>
-    <row r="168" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T168" s="42"/>
       <c r="U168" s="42"/>
       <c r="V168" s="42"/>
@@ -42945,7 +43429,7 @@
       <c r="Z168" s="42"/>
       <c r="AA168" s="42"/>
     </row>
-    <row r="169" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T169" s="42"/>
       <c r="U169" s="42"/>
       <c r="V169" s="42"/>
@@ -42955,7 +43439,7 @@
       <c r="Z169" s="42"/>
       <c r="AA169" s="42"/>
     </row>
-    <row r="170" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T170" s="42"/>
       <c r="U170" s="42"/>
       <c r="V170" s="42"/>
@@ -42965,7 +43449,7 @@
       <c r="Z170" s="42"/>
       <c r="AA170" s="42"/>
     </row>
-    <row r="171" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T171" s="42"/>
       <c r="U171" s="42"/>
       <c r="V171" s="42"/>
@@ -42975,7 +43459,7 @@
       <c r="Z171" s="42"/>
       <c r="AA171" s="42"/>
     </row>
-    <row r="172" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T172" s="42"/>
       <c r="U172" s="42"/>
       <c r="V172" s="42"/>
@@ -42985,7 +43469,7 @@
       <c r="Z172" s="42"/>
       <c r="AA172" s="42"/>
     </row>
-    <row r="173" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T173" s="42"/>
       <c r="U173" s="42"/>
       <c r="V173" s="42"/>
@@ -42995,7 +43479,7 @@
       <c r="Z173" s="42"/>
       <c r="AA173" s="42"/>
     </row>
-    <row r="174" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T174" s="42"/>
       <c r="U174" s="42"/>
       <c r="V174" s="42"/>
@@ -43005,7 +43489,7 @@
       <c r="Z174" s="42"/>
       <c r="AA174" s="42"/>
     </row>
-    <row r="175" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T175" s="42"/>
       <c r="U175" s="42"/>
       <c r="V175" s="42"/>
@@ -43015,7 +43499,7 @@
       <c r="Z175" s="42"/>
       <c r="AA175" s="42"/>
     </row>
-    <row r="176" spans="10:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:27" x14ac:dyDescent="0.45">
       <c r="T176" s="42"/>
       <c r="U176" s="42"/>
       <c r="V176" s="42"/>
@@ -43025,7 +43509,7 @@
       <c r="Z176" s="42"/>
       <c r="AA176" s="42"/>
     </row>
-    <row r="177" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T177" s="42"/>
       <c r="U177" s="42"/>
       <c r="V177" s="42"/>
@@ -43035,7 +43519,7 @@
       <c r="Z177" s="42"/>
       <c r="AA177" s="42"/>
     </row>
-    <row r="178" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T178" s="42"/>
       <c r="U178" s="42"/>
       <c r="V178" s="42"/>
@@ -43045,7 +43529,7 @@
       <c r="Z178" s="42"/>
       <c r="AA178" s="42"/>
     </row>
-    <row r="179" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T179" s="42"/>
       <c r="U179" s="42"/>
       <c r="V179" s="42"/>
@@ -43055,7 +43539,7 @@
       <c r="Z179" s="42"/>
       <c r="AA179" s="42"/>
     </row>
-    <row r="180" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T180" s="42"/>
       <c r="U180" s="42"/>
       <c r="V180" s="42"/>
@@ -43065,7 +43549,7 @@
       <c r="Z180" s="42"/>
       <c r="AA180" s="42"/>
     </row>
-    <row r="181" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T181" s="42"/>
       <c r="U181" s="42"/>
       <c r="V181" s="42"/>
@@ -43075,7 +43559,7 @@
       <c r="Z181" s="42"/>
       <c r="AA181" s="42"/>
     </row>
-    <row r="182" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T182" s="42"/>
       <c r="U182" s="42"/>
       <c r="V182" s="42"/>
@@ -43085,7 +43569,7 @@
       <c r="Z182" s="42"/>
       <c r="AA182" s="42"/>
     </row>
-    <row r="183" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T183" s="42"/>
       <c r="U183" s="42"/>
       <c r="V183" s="42"/>
@@ -43095,7 +43579,7 @@
       <c r="Z183" s="42"/>
       <c r="AA183" s="42"/>
     </row>
-    <row r="184" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T184" s="42"/>
       <c r="U184" s="42"/>
       <c r="V184" s="42"/>
@@ -43105,7 +43589,7 @@
       <c r="Z184" s="42"/>
       <c r="AA184" s="42"/>
     </row>
-    <row r="185" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T185" s="42"/>
       <c r="U185" s="42"/>
       <c r="V185" s="42"/>
@@ -43115,7 +43599,7 @@
       <c r="Z185" s="42"/>
       <c r="AA185" s="42"/>
     </row>
-    <row r="186" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T186" s="42"/>
       <c r="U186" s="42"/>
       <c r="V186" s="42"/>
@@ -43125,7 +43609,7 @@
       <c r="Z186" s="42"/>
       <c r="AA186" s="42"/>
     </row>
-    <row r="187" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T187" s="42"/>
       <c r="U187" s="42"/>
       <c r="V187" s="42"/>
@@ -43135,7 +43619,7 @@
       <c r="Z187" s="42"/>
       <c r="AA187" s="42"/>
     </row>
-    <row r="188" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T188" s="42"/>
       <c r="U188" s="42"/>
       <c r="V188" s="42"/>
@@ -43145,7 +43629,7 @@
       <c r="Z188" s="42"/>
       <c r="AA188" s="42"/>
     </row>
-    <row r="189" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T189" s="42"/>
       <c r="U189" s="42"/>
       <c r="V189" s="42"/>
@@ -43155,7 +43639,7 @@
       <c r="Z189" s="42"/>
       <c r="AA189" s="42"/>
     </row>
-    <row r="190" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T190" s="42"/>
       <c r="U190" s="42"/>
       <c r="V190" s="42"/>
@@ -43165,7 +43649,7 @@
       <c r="Z190" s="42"/>
       <c r="AA190" s="42"/>
     </row>
-    <row r="191" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T191" s="42"/>
       <c r="U191" s="42"/>
       <c r="V191" s="42"/>
@@ -43175,7 +43659,7 @@
       <c r="Z191" s="42"/>
       <c r="AA191" s="42"/>
     </row>
-    <row r="192" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T192" s="42"/>
       <c r="U192" s="42"/>
       <c r="V192" s="42"/>
@@ -43185,7 +43669,7 @@
       <c r="Z192" s="42"/>
       <c r="AA192" s="42"/>
     </row>
-    <row r="193" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T193" s="42"/>
       <c r="U193" s="42"/>
       <c r="V193" s="42"/>
@@ -43195,7 +43679,7 @@
       <c r="Z193" s="42"/>
       <c r="AA193" s="42"/>
     </row>
-    <row r="194" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T194" s="42"/>
       <c r="U194" s="42"/>
       <c r="V194" s="42"/>
@@ -43205,7 +43689,7 @@
       <c r="Z194" s="42"/>
       <c r="AA194" s="42"/>
     </row>
-    <row r="195" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T195" s="42"/>
       <c r="U195" s="42"/>
       <c r="V195" s="42"/>
@@ -43215,7 +43699,7 @@
       <c r="Z195" s="42"/>
       <c r="AA195" s="42"/>
     </row>
-    <row r="196" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T196" s="42"/>
       <c r="U196" s="42"/>
       <c r="V196" s="42"/>
@@ -43225,7 +43709,7 @@
       <c r="Z196" s="42"/>
       <c r="AA196" s="42"/>
     </row>
-    <row r="197" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T197" s="42"/>
       <c r="U197" s="42"/>
       <c r="V197" s="42"/>
@@ -43235,7 +43719,7 @@
       <c r="Z197" s="42"/>
       <c r="AA197" s="42"/>
     </row>
-    <row r="198" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T198" s="42"/>
       <c r="U198" s="42"/>
       <c r="V198" s="42"/>
@@ -43245,7 +43729,7 @@
       <c r="Z198" s="42"/>
       <c r="AA198" s="42"/>
     </row>
-    <row r="199" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T199" s="42"/>
       <c r="U199" s="42"/>
       <c r="V199" s="42"/>
@@ -43255,7 +43739,7 @@
       <c r="Z199" s="42"/>
       <c r="AA199" s="42"/>
     </row>
-    <row r="200" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T200" s="42"/>
       <c r="U200" s="42"/>
       <c r="V200" s="42"/>
@@ -43265,7 +43749,7 @@
       <c r="Z200" s="42"/>
       <c r="AA200" s="42"/>
     </row>
-    <row r="201" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T201" s="42"/>
       <c r="U201" s="42"/>
       <c r="V201" s="42"/>
@@ -43275,7 +43759,7 @@
       <c r="Z201" s="42"/>
       <c r="AA201" s="42"/>
     </row>
-    <row r="202" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T202" s="42"/>
       <c r="U202" s="42"/>
       <c r="V202" s="42"/>
@@ -43285,7 +43769,7 @@
       <c r="Z202" s="42"/>
       <c r="AA202" s="42"/>
     </row>
-    <row r="203" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T203" s="42"/>
       <c r="U203" s="42"/>
       <c r="V203" s="42"/>
@@ -43295,7 +43779,7 @@
       <c r="Z203" s="42"/>
       <c r="AA203" s="42"/>
     </row>
-    <row r="204" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T204" s="42"/>
       <c r="U204" s="42"/>
       <c r="V204" s="42"/>
@@ -43305,7 +43789,7 @@
       <c r="Z204" s="42"/>
       <c r="AA204" s="42"/>
     </row>
-    <row r="205" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T205" s="42"/>
       <c r="U205" s="42"/>
       <c r="V205" s="42"/>
@@ -43315,7 +43799,7 @@
       <c r="Z205" s="42"/>
       <c r="AA205" s="42"/>
     </row>
-    <row r="206" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T206" s="42"/>
       <c r="U206" s="42"/>
       <c r="V206" s="42"/>
@@ -43325,7 +43809,7 @@
       <c r="Z206" s="42"/>
       <c r="AA206" s="42"/>
     </row>
-    <row r="207" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T207" s="42"/>
       <c r="U207" s="42"/>
       <c r="V207" s="42"/>
@@ -43335,7 +43819,7 @@
       <c r="Z207" s="42"/>
       <c r="AA207" s="42"/>
     </row>
-    <row r="208" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T208" s="42"/>
       <c r="U208" s="42"/>
       <c r="V208" s="42"/>
@@ -43345,7 +43829,7 @@
       <c r="Z208" s="42"/>
       <c r="AA208" s="42"/>
     </row>
-    <row r="209" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T209" s="42"/>
       <c r="U209" s="42"/>
       <c r="V209" s="42"/>
@@ -43355,7 +43839,7 @@
       <c r="Z209" s="42"/>
       <c r="AA209" s="42"/>
     </row>
-    <row r="210" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T210" s="42"/>
       <c r="U210" s="42"/>
       <c r="V210" s="42"/>
@@ -43365,7 +43849,7 @@
       <c r="Z210" s="42"/>
       <c r="AA210" s="42"/>
     </row>
-    <row r="211" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T211" s="42"/>
       <c r="U211" s="42"/>
       <c r="V211" s="42"/>
@@ -43375,7 +43859,7 @@
       <c r="Z211" s="42"/>
       <c r="AA211" s="42"/>
     </row>
-    <row r="212" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T212" s="42"/>
       <c r="U212" s="42"/>
       <c r="V212" s="42"/>
@@ -43385,7 +43869,7 @@
       <c r="Z212" s="42"/>
       <c r="AA212" s="42"/>
     </row>
-    <row r="213" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T213" s="42"/>
       <c r="U213" s="42"/>
       <c r="V213" s="42"/>
@@ -43395,7 +43879,7 @@
       <c r="Z213" s="42"/>
       <c r="AA213" s="42"/>
     </row>
-    <row r="214" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T214" s="42"/>
       <c r="U214" s="42"/>
       <c r="V214" s="42"/>
@@ -43405,7 +43889,7 @@
       <c r="Z214" s="42"/>
       <c r="AA214" s="42"/>
     </row>
-    <row r="215" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T215" s="42"/>
       <c r="U215" s="42"/>
       <c r="V215" s="42"/>
@@ -43415,7 +43899,7 @@
       <c r="Z215" s="42"/>
       <c r="AA215" s="42"/>
     </row>
-    <row r="216" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T216" s="42"/>
       <c r="U216" s="42"/>
       <c r="V216" s="42"/>
@@ -43425,7 +43909,7 @@
       <c r="Z216" s="42"/>
       <c r="AA216" s="42"/>
     </row>
-    <row r="217" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T217" s="42"/>
       <c r="U217" s="42"/>
       <c r="V217" s="42"/>
@@ -43435,7 +43919,7 @@
       <c r="Z217" s="42"/>
       <c r="AA217" s="42"/>
     </row>
-    <row r="218" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T218" s="42"/>
       <c r="U218" s="42"/>
       <c r="V218" s="42"/>
@@ -43445,7 +43929,7 @@
       <c r="Z218" s="42"/>
       <c r="AA218" s="42"/>
     </row>
-    <row r="219" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T219" s="42"/>
       <c r="U219" s="42"/>
       <c r="V219" s="42"/>
@@ -43455,7 +43939,7 @@
       <c r="Z219" s="42"/>
       <c r="AA219" s="42"/>
     </row>
-    <row r="220" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T220" s="42"/>
       <c r="U220" s="42"/>
       <c r="V220" s="42"/>
@@ -43465,7 +43949,7 @@
       <c r="Z220" s="42"/>
       <c r="AA220" s="42"/>
     </row>
-    <row r="221" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T221" s="42"/>
       <c r="U221" s="42"/>
       <c r="V221" s="42"/>
@@ -43475,7 +43959,7 @@
       <c r="Z221" s="42"/>
       <c r="AA221" s="42"/>
     </row>
-    <row r="222" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T222" s="42"/>
       <c r="U222" s="42"/>
       <c r="V222" s="42"/>
@@ -43485,7 +43969,7 @@
       <c r="Z222" s="42"/>
       <c r="AA222" s="42"/>
     </row>
-    <row r="223" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T223" s="42"/>
       <c r="U223" s="42"/>
       <c r="V223" s="42"/>
@@ -43495,7 +43979,7 @@
       <c r="Z223" s="42"/>
       <c r="AA223" s="42"/>
     </row>
-    <row r="224" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T224" s="42"/>
       <c r="U224" s="42"/>
       <c r="V224" s="42"/>
@@ -43505,7 +43989,7 @@
       <c r="Z224" s="42"/>
       <c r="AA224" s="42"/>
     </row>
-    <row r="225" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T225" s="42"/>
       <c r="U225" s="42"/>
       <c r="V225" s="42"/>
@@ -43515,7 +43999,7 @@
       <c r="Z225" s="42"/>
       <c r="AA225" s="42"/>
     </row>
-    <row r="226" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T226" s="42"/>
       <c r="U226" s="42"/>
       <c r="V226" s="42"/>
@@ -43525,7 +44009,7 @@
       <c r="Z226" s="42"/>
       <c r="AA226" s="42"/>
     </row>
-    <row r="227" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T227" s="42"/>
       <c r="U227" s="42"/>
       <c r="V227" s="42"/>
@@ -43535,7 +44019,7 @@
       <c r="Z227" s="42"/>
       <c r="AA227" s="42"/>
     </row>
-    <row r="228" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T228" s="42"/>
       <c r="U228" s="42"/>
       <c r="V228" s="42"/>
@@ -43545,7 +44029,7 @@
       <c r="Z228" s="42"/>
       <c r="AA228" s="42"/>
     </row>
-    <row r="229" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T229" s="42"/>
       <c r="U229" s="42"/>
       <c r="V229" s="42"/>
@@ -43555,7 +44039,7 @@
       <c r="Z229" s="42"/>
       <c r="AA229" s="42"/>
     </row>
-    <row r="230" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T230" s="42"/>
       <c r="U230" s="42"/>
       <c r="V230" s="42"/>
@@ -43565,7 +44049,7 @@
       <c r="Z230" s="42"/>
       <c r="AA230" s="42"/>
     </row>
-    <row r="231" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T231" s="42"/>
       <c r="U231" s="42"/>
       <c r="V231" s="42"/>
@@ -43575,7 +44059,7 @@
       <c r="Z231" s="42"/>
       <c r="AA231" s="42"/>
     </row>
-    <row r="232" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T232" s="42"/>
       <c r="U232" s="42"/>
       <c r="V232" s="42"/>
@@ -43585,7 +44069,7 @@
       <c r="Z232" s="42"/>
       <c r="AA232" s="42"/>
     </row>
-    <row r="233" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T233" s="42"/>
       <c r="U233" s="42"/>
       <c r="V233" s="42"/>
@@ -43595,7 +44079,7 @@
       <c r="Z233" s="42"/>
       <c r="AA233" s="42"/>
     </row>
-    <row r="234" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T234" s="42"/>
       <c r="U234" s="42"/>
       <c r="V234" s="42"/>
@@ -43605,7 +44089,7 @@
       <c r="Z234" s="42"/>
       <c r="AA234" s="42"/>
     </row>
-    <row r="235" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T235" s="42"/>
       <c r="U235" s="42"/>
       <c r="V235" s="42"/>
@@ -43615,7 +44099,7 @@
       <c r="Z235" s="42"/>
       <c r="AA235" s="42"/>
     </row>
-    <row r="236" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T236" s="42"/>
       <c r="U236" s="42"/>
       <c r="V236" s="42"/>
@@ -43625,7 +44109,7 @@
       <c r="Z236" s="42"/>
       <c r="AA236" s="42"/>
     </row>
-    <row r="237" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T237" s="42"/>
       <c r="U237" s="42"/>
       <c r="V237" s="42"/>
@@ -43635,7 +44119,7 @@
       <c r="Z237" s="42"/>
       <c r="AA237" s="42"/>
     </row>
-    <row r="238" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T238" s="42"/>
       <c r="U238" s="42"/>
       <c r="V238" s="42"/>
@@ -43645,7 +44129,7 @@
       <c r="Z238" s="42"/>
       <c r="AA238" s="42"/>
     </row>
-    <row r="239" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T239" s="42"/>
       <c r="U239" s="42"/>
       <c r="V239" s="42"/>
@@ -43655,7 +44139,7 @@
       <c r="Z239" s="42"/>
       <c r="AA239" s="42"/>
     </row>
-    <row r="240" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T240" s="42"/>
       <c r="U240" s="42"/>
       <c r="V240" s="42"/>
@@ -43665,7 +44149,7 @@
       <c r="Z240" s="42"/>
       <c r="AA240" s="42"/>
     </row>
-    <row r="241" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T241" s="42"/>
       <c r="U241" s="42"/>
       <c r="V241" s="42"/>
@@ -43675,7 +44159,7 @@
       <c r="Z241" s="42"/>
       <c r="AA241" s="42"/>
     </row>
-    <row r="242" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T242" s="42"/>
       <c r="U242" s="42"/>
       <c r="V242" s="42"/>
@@ -43685,7 +44169,7 @@
       <c r="Z242" s="42"/>
       <c r="AA242" s="42"/>
     </row>
-    <row r="243" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T243" s="42"/>
       <c r="U243" s="42"/>
       <c r="V243" s="42"/>
@@ -43695,7 +44179,7 @@
       <c r="Z243" s="42"/>
       <c r="AA243" s="42"/>
     </row>
-    <row r="244" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T244" s="42"/>
       <c r="U244" s="42"/>
       <c r="V244" s="42"/>
@@ -43705,7 +44189,7 @@
       <c r="Z244" s="42"/>
       <c r="AA244" s="42"/>
     </row>
-    <row r="245" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T245" s="42"/>
       <c r="U245" s="42"/>
       <c r="V245" s="42"/>
@@ -43715,7 +44199,7 @@
       <c r="Z245" s="42"/>
       <c r="AA245" s="42"/>
     </row>
-    <row r="246" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T246" s="42"/>
       <c r="U246" s="42"/>
       <c r="V246" s="42"/>
@@ -43725,7 +44209,7 @@
       <c r="Z246" s="42"/>
       <c r="AA246" s="42"/>
     </row>
-    <row r="247" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T247" s="42"/>
       <c r="U247" s="42"/>
       <c r="V247" s="42"/>
@@ -43735,7 +44219,7 @@
       <c r="Z247" s="42"/>
       <c r="AA247" s="42"/>
     </row>
-    <row r="248" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T248" s="42"/>
       <c r="U248" s="42"/>
       <c r="V248" s="42"/>
@@ -43745,7 +44229,7 @@
       <c r="Z248" s="42"/>
       <c r="AA248" s="42"/>
     </row>
-    <row r="249" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T249" s="42"/>
       <c r="U249" s="42"/>
       <c r="V249" s="42"/>
@@ -43755,7 +44239,7 @@
       <c r="Z249" s="42"/>
       <c r="AA249" s="42"/>
     </row>
-    <row r="250" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T250" s="42"/>
       <c r="U250" s="42"/>
       <c r="V250" s="42"/>
@@ -43765,7 +44249,7 @@
       <c r="Z250" s="42"/>
       <c r="AA250" s="42"/>
     </row>
-    <row r="251" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T251" s="42"/>
       <c r="U251" s="42"/>
       <c r="V251" s="42"/>
@@ -43775,7 +44259,7 @@
       <c r="Z251" s="42"/>
       <c r="AA251" s="42"/>
     </row>
-    <row r="252" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T252" s="42"/>
       <c r="U252" s="42"/>
       <c r="V252" s="42"/>
@@ -43785,7 +44269,7 @@
       <c r="Z252" s="42"/>
       <c r="AA252" s="42"/>
     </row>
-    <row r="253" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T253" s="42"/>
       <c r="U253" s="42"/>
       <c r="V253" s="42"/>
@@ -43795,7 +44279,7 @@
       <c r="Z253" s="42"/>
       <c r="AA253" s="42"/>
     </row>
-    <row r="254" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T254" s="42"/>
       <c r="U254" s="42"/>
       <c r="V254" s="42"/>
@@ -43805,7 +44289,7 @@
       <c r="Z254" s="42"/>
       <c r="AA254" s="42"/>
     </row>
-    <row r="255" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T255" s="42"/>
       <c r="U255" s="42"/>
       <c r="V255" s="42"/>
@@ -43815,7 +44299,7 @@
       <c r="Z255" s="42"/>
       <c r="AA255" s="42"/>
     </row>
-    <row r="256" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T256" s="42"/>
       <c r="U256" s="42"/>
       <c r="V256" s="42"/>
@@ -43825,7 +44309,7 @@
       <c r="Z256" s="42"/>
       <c r="AA256" s="42"/>
     </row>
-    <row r="257" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T257" s="42"/>
       <c r="U257" s="42"/>
       <c r="V257" s="42"/>
@@ -43835,7 +44319,7 @@
       <c r="Z257" s="42"/>
       <c r="AA257" s="42"/>
     </row>
-    <row r="258" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T258" s="42"/>
       <c r="U258" s="42"/>
       <c r="V258" s="42"/>
@@ -43845,7 +44329,7 @@
       <c r="Z258" s="42"/>
       <c r="AA258" s="42"/>
     </row>
-    <row r="259" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T259" s="42"/>
       <c r="U259" s="42"/>
       <c r="V259" s="42"/>
@@ -43855,7 +44339,7 @@
       <c r="Z259" s="42"/>
       <c r="AA259" s="42"/>
     </row>
-    <row r="260" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T260" s="42"/>
       <c r="U260" s="42"/>
       <c r="V260" s="42"/>
@@ -43865,7 +44349,7 @@
       <c r="Z260" s="42"/>
       <c r="AA260" s="42"/>
     </row>
-    <row r="261" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T261" s="42"/>
       <c r="U261" s="42"/>
       <c r="V261" s="42"/>
@@ -43875,7 +44359,7 @@
       <c r="Z261" s="42"/>
       <c r="AA261" s="42"/>
     </row>
-    <row r="262" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T262" s="42"/>
       <c r="U262" s="42"/>
       <c r="V262" s="42"/>
@@ -43885,7 +44369,7 @@
       <c r="Z262" s="42"/>
       <c r="AA262" s="42"/>
     </row>
-    <row r="263" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T263" s="42"/>
       <c r="U263" s="42"/>
       <c r="V263" s="42"/>
@@ -43895,7 +44379,7 @@
       <c r="Z263" s="42"/>
       <c r="AA263" s="42"/>
     </row>
-    <row r="264" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T264" s="42"/>
       <c r="U264" s="42"/>
       <c r="V264" s="42"/>
@@ -43905,7 +44389,7 @@
       <c r="Z264" s="42"/>
       <c r="AA264" s="42"/>
     </row>
-    <row r="265" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T265" s="42"/>
       <c r="U265" s="42"/>
       <c r="V265" s="42"/>
@@ -43915,7 +44399,7 @@
       <c r="Z265" s="42"/>
       <c r="AA265" s="42"/>
     </row>
-    <row r="266" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T266" s="42"/>
       <c r="U266" s="42"/>
       <c r="V266" s="42"/>
@@ -43925,7 +44409,7 @@
       <c r="Z266" s="42"/>
       <c r="AA266" s="42"/>
     </row>
-    <row r="267" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T267" s="42"/>
       <c r="U267" s="42"/>
       <c r="V267" s="42"/>
@@ -43935,7 +44419,7 @@
       <c r="Z267" s="42"/>
       <c r="AA267" s="42"/>
     </row>
-    <row r="268" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T268" s="42"/>
       <c r="U268" s="42"/>
       <c r="V268" s="42"/>
@@ -43945,7 +44429,7 @@
       <c r="Z268" s="42"/>
       <c r="AA268" s="42"/>
     </row>
-    <row r="269" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T269" s="42"/>
       <c r="U269" s="42"/>
       <c r="V269" s="42"/>
@@ -43955,7 +44439,7 @@
       <c r="Z269" s="42"/>
       <c r="AA269" s="42"/>
     </row>
-    <row r="270" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T270" s="42"/>
       <c r="U270" s="42"/>
       <c r="V270" s="42"/>
@@ -43965,7 +44449,7 @@
       <c r="Z270" s="42"/>
       <c r="AA270" s="42"/>
     </row>
-    <row r="271" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T271" s="42"/>
       <c r="U271" s="42"/>
       <c r="V271" s="42"/>
@@ -43975,7 +44459,7 @@
       <c r="Z271" s="42"/>
       <c r="AA271" s="42"/>
     </row>
-    <row r="272" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T272" s="42"/>
       <c r="U272" s="42"/>
       <c r="V272" s="42"/>
@@ -43985,7 +44469,7 @@
       <c r="Z272" s="42"/>
       <c r="AA272" s="42"/>
     </row>
-    <row r="273" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T273" s="42"/>
       <c r="U273" s="42"/>
       <c r="V273" s="42"/>
@@ -43995,7 +44479,7 @@
       <c r="Z273" s="42"/>
       <c r="AA273" s="42"/>
     </row>
-    <row r="274" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T274" s="42"/>
       <c r="U274" s="42"/>
       <c r="V274" s="42"/>
@@ -44005,7 +44489,7 @@
       <c r="Z274" s="42"/>
       <c r="AA274" s="42"/>
     </row>
-    <row r="275" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T275" s="42"/>
       <c r="U275" s="42"/>
       <c r="V275" s="42"/>
@@ -44015,7 +44499,7 @@
       <c r="Z275" s="42"/>
       <c r="AA275" s="42"/>
     </row>
-    <row r="276" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T276" s="42"/>
       <c r="U276" s="42"/>
       <c r="V276" s="42"/>
@@ -44025,7 +44509,7 @@
       <c r="Z276" s="42"/>
       <c r="AA276" s="42"/>
     </row>
-    <row r="277" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T277" s="42"/>
       <c r="U277" s="42"/>
       <c r="V277" s="42"/>
@@ -44035,7 +44519,7 @@
       <c r="Z277" s="42"/>
       <c r="AA277" s="42"/>
     </row>
-    <row r="278" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T278" s="42"/>
       <c r="U278" s="42"/>
       <c r="V278" s="42"/>
@@ -44045,7 +44529,7 @@
       <c r="Z278" s="42"/>
       <c r="AA278" s="42"/>
     </row>
-    <row r="279" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T279" s="42"/>
       <c r="U279" s="42"/>
       <c r="V279" s="42"/>
@@ -44055,7 +44539,7 @@
       <c r="Z279" s="42"/>
       <c r="AA279" s="42"/>
     </row>
-    <row r="280" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T280" s="42"/>
       <c r="U280" s="42"/>
       <c r="V280" s="42"/>
@@ -44065,7 +44549,7 @@
       <c r="Z280" s="42"/>
       <c r="AA280" s="42"/>
     </row>
-    <row r="281" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T281" s="42"/>
       <c r="U281" s="42"/>
       <c r="V281" s="42"/>
@@ -44075,7 +44559,7 @@
       <c r="Z281" s="42"/>
       <c r="AA281" s="42"/>
     </row>
-    <row r="282" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T282" s="42"/>
       <c r="U282" s="42"/>
       <c r="V282" s="42"/>
@@ -44085,7 +44569,7 @@
       <c r="Z282" s="42"/>
       <c r="AA282" s="42"/>
     </row>
-    <row r="283" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T283" s="42"/>
       <c r="U283" s="42"/>
       <c r="V283" s="42"/>
@@ -44095,7 +44579,7 @@
       <c r="Z283" s="42"/>
       <c r="AA283" s="42"/>
     </row>
-    <row r="284" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T284" s="42"/>
       <c r="U284" s="42"/>
       <c r="V284" s="42"/>
@@ -44105,7 +44589,7 @@
       <c r="Z284" s="42"/>
       <c r="AA284" s="42"/>
     </row>
-    <row r="285" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T285" s="42"/>
       <c r="U285" s="42"/>
       <c r="V285" s="42"/>
@@ -44115,7 +44599,7 @@
       <c r="Z285" s="42"/>
       <c r="AA285" s="42"/>
     </row>
-    <row r="286" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T286" s="42"/>
       <c r="U286" s="42"/>
       <c r="V286" s="42"/>
@@ -44125,7 +44609,7 @@
       <c r="Z286" s="42"/>
       <c r="AA286" s="42"/>
     </row>
-    <row r="287" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T287" s="42"/>
       <c r="U287" s="42"/>
       <c r="V287" s="42"/>
@@ -44135,7 +44619,7 @@
       <c r="Z287" s="42"/>
       <c r="AA287" s="42"/>
     </row>
-    <row r="288" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T288" s="42"/>
       <c r="U288" s="42"/>
       <c r="V288" s="42"/>
@@ -44145,7 +44629,7 @@
       <c r="Z288" s="42"/>
       <c r="AA288" s="42"/>
     </row>
-    <row r="289" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T289" s="42"/>
       <c r="U289" s="42"/>
       <c r="V289" s="42"/>
@@ -44155,7 +44639,7 @@
       <c r="Z289" s="42"/>
       <c r="AA289" s="42"/>
     </row>
-    <row r="290" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T290" s="42"/>
       <c r="U290" s="42"/>
       <c r="V290" s="42"/>
@@ -44165,7 +44649,7 @@
       <c r="Z290" s="42"/>
       <c r="AA290" s="42"/>
     </row>
-    <row r="291" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T291" s="42"/>
       <c r="U291" s="42"/>
       <c r="V291" s="42"/>
@@ -44175,7 +44659,7 @@
       <c r="Z291" s="42"/>
       <c r="AA291" s="42"/>
     </row>
-    <row r="292" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T292" s="42"/>
       <c r="U292" s="42"/>
       <c r="V292" s="42"/>
@@ -44185,7 +44669,7 @@
       <c r="Z292" s="42"/>
       <c r="AA292" s="42"/>
     </row>
-    <row r="293" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T293" s="42"/>
       <c r="U293" s="42"/>
       <c r="V293" s="42"/>
@@ -44195,7 +44679,7 @@
       <c r="Z293" s="42"/>
       <c r="AA293" s="42"/>
     </row>
-    <row r="294" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T294" s="42"/>
       <c r="U294" s="42"/>
       <c r="V294" s="42"/>
@@ -44205,7 +44689,7 @@
       <c r="Z294" s="42"/>
       <c r="AA294" s="42"/>
     </row>
-    <row r="295" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T295" s="42"/>
       <c r="U295" s="42"/>
       <c r="V295" s="42"/>
@@ -44215,7 +44699,7 @@
       <c r="Z295" s="42"/>
       <c r="AA295" s="42"/>
     </row>
-    <row r="296" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T296" s="42"/>
       <c r="U296" s="42"/>
       <c r="V296" s="42"/>
@@ -44225,7 +44709,7 @@
       <c r="Z296" s="42"/>
       <c r="AA296" s="42"/>
     </row>
-    <row r="297" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T297" s="42"/>
       <c r="U297" s="42"/>
       <c r="V297" s="42"/>
@@ -44235,7 +44719,7 @@
       <c r="Z297" s="42"/>
       <c r="AA297" s="42"/>
     </row>
-    <row r="298" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T298" s="42"/>
       <c r="U298" s="42"/>
       <c r="V298" s="42"/>
@@ -44245,7 +44729,7 @@
       <c r="Z298" s="42"/>
       <c r="AA298" s="42"/>
     </row>
-    <row r="299" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T299" s="42"/>
       <c r="U299" s="42"/>
       <c r="V299" s="42"/>
@@ -44255,7 +44739,7 @@
       <c r="Z299" s="42"/>
       <c r="AA299" s="42"/>
     </row>
-    <row r="300" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T300" s="42"/>
       <c r="U300" s="42"/>
       <c r="V300" s="42"/>
@@ -44265,7 +44749,7 @@
       <c r="Z300" s="42"/>
       <c r="AA300" s="42"/>
     </row>
-    <row r="301" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T301" s="42"/>
       <c r="U301" s="42"/>
       <c r="V301" s="42"/>
@@ -44275,7 +44759,7 @@
       <c r="Z301" s="42"/>
       <c r="AA301" s="42"/>
     </row>
-    <row r="302" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T302" s="42"/>
       <c r="U302" s="42"/>
       <c r="V302" s="42"/>
@@ -44285,7 +44769,7 @@
       <c r="Z302" s="42"/>
       <c r="AA302" s="42"/>
     </row>
-    <row r="303" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T303" s="42"/>
       <c r="U303" s="42"/>
       <c r="V303" s="42"/>
@@ -44295,7 +44779,7 @@
       <c r="Z303" s="42"/>
       <c r="AA303" s="42"/>
     </row>
-    <row r="304" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T304" s="42"/>
       <c r="U304" s="42"/>
       <c r="V304" s="42"/>
@@ -44305,7 +44789,7 @@
       <c r="Z304" s="42"/>
       <c r="AA304" s="42"/>
     </row>
-    <row r="305" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T305" s="42"/>
       <c r="U305" s="42"/>
       <c r="V305" s="42"/>
@@ -44315,7 +44799,7 @@
       <c r="Z305" s="42"/>
       <c r="AA305" s="42"/>
     </row>
-    <row r="306" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T306" s="42"/>
       <c r="U306" s="42"/>
       <c r="V306" s="42"/>
@@ -44325,7 +44809,7 @@
       <c r="Z306" s="42"/>
       <c r="AA306" s="42"/>
     </row>
-    <row r="307" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T307" s="42"/>
       <c r="U307" s="42"/>
       <c r="V307" s="42"/>
@@ -44335,7 +44819,7 @@
       <c r="Z307" s="42"/>
       <c r="AA307" s="42"/>
     </row>
-    <row r="308" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T308" s="42"/>
       <c r="U308" s="42"/>
       <c r="V308" s="42"/>
@@ -44345,7 +44829,7 @@
       <c r="Z308" s="42"/>
       <c r="AA308" s="42"/>
     </row>
-    <row r="309" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T309" s="42"/>
       <c r="U309" s="42"/>
       <c r="V309" s="42"/>
@@ -44355,7 +44839,7 @@
       <c r="Z309" s="42"/>
       <c r="AA309" s="42"/>
     </row>
-    <row r="310" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T310" s="42"/>
       <c r="U310" s="42"/>
       <c r="V310" s="42"/>
@@ -44365,7 +44849,7 @@
       <c r="Z310" s="42"/>
       <c r="AA310" s="42"/>
     </row>
-    <row r="311" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T311" s="42"/>
       <c r="U311" s="42"/>
       <c r="V311" s="42"/>
@@ -44375,7 +44859,7 @@
       <c r="Z311" s="42"/>
       <c r="AA311" s="42"/>
     </row>
-    <row r="312" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T312" s="42"/>
       <c r="U312" s="42"/>
       <c r="V312" s="42"/>
@@ -44385,7 +44869,7 @@
       <c r="Z312" s="42"/>
       <c r="AA312" s="42"/>
     </row>
-    <row r="313" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T313" s="42"/>
       <c r="U313" s="42"/>
       <c r="V313" s="42"/>
@@ -44395,7 +44879,7 @@
       <c r="Z313" s="42"/>
       <c r="AA313" s="42"/>
     </row>
-    <row r="314" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T314" s="42"/>
       <c r="U314" s="42"/>
       <c r="V314" s="42"/>
@@ -44405,7 +44889,7 @@
       <c r="Z314" s="42"/>
       <c r="AA314" s="42"/>
     </row>
-    <row r="315" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T315" s="42"/>
       <c r="U315" s="42"/>
       <c r="V315" s="42"/>
@@ -44415,7 +44899,7 @@
       <c r="Z315" s="42"/>
       <c r="AA315" s="42"/>
     </row>
-    <row r="316" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T316" s="42"/>
       <c r="U316" s="42"/>
       <c r="V316" s="42"/>
@@ -44425,7 +44909,7 @@
       <c r="Z316" s="42"/>
       <c r="AA316" s="42"/>
     </row>
-    <row r="317" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T317" s="42"/>
       <c r="U317" s="42"/>
       <c r="V317" s="42"/>
@@ -44435,7 +44919,7 @@
       <c r="Z317" s="42"/>
       <c r="AA317" s="42"/>
     </row>
-    <row r="318" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T318" s="42"/>
       <c r="U318" s="42"/>
       <c r="V318" s="42"/>
@@ -44445,7 +44929,7 @@
       <c r="Z318" s="42"/>
       <c r="AA318" s="42"/>
     </row>
-    <row r="319" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T319" s="42"/>
       <c r="U319" s="42"/>
       <c r="V319" s="42"/>
@@ -44455,7 +44939,7 @@
       <c r="Z319" s="42"/>
       <c r="AA319" s="42"/>
     </row>
-    <row r="320" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T320" s="42"/>
       <c r="U320" s="42"/>
       <c r="V320" s="42"/>
@@ -44465,7 +44949,7 @@
       <c r="Z320" s="42"/>
       <c r="AA320" s="42"/>
     </row>
-    <row r="321" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T321" s="42"/>
       <c r="U321" s="42"/>
       <c r="V321" s="42"/>
@@ -44475,7 +44959,7 @@
       <c r="Z321" s="42"/>
       <c r="AA321" s="42"/>
     </row>
-    <row r="322" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T322" s="42"/>
       <c r="U322" s="42"/>
       <c r="V322" s="42"/>
@@ -44485,7 +44969,7 @@
       <c r="Z322" s="42"/>
       <c r="AA322" s="42"/>
     </row>
-    <row r="323" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T323" s="42"/>
       <c r="U323" s="42"/>
       <c r="V323" s="42"/>
@@ -44495,7 +44979,7 @@
       <c r="Z323" s="42"/>
       <c r="AA323" s="42"/>
     </row>
-    <row r="324" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T324" s="42"/>
       <c r="U324" s="42"/>
       <c r="V324" s="42"/>
@@ -44505,7 +44989,7 @@
       <c r="Z324" s="42"/>
       <c r="AA324" s="42"/>
     </row>
-    <row r="325" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T325" s="42"/>
       <c r="U325" s="42"/>
       <c r="V325" s="42"/>
@@ -44515,7 +44999,7 @@
       <c r="Z325" s="42"/>
       <c r="AA325" s="42"/>
     </row>
-    <row r="326" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T326" s="42"/>
       <c r="U326" s="42"/>
       <c r="V326" s="42"/>
@@ -44525,7 +45009,7 @@
       <c r="Z326" s="42"/>
       <c r="AA326" s="42"/>
     </row>
-    <row r="327" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T327" s="42"/>
       <c r="U327" s="42"/>
       <c r="V327" s="42"/>
@@ -44535,7 +45019,7 @@
       <c r="Z327" s="42"/>
       <c r="AA327" s="42"/>
     </row>
-    <row r="328" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T328" s="42"/>
       <c r="U328" s="42"/>
       <c r="V328" s="42"/>
@@ -44545,7 +45029,7 @@
       <c r="Z328" s="42"/>
       <c r="AA328" s="42"/>
     </row>
-    <row r="329" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T329" s="42"/>
       <c r="U329" s="42"/>
       <c r="V329" s="42"/>
@@ -44555,7 +45039,7 @@
       <c r="Z329" s="42"/>
       <c r="AA329" s="42"/>
     </row>
-    <row r="330" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T330" s="42"/>
       <c r="U330" s="42"/>
       <c r="V330" s="42"/>
@@ -44565,7 +45049,7 @@
       <c r="Z330" s="42"/>
       <c r="AA330" s="42"/>
     </row>
-    <row r="331" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T331" s="42"/>
       <c r="U331" s="42"/>
       <c r="V331" s="42"/>
@@ -44575,7 +45059,7 @@
       <c r="Z331" s="42"/>
       <c r="AA331" s="42"/>
     </row>
-    <row r="332" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T332" s="42"/>
       <c r="U332" s="42"/>
       <c r="V332" s="42"/>
@@ -44585,7 +45069,7 @@
       <c r="Z332" s="42"/>
       <c r="AA332" s="42"/>
     </row>
-    <row r="333" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T333" s="42"/>
       <c r="U333" s="42"/>
       <c r="V333" s="42"/>
@@ -44595,7 +45079,7 @@
       <c r="Z333" s="42"/>
       <c r="AA333" s="42"/>
     </row>
-    <row r="334" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T334" s="42"/>
       <c r="U334" s="42"/>
       <c r="V334" s="42"/>
@@ -44605,7 +45089,7 @@
       <c r="Z334" s="42"/>
       <c r="AA334" s="42"/>
     </row>
-    <row r="335" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T335" s="42"/>
       <c r="U335" s="42"/>
       <c r="V335" s="42"/>
@@ -44615,7 +45099,7 @@
       <c r="Z335" s="42"/>
       <c r="AA335" s="42"/>
     </row>
-    <row r="336" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T336" s="42"/>
       <c r="U336" s="42"/>
       <c r="V336" s="42"/>
@@ -44625,7 +45109,7 @@
       <c r="Z336" s="42"/>
       <c r="AA336" s="42"/>
     </row>
-    <row r="337" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T337" s="42"/>
       <c r="U337" s="42"/>
       <c r="V337" s="42"/>
@@ -44635,7 +45119,7 @@
       <c r="Z337" s="42"/>
       <c r="AA337" s="42"/>
     </row>
-    <row r="338" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T338" s="42"/>
       <c r="U338" s="42"/>
       <c r="V338" s="42"/>
@@ -44645,7 +45129,7 @@
       <c r="Z338" s="42"/>
       <c r="AA338" s="42"/>
     </row>
-    <row r="339" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T339" s="42"/>
       <c r="U339" s="42"/>
       <c r="V339" s="42"/>
@@ -44655,7 +45139,7 @@
       <c r="Z339" s="42"/>
       <c r="AA339" s="42"/>
     </row>
-    <row r="340" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T340" s="42"/>
       <c r="U340" s="42"/>
       <c r="V340" s="42"/>
@@ -44665,7 +45149,7 @@
       <c r="Z340" s="42"/>
       <c r="AA340" s="42"/>
     </row>
-    <row r="341" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T341" s="42"/>
       <c r="U341" s="42"/>
       <c r="V341" s="42"/>
@@ -44675,7 +45159,7 @@
       <c r="Z341" s="42"/>
       <c r="AA341" s="42"/>
     </row>
-    <row r="342" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T342" s="42"/>
       <c r="U342" s="42"/>
       <c r="V342" s="42"/>
@@ -44685,7 +45169,7 @@
       <c r="Z342" s="42"/>
       <c r="AA342" s="42"/>
     </row>
-    <row r="343" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T343" s="42"/>
       <c r="U343" s="42"/>
       <c r="V343" s="42"/>
@@ -44695,7 +45179,7 @@
       <c r="Z343" s="42"/>
       <c r="AA343" s="42"/>
     </row>
-    <row r="344" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T344" s="42"/>
       <c r="U344" s="42"/>
       <c r="V344" s="42"/>
@@ -44705,7 +45189,7 @@
       <c r="Z344" s="42"/>
       <c r="AA344" s="42"/>
     </row>
-    <row r="345" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T345" s="42"/>
       <c r="U345" s="42"/>
       <c r="V345" s="42"/>
@@ -44715,7 +45199,7 @@
       <c r="Z345" s="42"/>
       <c r="AA345" s="42"/>
     </row>
-    <row r="346" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T346" s="42"/>
       <c r="U346" s="42"/>
       <c r="V346" s="42"/>
@@ -44725,7 +45209,7 @@
       <c r="Z346" s="42"/>
       <c r="AA346" s="42"/>
     </row>
-    <row r="347" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T347" s="42"/>
       <c r="U347" s="42"/>
       <c r="V347" s="42"/>
@@ -44735,7 +45219,7 @@
       <c r="Z347" s="42"/>
       <c r="AA347" s="42"/>
     </row>
-    <row r="348" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T348" s="42"/>
       <c r="U348" s="42"/>
       <c r="V348" s="42"/>
@@ -44745,7 +45229,7 @@
       <c r="Z348" s="42"/>
       <c r="AA348" s="42"/>
     </row>
-    <row r="349" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T349" s="42"/>
       <c r="U349" s="42"/>
       <c r="V349" s="42"/>
@@ -44755,7 +45239,7 @@
       <c r="Z349" s="42"/>
       <c r="AA349" s="42"/>
     </row>
-    <row r="350" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T350" s="42"/>
       <c r="U350" s="42"/>
       <c r="V350" s="42"/>
@@ -44765,7 +45249,7 @@
       <c r="Z350" s="42"/>
       <c r="AA350" s="42"/>
     </row>
-    <row r="351" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T351" s="42"/>
       <c r="U351" s="42"/>
       <c r="V351" s="42"/>
@@ -44775,7 +45259,7 @@
       <c r="Z351" s="42"/>
       <c r="AA351" s="42"/>
     </row>
-    <row r="352" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T352" s="42"/>
       <c r="U352" s="42"/>
       <c r="V352" s="42"/>
@@ -44785,7 +45269,7 @@
       <c r="Z352" s="42"/>
       <c r="AA352" s="42"/>
     </row>
-    <row r="353" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T353" s="42"/>
       <c r="U353" s="42"/>
       <c r="V353" s="42"/>
@@ -44795,7 +45279,7 @@
       <c r="Z353" s="42"/>
       <c r="AA353" s="42"/>
     </row>
-    <row r="354" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T354" s="42"/>
       <c r="U354" s="42"/>
       <c r="V354" s="42"/>
@@ -44805,7 +45289,7 @@
       <c r="Z354" s="42"/>
       <c r="AA354" s="42"/>
     </row>
-    <row r="355" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T355" s="42"/>
       <c r="U355" s="42"/>
       <c r="V355" s="42"/>
@@ -44815,7 +45299,7 @@
       <c r="Z355" s="42"/>
       <c r="AA355" s="42"/>
     </row>
-    <row r="356" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T356" s="42"/>
       <c r="U356" s="42"/>
       <c r="V356" s="42"/>
@@ -44825,7 +45309,7 @@
       <c r="Z356" s="42"/>
       <c r="AA356" s="42"/>
     </row>
-    <row r="357" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T357" s="42"/>
       <c r="U357" s="42"/>
       <c r="V357" s="42"/>
@@ -44835,7 +45319,7 @@
       <c r="Z357" s="42"/>
       <c r="AA357" s="42"/>
     </row>
-    <row r="358" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T358" s="42"/>
       <c r="U358" s="42"/>
       <c r="V358" s="42"/>
@@ -44845,7 +45329,7 @@
       <c r="Z358" s="42"/>
       <c r="AA358" s="42"/>
     </row>
-    <row r="359" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T359" s="42"/>
       <c r="U359" s="42"/>
       <c r="V359" s="42"/>
@@ -44855,7 +45339,7 @@
       <c r="Z359" s="42"/>
       <c r="AA359" s="42"/>
     </row>
-    <row r="360" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T360" s="42"/>
       <c r="U360" s="42"/>
       <c r="V360" s="42"/>
@@ -44865,7 +45349,7 @@
       <c r="Z360" s="42"/>
       <c r="AA360" s="42"/>
     </row>
-    <row r="361" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T361" s="42"/>
       <c r="U361" s="42"/>
       <c r="V361" s="42"/>
@@ -44875,7 +45359,7 @@
       <c r="Z361" s="42"/>
       <c r="AA361" s="42"/>
     </row>
-    <row r="362" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T362" s="42"/>
       <c r="U362" s="42"/>
       <c r="V362" s="42"/>
@@ -44885,7 +45369,7 @@
       <c r="Z362" s="42"/>
       <c r="AA362" s="42"/>
     </row>
-    <row r="363" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T363" s="42"/>
       <c r="U363" s="42"/>
       <c r="V363" s="42"/>
@@ -44895,7 +45379,7 @@
       <c r="Z363" s="42"/>
       <c r="AA363" s="42"/>
     </row>
-    <row r="364" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T364" s="42"/>
       <c r="U364" s="42"/>
       <c r="V364" s="42"/>
@@ -44905,7 +45389,7 @@
       <c r="Z364" s="42"/>
       <c r="AA364" s="42"/>
     </row>
-    <row r="365" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T365" s="42"/>
       <c r="U365" s="42"/>
       <c r="V365" s="42"/>
@@ -44915,7 +45399,7 @@
       <c r="Z365" s="42"/>
       <c r="AA365" s="42"/>
     </row>
-    <row r="366" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T366" s="42"/>
       <c r="U366" s="42"/>
       <c r="V366" s="42"/>
@@ -44925,7 +45409,7 @@
       <c r="Z366" s="42"/>
       <c r="AA366" s="42"/>
     </row>
-    <row r="367" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T367" s="42"/>
       <c r="U367" s="42"/>
       <c r="V367" s="42"/>
@@ -44935,7 +45419,7 @@
       <c r="Z367" s="42"/>
       <c r="AA367" s="42"/>
     </row>
-    <row r="368" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T368" s="42"/>
       <c r="U368" s="42"/>
       <c r="V368" s="42"/>
@@ -44945,7 +45429,7 @@
       <c r="Z368" s="42"/>
       <c r="AA368" s="42"/>
     </row>
-    <row r="369" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T369" s="42"/>
       <c r="U369" s="42"/>
       <c r="V369" s="42"/>
@@ -44955,7 +45439,7 @@
       <c r="Z369" s="42"/>
       <c r="AA369" s="42"/>
     </row>
-    <row r="370" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T370" s="42"/>
       <c r="U370" s="42"/>
       <c r="V370" s="42"/>
@@ -44965,7 +45449,7 @@
       <c r="Z370" s="42"/>
       <c r="AA370" s="42"/>
     </row>
-    <row r="371" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T371" s="42"/>
       <c r="U371" s="42"/>
       <c r="V371" s="42"/>
@@ -44975,7 +45459,7 @@
       <c r="Z371" s="42"/>
       <c r="AA371" s="42"/>
     </row>
-    <row r="372" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T372" s="42"/>
       <c r="U372" s="42"/>
       <c r="V372" s="42"/>
@@ -44985,7 +45469,7 @@
       <c r="Z372" s="42"/>
       <c r="AA372" s="42"/>
     </row>
-    <row r="373" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T373" s="42"/>
       <c r="U373" s="42"/>
       <c r="V373" s="42"/>
@@ -44995,7 +45479,7 @@
       <c r="Z373" s="42"/>
       <c r="AA373" s="42"/>
     </row>
-    <row r="374" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T374" s="42"/>
       <c r="U374" s="42"/>
       <c r="V374" s="42"/>
@@ -45005,7 +45489,7 @@
       <c r="Z374" s="42"/>
       <c r="AA374" s="42"/>
     </row>
-    <row r="375" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T375" s="42"/>
       <c r="U375" s="42"/>
       <c r="V375" s="42"/>
@@ -45015,7 +45499,7 @@
       <c r="Z375" s="42"/>
       <c r="AA375" s="42"/>
     </row>
-    <row r="376" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T376" s="42"/>
       <c r="U376" s="42"/>
       <c r="V376" s="42"/>
@@ -45025,7 +45509,7 @@
       <c r="Z376" s="42"/>
       <c r="AA376" s="42"/>
     </row>
-    <row r="377" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T377" s="42"/>
       <c r="U377" s="42"/>
       <c r="V377" s="42"/>
@@ -45035,7 +45519,7 @@
       <c r="Z377" s="42"/>
       <c r="AA377" s="42"/>
     </row>
-    <row r="378" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T378" s="42"/>
       <c r="U378" s="42"/>
       <c r="V378" s="42"/>
@@ -45045,7 +45529,7 @@
       <c r="Z378" s="42"/>
       <c r="AA378" s="42"/>
     </row>
-    <row r="379" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T379" s="42"/>
       <c r="U379" s="42"/>
       <c r="V379" s="42"/>
@@ -45055,7 +45539,7 @@
       <c r="Z379" s="42"/>
       <c r="AA379" s="42"/>
     </row>
-    <row r="380" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T380" s="42"/>
       <c r="U380" s="42"/>
       <c r="V380" s="42"/>
@@ -45065,7 +45549,7 @@
       <c r="Z380" s="42"/>
       <c r="AA380" s="42"/>
     </row>
-    <row r="381" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T381" s="42"/>
       <c r="U381" s="42"/>
       <c r="V381" s="42"/>
@@ -45075,7 +45559,7 @@
       <c r="Z381" s="42"/>
       <c r="AA381" s="42"/>
     </row>
-    <row r="382" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T382" s="42"/>
       <c r="U382" s="42"/>
       <c r="V382" s="42"/>
@@ -45085,7 +45569,7 @@
       <c r="Z382" s="42"/>
       <c r="AA382" s="42"/>
     </row>
-    <row r="383" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T383" s="42"/>
       <c r="U383" s="42"/>
       <c r="V383" s="42"/>
@@ -45095,7 +45579,7 @@
       <c r="Z383" s="42"/>
       <c r="AA383" s="42"/>
     </row>
-    <row r="384" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T384" s="42"/>
       <c r="U384" s="42"/>
       <c r="V384" s="42"/>
@@ -45105,7 +45589,7 @@
       <c r="Z384" s="42"/>
       <c r="AA384" s="42"/>
     </row>
-    <row r="385" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T385" s="42"/>
       <c r="U385" s="42"/>
       <c r="V385" s="42"/>
@@ -45115,7 +45599,7 @@
       <c r="Z385" s="42"/>
       <c r="AA385" s="42"/>
     </row>
-    <row r="386" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T386" s="42"/>
       <c r="U386" s="42"/>
       <c r="V386" s="42"/>
@@ -45125,7 +45609,7 @@
       <c r="Z386" s="42"/>
       <c r="AA386" s="42"/>
     </row>
-    <row r="387" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="387" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T387" s="42"/>
       <c r="U387" s="42"/>
       <c r="V387" s="42"/>
@@ -45135,7 +45619,7 @@
       <c r="Z387" s="42"/>
       <c r="AA387" s="42"/>
     </row>
-    <row r="388" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T388" s="42"/>
       <c r="U388" s="42"/>
       <c r="V388" s="42"/>
@@ -45145,7 +45629,7 @@
       <c r="Z388" s="42"/>
       <c r="AA388" s="42"/>
     </row>
-    <row r="389" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="389" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T389" s="42"/>
       <c r="U389" s="42"/>
       <c r="V389" s="42"/>
@@ -45155,7 +45639,7 @@
       <c r="Z389" s="42"/>
       <c r="AA389" s="42"/>
     </row>
-    <row r="390" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T390" s="42"/>
       <c r="U390" s="42"/>
       <c r="V390" s="42"/>
@@ -45165,7 +45649,7 @@
       <c r="Z390" s="42"/>
       <c r="AA390" s="42"/>
     </row>
-    <row r="391" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="391" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T391" s="42"/>
       <c r="U391" s="42"/>
       <c r="V391" s="42"/>
@@ -45175,7 +45659,7 @@
       <c r="Z391" s="42"/>
       <c r="AA391" s="42"/>
     </row>
-    <row r="392" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T392" s="42"/>
       <c r="U392" s="42"/>
       <c r="V392" s="42"/>
@@ -45185,7 +45669,7 @@
       <c r="Z392" s="42"/>
       <c r="AA392" s="42"/>
     </row>
-    <row r="393" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="393" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T393" s="42"/>
       <c r="U393" s="42"/>
       <c r="V393" s="42"/>
@@ -45195,7 +45679,7 @@
       <c r="Z393" s="42"/>
       <c r="AA393" s="42"/>
     </row>
-    <row r="394" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T394" s="42"/>
       <c r="U394" s="42"/>
       <c r="V394" s="42"/>
@@ -45205,7 +45689,7 @@
       <c r="Z394" s="42"/>
       <c r="AA394" s="42"/>
     </row>
-    <row r="395" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="395" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T395" s="42"/>
       <c r="U395" s="42"/>
       <c r="V395" s="42"/>
@@ -45215,7 +45699,7 @@
       <c r="Z395" s="42"/>
       <c r="AA395" s="42"/>
     </row>
-    <row r="396" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T396" s="42"/>
       <c r="U396" s="42"/>
       <c r="V396" s="42"/>
@@ -45225,7 +45709,7 @@
       <c r="Z396" s="42"/>
       <c r="AA396" s="42"/>
     </row>
-    <row r="397" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="397" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T397" s="42"/>
       <c r="U397" s="42"/>
       <c r="V397" s="42"/>
@@ -45235,7 +45719,7 @@
       <c r="Z397" s="42"/>
       <c r="AA397" s="42"/>
     </row>
-    <row r="398" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T398" s="42"/>
       <c r="U398" s="42"/>
       <c r="V398" s="42"/>
@@ -45245,7 +45729,7 @@
       <c r="Z398" s="42"/>
       <c r="AA398" s="42"/>
     </row>
-    <row r="399" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="399" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T399" s="42"/>
       <c r="U399" s="42"/>
       <c r="V399" s="42"/>
@@ -45255,7 +45739,7 @@
       <c r="Z399" s="42"/>
       <c r="AA399" s="42"/>
     </row>
-    <row r="400" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T400" s="42"/>
       <c r="U400" s="42"/>
       <c r="V400" s="42"/>
@@ -45265,7 +45749,7 @@
       <c r="Z400" s="42"/>
       <c r="AA400" s="42"/>
     </row>
-    <row r="401" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T401" s="42"/>
       <c r="U401" s="42"/>
       <c r="V401" s="42"/>
@@ -45275,7 +45759,7 @@
       <c r="Z401" s="42"/>
       <c r="AA401" s="42"/>
     </row>
-    <row r="402" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T402" s="42"/>
       <c r="U402" s="42"/>
       <c r="V402" s="42"/>
@@ -45285,7 +45769,7 @@
       <c r="Z402" s="42"/>
       <c r="AA402" s="42"/>
     </row>
-    <row r="403" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="403" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T403" s="42"/>
       <c r="U403" s="42"/>
       <c r="V403" s="42"/>
@@ -45295,7 +45779,7 @@
       <c r="Z403" s="42"/>
       <c r="AA403" s="42"/>
     </row>
-    <row r="404" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T404" s="42"/>
       <c r="U404" s="42"/>
       <c r="V404" s="42"/>
@@ -45305,7 +45789,7 @@
       <c r="Z404" s="42"/>
       <c r="AA404" s="42"/>
     </row>
-    <row r="405" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="405" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T405" s="42"/>
       <c r="U405" s="42"/>
       <c r="V405" s="42"/>
@@ -45315,7 +45799,7 @@
       <c r="Z405" s="42"/>
       <c r="AA405" s="42"/>
     </row>
-    <row r="406" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T406" s="42"/>
       <c r="U406" s="42"/>
       <c r="V406" s="42"/>
@@ -45325,7 +45809,7 @@
       <c r="Z406" s="42"/>
       <c r="AA406" s="42"/>
     </row>
-    <row r="407" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="407" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T407" s="42"/>
       <c r="U407" s="42"/>
       <c r="V407" s="42"/>
@@ -45335,7 +45819,7 @@
       <c r="Z407" s="42"/>
       <c r="AA407" s="42"/>
     </row>
-    <row r="408" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T408" s="42"/>
       <c r="U408" s="42"/>
       <c r="V408" s="42"/>
@@ -45345,7 +45829,7 @@
       <c r="Z408" s="42"/>
       <c r="AA408" s="42"/>
     </row>
-    <row r="409" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="409" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T409" s="42"/>
       <c r="U409" s="42"/>
       <c r="V409" s="42"/>
@@ -45355,7 +45839,7 @@
       <c r="Z409" s="42"/>
       <c r="AA409" s="42"/>
     </row>
-    <row r="410" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T410" s="42"/>
       <c r="U410" s="42"/>
       <c r="V410" s="42"/>
@@ -45365,7 +45849,7 @@
       <c r="Z410" s="42"/>
       <c r="AA410" s="42"/>
     </row>
-    <row r="411" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T411" s="42"/>
       <c r="U411" s="42"/>
       <c r="V411" s="42"/>
@@ -45375,7 +45859,7 @@
       <c r="Z411" s="42"/>
       <c r="AA411" s="42"/>
     </row>
-    <row r="412" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T412" s="42"/>
       <c r="U412" s="42"/>
       <c r="V412" s="42"/>
@@ -45385,7 +45869,7 @@
       <c r="Z412" s="42"/>
       <c r="AA412" s="42"/>
     </row>
-    <row r="413" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T413" s="42"/>
       <c r="U413" s="42"/>
       <c r="V413" s="42"/>
@@ -45395,7 +45879,7 @@
       <c r="Z413" s="42"/>
       <c r="AA413" s="42"/>
     </row>
-    <row r="414" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T414" s="42"/>
       <c r="U414" s="42"/>
       <c r="V414" s="42"/>
@@ -45405,7 +45889,7 @@
       <c r="Z414" s="42"/>
       <c r="AA414" s="42"/>
     </row>
-    <row r="415" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="415" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T415" s="42"/>
       <c r="U415" s="42"/>
       <c r="V415" s="42"/>
@@ -45415,7 +45899,7 @@
       <c r="Z415" s="42"/>
       <c r="AA415" s="42"/>
     </row>
-    <row r="416" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T416" s="42"/>
       <c r="U416" s="42"/>
       <c r="V416" s="42"/>
@@ -45425,7 +45909,7 @@
       <c r="Z416" s="42"/>
       <c r="AA416" s="42"/>
     </row>
-    <row r="417" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T417" s="42"/>
       <c r="U417" s="42"/>
       <c r="V417" s="42"/>
@@ -45435,7 +45919,7 @@
       <c r="Z417" s="42"/>
       <c r="AA417" s="42"/>
     </row>
-    <row r="418" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T418" s="42"/>
       <c r="U418" s="42"/>
       <c r="V418" s="42"/>
@@ -45445,7 +45929,7 @@
       <c r="Z418" s="42"/>
       <c r="AA418" s="42"/>
     </row>
-    <row r="419" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T419" s="42"/>
       <c r="U419" s="42"/>
       <c r="V419" s="42"/>
@@ -45455,7 +45939,7 @@
       <c r="Z419" s="42"/>
       <c r="AA419" s="42"/>
     </row>
-    <row r="420" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T420" s="42"/>
       <c r="U420" s="42"/>
       <c r="V420" s="42"/>
@@ -45465,7 +45949,7 @@
       <c r="Z420" s="42"/>
       <c r="AA420" s="42"/>
     </row>
-    <row r="421" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T421" s="42"/>
       <c r="U421" s="42"/>
       <c r="V421" s="42"/>
@@ -45475,7 +45959,7 @@
       <c r="Z421" s="42"/>
       <c r="AA421" s="42"/>
     </row>
-    <row r="422" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T422" s="42"/>
       <c r="U422" s="42"/>
       <c r="V422" s="42"/>
@@ -45485,7 +45969,7 @@
       <c r="Z422" s="42"/>
       <c r="AA422" s="42"/>
     </row>
-    <row r="423" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T423" s="42"/>
       <c r="U423" s="42"/>
       <c r="V423" s="42"/>
@@ -45495,7 +45979,7 @@
       <c r="Z423" s="42"/>
       <c r="AA423" s="42"/>
     </row>
-    <row r="424" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T424" s="42"/>
       <c r="U424" s="42"/>
       <c r="V424" s="42"/>
@@ -45505,7 +45989,7 @@
       <c r="Z424" s="42"/>
       <c r="AA424" s="42"/>
     </row>
-    <row r="425" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T425" s="42"/>
       <c r="U425" s="42"/>
       <c r="V425" s="42"/>
@@ -45515,7 +45999,7 @@
       <c r="Z425" s="42"/>
       <c r="AA425" s="42"/>
     </row>
-    <row r="426" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T426" s="42"/>
       <c r="U426" s="42"/>
       <c r="V426" s="42"/>
@@ -45525,7 +46009,7 @@
       <c r="Z426" s="42"/>
       <c r="AA426" s="42"/>
     </row>
-    <row r="427" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T427" s="42"/>
       <c r="U427" s="42"/>
       <c r="V427" s="42"/>
@@ -45535,7 +46019,7 @@
       <c r="Z427" s="42"/>
       <c r="AA427" s="42"/>
     </row>
-    <row r="428" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T428" s="42"/>
       <c r="U428" s="42"/>
       <c r="V428" s="42"/>
@@ -45545,7 +46029,7 @@
       <c r="Z428" s="42"/>
       <c r="AA428" s="42"/>
     </row>
-    <row r="429" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T429" s="42"/>
       <c r="U429" s="42"/>
       <c r="V429" s="42"/>
@@ -45555,7 +46039,7 @@
       <c r="Z429" s="42"/>
       <c r="AA429" s="42"/>
     </row>
-    <row r="430" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T430" s="42"/>
       <c r="U430" s="42"/>
       <c r="V430" s="42"/>
@@ -45565,7 +46049,7 @@
       <c r="Z430" s="42"/>
       <c r="AA430" s="42"/>
     </row>
-    <row r="431" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T431" s="42"/>
       <c r="U431" s="42"/>
       <c r="V431" s="42"/>
@@ -45575,7 +46059,7 @@
       <c r="Z431" s="42"/>
       <c r="AA431" s="42"/>
     </row>
-    <row r="432" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T432" s="42"/>
       <c r="U432" s="42"/>
       <c r="V432" s="42"/>
@@ -45585,7 +46069,7 @@
       <c r="Z432" s="42"/>
       <c r="AA432" s="42"/>
     </row>
-    <row r="433" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T433" s="42"/>
       <c r="U433" s="42"/>
       <c r="V433" s="42"/>
@@ -45595,7 +46079,7 @@
       <c r="Z433" s="42"/>
       <c r="AA433" s="42"/>
     </row>
-    <row r="434" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T434" s="42"/>
       <c r="U434" s="42"/>
       <c r="V434" s="42"/>
@@ -45605,7 +46089,7 @@
       <c r="Z434" s="42"/>
       <c r="AA434" s="42"/>
     </row>
-    <row r="435" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T435" s="42"/>
       <c r="U435" s="42"/>
       <c r="V435" s="42"/>
@@ -45615,7 +46099,7 @@
       <c r="Z435" s="42"/>
       <c r="AA435" s="42"/>
     </row>
-    <row r="436" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T436" s="42"/>
       <c r="U436" s="42"/>
       <c r="V436" s="42"/>
@@ -45625,7 +46109,7 @@
       <c r="Z436" s="42"/>
       <c r="AA436" s="42"/>
     </row>
-    <row r="437" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T437" s="42"/>
       <c r="U437" s="42"/>
       <c r="V437" s="42"/>
@@ -45635,7 +46119,7 @@
       <c r="Z437" s="42"/>
       <c r="AA437" s="42"/>
     </row>
-    <row r="438" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T438" s="42"/>
       <c r="U438" s="42"/>
       <c r="V438" s="42"/>
@@ -45645,7 +46129,7 @@
       <c r="Z438" s="42"/>
       <c r="AA438" s="42"/>
     </row>
-    <row r="439" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T439" s="42"/>
       <c r="U439" s="42"/>
       <c r="V439" s="42"/>
@@ -45655,7 +46139,7 @@
       <c r="Z439" s="42"/>
       <c r="AA439" s="42"/>
     </row>
-    <row r="440" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T440" s="42"/>
       <c r="U440" s="42"/>
       <c r="V440" s="42"/>
@@ -45665,7 +46149,7 @@
       <c r="Z440" s="42"/>
       <c r="AA440" s="42"/>
     </row>
-    <row r="441" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T441" s="42"/>
       <c r="U441" s="42"/>
       <c r="V441" s="42"/>
@@ -45675,7 +46159,7 @@
       <c r="Z441" s="42"/>
       <c r="AA441" s="42"/>
     </row>
-    <row r="442" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T442" s="42"/>
       <c r="U442" s="42"/>
       <c r="V442" s="42"/>
@@ -45685,7 +46169,7 @@
       <c r="Z442" s="42"/>
       <c r="AA442" s="42"/>
     </row>
-    <row r="443" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T443" s="42"/>
       <c r="U443" s="42"/>
       <c r="V443" s="42"/>
@@ -45695,7 +46179,7 @@
       <c r="Z443" s="42"/>
       <c r="AA443" s="42"/>
     </row>
-    <row r="444" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T444" s="42"/>
       <c r="U444" s="42"/>
       <c r="V444" s="42"/>
@@ -45705,7 +46189,7 @@
       <c r="Z444" s="42"/>
       <c r="AA444" s="42"/>
     </row>
-    <row r="445" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T445" s="42"/>
       <c r="U445" s="42"/>
       <c r="V445" s="42"/>
@@ -45715,7 +46199,7 @@
       <c r="Z445" s="42"/>
       <c r="AA445" s="42"/>
     </row>
-    <row r="446" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T446" s="42"/>
       <c r="U446" s="42"/>
       <c r="V446" s="42"/>
@@ -45725,7 +46209,7 @@
       <c r="Z446" s="42"/>
       <c r="AA446" s="42"/>
     </row>
-    <row r="447" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T447" s="42"/>
       <c r="U447" s="42"/>
       <c r="V447" s="42"/>
@@ -45735,7 +46219,7 @@
       <c r="Z447" s="42"/>
       <c r="AA447" s="42"/>
     </row>
-    <row r="448" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T448" s="42"/>
       <c r="U448" s="42"/>
       <c r="V448" s="42"/>
@@ -45745,7 +46229,7 @@
       <c r="Z448" s="42"/>
       <c r="AA448" s="42"/>
     </row>
-    <row r="449" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T449" s="42"/>
       <c r="U449" s="42"/>
       <c r="V449" s="42"/>
@@ -45755,7 +46239,7 @@
       <c r="Z449" s="42"/>
       <c r="AA449" s="42"/>
     </row>
-    <row r="450" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T450" s="42"/>
       <c r="U450" s="42"/>
       <c r="V450" s="42"/>
@@ -45765,7 +46249,7 @@
       <c r="Z450" s="42"/>
       <c r="AA450" s="42"/>
     </row>
-    <row r="451" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T451" s="42"/>
       <c r="U451" s="42"/>
       <c r="V451" s="42"/>
@@ -45775,7 +46259,7 @@
       <c r="Z451" s="42"/>
       <c r="AA451" s="42"/>
     </row>
-    <row r="452" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T452" s="42"/>
       <c r="U452" s="42"/>
       <c r="V452" s="42"/>
@@ -45785,7 +46269,7 @@
       <c r="Z452" s="42"/>
       <c r="AA452" s="42"/>
     </row>
-    <row r="453" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T453" s="42"/>
       <c r="U453" s="42"/>
       <c r="V453" s="42"/>
@@ -45795,7 +46279,7 @@
       <c r="Z453" s="42"/>
       <c r="AA453" s="42"/>
     </row>
-    <row r="454" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T454" s="42"/>
       <c r="U454" s="42"/>
       <c r="V454" s="42"/>
@@ -45805,7 +46289,7 @@
       <c r="Z454" s="42"/>
       <c r="AA454" s="42"/>
     </row>
-    <row r="455" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T455" s="42"/>
       <c r="U455" s="42"/>
       <c r="V455" s="42"/>
@@ -45815,7 +46299,7 @@
       <c r="Z455" s="42"/>
       <c r="AA455" s="42"/>
     </row>
-    <row r="456" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T456" s="42"/>
       <c r="U456" s="42"/>
       <c r="V456" s="42"/>
@@ -45825,7 +46309,7 @@
       <c r="Z456" s="42"/>
       <c r="AA456" s="42"/>
     </row>
-    <row r="457" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T457" s="42"/>
       <c r="U457" s="42"/>
       <c r="V457" s="42"/>
@@ -45835,7 +46319,7 @@
       <c r="Z457" s="42"/>
       <c r="AA457" s="42"/>
     </row>
-    <row r="458" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T458" s="42"/>
       <c r="U458" s="42"/>
       <c r="V458" s="42"/>
@@ -45845,7 +46329,7 @@
       <c r="Z458" s="42"/>
       <c r="AA458" s="42"/>
     </row>
-    <row r="459" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="459" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T459" s="42"/>
       <c r="U459" s="42"/>
       <c r="V459" s="42"/>
@@ -45855,7 +46339,7 @@
       <c r="Z459" s="42"/>
       <c r="AA459" s="42"/>
     </row>
-    <row r="460" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T460" s="42"/>
       <c r="U460" s="42"/>
       <c r="V460" s="42"/>
@@ -45865,7 +46349,7 @@
       <c r="Z460" s="42"/>
       <c r="AA460" s="42"/>
     </row>
-    <row r="461" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T461" s="42"/>
       <c r="U461" s="42"/>
       <c r="V461" s="42"/>
@@ -45875,7 +46359,7 @@
       <c r="Z461" s="42"/>
       <c r="AA461" s="42"/>
     </row>
-    <row r="462" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T462" s="42"/>
       <c r="U462" s="42"/>
       <c r="V462" s="42"/>
@@ -45885,7 +46369,7 @@
       <c r="Z462" s="42"/>
       <c r="AA462" s="42"/>
     </row>
-    <row r="463" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="463" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T463" s="42"/>
       <c r="U463" s="42"/>
       <c r="V463" s="42"/>
@@ -45895,7 +46379,7 @@
       <c r="Z463" s="42"/>
       <c r="AA463" s="42"/>
     </row>
-    <row r="464" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T464" s="42"/>
       <c r="U464" s="42"/>
       <c r="V464" s="42"/>
@@ -45905,7 +46389,7 @@
       <c r="Z464" s="42"/>
       <c r="AA464" s="42"/>
     </row>
-    <row r="465" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T465" s="42"/>
       <c r="U465" s="42"/>
       <c r="V465" s="42"/>
@@ -45915,7 +46399,7 @@
       <c r="Z465" s="42"/>
       <c r="AA465" s="42"/>
     </row>
-    <row r="466" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T466" s="42"/>
       <c r="U466" s="42"/>
       <c r="V466" s="42"/>
@@ -45925,7 +46409,7 @@
       <c r="Z466" s="42"/>
       <c r="AA466" s="42"/>
     </row>
-    <row r="467" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T467" s="42"/>
       <c r="U467" s="42"/>
       <c r="V467" s="42"/>
@@ -45935,7 +46419,7 @@
       <c r="Z467" s="42"/>
       <c r="AA467" s="42"/>
     </row>
-    <row r="468" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T468" s="42"/>
       <c r="U468" s="42"/>
       <c r="V468" s="42"/>
@@ -45945,7 +46429,7 @@
       <c r="Z468" s="42"/>
       <c r="AA468" s="42"/>
     </row>
-    <row r="469" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T469" s="42"/>
       <c r="U469" s="42"/>
       <c r="V469" s="42"/>
@@ -45955,7 +46439,7 @@
       <c r="Z469" s="42"/>
       <c r="AA469" s="42"/>
     </row>
-    <row r="470" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T470" s="42"/>
       <c r="U470" s="42"/>
       <c r="V470" s="42"/>
@@ -45965,7 +46449,7 @@
       <c r="Z470" s="42"/>
       <c r="AA470" s="42"/>
     </row>
-    <row r="471" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T471" s="42"/>
       <c r="U471" s="42"/>
       <c r="V471" s="42"/>
@@ -45975,7 +46459,7 @@
       <c r="Z471" s="42"/>
       <c r="AA471" s="42"/>
     </row>
-    <row r="472" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T472" s="42"/>
       <c r="U472" s="42"/>
       <c r="V472" s="42"/>
@@ -45985,7 +46469,7 @@
       <c r="Z472" s="42"/>
       <c r="AA472" s="42"/>
     </row>
-    <row r="473" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T473" s="42"/>
       <c r="U473" s="42"/>
       <c r="V473" s="42"/>
@@ -45995,7 +46479,7 @@
       <c r="Z473" s="42"/>
       <c r="AA473" s="42"/>
     </row>
-    <row r="474" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T474" s="42"/>
       <c r="U474" s="42"/>
       <c r="V474" s="42"/>
@@ -46005,7 +46489,7 @@
       <c r="Z474" s="42"/>
       <c r="AA474" s="42"/>
     </row>
-    <row r="475" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T475" s="42"/>
       <c r="U475" s="42"/>
       <c r="V475" s="42"/>
@@ -46015,7 +46499,7 @@
       <c r="Z475" s="42"/>
       <c r="AA475" s="42"/>
     </row>
-    <row r="476" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T476" s="42"/>
       <c r="U476" s="42"/>
       <c r="V476" s="42"/>
@@ -46025,7 +46509,7 @@
       <c r="Z476" s="42"/>
       <c r="AA476" s="42"/>
     </row>
-    <row r="477" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T477" s="42"/>
       <c r="U477" s="42"/>
       <c r="V477" s="42"/>
@@ -46035,7 +46519,7 @@
       <c r="Z477" s="42"/>
       <c r="AA477" s="42"/>
     </row>
-    <row r="478" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T478" s="42"/>
       <c r="U478" s="42"/>
       <c r="V478" s="42"/>
@@ -46045,7 +46529,7 @@
       <c r="Z478" s="42"/>
       <c r="AA478" s="42"/>
     </row>
-    <row r="479" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="479" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T479" s="42"/>
       <c r="U479" s="42"/>
       <c r="V479" s="42"/>
@@ -46055,7 +46539,7 @@
       <c r="Z479" s="42"/>
       <c r="AA479" s="42"/>
     </row>
-    <row r="480" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T480" s="42"/>
       <c r="U480" s="42"/>
       <c r="V480" s="42"/>
@@ -46065,7 +46549,7 @@
       <c r="Z480" s="42"/>
       <c r="AA480" s="42"/>
     </row>
-    <row r="481" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="481" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T481" s="42"/>
       <c r="U481" s="42"/>
       <c r="V481" s="42"/>
@@ -46075,7 +46559,7 @@
       <c r="Z481" s="42"/>
       <c r="AA481" s="42"/>
     </row>
-    <row r="482" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="482" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T482" s="42"/>
       <c r="U482" s="42"/>
       <c r="V482" s="42"/>
@@ -46085,7 +46569,7 @@
       <c r="Z482" s="42"/>
       <c r="AA482" s="42"/>
     </row>
-    <row r="483" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="483" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T483" s="42"/>
       <c r="U483" s="42"/>
       <c r="V483" s="42"/>
@@ -46095,7 +46579,7 @@
       <c r="Z483" s="42"/>
       <c r="AA483" s="42"/>
     </row>
-    <row r="484" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T484" s="42"/>
       <c r="U484" s="42"/>
       <c r="V484" s="42"/>
@@ -46105,7 +46589,7 @@
       <c r="Z484" s="42"/>
       <c r="AA484" s="42"/>
     </row>
-    <row r="485" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="485" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T485" s="42"/>
       <c r="U485" s="42"/>
       <c r="V485" s="42"/>
@@ -46115,7 +46599,7 @@
       <c r="Z485" s="42"/>
       <c r="AA485" s="42"/>
     </row>
-    <row r="486" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="486" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T486" s="42"/>
       <c r="U486" s="42"/>
       <c r="V486" s="42"/>
@@ -46125,7 +46609,7 @@
       <c r="Z486" s="42"/>
       <c r="AA486" s="42"/>
     </row>
-    <row r="487" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="487" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T487" s="42"/>
       <c r="U487" s="42"/>
       <c r="V487" s="42"/>
@@ -46135,7 +46619,7 @@
       <c r="Z487" s="42"/>
       <c r="AA487" s="42"/>
     </row>
-    <row r="488" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="488" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T488" s="42"/>
       <c r="U488" s="42"/>
       <c r="V488" s="42"/>
@@ -46145,7 +46629,7 @@
       <c r="Z488" s="42"/>
       <c r="AA488" s="42"/>
     </row>
-    <row r="489" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="489" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T489" s="42"/>
       <c r="U489" s="42"/>
       <c r="V489" s="42"/>
@@ -46155,7 +46639,7 @@
       <c r="Z489" s="42"/>
       <c r="AA489" s="42"/>
     </row>
-    <row r="490" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T490" s="42"/>
       <c r="U490" s="42"/>
       <c r="V490" s="42"/>
@@ -46165,7 +46649,7 @@
       <c r="Z490" s="42"/>
       <c r="AA490" s="42"/>
     </row>
-    <row r="491" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="491" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T491" s="42"/>
       <c r="U491" s="42"/>
       <c r="V491" s="42"/>
@@ -46175,7 +46659,7 @@
       <c r="Z491" s="42"/>
       <c r="AA491" s="42"/>
     </row>
-    <row r="492" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="492" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T492" s="42"/>
       <c r="U492" s="42"/>
       <c r="V492" s="42"/>
@@ -46185,7 +46669,7 @@
       <c r="Z492" s="42"/>
       <c r="AA492" s="42"/>
     </row>
-    <row r="493" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="493" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T493" s="42"/>
       <c r="U493" s="42"/>
       <c r="V493" s="42"/>
@@ -46195,7 +46679,7 @@
       <c r="Z493" s="42"/>
       <c r="AA493" s="42"/>
     </row>
-    <row r="494" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T494" s="42"/>
       <c r="U494" s="42"/>
       <c r="V494" s="42"/>
@@ -46205,7 +46689,7 @@
       <c r="Z494" s="42"/>
       <c r="AA494" s="42"/>
     </row>
-    <row r="495" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="495" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T495" s="42"/>
       <c r="U495" s="42"/>
       <c r="V495" s="42"/>
@@ -46215,7 +46699,7 @@
       <c r="Z495" s="42"/>
       <c r="AA495" s="42"/>
     </row>
-    <row r="496" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T496" s="42"/>
       <c r="U496" s="42"/>
       <c r="V496" s="42"/>
@@ -46225,7 +46709,7 @@
       <c r="Z496" s="42"/>
       <c r="AA496" s="42"/>
     </row>
-    <row r="497" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="497" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T497" s="42"/>
       <c r="U497" s="42"/>
       <c r="V497" s="42"/>
@@ -46235,7 +46719,7 @@
       <c r="Z497" s="42"/>
       <c r="AA497" s="42"/>
     </row>
-    <row r="498" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="498" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T498" s="42"/>
       <c r="U498" s="42"/>
       <c r="V498" s="42"/>
@@ -46245,7 +46729,7 @@
       <c r="Z498" s="42"/>
       <c r="AA498" s="42"/>
     </row>
-    <row r="499" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="499" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T499" s="42"/>
       <c r="U499" s="42"/>
       <c r="V499" s="42"/>
@@ -46255,7 +46739,7 @@
       <c r="Z499" s="42"/>
       <c r="AA499" s="42"/>
     </row>
-    <row r="500" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T500" s="42"/>
       <c r="U500" s="42"/>
       <c r="V500" s="42"/>
@@ -46265,7 +46749,7 @@
       <c r="Z500" s="42"/>
       <c r="AA500" s="42"/>
     </row>
-    <row r="501" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="501" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T501" s="42"/>
       <c r="U501" s="42"/>
       <c r="V501" s="42"/>
@@ -46275,7 +46759,7 @@
       <c r="Z501" s="42"/>
       <c r="AA501" s="42"/>
     </row>
-    <row r="502" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T502" s="42"/>
       <c r="U502" s="42"/>
       <c r="V502" s="42"/>
@@ -46285,7 +46769,7 @@
       <c r="Z502" s="42"/>
       <c r="AA502" s="42"/>
     </row>
-    <row r="503" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="503" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T503" s="42"/>
       <c r="U503" s="42"/>
       <c r="V503" s="42"/>
@@ -46295,7 +46779,7 @@
       <c r="Z503" s="42"/>
       <c r="AA503" s="42"/>
     </row>
-    <row r="504" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="504" spans="20:27" x14ac:dyDescent="0.45">
       <c r="T504" s="42"/>
       <c r="U504" s="42"/>
       <c r="V504" s="42"/>
@@ -46321,14 +46805,14 @@
       <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:27" x14ac:dyDescent="0.45">
       <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
@@ -46360,7 +46844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -46393,4 +46877,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F4EC46-9CA1-4317-8133-0E2450F7641C}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B2:AN19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AO32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="L2" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="W2" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+    </row>
+    <row r="3" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+    </row>
+    <row r="4" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+    </row>
+    <row r="16" spans="2:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="AH16" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+    </row>
+    <row r="17" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+    </row>
+    <row r="18" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+    </row>
+    <row r="19" spans="2:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:H19"/>
+    <mergeCell ref="AH16:AN19"/>
+    <mergeCell ref="L2:S4"/>
+    <mergeCell ref="W2:AD4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>